--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="183">
   <si>
     <t>上海环境</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t xml:space="preserve">九月份苹果发布新品后，vr电子产品类会上涨（miniLED），基建（中字开头，尤其是有矿的），新能源金属（钴、电解铝、钛白粉）        环保目前在低点                                                            </t>
+  </si>
+  <si>
+    <t>燃气、芯片、军工、证券、光伏</t>
   </si>
   <si>
     <t>002847</t>
@@ -599,7 +602,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,6 +615,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -619,16 +623,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,22 +673,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,7 +717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +732,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,6 +754,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -763,13 +790,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,19 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,25 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,49 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,6 +945,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -960,32 +974,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,11 +1007,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,13 +1031,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,10 +1053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,34 +1065,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,88 +1110,88 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1647,10 +1650,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1864,6 +1867,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1888,10 +1896,10 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2733,7 +2741,7 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3260,8 +3268,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="酒" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
     <sheet name="食品" sheetId="12" r:id="rId12"/>
+    <sheet name="最近关注" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="184">
   <si>
     <t>上海环境</t>
   </si>
@@ -574,6 +575,9 @@
   </si>
   <si>
     <t>盐津铺子</t>
+  </si>
+  <si>
+    <t>江特电机，太钢不锈，银星能源，塔牌集团</t>
   </si>
 </sst>
 </file>
@@ -581,10 +585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -599,20 +603,6 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -630,16 +620,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +637,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,10 +665,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,16 +720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,7 +758,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,37 +818,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,19 +848,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,67 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,31 +926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,15 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1007,6 +1002,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1018,15 +1022,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,6 +1040,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1053,10 +1057,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,34 +1069,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,103 +1108,103 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1659,214 +1666,214 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
@@ -1895,7 +1902,7 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C2" t="s">
@@ -1903,6 +1910,364 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1935,7 +2300,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1974,7 +2339,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -1991,7 +2356,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -2052,7 +2417,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -2165,7 +2530,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -2185,7 +2550,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
@@ -2205,7 +2570,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
@@ -2230,7 +2595,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -2250,7 +2615,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
@@ -2330,7 +2695,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
@@ -2467,7 +2832,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
@@ -2548,7 +2913,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
@@ -2600,7 +2965,7 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
@@ -2763,7 +3128,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C2" t="s">
@@ -2823,7 +3188,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C5" t="s">
@@ -2886,7 +3251,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
@@ -2976,7 +3341,7 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C34" t="s">
@@ -3078,7 +3443,7 @@
       <c r="C40" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E40" t="s">
@@ -3154,7 +3519,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C4" t="s">
@@ -3241,7 +3606,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C13" t="s">
@@ -3268,7 +3633,7 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3334,7 +3699,7 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C10" t="s">
@@ -3379,7 +3744,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C21" t="s">

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
   <si>
     <t>上海环境</t>
   </si>
@@ -223,6 +223,27 @@
     <t>电子级氢氟酸</t>
   </si>
   <si>
+    <t>磷化工</t>
+  </si>
+  <si>
+    <t>兴发集团</t>
+  </si>
+  <si>
+    <t>目前地位</t>
+  </si>
+  <si>
+    <t>002895</t>
+  </si>
+  <si>
+    <t>川恒股份</t>
+  </si>
+  <si>
+    <t>000902</t>
+  </si>
+  <si>
+    <t>新洋丰</t>
+  </si>
+  <si>
     <t>光伏</t>
   </si>
   <si>
@@ -466,6 +487,30 @@
     <t>电控与工控传动智能设备、风电变流器、风电变桨系统、风电整机控制系统、无功补偿装置、光伏逆变控制系统、新能源并网技术相关控制产品、储能装备、大功率变频技术与大功率变频调速装置产品及其软件产品的技术开发、销售和技术维护(法律、行政法规、国务院决定禁止的项目除外,限制的项目须取得许可后方可经营)</t>
   </si>
   <si>
+    <t>充电桩</t>
+  </si>
+  <si>
+    <t>鹏辉能源</t>
+  </si>
+  <si>
+    <t>特锐德</t>
+  </si>
+  <si>
+    <t>储能</t>
+  </si>
+  <si>
+    <t>盛弘股份</t>
+  </si>
+  <si>
+    <t>储能充电桩</t>
+  </si>
+  <si>
+    <t>002335</t>
+  </si>
+  <si>
+    <t>科华数据</t>
+  </si>
+  <si>
     <t>券商</t>
   </si>
   <si>
@@ -577,7 +622,7 @@
     <t>盐津铺子</t>
   </si>
   <si>
-    <t>江特电机，太钢不锈，银星能源，塔牌集团</t>
+    <t>江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份</t>
   </si>
 </sst>
 </file>
@@ -585,10 +630,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -605,7 +650,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -620,15 +671,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,14 +695,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,14 +722,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,7 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,21 +781,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,12 +803,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -771,6 +810,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,13 +839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,25 +869,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,13 +911,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,37 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,37 +977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,17 +994,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -974,6 +1008,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,21 +1080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1040,15 +1094,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1057,10 +1102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,142 +1114,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1645,7 +1687,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1666,218 +1708,218 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1902,11 +1944,11 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
-        <v>181</v>
+      <c r="B2" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1962,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
@@ -1928,7 +1970,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2300,7 +2342,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -2339,7 +2381,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -2356,7 +2398,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -2417,7 +2459,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -2507,10 +2549,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2530,7 +2572,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -2550,7 +2592,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
@@ -2570,7 +2612,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
@@ -2595,7 +2637,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -2615,7 +2657,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
@@ -2695,7 +2737,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
@@ -2752,6 +2794,62 @@
       </c>
       <c r="G14">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>600141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18">
+        <v>308</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>66</v>
+      </c>
+      <c r="G19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2875,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2791,10 +2889,10 @@
         <v>600438</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -2808,7 +2906,7 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -2816,10 +2914,10 @@
         <v>601865</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -2832,14 +2930,14 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="4" t="s">
-        <v>71</v>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -2853,7 +2951,7 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2976,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2889,38 +2987,38 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="4" t="s">
-        <v>81</v>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -2934,20 +3032,20 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2961,18 +3059,18 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="4" t="s">
-        <v>89</v>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -3006,7 +3104,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3020,13 +3118,13 @@
         <v>601186</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>13360</v>
@@ -3040,13 +3138,13 @@
         <v>688425</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>234</v>
@@ -3060,13 +3158,13 @@
         <v>601800</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>14390</v>
@@ -3080,13 +3178,13 @@
         <v>601390</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>12970</v>
@@ -3104,10 +3202,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3118,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3128,17 +3226,17 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="4" t="s">
-        <v>103</v>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F2">
         <v>609</v>
@@ -3152,13 +3250,13 @@
         <v>600740</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>195</v>
@@ -3172,13 +3270,13 @@
         <v>601088</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>5993</v>
@@ -3188,17 +3286,17 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="4" t="s">
-        <v>111</v>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
         <v>113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>106</v>
       </c>
       <c r="F5">
         <v>367</v>
@@ -3209,7 +3307,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3217,13 +3315,13 @@
         <v>603393</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>95</v>
@@ -3242,26 +3340,26 @@
         <v>600917</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="4" t="s">
-        <v>119</v>
+      <c r="B15" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F15">
         <v>660</v>
@@ -3272,7 +3370,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -3280,13 +3378,13 @@
         <v>600021</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>1364</v>
@@ -3297,7 +3395,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -3305,13 +3403,13 @@
         <v>601016</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F32">
         <v>394</v>
@@ -3325,13 +3423,13 @@
         <v>600483</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F33">
         <v>398</v>
@@ -3341,17 +3439,17 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="4" t="s">
-        <v>130</v>
+      <c r="B34" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>1116</v>
@@ -3365,13 +3463,13 @@
         <v>601615</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F35">
         <v>562</v>
@@ -3382,18 +3480,18 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -3401,13 +3499,13 @@
         <v>600163</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F38">
         <v>101</v>
@@ -3421,13 +3519,13 @@
         <v>600905</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F39">
         <v>1851</v>
@@ -3441,19 +3539,100 @@
         <v>603063</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F40">
         <v>47</v>
       </c>
       <c r="G40">
         <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>300438</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45">
+        <v>76</v>
+      </c>
+      <c r="G45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>300001</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46">
+        <v>187</v>
+      </c>
+      <c r="G46">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
+        <v>300693</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>94</v>
+      </c>
+      <c r="G53">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3657,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3492,7 +3671,7 @@
         <v>600030</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F2">
         <v>11690</v>
@@ -3506,10 +3685,10 @@
         <v>300059</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F3">
         <v>1601</v>
@@ -3519,11 +3698,11 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="4" t="s">
-        <v>150</v>
+      <c r="B4" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F4">
         <v>5057</v>
@@ -3537,7 +3716,7 @@
         <v>601878</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F5">
         <v>1104</v>
@@ -3548,7 +3727,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -3556,13 +3735,13 @@
         <v>600926</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F10">
         <v>12870</v>
@@ -3576,10 +3755,10 @@
         <v>601166</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>81000</v>
@@ -3593,10 +3772,10 @@
         <v>601658</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>120000</v>
@@ -3606,14 +3785,14 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="4" t="s">
-        <v>158</v>
+      <c r="B13" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F13">
         <v>47000</v>
@@ -3644,7 +3823,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3658,13 +3837,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -3678,13 +3857,13 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -3695,21 +3874,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="4" t="s">
-        <v>166</v>
+      <c r="B10" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -3723,13 +3902,13 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>2311</v>
@@ -3740,21 +3919,21 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="4" t="s">
-        <v>172</v>
+      <c r="B21" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>129</v>
@@ -3765,7 +3944,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -3773,10 +3952,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="金融" sheetId="9" r:id="rId8"/>
     <sheet name="消费电子" sheetId="10" r:id="rId9"/>
     <sheet name="酒" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
-    <sheet name="食品" sheetId="12" r:id="rId12"/>
+    <sheet name="食品" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId12"/>
     <sheet name="最近关注" sheetId="13" r:id="rId13"/>
+    <sheet name="军工" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="217">
   <si>
     <t>上海环境</t>
   </si>
@@ -355,6 +356,9 @@
     <t>世界第三大建筑承包商，一带一路</t>
   </si>
   <si>
+    <t>种类</t>
+  </si>
+  <si>
     <t>煤</t>
   </si>
   <si>
@@ -496,12 +500,33 @@
     <t>特锐德</t>
   </si>
   <si>
+    <t>设备、运营龙头</t>
+  </si>
+  <si>
+    <t>朗新科技</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>盛弘股份</t>
+  </si>
+  <si>
+    <t>设备</t>
+  </si>
+  <si>
+    <t>通和科技</t>
+  </si>
+  <si>
+    <t>高澜股份</t>
+  </si>
+  <si>
+    <t>子公司运营充电桩</t>
+  </si>
+  <si>
     <t>储能</t>
   </si>
   <si>
-    <t>盛弘股份</t>
-  </si>
-  <si>
     <t>储能充电桩</t>
   </si>
   <si>
@@ -610,19 +635,49 @@
     <t>皇台酒业</t>
   </si>
   <si>
+    <t>002847</t>
+  </si>
+  <si>
+    <t>盐津铺子</t>
+  </si>
+  <si>
     <t xml:space="preserve">九月份苹果发布新品后，vr电子产品类会上涨（miniLED），基建（中字开头，尤其是有矿的），新能源金属（钴、电解铝、钛白粉）        环保目前在低点                                                            </t>
   </si>
   <si>
     <t>燃气、芯片、军工、证券、光伏</t>
   </si>
   <si>
-    <t>002847</t>
-  </si>
-  <si>
-    <t>盐津铺子</t>
-  </si>
-  <si>
     <t>江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>中航沈飞</t>
+  </si>
+  <si>
+    <t>中航西飞</t>
+  </si>
+  <si>
+    <t>中直股份</t>
+  </si>
+  <si>
+    <t>洪都航空</t>
+  </si>
+  <si>
+    <t>中航重机</t>
+  </si>
+  <si>
+    <t>机身锻造</t>
+  </si>
+  <si>
+    <t>000733</t>
+  </si>
+  <si>
+    <t>振华科技</t>
+  </si>
+  <si>
+    <t>电子元件龙头</t>
   </si>
 </sst>
 </file>
@@ -630,10 +685,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -648,6 +703,21 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -671,33 +741,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,7 +773,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +781,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -764,7 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -774,7 +828,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,13 +844,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,13 +858,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,13 +900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,13 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,25 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,13 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,13 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,31 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,6 +1049,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,30 +1078,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,16 +1126,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1102,10 +1157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,133 +1169,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1687,7 +1742,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +1752,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K17"/>
@@ -1709,7 +1789,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1919,7 +1999,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1928,31 +2008,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1970,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2310,6 +2365,135 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N21"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="6:7">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>600893</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3">
+        <v>906</v>
+      </c>
+      <c r="G3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>600760</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4">
+        <v>627</v>
+      </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>600768</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5">
+        <v>676</v>
+      </c>
+      <c r="G5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>600038</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6">
+        <v>264</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>600316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7">
+        <v>147</v>
+      </c>
+      <c r="G7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>600765</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10">
+        <v>195</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14">
+        <v>107</v>
+      </c>
+      <c r="G14">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2551,7 +2735,7 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3202,10 +3386,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3225,413 +3411,489 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>113</v>
       </c>
-      <c r="F2">
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3">
         <v>609</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3">
-        <v>600740</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3">
-        <v>195</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4">
+        <v>600740</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <v>195</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
         <v>601088</v>
       </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>117</v>
       </c>
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4">
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5">
         <v>5993</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="E5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5">
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6">
         <v>367</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
         <v>603393</v>
       </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="E9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9">
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
         <v>95</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10">
+    <row r="11" spans="2:2">
+      <c r="B11">
         <v>300483</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11">
+    <row r="12" spans="2:3">
+      <c r="B12">
         <v>600917</v>
       </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="C12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>129</v>
       </c>
-      <c r="F15">
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16">
         <v>660</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
         <v>600021</v>
       </c>
-      <c r="C21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
         <v>132</v>
       </c>
-      <c r="E21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21">
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22">
         <v>1364</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32">
-        <v>601016</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>134</v>
-      </c>
-      <c r="D32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32">
-        <v>394</v>
-      </c>
-      <c r="G32">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
+        <v>601016</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33">
+        <v>394</v>
+      </c>
+      <c r="G33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
         <v>600483</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="D33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33">
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34">
         <v>398</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
         <v>139</v>
       </c>
-      <c r="E34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34">
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35">
         <v>1116</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35">
+    <row r="36" spans="2:7">
+      <c r="B36">
         <v>601615</v>
       </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
         <v>141</v>
       </c>
-      <c r="E35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35">
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36">
         <v>562</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
         <v>144</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
-        <v>600163</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>146</v>
-      </c>
-      <c r="D38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38">
-        <v>101</v>
-      </c>
-      <c r="G38">
-        <v>22</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39">
-        <v>600905</v>
+        <v>600163</v>
       </c>
       <c r="C39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
         <v>148</v>
       </c>
-      <c r="D39" t="s">
-        <v>149</v>
-      </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F39">
-        <v>1851</v>
+        <v>101</v>
       </c>
       <c r="G39">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40">
+        <v>600905</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40">
+        <v>1851</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
         <v>603063</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40">
+      <c r="F41">
         <v>47</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45">
-        <v>300438</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>154</v>
-      </c>
-      <c r="E45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45">
-        <v>76</v>
-      </c>
-      <c r="G45">
-        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46">
-        <v>300001</v>
+        <v>300438</v>
       </c>
       <c r="C46" t="s">
         <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F46">
+        <v>76</v>
+      </c>
+      <c r="G46">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47">
+        <v>300001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47">
         <v>187</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52">
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>300682</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48">
+        <v>77</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49">
         <v>300693</v>
       </c>
-      <c r="C52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52">
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49">
         <v>14</v>
       </c>
-      <c r="G52">
-        <v>87</v>
+      <c r="G49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50">
+        <v>300491</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51">
+        <v>300499</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+      <c r="G51">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="3" t="s">
-        <v>159</v>
+      <c r="B53">
+        <v>300693</v>
       </c>
       <c r="C53" t="s">
         <v>160</v>
       </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="G53">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54">
         <v>94</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>49</v>
       </c>
     </row>
@@ -3657,7 +3919,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3671,7 +3933,7 @@
         <v>600030</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F2">
         <v>11690</v>
@@ -3685,10 +3947,10 @@
         <v>300059</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>1601</v>
@@ -3699,10 +3961,10 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F4">
         <v>5057</v>
@@ -3716,7 +3978,7 @@
         <v>601878</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F5">
         <v>1104</v>
@@ -3727,7 +3989,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -3735,13 +3997,13 @@
         <v>600926</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>12870</v>
@@ -3755,10 +4017,10 @@
         <v>601166</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11">
         <v>81000</v>
@@ -3772,10 +4034,10 @@
         <v>601658</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F12">
         <v>120000</v>
@@ -3786,13 +4048,13 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13">
         <v>47000</v>
@@ -3812,7 +4074,7 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3823,7 +4085,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3837,13 +4099,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -3857,13 +4119,13 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -3874,21 +4136,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -3902,13 +4164,13 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11">
         <v>2311</v>
@@ -3919,21 +4181,21 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21">
         <v>129</v>
@@ -3944,7 +4206,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -3952,10 +4214,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,30 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="6" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
     <sheet name="vr" sheetId="3" r:id="rId2"/>
     <sheet name="化工" sheetId="4" r:id="rId3"/>
-    <sheet name="光伏风能" sheetId="5" r:id="rId4"/>
-    <sheet name="锂电池" sheetId="6" r:id="rId5"/>
-    <sheet name="基建" sheetId="7" r:id="rId6"/>
-    <sheet name="能源" sheetId="8" r:id="rId7"/>
-    <sheet name="金融" sheetId="9" r:id="rId8"/>
-    <sheet name="消费电子" sheetId="10" r:id="rId9"/>
-    <sheet name="酒" sheetId="11" r:id="rId10"/>
-    <sheet name="食品" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId12"/>
-    <sheet name="最近关注" sheetId="13" r:id="rId13"/>
-    <sheet name="军工" sheetId="14" r:id="rId14"/>
+    <sheet name="锂电池" sheetId="6" r:id="rId4"/>
+    <sheet name="基建" sheetId="7" r:id="rId5"/>
+    <sheet name="能源" sheetId="8" r:id="rId6"/>
+    <sheet name="金融" sheetId="9" r:id="rId7"/>
+    <sheet name="消费电子" sheetId="10" r:id="rId8"/>
+    <sheet name="酒" sheetId="11" r:id="rId9"/>
+    <sheet name="食品" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
+    <sheet name="最近关注" sheetId="13" r:id="rId12"/>
+    <sheet name="军工" sheetId="14" r:id="rId13"/>
+    <sheet name="汽车" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="254">
   <si>
     <t>上海环境</t>
   </si>
@@ -245,6 +245,162 @@
     <t>新洋丰</t>
   </si>
   <si>
+    <t>锂矿</t>
+  </si>
+  <si>
+    <t>赣锋锂业</t>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+  </si>
+  <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>中盐化工</t>
+  </si>
+  <si>
+    <t>长远锂科</t>
+  </si>
+  <si>
+    <t>002171</t>
+  </si>
+  <si>
+    <t>楚江新材</t>
+  </si>
+  <si>
+    <t>铜钢、新材料，锂电池负极材料</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>藏格控股</t>
+  </si>
+  <si>
+    <t>西部矿业</t>
+  </si>
+  <si>
+    <t>铜铅锌铁、子公司有碳酸锂业务</t>
+  </si>
+  <si>
+    <t>钴</t>
+  </si>
+  <si>
+    <t>002340</t>
+  </si>
+  <si>
+    <t>格林美</t>
+  </si>
+  <si>
+    <t>废弃钴镍钨资源回收</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>中国铁建</t>
+  </si>
+  <si>
+    <t>铁路、公路、城市交通轨道</t>
+  </si>
+  <si>
+    <t>发力</t>
+  </si>
+  <si>
+    <t>铁建重工</t>
+  </si>
+  <si>
+    <t>重型机械，公路、铁路、隧道使用</t>
+  </si>
+  <si>
+    <t>中国交建</t>
+  </si>
+  <si>
+    <t>港口、航道、公路、桥梁</t>
+  </si>
+  <si>
+    <t>中国中铁</t>
+  </si>
+  <si>
+    <t>世界第三大建筑承包商，一带一路</t>
+  </si>
+  <si>
+    <t>种类</t>
+  </si>
+  <si>
+    <t>煤</t>
+  </si>
+  <si>
+    <t>000983</t>
+  </si>
+  <si>
+    <t>山西焦煤</t>
+  </si>
+  <si>
+    <t>煤炭焦炭</t>
+  </si>
+  <si>
+    <t>高位</t>
+  </si>
+  <si>
+    <t>山西焦化</t>
+  </si>
+  <si>
+    <t>焦炭，煤化工</t>
+  </si>
+  <si>
+    <t>中国神华</t>
+  </si>
+  <si>
+    <t>煤炭、煤化工、发电</t>
+  </si>
+  <si>
+    <t>002128</t>
+  </si>
+  <si>
+    <t>露天煤业</t>
+  </si>
+  <si>
+    <t>煤炭、电解铝、发电</t>
+  </si>
+  <si>
+    <t>天然气</t>
+  </si>
+  <si>
+    <t>新天然气</t>
+  </si>
+  <si>
+    <t>开采、输送、销售、入户安装</t>
+  </si>
+  <si>
+    <t>重庆燃气</t>
+  </si>
+  <si>
+    <t>太阳能</t>
+  </si>
+  <si>
+    <t>002129</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>半导体、光伏材料光伏电池、IGBT、HIT电池</t>
+  </si>
+  <si>
+    <t>低位</t>
+  </si>
+  <si>
+    <t>火电</t>
+  </si>
+  <si>
+    <t>上海电力</t>
+  </si>
+  <si>
+    <t>火力发电、风、太阳能</t>
+  </si>
+  <si>
     <t>光伏</t>
   </si>
   <si>
@@ -275,162 +431,6 @@
     <t>阳光电源</t>
   </si>
   <si>
-    <t>锂矿</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>天齐锂业</t>
-  </si>
-  <si>
-    <t>杉杉股份</t>
-  </si>
-  <si>
-    <t>中盐化工</t>
-  </si>
-  <si>
-    <t>长远锂科</t>
-  </si>
-  <si>
-    <t>002171</t>
-  </si>
-  <si>
-    <t>楚江新材</t>
-  </si>
-  <si>
-    <t>铜钢、新材料，锂电池负极材料</t>
-  </si>
-  <si>
-    <t>雅化集团</t>
-  </si>
-  <si>
-    <t>藏格控股</t>
-  </si>
-  <si>
-    <t>西部矿业</t>
-  </si>
-  <si>
-    <t>铜铅锌铁、子公司有碳酸锂业务</t>
-  </si>
-  <si>
-    <t>钴</t>
-  </si>
-  <si>
-    <t>002340</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>废弃钴镍钨资源回收</t>
-  </si>
-  <si>
-    <t>路</t>
-  </si>
-  <si>
-    <t>中国铁建</t>
-  </si>
-  <si>
-    <t>铁路、公路、城市交通轨道</t>
-  </si>
-  <si>
-    <t>发力</t>
-  </si>
-  <si>
-    <t>铁建重工</t>
-  </si>
-  <si>
-    <t>重型机械，公路、铁路、隧道使用</t>
-  </si>
-  <si>
-    <t>中国交建</t>
-  </si>
-  <si>
-    <t>港口、航道、公路、桥梁</t>
-  </si>
-  <si>
-    <t>中国中铁</t>
-  </si>
-  <si>
-    <t>世界第三大建筑承包商，一带一路</t>
-  </si>
-  <si>
-    <t>种类</t>
-  </si>
-  <si>
-    <t>煤</t>
-  </si>
-  <si>
-    <t>000983</t>
-  </si>
-  <si>
-    <t>山西焦煤</t>
-  </si>
-  <si>
-    <t>煤炭焦炭</t>
-  </si>
-  <si>
-    <t>高位</t>
-  </si>
-  <si>
-    <t>山西焦化</t>
-  </si>
-  <si>
-    <t>焦炭，煤化工</t>
-  </si>
-  <si>
-    <t>中国神华</t>
-  </si>
-  <si>
-    <t>煤炭、煤化工、发电</t>
-  </si>
-  <si>
-    <t>002128</t>
-  </si>
-  <si>
-    <t>露天煤业</t>
-  </si>
-  <si>
-    <t>煤炭、电解铝、发电</t>
-  </si>
-  <si>
-    <t>天然气</t>
-  </si>
-  <si>
-    <t>新天然气</t>
-  </si>
-  <si>
-    <t>开采、输送、销售、入户安装</t>
-  </si>
-  <si>
-    <t>重庆燃气</t>
-  </si>
-  <si>
-    <t>太阳能</t>
-  </si>
-  <si>
-    <t>002129</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>半导体、光伏材料光伏电池、IGBT、HIT电池</t>
-  </si>
-  <si>
-    <t>低位</t>
-  </si>
-  <si>
-    <t>电能</t>
-  </si>
-  <si>
-    <t>上海电力</t>
-  </si>
-  <si>
-    <t>火力发电、风、太阳能</t>
-  </si>
-  <si>
     <t>风能</t>
   </si>
   <si>
@@ -491,6 +491,21 @@
     <t>电控与工控传动智能设备、风电变流器、风电变桨系统、风电整机控制系统、无功补偿装置、光伏逆变控制系统、新能源并网技术相关控制产品、储能装备、大功率变频技术与大功率变频调速装置产品及其软件产品的技术开发、销售和技术维护(法律、行政法规、国务院决定禁止的项目除外,限制的项目须取得许可后方可经营)</t>
   </si>
   <si>
+    <t>002487</t>
+  </si>
+  <si>
+    <t>大金重工</t>
+  </si>
+  <si>
+    <t>风塔装备制造龙头</t>
+  </si>
+  <si>
+    <t>运达股份</t>
+  </si>
+  <si>
+    <t>发电机组设备研发</t>
+  </si>
+  <si>
     <t>充电桩</t>
   </si>
   <si>
@@ -536,6 +551,39 @@
     <t>科华数据</t>
   </si>
   <si>
+    <t>特高压</t>
+  </si>
+  <si>
+    <t>002028</t>
+  </si>
+  <si>
+    <t>思源电气</t>
+  </si>
+  <si>
+    <t>特高压，智能电网，充电桩，节能电机</t>
+  </si>
+  <si>
+    <t>000400</t>
+  </si>
+  <si>
+    <t>许继电气</t>
+  </si>
+  <si>
+    <t>特高压，智能电网，充电桩</t>
+  </si>
+  <si>
+    <t>国电南瑞</t>
+  </si>
+  <si>
+    <t>特高压（收购的子公司），智能电网，充电桩，光伏概念</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>特高压（变压器电缆，龙头），智能电网，风电，煤炭，碳纤维（导线）</t>
+  </si>
+  <si>
     <t>券商</t>
   </si>
   <si>
@@ -581,7 +629,7 @@
     <t>手机外壳</t>
   </si>
   <si>
-    <t>芙蓉科技</t>
+    <t>福蓉科技</t>
   </si>
   <si>
     <t>苹果概念、手机、平板、电脑、智能穿戴设备按键外壳</t>
@@ -647,7 +695,8 @@
     <t>燃气、芯片、军工、证券、光伏</t>
   </si>
   <si>
-    <t>江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份</t>
+    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，英博尔，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份
+</t>
   </si>
   <si>
     <t>航发动力</t>
@@ -678,6 +727,69 @@
   </si>
   <si>
     <t>电子元件龙头</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>002906</t>
+  </si>
+  <si>
+    <t>华阳集团</t>
+  </si>
+  <si>
+    <t>胎压、智能驾驶汽车电子，智能汽车，等汽车零部件，有出口业务</t>
+  </si>
+  <si>
+    <t>中科创达</t>
+  </si>
+  <si>
+    <t>海思、智能穿戴、智能电视、5G，无人驾驶，车联网、车载系统</t>
+  </si>
+  <si>
+    <t>均胜电子</t>
+  </si>
+  <si>
+    <t>特斯拉、无线充电、汽车电子、无人驾驶、机器人车联网</t>
+  </si>
+  <si>
+    <t>岱美股份</t>
+  </si>
+  <si>
+    <t>特斯拉、蔚来、小鹏，主要做汽车内饰（遮阳板），有出口业务</t>
+  </si>
+  <si>
+    <t>保隆科技</t>
+  </si>
+  <si>
+    <t>胎压、无人驾驶、汽车电子、传感器</t>
+  </si>
+  <si>
+    <t>星宇股份</t>
+  </si>
+  <si>
+    <t>无人驾驶汽车电子（主要是车灯），车联网</t>
+  </si>
+  <si>
+    <t>继峰股份</t>
+  </si>
+  <si>
+    <t>头枕</t>
+  </si>
+  <si>
+    <t>自动驾驶</t>
+  </si>
+  <si>
+    <t>002920</t>
+  </si>
+  <si>
+    <t>德赛西威</t>
+  </si>
+  <si>
+    <t>无人驾驶（驾驶控制系统，整体的驾驶技术整合），车联网</t>
+  </si>
+  <si>
+    <t>国学镜头龙头，无人驾驶镜头，超清视频，oled，芯片，虚拟实现，苹果，特斯拉</t>
   </si>
 </sst>
 </file>
@@ -685,9 +797,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -705,16 +817,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,29 +848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,6 +857,35 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,38 +900,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -836,20 +947,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,7 +970,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,79 +1102,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,91 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,42 +1170,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1108,11 +1194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,6 +1241,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1157,154 +1275,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1732,28 +1856,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="2" spans="3:3">
-      <c r="C2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1763,11 +1865,11 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="3" t="s">
-        <v>202</v>
+      <c r="B2" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K17"/>
@@ -1788,218 +1890,218 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N21"/>
@@ -2022,344 +2124,349 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="11" max="11" width="3.09090909090909" customWidth="1"/>
+    <col min="12" max="13" width="8.72727272727273" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.8181818181818" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2370,13 +2477,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2394,7 +2501,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -2408,7 +2515,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -2422,7 +2529,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -2436,7 +2543,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -2450,7 +2557,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -2464,10 +2571,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -2477,20 +2584,211 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="3" t="s">
-        <v>214</v>
+      <c r="B14" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F14">
         <v>107</v>
       </c>
       <c r="G14">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="28.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:7">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>300496</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>600699</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5">
+        <v>526</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>603730</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>603197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>601799</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8">
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>603997</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9">
+        <v>167</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12">
+        <v>84</v>
+      </c>
+      <c r="G12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15">
+        <v>124</v>
+      </c>
+      <c r="G15">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2824,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -2565,7 +2863,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -2582,7 +2880,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -2643,7 +2941,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -2756,7 +3054,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -2776,7 +3074,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
@@ -2796,7 +3094,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
@@ -2821,7 +3119,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -2841,7 +3139,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
@@ -2921,7 +3219,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
@@ -3003,7 +3301,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
@@ -3020,7 +3318,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
@@ -3043,108 +3341,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
-  <cols>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="14.8181818181818" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2">
-        <v>600438</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>795</v>
-      </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>601865</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <v>172</v>
-      </c>
-      <c r="G4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>466</v>
-      </c>
-      <c r="G5">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G16"/>
@@ -3160,7 +3356,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3171,38 +3367,38 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3" t="s">
-        <v>88</v>
+      <c r="B7" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -3216,20 +3412,20 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -3243,18 +3439,18 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3" t="s">
-        <v>96</v>
+      <c r="B16" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -3272,7 +3468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G5"/>
@@ -3288,7 +3484,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3302,13 +3498,13 @@
         <v>601186</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>13360</v>
@@ -3322,13 +3518,13 @@
         <v>688425</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>234</v>
@@ -3342,13 +3538,13 @@
         <v>601800</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>14390</v>
@@ -3362,13 +3558,13 @@
         <v>601390</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>12970</v>
@@ -3383,15 +3579,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3402,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3413,21 +3609,21 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
-        <v>111</v>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>609</v>
@@ -3441,13 +3637,13 @@
         <v>600740</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>195</v>
@@ -3461,13 +3657,13 @@
         <v>601088</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>5993</v>
@@ -3477,17 +3673,17 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
-        <v>119</v>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <v>367</v>
@@ -3498,7 +3694,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -3506,13 +3702,13 @@
         <v>603393</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F10">
         <v>95</v>
@@ -3531,26 +3727,26 @@
         <v>600917</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3" t="s">
-        <v>127</v>
+      <c r="B16" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F16">
         <v>660</v>
@@ -3561,7 +3757,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -3569,19 +3765,94 @@
         <v>600021</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F22">
         <v>1364</v>
       </c>
       <c r="G22">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
+        <v>600438</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>795</v>
+      </c>
+      <c r="G26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>601865</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>172</v>
+      </c>
+      <c r="G28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>466</v>
+      </c>
+      <c r="G29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3600,7 +3871,7 @@
         <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F33">
         <v>394</v>
@@ -3620,7 +3891,7 @@
         <v>136</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F34">
         <v>398</v>
@@ -3630,17 +3901,17 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D35" t="s">
         <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F35">
         <v>1116</v>
@@ -3653,14 +3924,14 @@
       <c r="B36">
         <v>601615</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D36" t="s">
         <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F36">
         <v>562</v>
@@ -3669,20 +3940,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>300850</v>
+      </c>
       <c r="C37" t="s">
         <v>143</v>
       </c>
       <c r="D37" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="3:4">
+      <c r="F37">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>300443</v>
+      </c>
       <c r="C38" t="s">
         <v>145</v>
       </c>
       <c r="D38" t="s">
         <v>146</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -3696,7 +3985,7 @@
         <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F39">
         <v>101</v>
@@ -3732,7 +4021,7 @@
       <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E41" t="s">
@@ -3745,9 +4034,46 @@
         <v>44</v>
       </c>
     </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42">
+        <v>65</v>
+      </c>
+      <c r="G42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>300772</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43">
+        <v>209</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+    </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -3755,10 +4081,10 @@
         <v>300438</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F46">
         <v>76</v>
@@ -3772,10 +4098,10 @@
         <v>300001</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
         <v>151</v>
@@ -3792,10 +4118,10 @@
         <v>300682</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F48">
         <v>77</v>
@@ -3809,10 +4135,10 @@
         <v>300693</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F49">
         <v>14</v>
@@ -3826,10 +4152,10 @@
         <v>300491</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -3843,10 +4169,10 @@
         <v>300499</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F51">
         <v>22</v>
@@ -3857,7 +4183,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -3865,13 +4191,13 @@
         <v>300693</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F53">
         <v>14</v>
@@ -3881,20 +4207,93 @@
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="3" t="s">
-        <v>167</v>
+      <c r="B54" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F54">
         <v>94</v>
       </c>
       <c r="G54">
         <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59">
+        <v>119</v>
+      </c>
+      <c r="G59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60">
+        <v>167</v>
+      </c>
+      <c r="G60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61">
+        <v>600406</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61">
+        <v>690</v>
+      </c>
+      <c r="G61">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62">
+        <v>600089</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62">
+        <v>1221</v>
+      </c>
+      <c r="G62">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +4302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G13"/>
@@ -3919,7 +4318,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3933,7 +4332,7 @@
         <v>600030</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="F2">
         <v>11690</v>
@@ -3947,10 +4346,10 @@
         <v>300059</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>1601</v>
@@ -3960,11 +4359,11 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
-        <v>173</v>
+      <c r="B4" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F4">
         <v>5057</v>
@@ -3978,7 +4377,7 @@
         <v>601878</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F5">
         <v>1104</v>
@@ -3989,7 +4388,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -3997,13 +4396,13 @@
         <v>600926</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>12870</v>
@@ -4017,10 +4416,10 @@
         <v>601166</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <v>81000</v>
@@ -4034,10 +4433,10 @@
         <v>601658</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F12">
         <v>120000</v>
@@ -4047,20 +4446,186 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3" t="s">
-        <v>181</v>
+      <c r="B13" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>47000</v>
       </c>
       <c r="G13">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="53.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2">
+        <v>603327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>603256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>356</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>601138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>2311</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21">
+        <v>129</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
+        <v>600584</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>359</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4072,161 +4637,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
-  <cols>
-    <col min="4" max="4" width="53.4545454545455" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2">
-        <v>603327</v>
-      </c>
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>603256</v>
-      </c>
-      <c r="C4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10">
-        <v>356</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
-        <v>601138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11">
-        <v>2311</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21">
-        <v>129</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31">
-        <v>600584</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>359</v>
-      </c>
-      <c r="G31">
-        <v>27</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" firstSheet="5" activeTab="13"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="358">
   <si>
     <t>上海环境</t>
   </si>
@@ -398,7 +398,7 @@
     <t>上海电力</t>
   </si>
   <si>
-    <t>火力发电、风、太阳能</t>
+    <t>火力发电、风能（海上）、太阳能，氢能</t>
   </si>
   <si>
     <t>光伏</t>
@@ -431,6 +431,27 @@
     <t>阳光电源</t>
   </si>
   <si>
+    <t>光伏逆变器、风能变流器、充电桩</t>
+  </si>
+  <si>
+    <t>天合光能</t>
+  </si>
+  <si>
+    <t>光伏组件、HIT电池、光伏建筑一体化、太阳能电站、锂电池、储能</t>
+  </si>
+  <si>
+    <t>林洋能源</t>
+  </si>
+  <si>
+    <t>主业光伏，光伏电站、电池、锂电池、智能电网、储能、氢能已布局</t>
+  </si>
+  <si>
+    <t>晶科科技</t>
+  </si>
+  <si>
+    <t>光伏电站建设运营、光伏建筑一体化（摸索）、储能、与国外巨头合作制氢</t>
+  </si>
+  <si>
     <t>风能</t>
   </si>
   <si>
@@ -582,6 +603,249 @@
   </si>
   <si>
     <t>特高压（变压器电缆，龙头），智能电网，风电，煤炭，碳纤维（导线）</t>
+  </si>
+  <si>
+    <t>氢能源</t>
+  </si>
+  <si>
+    <t>000338</t>
+  </si>
+  <si>
+    <t>潍柴动力</t>
+  </si>
+  <si>
+    <t>氢燃料电池（加拿大龙头氢研发公司大股东），天然气重卡发动机</t>
+  </si>
+  <si>
+    <t>002249</t>
+  </si>
+  <si>
+    <t>大洋电机</t>
+  </si>
+  <si>
+    <t>氢燃料电池（加拿大龙头氢研发公司股东），加氢站，稀土永磁，充电桩，节能电机</t>
+  </si>
+  <si>
+    <t>亿华通</t>
+  </si>
+  <si>
+    <t>氢燃料电池（与丰田合作），加氢站</t>
+  </si>
+  <si>
+    <t>亏损</t>
+  </si>
+  <si>
+    <t>002639</t>
+  </si>
+  <si>
+    <t>雪人股份</t>
+  </si>
+  <si>
+    <t>氢气压缩机、冷链制冰设备与系统</t>
+  </si>
+  <si>
+    <t>京城股份</t>
+  </si>
+  <si>
+    <t>高压储氢瓶，用于燃料电池、高压天然气罐，加气站</t>
+  </si>
+  <si>
+    <t>镇海股份</t>
+  </si>
+  <si>
+    <t>环保，柴油汽油加氢，尾气处理</t>
+  </si>
+  <si>
+    <t>致远新能</t>
+  </si>
+  <si>
+    <t>液氢供气系统、储存罐、车载天然气供气系统</t>
+  </si>
+  <si>
+    <t>002427</t>
+  </si>
+  <si>
+    <t>st尤夫</t>
+  </si>
+  <si>
+    <t>制氢、压缩、氢燃料电池、锂电池</t>
+  </si>
+  <si>
+    <t>000723</t>
+  </si>
+  <si>
+    <t>美锦能源</t>
+  </si>
+  <si>
+    <t>布局了制氢、加氢站、膜电极、电堆、整车全产业链、使用国外专利、容易被限、电容</t>
+  </si>
+  <si>
+    <t>中泰股份</t>
+  </si>
+  <si>
+    <t>深冷装备龙头、制氢、储氢、加氢站全产业链、天然气液化设备龙头、煤化工、节能环保</t>
+  </si>
+  <si>
+    <t>002080</t>
+  </si>
+  <si>
+    <t>中材科技</t>
+  </si>
+  <si>
+    <t>锂电池、风电、燃料电池储氢瓶、玻璃纤维</t>
+  </si>
+  <si>
+    <t>低点关注</t>
+  </si>
+  <si>
+    <t>002733</t>
+  </si>
+  <si>
+    <t>雄韬股份</t>
+  </si>
+  <si>
+    <t>加氢站、膜电极、电堆、整车全产业链，锂电池、燃料电池储能、电池回收</t>
+  </si>
+  <si>
+    <t>宝丰能源</t>
+  </si>
+  <si>
+    <t>光伏电解水制氢、煤炭煤化工</t>
+  </si>
+  <si>
+    <t>嘉化能源</t>
+  </si>
+  <si>
+    <t>主业化工，光伏电站、设备销售、长三角地区加氢站建设运营、煤化工</t>
+  </si>
+  <si>
+    <t>中国能建</t>
+  </si>
+  <si>
+    <t>氢能源全产业链，水泥、公路电力等建设</t>
+  </si>
+  <si>
+    <t>000581</t>
+  </si>
+  <si>
+    <t>威孚高科</t>
+  </si>
+  <si>
+    <t>氢燃料电池（收购丹麦IRD），节能环保、尾气治理</t>
+  </si>
+  <si>
+    <t>福瑞特装</t>
+  </si>
+  <si>
+    <t>氢电池供氢系统、加氢站、页岩气、天然气运输</t>
+  </si>
+  <si>
+    <t>德固特</t>
+  </si>
+  <si>
+    <t>制氢储氢设备制造、节能环保、碳中和</t>
+  </si>
+  <si>
+    <t>厚普股份</t>
+  </si>
+  <si>
+    <t>氢燃料电池、首家箱式加氢站解决方案供应商、天然气、加气站</t>
+  </si>
+  <si>
+    <t>昊华科技</t>
+  </si>
+  <si>
+    <t>氢催化剂、氟化工、煤层气、页岩气、中芯概念、国产航母</t>
+  </si>
+  <si>
+    <t>道式技术</t>
+  </si>
+  <si>
+    <t>膜电极、锂电池、钴、石墨烯、锂矿、正极材料</t>
+  </si>
+  <si>
+    <t>002971</t>
+  </si>
+  <si>
+    <t>和远气体</t>
+  </si>
+  <si>
+    <t>天然气、尾气回收氢、尾气回收、节能减排</t>
+  </si>
+  <si>
+    <t>昇辉科技</t>
+  </si>
+  <si>
+    <t>主业电气，智能家居、智能电网、节能照明、氢生产、氢燃料电池</t>
+  </si>
+  <si>
+    <t>氟化工、锂电池、环氧丙烷、煤化工、液氯、与亿华通合资制氢</t>
+  </si>
+  <si>
+    <t>002221</t>
+  </si>
+  <si>
+    <t>东华能源</t>
+  </si>
+  <si>
+    <t>主页石油炼化、页岩气、油品升级、西气东输、石化制氢、加氢站</t>
+  </si>
+  <si>
+    <t>002002</t>
+  </si>
+  <si>
+    <t>鸿达兴业</t>
+  </si>
+  <si>
+    <t>稀土永磁、ppp、氢能源（生产、运输、销售）</t>
+  </si>
+  <si>
+    <t>科威尔</t>
+  </si>
+  <si>
+    <t>电堆系统测试</t>
+  </si>
+  <si>
+    <t>002549</t>
+  </si>
+  <si>
+    <t>凯美特气</t>
+  </si>
+  <si>
+    <t>冷链物流、碳中和（尾气回收co2），制氢、加气站</t>
+  </si>
+  <si>
+    <t>东方电气</t>
+  </si>
+  <si>
+    <t>加氢站，海上风电、核电、新能源汽车</t>
+  </si>
+  <si>
+    <t>亿利节能</t>
+  </si>
+  <si>
+    <t>节能环保、氢能源、充电桩、光伏、风沙治理</t>
+  </si>
+  <si>
+    <t>002911</t>
+  </si>
+  <si>
+    <t>佛然能源</t>
+  </si>
+  <si>
+    <t>氢能源制造储存运输，天然气、充电桩</t>
+  </si>
+  <si>
+    <t>贵研铂业</t>
+  </si>
+  <si>
+    <t>氢燃料电池催化剂，贵金属，新材料，固废处理</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>光伏制氢、光伏</t>
   </si>
   <si>
     <t>券商</t>
@@ -777,6 +1041,18 @@
     <t>头枕</t>
   </si>
   <si>
+    <t>立中集团</t>
+  </si>
+  <si>
+    <t>汽车轮毂（有出口）、锂电池、稀土永磁</t>
+  </si>
+  <si>
+    <t>雪龙集团</t>
+  </si>
+  <si>
+    <t>发动机风扇总成、离合器风扇总成、农机、节能环保、军工</t>
+  </si>
+  <si>
     <t>自动驾驶</t>
   </si>
   <si>
@@ -790,6 +1066,42 @@
   </si>
   <si>
     <t>国学镜头龙头，无人驾驶镜头，超清视频，oled，芯片，虚拟实现，苹果，特斯拉</t>
+  </si>
+  <si>
+    <t>越博动力</t>
+  </si>
+  <si>
+    <t>新能源汽车动力总成、电机、无人驾驶系统、雷达、氢燃料电池、</t>
+  </si>
+  <si>
+    <t>黑匣子EDR</t>
+  </si>
+  <si>
+    <t>002232</t>
+  </si>
+  <si>
+    <t>启明信息</t>
+  </si>
+  <si>
+    <t>黑匣子EDR、胎压监测、无人驾驶、汽车电子、车联网</t>
+  </si>
+  <si>
+    <t>002055</t>
+  </si>
+  <si>
+    <t>得润电子</t>
+  </si>
+  <si>
+    <t>黑匣子EDR、无线充电、汽车电子</t>
+  </si>
+  <si>
+    <t>全志科技</t>
+  </si>
+  <si>
+    <t>黑匣子EDR、中芯概念、智能音箱、汽车电子（智能后视镜）、虚拟实现（专用芯片）</t>
+  </si>
+  <si>
+    <t>低位关注</t>
   </si>
 </sst>
 </file>
@@ -797,9 +1109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -817,19 +1129,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,37 +1144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +1158,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,7 +1188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -908,14 +1204,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -930,13 +1249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -947,7 +1259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,138 +1288,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1120,7 +1300,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1420,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,30 +1479,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1211,9 +1499,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,6 +1513,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,17 +1561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1275,10 +1587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,133 +1599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1830,7 +2142,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1859,17 +2171,17 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1884,14 +2196,14 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2101,7 +2413,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2432,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N21"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2132,7 +2444,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2483,7 +2795,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2501,7 +2813,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -2515,7 +2827,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -2529,7 +2841,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -2543,7 +2855,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -2557,7 +2869,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -2571,10 +2883,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -2585,13 +2897,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -2609,15 +2921,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="28.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="52.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:7">
@@ -2630,18 +2944,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -2655,10 +2969,10 @@
         <v>300496</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -2672,10 +2986,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -2689,10 +3003,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -2706,10 +3020,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -2723,10 +3037,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -2740,10 +3054,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -2752,43 +3066,153 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12">
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>300428</v>
+      </c>
+      <c r="C10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10">
+        <v>133</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>603949</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17">
         <v>84</v>
       </c>
-      <c r="G12">
+      <c r="G17">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="5" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15">
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20">
         <v>124</v>
       </c>
-      <c r="G15">
+      <c r="G20">
         <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>300742</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" t="s">
+        <v>354</v>
+      </c>
+      <c r="F28">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29">
+        <v>300458</v>
+      </c>
+      <c r="C29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +3227,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3034,7 +3458,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3346,7 +3770,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3474,7 +3898,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -3582,12 +4006,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3850,450 +4274,1073 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>300274</v>
+      </c>
       <c r="C30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="D30" t="s">
         <v>134</v>
+      </c>
+      <c r="F30">
+        <v>376</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
+        <v>688599</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31">
+        <v>618</v>
+      </c>
+      <c r="G31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>601222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32">
+        <v>205</v>
+      </c>
+      <c r="G32">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
-        <v>601016</v>
+        <v>601778</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="F33">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="G33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34">
-        <v>600483</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34">
-        <v>398</v>
-      </c>
-      <c r="G34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35">
-        <v>1116</v>
-      </c>
-      <c r="G35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36">
-        <v>601615</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>141</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36">
-        <v>562</v>
-      </c>
-      <c r="G36">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37">
-        <v>300850</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37">
-        <v>56</v>
-      </c>
-      <c r="G37">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
-        <v>300443</v>
+        <v>601016</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
       </c>
       <c r="F38">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39">
-        <v>600163</v>
+        <v>600483</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
         <v>104</v>
       </c>
       <c r="F39">
-        <v>101</v>
+        <v>398</v>
       </c>
       <c r="G39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40">
+        <v>1116</v>
+      </c>
+      <c r="G40">
         <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40">
-        <v>600905</v>
-      </c>
-      <c r="C40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
-      <c r="F40">
-        <v>1851</v>
-      </c>
-      <c r="G40">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41">
-        <v>603063</v>
-      </c>
-      <c r="C41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>153</v>
+        <v>601615</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>149</v>
       </c>
       <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41">
+        <v>562</v>
+      </c>
+      <c r="G41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>300850</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
         <v>151</v>
       </c>
-      <c r="F41">
-        <v>47</v>
-      </c>
-      <c r="G41">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
       <c r="F42">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G42">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43">
-        <v>300772</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>300443</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44">
+        <v>600163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44">
+        <v>101</v>
+      </c>
+      <c r="G44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>600905</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
         <v>157</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E45" t="s">
         <v>158</v>
       </c>
-      <c r="F43">
-        <v>209</v>
-      </c>
-      <c r="G43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>159</v>
+      <c r="F45">
+        <v>1851</v>
+      </c>
+      <c r="G45">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46">
-        <v>300438</v>
+        <v>603063</v>
       </c>
       <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46">
+        <v>47</v>
+      </c>
+      <c r="G46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
         <v>104</v>
       </c>
-      <c r="F46">
-        <v>76</v>
-      </c>
-      <c r="G46">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47">
-        <v>300001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" t="s">
-        <v>151</v>
-      </c>
       <c r="F47">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="G47">
-        <v>224</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48">
-        <v>300682</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
+        <v>300772</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F48">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="G48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49">
-        <v>300693</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>166</v>
-      </c>
-      <c r="F49">
-        <v>14</v>
-      </c>
-      <c r="G49">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50">
-        <v>300491</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>91</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51">
-        <v>300499</v>
+        <v>300438</v>
       </c>
       <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51">
+        <v>76</v>
+      </c>
+      <c r="G51">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
+        <v>300001</v>
+      </c>
+      <c r="C52" t="s">
         <v>168</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>169</v>
       </c>
-      <c r="F51">
-        <v>22</v>
-      </c>
-      <c r="G51">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>170</v>
+      <c r="E52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52">
+        <v>187</v>
+      </c>
+      <c r="G52">
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53">
-        <v>300693</v>
+        <v>300682</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
         <v>171</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53">
+        <v>77</v>
+      </c>
+      <c r="G53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54">
+        <v>300693</v>
+      </c>
+      <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55">
+        <v>300491</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56">
+        <v>300499</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58">
+        <v>300693</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
         <v>104</v>
       </c>
-      <c r="F53">
+      <c r="F58">
         <v>14</v>
       </c>
-      <c r="G53">
+      <c r="G58">
         <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54">
-        <v>94</v>
-      </c>
-      <c r="G54">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
       </c>
       <c r="F59">
+        <v>94</v>
+      </c>
+      <c r="G59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64">
         <v>119</v>
       </c>
-      <c r="G59">
+      <c r="G64">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" t="s">
-        <v>180</v>
-      </c>
-      <c r="F60">
+    <row r="65" spans="2:7">
+      <c r="B65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65">
         <v>167</v>
       </c>
-      <c r="G60">
+      <c r="G65">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
-      <c r="B61">
+    <row r="66" spans="2:7">
+      <c r="B66">
         <v>600406</v>
       </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61">
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66">
         <v>690</v>
       </c>
-      <c r="G61">
+      <c r="G66">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
-      <c r="B62">
+    <row r="67" spans="2:7">
+      <c r="B67">
         <v>600089</v>
       </c>
-      <c r="C62" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" t="s">
-        <v>184</v>
-      </c>
-      <c r="F62">
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67">
         <v>1221</v>
       </c>
-      <c r="G62">
+      <c r="G67">
         <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71">
+        <v>2933</v>
+      </c>
+      <c r="G71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" t="s">
+        <v>198</v>
+      </c>
+      <c r="F72">
+        <v>147</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73">
+        <v>688399</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75">
+        <v>600860</v>
+      </c>
+      <c r="C75" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
+        <v>603637</v>
+      </c>
+      <c r="C76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77">
+        <v>300985</v>
+      </c>
+      <c r="C77" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78">
+        <v>54</v>
+      </c>
+      <c r="G78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79">
+        <v>278</v>
+      </c>
+      <c r="G79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80">
+        <v>300435</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80">
+        <v>40</v>
+      </c>
+      <c r="G80">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81">
+        <v>375</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" t="s">
+        <v>225</v>
+      </c>
+      <c r="F82">
+        <v>56</v>
+      </c>
+      <c r="G82">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83">
+        <v>600989</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F83">
+        <v>425</v>
+      </c>
+      <c r="G83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84">
+        <v>600273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" t="s">
+        <v>229</v>
+      </c>
+      <c r="F84">
+        <v>110</v>
+      </c>
+      <c r="G84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
+        <v>601868</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85">
+        <v>5097</v>
+      </c>
+      <c r="G85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>234</v>
+      </c>
+      <c r="F86">
+        <v>280</v>
+      </c>
+      <c r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87">
+        <v>300228</v>
+      </c>
+      <c r="C87" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>236</v>
+      </c>
+      <c r="F87">
+        <v>36</v>
+      </c>
+      <c r="G87">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88">
+        <v>300950</v>
+      </c>
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>238</v>
+      </c>
+      <c r="F88">
+        <v>7.5</v>
+      </c>
+      <c r="G88">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89">
+        <v>300471</v>
+      </c>
+      <c r="C89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94">
+        <v>600378</v>
+      </c>
+      <c r="C94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" t="s">
+        <v>242</v>
+      </c>
+      <c r="F94">
+        <v>112</v>
+      </c>
+      <c r="G94">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95">
+        <v>300409</v>
+      </c>
+      <c r="C95" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F95">
+        <v>71</v>
+      </c>
+      <c r="G95">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" t="s">
+        <v>247</v>
+      </c>
+      <c r="F96">
+        <v>22</v>
+      </c>
+      <c r="G96">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97">
+        <v>300423</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" t="s">
+        <v>249</v>
+      </c>
+      <c r="F97">
+        <v>78</v>
+      </c>
+      <c r="G97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98">
+        <v>601678</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98">
+        <v>166</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s">
+        <v>252</v>
+      </c>
+      <c r="D99" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99">
+        <v>325</v>
+      </c>
+      <c r="G99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" t="s">
+        <v>256</v>
+      </c>
+      <c r="F100">
+        <v>186</v>
+      </c>
+      <c r="G100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102">
+        <v>688551</v>
+      </c>
+      <c r="C102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" t="s">
+        <v>261</v>
+      </c>
+      <c r="F110">
+        <v>16</v>
+      </c>
+      <c r="G110">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111">
+        <v>600875</v>
+      </c>
+      <c r="C111" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" t="s">
+        <v>263</v>
+      </c>
+      <c r="F111">
+        <v>1028</v>
+      </c>
+      <c r="G111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112">
+        <v>600277</v>
+      </c>
+      <c r="C112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" t="s">
+        <v>265</v>
+      </c>
+      <c r="F112">
+        <v>344</v>
+      </c>
+      <c r="G112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
+        <v>267</v>
+      </c>
+      <c r="D113" t="s">
+        <v>268</v>
+      </c>
+      <c r="F113">
+        <v>133</v>
+      </c>
+      <c r="G113">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114">
+        <v>600459</v>
+      </c>
+      <c r="C114" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114">
+        <v>115</v>
+      </c>
+      <c r="G114">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115">
+        <v>601012</v>
+      </c>
+      <c r="C115" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" t="s">
+        <v>272</v>
+      </c>
+      <c r="F115">
+        <v>1037</v>
+      </c>
+      <c r="G115">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +5355,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4318,7 +5365,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4332,7 +5379,7 @@
         <v>600030</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="F2">
         <v>11690</v>
@@ -4346,10 +5393,10 @@
         <v>300059</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="F3">
         <v>1601</v>
@@ -4360,10 +5407,10 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="F4">
         <v>5057</v>
@@ -4377,7 +5424,7 @@
         <v>601878</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="F5">
         <v>1104</v>
@@ -4388,7 +5435,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -4396,10 +5443,10 @@
         <v>600926</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
         <v>120</v>
@@ -4416,7 +5463,7 @@
         <v>601166</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
         <v>120</v>
@@ -4433,7 +5480,7 @@
         <v>601658</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
         <v>120</v>
@@ -4447,10 +5494,10 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="5" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="E13" t="s">
         <v>120</v>
@@ -4474,7 +5521,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4484,7 +5531,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4498,13 +5545,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -4518,10 +5565,10 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
         <v>120</v>
@@ -4535,21 +5582,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -4563,10 +5610,10 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="E11" t="s">
         <v>120</v>
@@ -4580,18 +5627,18 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
         <v>120</v>
@@ -4605,7 +5652,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -4613,10 +5660,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -4640,14 +5687,14 @@
   <dimension ref="C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="382">
   <si>
     <t>上海环境</t>
   </si>
@@ -284,6 +284,9 @@
     <t>铜铅锌铁、子公司有碳酸锂业务</t>
   </si>
   <si>
+    <t>002192</t>
+  </si>
+  <si>
     <t>钴</t>
   </si>
   <si>
@@ -296,6 +299,18 @@
     <t>废弃钴镍钨资源回收</t>
   </si>
   <si>
+    <t>稀土永磁</t>
+  </si>
+  <si>
+    <t>五矿</t>
+  </si>
+  <si>
+    <t>横店</t>
+  </si>
+  <si>
+    <t>广晟</t>
+  </si>
+  <si>
     <t>路</t>
   </si>
   <si>
@@ -452,6 +467,21 @@
     <t>光伏电站建设运营、光伏建筑一体化（摸索）、储能、与国外巨头合作制氢</t>
   </si>
   <si>
+    <t>汉嘉设计</t>
+  </si>
+  <si>
+    <t>光伏建筑一体化、垃圾分类、天然气装配式建筑</t>
+  </si>
+  <si>
+    <t>002135</t>
+  </si>
+  <si>
+    <t>东南网架</t>
+  </si>
+  <si>
+    <t>光伏建筑一体化、亚运会、装配式建筑、一带一路</t>
+  </si>
+  <si>
     <t>风能</t>
   </si>
   <si>
@@ -605,6 +635,12 @@
     <t>特高压（变压器电缆，龙头），智能电网，风电，煤炭，碳纤维（导线）</t>
   </si>
   <si>
+    <t>派瑞股份</t>
+  </si>
+  <si>
+    <t>特高压、第三代半导体，芯片概念、IGBT</t>
+  </si>
+  <si>
     <t>氢能源</t>
   </si>
   <si>
@@ -725,6 +761,18 @@
     <t>氢能源全产业链，水泥、公路电力等建设</t>
   </si>
   <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>光伏主要是硅片、光伏制氢</t>
+  </si>
+  <si>
+    <t>瀚蓝环境</t>
+  </si>
+  <si>
+    <t>固废处理、节能环保、污水处理、加氢站运营</t>
+  </si>
+  <si>
     <t>000581</t>
   </si>
   <si>
@@ -752,6 +800,12 @@
     <t>氢燃料电池、首家箱式加氢站解决方案供应商、天然气、加气站</t>
   </si>
   <si>
+    <t>深冷股份</t>
+  </si>
+  <si>
+    <t>制取、储存、运输、氢燃料电池、天然气、加气站</t>
+  </si>
+  <si>
     <t>昊华科技</t>
   </si>
   <si>
@@ -800,6 +854,12 @@
     <t>稀土永磁、ppp、氢能源（生产、运输、销售）</t>
   </si>
   <si>
+    <t>新奥股份</t>
+  </si>
+  <si>
+    <t>天然气、天然气制氢、、甲醇、油气开采</t>
+  </si>
+  <si>
     <t>科威尔</t>
   </si>
   <si>
@@ -842,9 +902,6 @@
     <t>氢燃料电池催化剂，贵金属，新材料，固废处理</t>
   </si>
   <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
     <t>光伏制氢、光伏</t>
   </si>
   <si>
@@ -959,10 +1016,13 @@
     <t>燃气、芯片、军工、证券、光伏</t>
   </si>
   <si>
-    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，英博尔，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份
+    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，英博尔，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份，301108、300268、301198、康平科技、九强生物、科森科技、曼卡龙、朗特智能、鼎盛新材、雄韬股份、
 </t>
   </si>
   <si>
+    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉</t>
+  </si>
+  <si>
     <t>航发动力</t>
   </si>
   <si>
@@ -1102,6 +1162,18 @@
   </si>
   <si>
     <t>低位关注</t>
+  </si>
+  <si>
+    <t>002970</t>
+  </si>
+  <si>
+    <t>锐明技术</t>
+  </si>
+  <si>
+    <t>美亚柏科</t>
+  </si>
+  <si>
+    <t>光弘科技</t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1201,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,21 +1224,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,29 +1273,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1259,15 +1325,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,25 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1414,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,7 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,85 +1480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,6 +1493,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,15 +1576,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,6 +1642,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1587,10 +1659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1599,31 +1671,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,106 +1710,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2142,7 +2217,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2171,17 +2246,17 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="5" t="s">
-        <v>306</v>
+      <c r="B2" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2196,14 +2271,14 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2413,7 +2488,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2429,10 +2504,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2442,9 +2517,9 @@
     <col min="14" max="14" width="20.8181818181818" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2459,8 +2534,17 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2475,8 +2559,15 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2491,8 +2582,15 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2507,8 +2605,15 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2523,8 +2628,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2539,8 +2651,15 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2555,8 +2674,15 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2571,8 +2697,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2587,8 +2720,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2603,8 +2743,15 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2619,8 +2766,15 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2635,8 +2789,15 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2651,8 +2812,15 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2667,8 +2835,15 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2683,8 +2858,15 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2699,8 +2881,15 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2715,8 +2904,15 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2731,8 +2927,15 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2747,8 +2950,15 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2763,8 +2973,15 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2779,10 +2996,27 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="16:22">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:N21"/>
+    <mergeCell ref="P1:V22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2795,7 +3029,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2813,7 +3047,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -2827,7 +3061,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -2841,7 +3075,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -2855,7 +3089,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -2869,7 +3103,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -2883,10 +3117,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -2896,14 +3130,14 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="5" t="s">
-        <v>318</v>
+      <c r="B14" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -2921,15 +3155,15 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="52.1818181818182" customWidth="1"/>
   </cols>
@@ -2944,18 +3178,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="5" t="s">
-        <v>322</v>
+      <c r="B3" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -2969,10 +3203,10 @@
         <v>300496</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -2986,10 +3220,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -3003,10 +3237,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -3020,10 +3254,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -3037,10 +3271,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -3054,10 +3288,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -3071,10 +3305,10 @@
         <v>300428</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F10">
         <v>133</v>
@@ -3088,10 +3322,10 @@
         <v>603949</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -3102,18 +3336,18 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="5" t="s">
-        <v>342</v>
+      <c r="B17" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -3123,14 +3357,14 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -3144,10 +3378,10 @@
         <v>300742</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -3158,18 +3392,18 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="5" t="s">
-        <v>349</v>
+      <c r="B27" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -3179,40 +3413,85 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="5" t="s">
-        <v>352</v>
+      <c r="B28" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="C28" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="F28">
         <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>300458</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="E29" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F29">
         <v>32</v>
       </c>
       <c r="G29">
         <v>60</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <v>300188</v>
+      </c>
+      <c r="C31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>300735</v>
+      </c>
+      <c r="C32" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3506,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3248,7 +3527,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -3287,7 +3566,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -3304,7 +3583,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -3365,7 +3644,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -3458,7 +3737,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3478,7 +3757,7 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -3498,7 +3777,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
@@ -3518,7 +3797,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C4" t="s">
@@ -3543,7 +3822,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -3563,7 +3842,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
@@ -3643,7 +3922,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C12" t="s">
@@ -3725,7 +4004,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
@@ -3742,7 +4021,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
@@ -3767,10 +4046,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3815,7 +4094,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -3861,20 +4140,25 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="5" t="s">
-        <v>86</v>
+      <c r="B16" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -3884,6 +4168,26 @@
       </c>
       <c r="G16">
         <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3898,7 +4202,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -3908,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3922,13 +4226,13 @@
         <v>601186</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F2">
         <v>13360</v>
@@ -3942,13 +4246,13 @@
         <v>688425</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F3">
         <v>234</v>
@@ -3962,13 +4266,13 @@
         <v>601800</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>14390</v>
@@ -3982,13 +4286,13 @@
         <v>601390</v>
       </c>
       <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
       </c>
       <c r="F5">
         <v>12970</v>
@@ -4006,15 +4310,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="14.9090909090909" customWidth="1"/>
     <col min="4" max="4" width="40.1818181818182" customWidth="1"/>
@@ -4022,7 +4326,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4033,21 +4337,21 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="5" t="s">
-        <v>101</v>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>609</v>
@@ -4061,13 +4365,13 @@
         <v>600740</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>195</v>
@@ -4081,13 +4385,13 @@
         <v>601088</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>5993</v>
@@ -4097,17 +4401,17 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>104</v>
       </c>
       <c r="F6">
         <v>367</v>
@@ -4118,7 +4422,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -4126,13 +4430,13 @@
         <v>603393</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F10">
         <v>95</v>
@@ -4151,26 +4455,26 @@
         <v>600917</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="5" t="s">
-        <v>117</v>
+      <c r="B16" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>660</v>
@@ -4181,7 +4485,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -4189,13 +4493,13 @@
         <v>600021</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F22">
         <v>1364</v>
@@ -4206,7 +4510,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -4214,10 +4518,10 @@
         <v>600438</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -4231,7 +4535,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -4239,10 +4543,10 @@
         <v>601865</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -4256,13 +4560,13 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -4279,10 +4583,10 @@
         <v>300274</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F30">
         <v>376</v>
@@ -4296,10 +4600,10 @@
         <v>688599</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F31">
         <v>618</v>
@@ -4313,10 +4617,10 @@
         <v>601222</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F32">
         <v>205</v>
@@ -4330,10 +4634,10 @@
         <v>601778</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F33">
         <v>305</v>
@@ -4342,9 +4646,43 @@
         <v>64</v>
       </c>
     </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>300746</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>156</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+    </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -4352,13 +4690,13 @@
         <v>601016</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F38">
         <v>394</v>
@@ -4372,13 +4710,13 @@
         <v>600483</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F39">
         <v>398</v>
@@ -4388,17 +4726,17 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>146</v>
+      <c r="B40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F40">
         <v>1116</v>
@@ -4411,14 +4749,14 @@
       <c r="B41">
         <v>601615</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>148</v>
+      <c r="C41" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F41">
         <v>562</v>
@@ -4432,10 +4770,10 @@
         <v>300850</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F42">
         <v>56</v>
@@ -4449,10 +4787,10 @@
         <v>300443</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F43">
         <v>34</v>
@@ -4466,13 +4804,13 @@
         <v>600163</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F44">
         <v>101</v>
@@ -4486,13 +4824,13 @@
         <v>600905</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F45">
         <v>1851</v>
@@ -4506,13 +4844,13 @@
         <v>603063</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F46">
         <v>47</v>
@@ -4522,17 +4860,17 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>162</v>
+      <c r="B47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F47">
         <v>65</v>
@@ -4545,11 +4883,11 @@
       <c r="B48">
         <v>300772</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>164</v>
+      <c r="C48" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F48">
         <v>209</v>
@@ -4560,7 +4898,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -4568,10 +4906,10 @@
         <v>300438</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F51">
         <v>76</v>
@@ -4585,13 +4923,13 @@
         <v>300001</v>
       </c>
       <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
         <v>168</v>
-      </c>
-      <c r="D52" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" t="s">
-        <v>158</v>
       </c>
       <c r="F52">
         <v>187</v>
@@ -4605,10 +4943,10 @@
         <v>300682</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F53">
         <v>77</v>
@@ -4622,10 +4960,10 @@
         <v>300693</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F54">
         <v>14</v>
@@ -4639,10 +4977,10 @@
         <v>300491</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -4651,245 +4989,185 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:2">
       <c r="B56">
+        <v>300713</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61">
         <v>300499</v>
       </c>
-      <c r="C56" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56">
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61">
         <v>22</v>
       </c>
-      <c r="G56">
+      <c r="G61">
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58">
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63">
         <v>300693</v>
       </c>
-      <c r="C58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58">
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63">
         <v>14</v>
       </c>
-      <c r="G58">
+      <c r="G63">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59">
+    <row r="64" spans="2:7">
+      <c r="B64" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64">
         <v>94</v>
       </c>
-      <c r="G59">
+      <c r="G64">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" t="s">
-        <v>184</v>
-      </c>
-      <c r="F64">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69">
         <v>119</v>
       </c>
-      <c r="G64">
+      <c r="G69">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" t="s">
-        <v>187</v>
-      </c>
-      <c r="F65">
+    <row r="70" spans="2:7">
+      <c r="B70" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70">
         <v>167</v>
       </c>
-      <c r="G65">
+      <c r="G70">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
-      <c r="B66">
+    <row r="71" spans="2:7">
+      <c r="B71">
         <v>600406</v>
       </c>
-      <c r="C66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66">
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71">
         <v>690</v>
       </c>
-      <c r="G66">
+      <c r="G71">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
-      <c r="B67">
+    <row r="72" spans="2:7">
+      <c r="B72">
         <v>600089</v>
       </c>
-      <c r="C67" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67">
+      <c r="C72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72">
         <v>1221</v>
       </c>
-      <c r="G67">
+      <c r="G72">
         <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" t="s">
-        <v>195</v>
-      </c>
-      <c r="F71">
-        <v>2933</v>
-      </c>
-      <c r="G71">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" t="s">
-        <v>198</v>
-      </c>
-      <c r="F72">
-        <v>147</v>
-      </c>
-      <c r="G72">
-        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73">
-        <v>688399</v>
+        <v>300831</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F73">
-        <v>33</v>
-      </c>
-      <c r="G73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
         <v>204</v>
       </c>
-      <c r="F74">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75">
-        <v>600860</v>
-      </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C76" t="s">
         <v>206</v>
       </c>
-      <c r="F75">
-        <v>15</v>
-      </c>
-      <c r="G75">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76">
-        <v>603637</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>207</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76">
+        <v>2933</v>
+      </c>
+      <c r="G76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="F76">
-        <v>14</v>
-      </c>
-      <c r="G76">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77">
-        <v>300985</v>
       </c>
       <c r="C77" t="s">
         <v>209</v>
@@ -4898,31 +5176,31 @@
         <v>210</v>
       </c>
       <c r="F77">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G77">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="5" t="s">
+      <c r="B78">
+        <v>688399</v>
+      </c>
+      <c r="C78" t="s">
         <v>211</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>212</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
         <v>213</v>
       </c>
-      <c r="F78">
-        <v>54</v>
-      </c>
-      <c r="G78" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="5" t="s">
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C79" t="s">
@@ -4932,15 +5210,15 @@
         <v>216</v>
       </c>
       <c r="F79">
-        <v>278</v>
-      </c>
-      <c r="G79">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80">
-        <v>300435</v>
+        <v>600860</v>
       </c>
       <c r="C80" t="s">
         <v>217</v>
@@ -4949,397 +5227,559 @@
         <v>218</v>
       </c>
       <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81">
+        <v>603637</v>
+      </c>
+      <c r="C81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82">
+        <v>300985</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83">
+        <v>54</v>
+      </c>
+      <c r="G83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84">
+        <v>278</v>
+      </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85">
+        <v>300435</v>
+      </c>
+      <c r="C85" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85">
         <v>40</v>
       </c>
-      <c r="G80">
+      <c r="G85">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" t="s">
-        <v>222</v>
-      </c>
-      <c r="F81">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" t="s">
+        <v>233</v>
+      </c>
+      <c r="E86" t="s">
+        <v>234</v>
+      </c>
+      <c r="F86">
         <v>375</v>
       </c>
-      <c r="G81">
+      <c r="G86">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" t="s">
-        <v>224</v>
-      </c>
-      <c r="D82" t="s">
-        <v>225</v>
-      </c>
-      <c r="F82">
+    <row r="87" spans="2:8">
+      <c r="B87" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" t="s">
+        <v>237</v>
+      </c>
+      <c r="F87">
         <v>56</v>
       </c>
-      <c r="G82">
+      <c r="G87">
         <v>535</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83">
-        <v>600989</v>
-      </c>
-      <c r="C83" t="s">
-        <v>226</v>
-      </c>
-      <c r="D83" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83">
-        <v>425</v>
-      </c>
-      <c r="G83">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84">
-        <v>600273</v>
-      </c>
-      <c r="C84" t="s">
-        <v>228</v>
-      </c>
-      <c r="D84" t="s">
-        <v>229</v>
-      </c>
-      <c r="F84">
-        <v>110</v>
-      </c>
-      <c r="G84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85">
-        <v>601868</v>
-      </c>
-      <c r="C85" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" t="s">
-        <v>231</v>
-      </c>
-      <c r="F85">
-        <v>5097</v>
-      </c>
-      <c r="G85">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" t="s">
-        <v>233</v>
-      </c>
-      <c r="D86" t="s">
-        <v>234</v>
-      </c>
-      <c r="F86">
-        <v>280</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87">
-        <v>300228</v>
-      </c>
-      <c r="C87" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" t="s">
-        <v>236</v>
-      </c>
-      <c r="F87">
-        <v>36</v>
-      </c>
-      <c r="G87">
-        <v>123</v>
+      <c r="H87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88">
-        <v>300950</v>
+        <v>600989</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F88">
-        <v>7.5</v>
+        <v>425</v>
       </c>
       <c r="G88">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89">
-        <v>300471</v>
+        <v>600273</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F89">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94">
-        <v>600378</v>
-      </c>
-      <c r="C94" t="s">
-        <v>241</v>
-      </c>
-      <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90">
+        <v>601868</v>
+      </c>
+      <c r="C90" t="s">
         <v>242</v>
       </c>
-      <c r="F94">
-        <v>112</v>
-      </c>
-      <c r="G94">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95">
-        <v>300409</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D90" t="s">
         <v>243</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F90">
+        <v>5097</v>
+      </c>
+      <c r="G90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91">
+        <v>601012</v>
+      </c>
+      <c r="C91" t="s">
         <v>244</v>
       </c>
-      <c r="F95">
-        <v>71</v>
-      </c>
-      <c r="G95">
-        <v>38</v>
+      <c r="D91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92">
+        <v>600323</v>
+      </c>
+      <c r="C92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92">
+        <v>288</v>
+      </c>
+      <c r="G92">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="5" t="s">
-        <v>245</v>
+      <c r="B96" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F96">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="G96">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97">
+        <v>300228</v>
+      </c>
+      <c r="C97" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97">
+        <v>36</v>
+      </c>
+      <c r="G97">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98">
+        <v>300950</v>
+      </c>
+      <c r="C98" t="s">
+        <v>253</v>
+      </c>
+      <c r="D98" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98">
+        <v>7.5</v>
+      </c>
+      <c r="G98">
+        <v>71</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99">
+        <v>300471</v>
+      </c>
+      <c r="C99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" t="s">
+        <v>256</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100">
+        <v>300540</v>
+      </c>
+      <c r="C100" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" t="s">
+        <v>258</v>
+      </c>
+      <c r="F100">
+        <v>12</v>
+      </c>
+      <c r="G100">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104">
+        <v>600378</v>
+      </c>
+      <c r="C104" t="s">
+        <v>259</v>
+      </c>
+      <c r="D104" t="s">
+        <v>260</v>
+      </c>
+      <c r="F104">
+        <v>112</v>
+      </c>
+      <c r="G104">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105">
+        <v>300409</v>
+      </c>
+      <c r="C105" t="s">
+        <v>261</v>
+      </c>
+      <c r="D105" t="s">
+        <v>262</v>
+      </c>
+      <c r="F105">
+        <v>71</v>
+      </c>
+      <c r="G105">
+        <v>38</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" t="s">
+        <v>265</v>
+      </c>
+      <c r="F106">
+        <v>22</v>
+      </c>
+      <c r="G106">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107">
         <v>300423</v>
       </c>
-      <c r="C97" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" t="s">
-        <v>249</v>
-      </c>
-      <c r="F97">
+      <c r="C107" t="s">
+        <v>266</v>
+      </c>
+      <c r="D107" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107">
         <v>78</v>
       </c>
-      <c r="G97">
+      <c r="G107">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
-      <c r="B98">
+    <row r="108" spans="2:7">
+      <c r="B108">
         <v>601678</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C108" t="s">
         <v>63</v>
       </c>
-      <c r="D98" t="s">
-        <v>250</v>
-      </c>
-      <c r="F98">
+      <c r="D108" t="s">
+        <v>268</v>
+      </c>
+      <c r="F108">
         <v>166</v>
       </c>
-      <c r="G98">
+      <c r="G108">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C99" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" t="s">
-        <v>253</v>
-      </c>
-      <c r="F99">
+    <row r="109" spans="2:7">
+      <c r="B109" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" t="s">
+        <v>271</v>
+      </c>
+      <c r="F109">
         <v>325</v>
       </c>
-      <c r="G99">
+      <c r="G109">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C100" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" t="s">
-        <v>256</v>
-      </c>
-      <c r="F100">
+    <row r="110" spans="2:7">
+      <c r="B110" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" t="s">
+        <v>273</v>
+      </c>
+      <c r="D110" t="s">
+        <v>274</v>
+      </c>
+      <c r="F110">
         <v>186</v>
       </c>
-      <c r="G100">
+      <c r="G110">
         <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102">
-        <v>688551</v>
-      </c>
-      <c r="C102" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C110" t="s">
-        <v>260</v>
-      </c>
-      <c r="D110" t="s">
-        <v>261</v>
-      </c>
-      <c r="F110">
-        <v>16</v>
-      </c>
-      <c r="G110">
-        <v>90</v>
       </c>
     </row>
     <row r="111" spans="2:7">
       <c r="B111">
+        <v>600803</v>
+      </c>
+      <c r="C111" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" t="s">
+        <v>276</v>
+      </c>
+      <c r="F111">
+        <v>32</v>
+      </c>
+      <c r="G111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112">
+        <v>688551</v>
+      </c>
+      <c r="C112" t="s">
+        <v>277</v>
+      </c>
+      <c r="D112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121">
         <v>600875</v>
       </c>
-      <c r="C111" t="s">
-        <v>262</v>
-      </c>
-      <c r="D111" t="s">
-        <v>263</v>
-      </c>
-      <c r="F111">
+      <c r="C121" t="s">
+        <v>282</v>
+      </c>
+      <c r="D121" t="s">
+        <v>283</v>
+      </c>
+      <c r="F121">
         <v>1028</v>
       </c>
-      <c r="G111">
+      <c r="G121">
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="2:7">
-      <c r="B112">
+    <row r="122" spans="2:7">
+      <c r="B122">
         <v>600277</v>
       </c>
-      <c r="C112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" t="s">
-        <v>265</v>
-      </c>
-      <c r="F112">
+      <c r="C122" t="s">
+        <v>284</v>
+      </c>
+      <c r="D122" t="s">
+        <v>285</v>
+      </c>
+      <c r="F122">
         <v>344</v>
       </c>
-      <c r="G112">
+      <c r="G122">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C113" t="s">
-        <v>267</v>
-      </c>
-      <c r="D113" t="s">
-        <v>268</v>
-      </c>
-      <c r="F113">
+    <row r="123" spans="2:7">
+      <c r="B123" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123" t="s">
+        <v>287</v>
+      </c>
+      <c r="D123" t="s">
+        <v>288</v>
+      </c>
+      <c r="F123">
         <v>133</v>
       </c>
-      <c r="G113">
+      <c r="G123">
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
-      <c r="B114">
+    <row r="124" spans="2:8">
+      <c r="B124">
         <v>600459</v>
       </c>
-      <c r="C114" t="s">
-        <v>269</v>
-      </c>
-      <c r="D114" t="s">
-        <v>270</v>
-      </c>
-      <c r="F114">
+      <c r="C124" t="s">
+        <v>289</v>
+      </c>
+      <c r="D124" t="s">
+        <v>290</v>
+      </c>
+      <c r="F124">
         <v>115</v>
       </c>
-      <c r="G114">
+      <c r="G124">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115">
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125">
         <v>601012</v>
       </c>
-      <c r="C115" t="s">
-        <v>271</v>
-      </c>
-      <c r="D115" t="s">
-        <v>272</v>
-      </c>
-      <c r="F115">
+      <c r="C125" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" t="s">
+        <v>291</v>
+      </c>
+      <c r="F125">
         <v>1037</v>
       </c>
-      <c r="G115">
+      <c r="G125">
         <v>48</v>
       </c>
     </row>
@@ -5355,7 +5795,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -5365,7 +5805,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -5379,7 +5819,7 @@
         <v>600030</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F2">
         <v>11690</v>
@@ -5393,10 +5833,10 @@
         <v>300059</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F3">
         <v>1601</v>
@@ -5406,11 +5846,11 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="5" t="s">
-        <v>277</v>
+      <c r="B4" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="F4">
         <v>5057</v>
@@ -5424,7 +5864,7 @@
         <v>601878</v>
       </c>
       <c r="C5" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F5">
         <v>1104</v>
@@ -5435,7 +5875,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -5443,13 +5883,13 @@
         <v>600926</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>12870</v>
@@ -5463,10 +5903,10 @@
         <v>601166</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F11">
         <v>81000</v>
@@ -5480,10 +5920,10 @@
         <v>601658</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F12">
         <v>120000</v>
@@ -5493,14 +5933,14 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="5" t="s">
-        <v>285</v>
+      <c r="B13" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F13">
         <v>47000</v>
@@ -5521,7 +5961,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -5531,7 +5971,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -5545,13 +5985,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -5565,13 +6005,13 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -5582,21 +6022,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="5" t="s">
-        <v>293</v>
+      <c r="B10" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -5610,13 +6050,13 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F11">
         <v>2311</v>
@@ -5627,21 +6067,21 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="5" t="s">
-        <v>299</v>
+      <c r="B21" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C21" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F21">
         <v>129</v>
@@ -5652,7 +6092,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -5660,10 +6100,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -5687,14 +6127,14 @@
   <dimension ref="C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,30 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
-    <sheet name="vr" sheetId="3" r:id="rId2"/>
+    <sheet name="元宇宙" sheetId="3" r:id="rId2"/>
     <sheet name="化工" sheetId="4" r:id="rId3"/>
     <sheet name="锂电池" sheetId="6" r:id="rId4"/>
     <sheet name="基建" sheetId="7" r:id="rId5"/>
     <sheet name="能源" sheetId="8" r:id="rId6"/>
     <sheet name="金融" sheetId="9" r:id="rId7"/>
     <sheet name="消费电子" sheetId="10" r:id="rId8"/>
-    <sheet name="酒" sheetId="11" r:id="rId9"/>
-    <sheet name="食品" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
-    <sheet name="最近关注" sheetId="13" r:id="rId12"/>
-    <sheet name="军工" sheetId="14" r:id="rId13"/>
-    <sheet name="汽车" sheetId="15" r:id="rId14"/>
+    <sheet name="食品" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
+    <sheet name="最近关注" sheetId="13" r:id="rId11"/>
+    <sheet name="军工" sheetId="14" r:id="rId12"/>
+    <sheet name="汽车" sheetId="15" r:id="rId13"/>
+    <sheet name="药品" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="505">
   <si>
     <t>上海环境</t>
   </si>
@@ -131,6 +131,27 @@
     <t>暴涨过</t>
   </si>
   <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>000676</t>
+  </si>
+  <si>
+    <t>智度股份</t>
+  </si>
+  <si>
+    <t>头条、网络游戏、王者荣耀、文化传媒、广告营销</t>
+  </si>
+  <si>
+    <t>亏损</t>
+  </si>
+  <si>
+    <t>中科创达</t>
+  </si>
+  <si>
+    <t>海思、智能穿戴、智能电视、5G、虚拟实现、车联网</t>
+  </si>
+  <si>
     <t>电解铝</t>
   </si>
   <si>
@@ -584,6 +605,12 @@
     <t>通和科技</t>
   </si>
   <si>
+    <t>英可瑞</t>
+  </si>
+  <si>
+    <t>设备、新能源汽车</t>
+  </si>
+  <si>
     <t>高澜股份</t>
   </si>
   <si>
@@ -668,9 +695,6 @@
     <t>氢燃料电池（与丰田合作），加氢站</t>
   </si>
   <si>
-    <t>亏损</t>
-  </si>
-  <si>
     <t>002639</t>
   </si>
   <si>
@@ -947,6 +971,105 @@
     <t>平安银行</t>
   </si>
   <si>
+    <t>数字货币</t>
+  </si>
+  <si>
+    <t>002049</t>
+  </si>
+  <si>
+    <t>紫光国微</t>
+  </si>
+  <si>
+    <t>数字货币芯片、大飞机、集成电路、军工、换芯</t>
+  </si>
+  <si>
+    <t>华峰超纤</t>
+  </si>
+  <si>
+    <t>主业超细纤维、子公司数字货币（测试中）、区块链、移动支付</t>
+  </si>
+  <si>
+    <t>002268</t>
+  </si>
+  <si>
+    <t>卫士通</t>
+  </si>
+  <si>
+    <t>数字货币（金融安全领域龙头）、移动支付、大数据、网络安全、云计算</t>
+  </si>
+  <si>
+    <t>002649</t>
+  </si>
+  <si>
+    <t>博彦科技</t>
+  </si>
+  <si>
+    <t>数字货币、头条概念、大数据、人工智能、创投、机器学习</t>
+  </si>
+  <si>
+    <t>002017</t>
+  </si>
+  <si>
+    <t>东信和平</t>
+  </si>
+  <si>
+    <t>数字货币、移动支付、5G、金融IC、NFC</t>
+  </si>
+  <si>
+    <t>神思电子</t>
+  </si>
+  <si>
+    <t>数字货币（设备）、无人零售、人脸识别、移动支付、人工智能、主业身份识别</t>
+  </si>
+  <si>
+    <t>002123</t>
+  </si>
+  <si>
+    <t>梦网科技</t>
+  </si>
+  <si>
+    <t>数字货币（有专利、有业务）、富媒体、物联网、区块链、光伏、5G</t>
+  </si>
+  <si>
+    <t>东方国信</t>
+  </si>
+  <si>
+    <t>数字货币（已与多家银行实现对接）、云计算、数据中心、智慧城市、养老概念、5G</t>
+  </si>
+  <si>
+    <t>000555</t>
+  </si>
+  <si>
+    <t>神州信息</t>
+  </si>
+  <si>
+    <t>数字货币（与建设、广发、北京实现对接），云计算、边缘计算、国产软件、量子科技、大数据</t>
+  </si>
+  <si>
+    <t>数码视讯</t>
+  </si>
+  <si>
+    <t>数字货币、文化传媒、虚拟实现、区块链、NFC</t>
+  </si>
+  <si>
+    <t>002647</t>
+  </si>
+  <si>
+    <t>仁东控股</t>
+  </si>
+  <si>
+    <t>数字货币（合利宝提供收单业务）、移动支付、区块链、小额贷款、融资租赁、金融科技</t>
+  </si>
+  <si>
+    <t>000997</t>
+  </si>
+  <si>
+    <t>新大陆</t>
+  </si>
+  <si>
+    <t>数字货币支付设备、无人零售、互联网金融、网络游戏运营、金融IC、物联网</t>
+  </si>
+  <si>
     <t>手机外壳</t>
   </si>
   <si>
@@ -1001,7 +1124,7 @@
     <t>集成电路制造和技术服务商</t>
   </si>
   <si>
-    <t>皇台酒业</t>
+    <t>休闲食品</t>
   </si>
   <si>
     <t>002847</t>
@@ -1010,17 +1133,233 @@
     <t>盐津铺子</t>
   </si>
   <si>
+    <t>养殖</t>
+  </si>
+  <si>
+    <t>002982</t>
+  </si>
+  <si>
+    <t>湘佳股份</t>
+  </si>
+  <si>
+    <t>养鸡、活猪屠宰、乡村振兴（养殖），饲料、电子商务</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>华统股份</t>
+  </si>
+  <si>
+    <t>养鸡、猪肉第二大屠宰厂、饲料</t>
+  </si>
+  <si>
+    <t>002330</t>
+  </si>
+  <si>
+    <t>德利斯</t>
+  </si>
+  <si>
+    <t>猪肉（屠宰+养殖），冷链物流、电子商务、职业教育</t>
+  </si>
+  <si>
+    <t>神农集团</t>
+  </si>
+  <si>
+    <t>猪肉饲料、养殖、屠宰、销售、完整产业链</t>
+  </si>
+  <si>
+    <t>001201</t>
+  </si>
+  <si>
+    <t>东瑞股份</t>
+  </si>
+  <si>
+    <t>猪肉饲料、养殖、活猪销售、粤港澳大湾区</t>
+  </si>
+  <si>
+    <t>002548</t>
+  </si>
+  <si>
+    <t>金新农</t>
+  </si>
+  <si>
+    <t>饲料、生猪养殖 、生态农业、移动支付、家庭农场</t>
+  </si>
+  <si>
+    <t>巨星农牧</t>
+  </si>
+  <si>
+    <t>饲料、生猪养殖、养鸡</t>
+  </si>
+  <si>
+    <t>002458</t>
+  </si>
+  <si>
+    <t>益生股份</t>
+  </si>
+  <si>
+    <t>养鸡（全国最大祖代肉种鸡养殖）、乳液、生猪养殖（占比不大）</t>
+  </si>
+  <si>
+    <t>002311</t>
+  </si>
+  <si>
+    <t>海大集团</t>
+  </si>
+  <si>
+    <t>生猪养殖、主业饲料（畜禽水产）、生态农业、宠物经济</t>
+  </si>
+  <si>
+    <t>000735</t>
+  </si>
+  <si>
+    <t>罗牛山</t>
+  </si>
+  <si>
+    <t>生猪养殖、屠宰（海南）赛马概念、旅游、土地流转、海南自贸区</t>
+  </si>
+  <si>
+    <t>000876</t>
+  </si>
+  <si>
+    <t>新希望</t>
+  </si>
+  <si>
+    <t>生猪全产业链、养鸡、饲料全国第一（畜禽水产）、农村电商</t>
+  </si>
+  <si>
+    <t>禾丰股份</t>
+  </si>
+  <si>
+    <t>养鸡（白羽鸡龙头），生猪养殖屠宰、饲料、宠物经济</t>
+  </si>
+  <si>
+    <t>002714</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>生猪养殖龙头、饲料、参股银行</t>
+  </si>
+  <si>
+    <t>立华股份</t>
+  </si>
+  <si>
+    <t>养鸡主业、生猪养殖、食品安全</t>
+  </si>
+  <si>
+    <t>002726</t>
+  </si>
+  <si>
+    <t>龙大肉食</t>
+  </si>
+  <si>
+    <t>饲料、生猪养殖、屠宰、销售</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>天康生物</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饲料、玉米存储、生猪、动物疫苗、新疆振兴 </t>
+  </si>
+  <si>
+    <t>000529</t>
+  </si>
+  <si>
+    <t>广弘控股</t>
+  </si>
+  <si>
+    <t>冷冻肉类食品、冷链物流、粤港澳大湾区、在线教育</t>
+  </si>
+  <si>
+    <t>新五丰</t>
+  </si>
+  <si>
+    <t>全国最大活体、冻肉储备商、出口港澳、饲料</t>
+  </si>
+  <si>
+    <t>000895</t>
+  </si>
+  <si>
+    <t>双汇发展</t>
+  </si>
+  <si>
+    <t>全国最大的肉制品加工基地、餐饮食材、人造肉</t>
+  </si>
+  <si>
+    <t>温氏股份</t>
+  </si>
+  <si>
+    <t>生猪养殖龙头、养鸡国内第一、家庭农场、乳业</t>
+  </si>
+  <si>
+    <t>002157</t>
+  </si>
+  <si>
+    <t>正邦科技</t>
+  </si>
+  <si>
+    <t>生猪、饲料、兽药</t>
+  </si>
+  <si>
+    <t>002124</t>
+  </si>
+  <si>
+    <t>天邦股份</t>
+  </si>
+  <si>
+    <t>饲料、生猪养殖、猪肉加工、养鸡、农村电商、中澳自贸区</t>
+  </si>
+  <si>
+    <t>傲农生物</t>
+  </si>
+  <si>
+    <t>饲料、生猪养殖、兽药</t>
+  </si>
+  <si>
+    <t>002567</t>
+  </si>
+  <si>
+    <t>唐人神</t>
+  </si>
+  <si>
+    <t>主业饲料、生猪养殖、养鸡、人造肉</t>
+  </si>
+  <si>
+    <t>002385</t>
+  </si>
+  <si>
+    <t>大北农</t>
+  </si>
+  <si>
+    <t>乳业、大豆、玉米（玉米、水稻种子）、转基因、猪瘟疫情、饲料</t>
+  </si>
+  <si>
+    <t>000702</t>
+  </si>
+  <si>
+    <t>正虹科技</t>
+  </si>
+  <si>
+    <t>主业饲料（畜禽水产）、</t>
+  </si>
+  <si>
     <t xml:space="preserve">九月份苹果发布新品后，vr电子产品类会上涨（miniLED），基建（中字开头，尤其是有矿的），新能源金属（钴、电解铝、钛白粉）        环保目前在低点                                                            </t>
   </si>
   <si>
     <t>燃气、芯片、军工、证券、光伏</t>
   </si>
   <si>
-    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，英博尔，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份，301108、300268、301198、康平科技、九强生物、科森科技、曼卡龙、朗特智能、鼎盛新材、雄韬股份、
+    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份，301108、300268、301198、康平科技、九强生物、科森科技、曼卡龙、朗特智能、鼎盛新材、雄韬股份、华宝股份、英博尔、德宏股份、澳柯玛、晶方科技、阳关照明
 </t>
   </si>
   <si>
-    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉</t>
+    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉、元宇宙、储能、nmn</t>
   </si>
   <si>
     <t>航发动力</t>
@@ -1065,9 +1404,6 @@
     <t>胎压、智能驾驶汽车电子，智能汽车，等汽车零部件，有出口业务</t>
   </si>
   <si>
-    <t>中科创达</t>
-  </si>
-  <si>
     <t>海思、智能穿戴、智能电视、5G，无人驾驶，车联网、车载系统</t>
   </si>
   <si>
@@ -1174,6 +1510,39 @@
   </si>
   <si>
     <t>光弘科技</t>
+  </si>
+  <si>
+    <t>EDR（EDB、T-BOX），物联网、5G、汽车电子、华为概念、小米概念</t>
+  </si>
+  <si>
+    <t>东风科技</t>
+  </si>
+  <si>
+    <t>汽车零部件电机、汽车电子edr、华为汽车</t>
+  </si>
+  <si>
+    <t>002355</t>
+  </si>
+  <si>
+    <t>兴民智通</t>
+  </si>
+  <si>
+    <t>车联网、无人驾驶、edr，T-BOX龙头、5G、大数据</t>
+  </si>
+  <si>
+    <t>持续关注</t>
+  </si>
+  <si>
+    <t>天迈科技</t>
+  </si>
+  <si>
+    <t>公交EDR、人脸识别、百度概念、充电桩、新能源汽车</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>NMN</t>
   </si>
 </sst>
 </file>
@@ -1181,9 +1550,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1201,21 +1570,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1231,7 +1585,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,6 +1593,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1253,16 +1651,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,24 +1667,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,16 +1699,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1326,20 +1709,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,13 +1729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,37 +1753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,7 +1777,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,31 +1861,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,19 +1885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,49 +1897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,13 +1938,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1606,24 +1988,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,15 +2020,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1659,10 +2028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,145 +2040,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2243,31 +2609,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2278,7 +2619,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2488,7 +2829,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2501,13 +2842,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:V22"/>
+      <selection activeCell="A1" sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2519,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2534,15 +2875,15 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="P1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="P1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2"/>
@@ -2559,13 +2900,13 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2"/>
@@ -2582,13 +2923,13 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2"/>
@@ -2605,13 +2946,13 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="2"/>
@@ -2628,13 +2969,13 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2"/>
@@ -2651,13 +2992,13 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2"/>
@@ -2674,13 +3015,13 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="2"/>
@@ -2697,13 +3038,13 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2"/>
@@ -2720,13 +3061,13 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2"/>
@@ -2743,13 +3084,13 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="2"/>
@@ -2766,13 +3107,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2"/>
@@ -2789,13 +3130,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2"/>
@@ -2812,13 +3153,13 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2"/>
@@ -2835,13 +3176,13 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2"/>
@@ -2858,13 +3199,13 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="2"/>
@@ -2881,13 +3222,13 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="2"/>
@@ -2904,13 +3245,13 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="2"/>
@@ -2927,13 +3268,13 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="2"/>
@@ -2950,13 +3291,13 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="2"/>
@@ -2973,13 +3314,13 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="2"/>
@@ -2996,22 +3337,22 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" spans="16:22">
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3023,7 +3364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:G14"/>
@@ -3047,7 +3388,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -3061,7 +3402,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>445</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -3075,7 +3416,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -3089,7 +3430,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -3103,7 +3444,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -3117,10 +3458,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -3130,20 +3471,437 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="6" t="s">
-        <v>338</v>
+      <c r="B14" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="F14">
         <v>107</v>
       </c>
       <c r="G14">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="52.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:7">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>300496</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>600699</v>
+      </c>
+      <c r="C5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5">
+        <v>526</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>603730</v>
+      </c>
+      <c r="C6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>603197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>601799</v>
+      </c>
+      <c r="C8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8">
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>603997</v>
+      </c>
+      <c r="C9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9">
+        <v>167</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>300428</v>
+      </c>
+      <c r="C10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10">
+        <v>133</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>603949</v>
+      </c>
+      <c r="C11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" t="s">
+        <v>476</v>
+      </c>
+      <c r="F17">
+        <v>84</v>
+      </c>
+      <c r="G17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>477</v>
+      </c>
+      <c r="F20">
+        <v>124</v>
+      </c>
+      <c r="G20">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>300742</v>
+      </c>
+      <c r="C22" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" t="s">
+        <v>483</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D28" t="s">
+        <v>486</v>
+      </c>
+      <c r="F28">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>300458</v>
+      </c>
+      <c r="C29" t="s">
+        <v>487</v>
+      </c>
+      <c r="D29" t="s">
+        <v>488</v>
+      </c>
+      <c r="E29" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <v>300188</v>
+      </c>
+      <c r="C31" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31">
+        <v>42</v>
+      </c>
+      <c r="G31">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>300735</v>
+      </c>
+      <c r="C32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" t="s">
+        <v>494</v>
+      </c>
+      <c r="F32">
+        <v>58</v>
+      </c>
+      <c r="G32">
+        <v>47</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <v>600081</v>
+      </c>
+      <c r="C33" t="s">
+        <v>495</v>
+      </c>
+      <c r="D33" t="s">
+        <v>496</v>
+      </c>
+      <c r="F33">
+        <v>95</v>
+      </c>
+      <c r="G33">
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C34" t="s">
+        <v>498</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>300807</v>
+      </c>
+      <c r="C35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D35" t="s">
+        <v>502</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3155,20 +3913,18 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
-  <cols>
-    <col min="4" max="4" width="52.1818181818182" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="6:7">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>503</v>
+      </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
@@ -3178,320 +3934,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>300496</v>
-      </c>
-      <c r="C4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4">
-        <v>64</v>
-      </c>
-      <c r="G4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
-        <v>600699</v>
-      </c>
-      <c r="C5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5">
-        <v>526</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
-        <v>603730</v>
-      </c>
-      <c r="C6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7">
-        <v>603197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7">
-        <v>52</v>
-      </c>
-      <c r="G7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8">
-        <v>601799</v>
-      </c>
-      <c r="C8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F8">
-        <v>113</v>
-      </c>
-      <c r="G8">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9">
-        <v>603997</v>
-      </c>
-      <c r="C9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F9">
-        <v>167</v>
-      </c>
-      <c r="G9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>300428</v>
-      </c>
-      <c r="C10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" t="s">
-        <v>358</v>
-      </c>
-      <c r="F10">
-        <v>133</v>
-      </c>
-      <c r="G10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
-        <v>603949</v>
-      </c>
-      <c r="C11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C17" t="s">
-        <v>363</v>
-      </c>
-      <c r="D17" t="s">
-        <v>364</v>
-      </c>
-      <c r="F17">
-        <v>84</v>
-      </c>
-      <c r="G17">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>365</v>
-      </c>
-      <c r="F20">
-        <v>124</v>
-      </c>
-      <c r="G20">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
-        <v>300742</v>
-      </c>
-      <c r="C22" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" t="s">
-        <v>367</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" t="s">
-        <v>370</v>
-      </c>
-      <c r="D27" t="s">
-        <v>371</v>
-      </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-      <c r="G27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" t="s">
-        <v>373</v>
-      </c>
-      <c r="D28" t="s">
-        <v>374</v>
-      </c>
-      <c r="F28">
-        <v>92</v>
-      </c>
-      <c r="G28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29">
-        <v>300458</v>
-      </c>
-      <c r="C29" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E29" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29">
-        <v>32</v>
-      </c>
-      <c r="G29">
-        <v>60</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C30" t="s">
-        <v>379</v>
-      </c>
-      <c r="F30">
-        <v>24</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
-        <v>300188</v>
-      </c>
-      <c r="C31" t="s">
-        <v>380</v>
-      </c>
-      <c r="F31">
-        <v>42</v>
-      </c>
-      <c r="G31">
-        <v>42</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32">
-        <v>300735</v>
-      </c>
-      <c r="C32" t="s">
-        <v>381</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -3503,10 +3946,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="$A26:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3527,7 +3972,7 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -3566,7 +4011,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -3583,7 +4028,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -3644,7 +4089,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
@@ -3721,6 +4166,45 @@
       </c>
       <c r="H19" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>300496</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +4231,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3757,17 +4241,17 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="6" t="s">
-        <v>35</v>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -3777,17 +4261,17 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
-        <v>39</v>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -3797,17 +4281,17 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="6" t="s">
-        <v>42</v>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -3818,21 +4302,21 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
       </c>
       <c r="F7">
         <v>106</v>
@@ -3842,17 +4326,17 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="6" t="s">
-        <v>49</v>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>101</v>
@@ -3866,13 +4350,13 @@
         <v>605020</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -3886,13 +4370,13 @@
         <v>600160</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>161</v>
@@ -3906,13 +4390,13 @@
         <v>603505</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -3922,17 +4406,17 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="6" t="s">
-        <v>58</v>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>17</v>
@@ -3946,13 +4430,13 @@
         <v>603379</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>56</v>
@@ -3966,13 +4450,13 @@
         <v>601678</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>156</v>
@@ -3983,7 +4467,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -3991,10 +4475,10 @@
         <v>600141</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <v>308</v>
@@ -4004,14 +4488,14 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="6" t="s">
-        <v>68</v>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F19">
         <v>66</v>
@@ -4021,14 +4505,14 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="6" t="s">
-        <v>70</v>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>123</v>
@@ -4059,7 +4543,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4070,41 +4554,41 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="6" t="s">
-        <v>78</v>
+      <c r="B7" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>128</v>
@@ -4115,23 +4599,23 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>513</v>
@@ -4141,24 +4625,24 @@
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
-        <v>85</v>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="6" t="s">
-        <v>87</v>
+      <c r="B16" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -4172,22 +4656,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4696,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4226,13 +4710,13 @@
         <v>601186</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>13360</v>
@@ -4246,13 +4730,13 @@
         <v>688425</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>234</v>
@@ -4266,13 +4750,13 @@
         <v>601800</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>14390</v>
@@ -4286,13 +4770,13 @@
         <v>601390</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>12970</v>
@@ -4313,9 +4797,9 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -4326,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -4337,21 +4821,21 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
-        <v>106</v>
+      <c r="B3" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>609</v>
@@ -4365,13 +4849,13 @@
         <v>600740</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>195</v>
@@ -4385,13 +4869,13 @@
         <v>601088</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F5">
         <v>5993</v>
@@ -4401,17 +4885,17 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6" t="s">
-        <v>114</v>
+      <c r="B6" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
       </c>
       <c r="F6">
         <v>367</v>
@@ -4422,7 +4906,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -4430,13 +4914,13 @@
         <v>603393</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F10">
         <v>95</v>
@@ -4455,26 +4939,26 @@
         <v>600917</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="6" t="s">
-        <v>122</v>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F16">
         <v>660</v>
@@ -4485,7 +4969,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -4493,13 +4977,13 @@
         <v>600021</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F22">
         <v>1364</v>
@@ -4510,7 +4994,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -4518,13 +5002,13 @@
         <v>600438</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>795</v>
@@ -4535,7 +5019,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -4543,13 +5027,13 @@
         <v>601865</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>172</v>
@@ -4560,13 +5044,13 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -4583,10 +5067,10 @@
         <v>300274</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F30">
         <v>376</v>
@@ -4600,10 +5084,10 @@
         <v>688599</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F31">
         <v>618</v>
@@ -4617,10 +5101,10 @@
         <v>601222</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F32">
         <v>205</v>
@@ -4634,10 +5118,10 @@
         <v>601778</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F33">
         <v>305</v>
@@ -4651,10 +5135,10 @@
         <v>300746</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -4664,14 +5148,14 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6" t="s">
-        <v>148</v>
+      <c r="B35" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F35">
         <v>156</v>
@@ -4682,7 +5166,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -4690,13 +5174,13 @@
         <v>601016</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F38">
         <v>394</v>
@@ -4710,13 +5194,13 @@
         <v>600483</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F39">
         <v>398</v>
@@ -4726,17 +5210,17 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>156</v>
+      <c r="B40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F40">
         <v>1116</v>
@@ -4749,14 +5233,14 @@
       <c r="B41">
         <v>601615</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>158</v>
+      <c r="C41" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F41">
         <v>562</v>
@@ -4770,10 +5254,10 @@
         <v>300850</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F42">
         <v>56</v>
@@ -4787,10 +5271,10 @@
         <v>300443</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F43">
         <v>34</v>
@@ -4804,13 +5288,13 @@
         <v>600163</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F44">
         <v>101</v>
@@ -4824,13 +5308,13 @@
         <v>600905</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F45">
         <v>1851</v>
@@ -4844,13 +5328,13 @@
         <v>603063</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F46">
         <v>47</v>
@@ -4860,17 +5344,17 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>172</v>
+      <c r="B47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F47">
         <v>65</v>
@@ -4883,11 +5367,11 @@
       <c r="B48">
         <v>300772</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>174</v>
+      <c r="C48" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F48">
         <v>209</v>
@@ -4898,7 +5382,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -4906,10 +5390,10 @@
         <v>300438</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F51">
         <v>76</v>
@@ -4923,13 +5407,13 @@
         <v>300001</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F52">
         <v>187</v>
@@ -4943,10 +5427,10 @@
         <v>300682</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F53">
         <v>77</v>
@@ -4960,10 +5444,10 @@
         <v>300693</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F54">
         <v>14</v>
@@ -4977,10 +5461,10 @@
         <v>300491</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -4989,9 +5473,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>300713</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -4999,10 +5495,10 @@
         <v>300499</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F61">
         <v>22</v>
@@ -5013,7 +5509,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -5021,13 +5517,13 @@
         <v>300693</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F63">
         <v>14</v>
@@ -5037,14 +5533,14 @@
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="6" t="s">
-        <v>189</v>
+      <c r="B64" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F64">
         <v>94</v>
@@ -5055,18 +5551,18 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="6" t="s">
-        <v>192</v>
+      <c r="B69" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F69">
         <v>119</v>
@@ -5076,14 +5572,14 @@
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="6" t="s">
-        <v>195</v>
+      <c r="B70" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F70">
         <v>167</v>
@@ -5097,10 +5593,10 @@
         <v>600406</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F71">
         <v>690</v>
@@ -5114,10 +5610,10 @@
         <v>600089</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F72">
         <v>1221</v>
@@ -5131,10 +5627,10 @@
         <v>300831</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -5145,18 +5641,18 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="6" t="s">
-        <v>205</v>
+      <c r="B76" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F76">
         <v>2933</v>
@@ -5166,14 +5662,14 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="6" t="s">
-        <v>208</v>
+      <c r="B77" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F77">
         <v>147</v>
@@ -5187,27 +5683,27 @@
         <v>688399</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D78" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F78">
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="6" t="s">
-        <v>214</v>
+      <c r="B79" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F79">
         <v>39</v>
@@ -5221,10 +5717,10 @@
         <v>600860</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F80">
         <v>15</v>
@@ -5238,10 +5734,10 @@
         <v>603637</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F81">
         <v>14</v>
@@ -5255,10 +5751,10 @@
         <v>300985</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F82">
         <v>14</v>
@@ -5268,31 +5764,31 @@
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="6" t="s">
-        <v>223</v>
+      <c r="B83" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F83">
         <v>54</v>
       </c>
       <c r="G83" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="6" t="s">
-        <v>226</v>
+      <c r="B84" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F84">
         <v>278</v>
@@ -5306,10 +5802,10 @@
         <v>300435</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F85">
         <v>40</v>
@@ -5322,17 +5818,17 @@
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="6" t="s">
-        <v>231</v>
+      <c r="B86" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F86">
         <v>375</v>
@@ -5342,14 +5838,14 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="6" t="s">
-        <v>235</v>
+      <c r="B87" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F87">
         <v>56</v>
@@ -5366,10 +5862,10 @@
         <v>600989</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F88">
         <v>425</v>
@@ -5383,10 +5879,10 @@
         <v>600273</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F89">
         <v>110</v>
@@ -5400,10 +5896,10 @@
         <v>601868</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F90">
         <v>5097</v>
@@ -5417,10 +5913,10 @@
         <v>601012</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -5428,10 +5924,10 @@
         <v>600323</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F92">
         <v>288</v>
@@ -5441,14 +5937,14 @@
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="6" t="s">
-        <v>248</v>
+      <c r="B96" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C96" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D96" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F96">
         <v>280</v>
@@ -5462,10 +5958,10 @@
         <v>300228</v>
       </c>
       <c r="C97" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -5479,10 +5975,10 @@
         <v>300950</v>
       </c>
       <c r="C98" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D98" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F98">
         <v>7.5</v>
@@ -5499,16 +5995,16 @@
         <v>300471</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F99">
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -5516,10 +6012,10 @@
         <v>300540</v>
       </c>
       <c r="C100" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -5533,10 +6029,10 @@
         <v>600378</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D104" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F104">
         <v>112</v>
@@ -5550,10 +6046,10 @@
         <v>300409</v>
       </c>
       <c r="C105" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F105">
         <v>71</v>
@@ -5566,14 +6062,14 @@
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="6" t="s">
-        <v>263</v>
+      <c r="B106" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F106">
         <v>22</v>
@@ -5587,10 +6083,10 @@
         <v>300423</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F107">
         <v>78</v>
@@ -5604,10 +6100,10 @@
         <v>601678</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D108" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F108">
         <v>166</v>
@@ -5617,14 +6113,14 @@
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="6" t="s">
-        <v>269</v>
+      <c r="B109" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F109">
         <v>325</v>
@@ -5634,14 +6130,14 @@
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="6" t="s">
-        <v>272</v>
+      <c r="B110" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="C110" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D110" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F110">
         <v>186</v>
@@ -5655,10 +6151,10 @@
         <v>600803</v>
       </c>
       <c r="C111" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F111">
         <v>32</v>
@@ -5672,21 +6168,21 @@
         <v>688551</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="6" t="s">
-        <v>279</v>
+      <c r="B120" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D120" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F120">
         <v>16</v>
@@ -5700,10 +6196,10 @@
         <v>600875</v>
       </c>
       <c r="C121" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D121" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F121">
         <v>1028</v>
@@ -5717,10 +6213,10 @@
         <v>600277</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D122" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F122">
         <v>344</v>
@@ -5730,14 +6226,14 @@
       </c>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="6" t="s">
-        <v>286</v>
+      <c r="B123" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F123">
         <v>133</v>
@@ -5751,10 +6247,10 @@
         <v>600459</v>
       </c>
       <c r="C124" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D124" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F124">
         <v>115</v>
@@ -5771,10 +6267,10 @@
         <v>601012</v>
       </c>
       <c r="C125" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F125">
         <v>1037</v>
@@ -5792,21 +6288,20 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="41.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>292</v>
-      </c>
+    <row r="1" spans="6:7">
       <c r="F1" t="s">
         <v>3</v>
       </c>
@@ -5814,139 +6309,374 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2">
-        <v>600030</v>
-      </c>
-      <c r="C2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F2">
-        <v>11690</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3">
+        <v>600030</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3">
+        <v>11690</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
         <v>300059</v>
       </c>
-      <c r="C3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3">
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4">
         <v>1601</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4">
+    <row r="5" spans="2:7">
+      <c r="B5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5">
         <v>5057</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
+    <row r="6" spans="2:7">
+      <c r="B6">
         <v>601878</v>
       </c>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5">
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6">
         <v>1104</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>600926</v>
-      </c>
-      <c r="C10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10">
-        <v>12870</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>601166</v>
+        <v>600926</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11">
-        <v>81000</v>
+        <v>12870</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
+        <v>601166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>81000</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
         <v>601658</v>
       </c>
-      <c r="C12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12">
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13">
         <v>120000</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13">
+    <row r="14" spans="2:7">
+      <c r="B14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14">
         <v>47000</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19">
+        <v>106</v>
+      </c>
+      <c r="G19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>300180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21">
+        <v>62</v>
+      </c>
+      <c r="G21">
+        <v>173</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <v>300479</v>
+      </c>
+      <c r="C24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <v>300166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>300079</v>
+      </c>
+      <c r="C28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28">
+        <v>46</v>
+      </c>
+      <c r="G28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" t="s">
+        <v>346</v>
+      </c>
+      <c r="F34">
+        <v>103</v>
+      </c>
+      <c r="G34">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5971,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -5985,13 +6715,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -6005,13 +6735,13 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -6022,21 +6752,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="6" t="s">
-        <v>312</v>
+      <c r="B10" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -6050,13 +6780,13 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11">
         <v>2311</v>
@@ -6067,21 +6797,21 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="6" t="s">
-        <v>318</v>
+      <c r="B21" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F21">
         <v>129</v>
@@ -6092,7 +6822,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -6100,10 +6830,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="D31" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -6124,17 +6854,507 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="37.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>605296</v>
+      </c>
+      <c r="C14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>603477</v>
+      </c>
+      <c r="C17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F19">
+        <v>363</v>
+      </c>
+      <c r="G19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F21">
+        <v>1314</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>603609</v>
+      </c>
+      <c r="C22" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22">
+        <v>130</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" t="s">
+        <v>404</v>
+      </c>
+      <c r="F23">
+        <v>1692</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <v>300761</v>
+      </c>
+      <c r="C24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26">
+        <v>141</v>
+      </c>
+      <c r="G26">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D27" t="s">
+        <v>415</v>
+      </c>
+      <c r="F27">
+        <v>44</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28">
+        <v>600975</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" t="s">
+        <v>417</v>
+      </c>
+      <c r="F28">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" t="s">
+        <v>420</v>
+      </c>
+      <c r="F29">
+        <v>353</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>300498</v>
+      </c>
+      <c r="C30" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30">
+        <v>997</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D31" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31">
+        <v>595</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" t="s">
+        <v>428</v>
+      </c>
+      <c r="F32">
+        <v>204</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>603363</v>
+      </c>
+      <c r="C33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F33">
+        <v>172</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" t="s">
+        <v>433</v>
+      </c>
+      <c r="F37">
+        <v>152</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" t="s">
+        <v>436</v>
+      </c>
+      <c r="F38">
+        <v>266</v>
+      </c>
+      <c r="G38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C39" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" t="s">
+        <v>439</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="528">
   <si>
     <t>上海环境</t>
   </si>
@@ -1061,6 +1061,69 @@
     <t>数字货币（合利宝提供收单业务）、移动支付、区块链、小额贷款、融资租赁、金融科技</t>
   </si>
   <si>
+    <t>正元智慧</t>
+  </si>
+  <si>
+    <t>数字货币、在线教育、区块链、边缘计算、一卡通、移动支付</t>
+  </si>
+  <si>
+    <t>卡拉卡</t>
+  </si>
+  <si>
+    <t>数字货币（与银联央行签署战略协议）、大数据、区块链、移动支付</t>
+  </si>
+  <si>
+    <t>四方精创</t>
+  </si>
+  <si>
+    <t>数字货币（数字钱包技术储备），国产软件、区块链</t>
+  </si>
+  <si>
+    <t>优博讯</t>
+  </si>
+  <si>
+    <t>数字货币（技术储备）、区块链、移动支付、人工智能、金融科技</t>
+  </si>
+  <si>
+    <t>朗科科技</t>
+  </si>
+  <si>
+    <t>数字货币（两个专利外观与储存）、知识产权、芯片、内存、数据储存、元器件</t>
+  </si>
+  <si>
+    <t>新开普</t>
+  </si>
+  <si>
+    <t>数字货币（数字货币应用试点）、无人零售、人脸识别、边缘计算、移动支付、指纹支付</t>
+  </si>
+  <si>
+    <t>002104</t>
+  </si>
+  <si>
+    <t>恒宝股份</t>
+  </si>
+  <si>
+    <t>数字货币（有专利）、移动支付、区块链、NFC、金融IC</t>
+  </si>
+  <si>
+    <t>翠微股份</t>
+  </si>
+  <si>
+    <t>数字货币（与央行合作）、头条、蚂蚁、移动支付</t>
+  </si>
+  <si>
+    <t>科蓝软件</t>
+  </si>
+  <si>
+    <t>数字货币（移动钱包著作权）、国产软件、区块链、移动支付、无人零售</t>
+  </si>
+  <si>
+    <t>四川成渝</t>
+  </si>
+  <si>
+    <t>数字货币（拥有两种数字货币钱包专利），创投、区块链</t>
+  </si>
+  <si>
     <t>000997</t>
   </si>
   <si>
@@ -1068,6 +1131,12 @@
   </si>
   <si>
     <t>数字货币支付设备、无人零售、互联网金融、网络游戏运营、金融IC、物联网</t>
+  </si>
+  <si>
+    <t>创识科技</t>
+  </si>
+  <si>
+    <t>数字货币受理设备、移动支付</t>
   </si>
   <si>
     <t>手机外壳</t>
@@ -1550,8 +1619,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1568,6 +1637,14 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1591,38 +1668,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,25 +1682,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,7 +1699,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1676,15 +1707,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1699,6 +1731,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1706,9 +1762,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1729,19 +1798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,13 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,13 +1834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,7 +1870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,7 +1888,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,7 +1936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,19 +1948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,31 +1966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,24 +1982,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1920,21 +1989,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1953,11 +2007,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,17 +2048,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2020,6 +2069,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2028,10 +2097,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2040,133 +2109,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2619,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2829,7 +2898,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2876,7 +2945,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -3388,7 +3457,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -3402,7 +3471,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -3416,7 +3485,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -3430,7 +3499,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -3444,7 +3513,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -3458,10 +3527,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -3472,13 +3541,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -3499,9 +3568,9 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3519,18 +3588,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -3547,7 +3616,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -3561,10 +3630,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -3578,10 +3647,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -3595,10 +3664,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -3612,10 +3681,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -3629,10 +3698,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -3646,10 +3715,10 @@
         <v>300428</v>
       </c>
       <c r="C10" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="F10">
         <v>133</v>
@@ -3663,10 +3732,10 @@
         <v>603949</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -3677,18 +3746,18 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="D17" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -3705,7 +3774,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -3719,10 +3788,10 @@
         <v>300742</v>
       </c>
       <c r="C22" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D22" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -3733,18 +3802,18 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -3755,13 +3824,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="D28" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="F28">
         <v>92</v>
@@ -3775,13 +3844,13 @@
         <v>300458</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="E29" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -3793,12 +3862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="C30" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -3807,6 +3876,9 @@
         <v>50</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
     </row>
@@ -3815,7 +3887,7 @@
         <v>300188</v>
       </c>
       <c r="C31" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="F31">
         <v>42</v>
@@ -3827,15 +3899,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:9">
       <c r="B32">
         <v>300735</v>
       </c>
       <c r="C32" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="F32">
         <v>58</v>
@@ -3844,6 +3916,9 @@
         <v>47</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
     </row>
@@ -3852,10 +3927,10 @@
         <v>600081</v>
       </c>
       <c r="C33" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="F33">
         <v>95</v>
@@ -3869,13 +3944,13 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="F34">
         <v>41</v>
@@ -3883,8 +3958,11 @@
       <c r="G34" t="s">
         <v>38</v>
       </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
       <c r="I34" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -3892,10 +3970,10 @@
         <v>300807</v>
       </c>
       <c r="C35" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="D35" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -3923,7 +4001,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3934,7 +4012,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -6288,12 +6366,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -6662,21 +6740,217 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="5" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30">
+        <v>300645</v>
+      </c>
+      <c r="C30" t="s">
         <v>344</v>
       </c>
+      <c r="D30" t="s">
+        <v>345</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
+        <v>300773</v>
+      </c>
+      <c r="C31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31">
+        <v>115</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>300468</v>
+      </c>
+      <c r="C32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32">
+        <v>37</v>
+      </c>
+      <c r="G32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>300531</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33">
+        <v>21</v>
+      </c>
+      <c r="G33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34">
+        <v>300042</v>
+      </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D34" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>37</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>300248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>603123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>300663</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38">
+        <v>24</v>
+      </c>
+      <c r="G38">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>601107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" t="s">
+        <v>364</v>
+      </c>
+      <c r="F39">
+        <v>413</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
+      <c r="D44" t="s">
+        <v>367</v>
+      </c>
+      <c r="F44">
         <v>103</v>
       </c>
-      <c r="G34">
+      <c r="G44">
         <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45">
+        <v>300941</v>
+      </c>
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" t="s">
+        <v>369</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>51</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6975,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6715,10 +6989,10 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E2" t="s">
         <v>175</v>
@@ -6735,10 +7009,10 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="E4" t="s">
         <v>132</v>
@@ -6752,18 +7026,18 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="E10" t="s">
         <v>175</v>
@@ -6780,10 +7054,10 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
         <v>132</v>
@@ -6797,18 +7071,18 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="D21" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E21" t="s">
         <v>132</v>
@@ -6822,7 +7096,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -6830,10 +7104,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D31" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -6869,7 +7143,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6880,26 +7154,26 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="F11">
         <v>26</v>
@@ -6910,13 +7184,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="F12">
         <v>66</v>
@@ -6927,13 +7201,13 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="5" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -6947,10 +7221,10 @@
         <v>605296</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="D14" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -6967,13 +7241,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="5" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -6990,13 +7264,13 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="F16">
         <v>66</v>
@@ -7010,10 +7284,10 @@
         <v>603477</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="F17">
         <v>56</v>
@@ -7024,13 +7298,13 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="5" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="F18">
         <v>56</v>
@@ -7044,13 +7318,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="F19">
         <v>363</v>
@@ -7061,13 +7335,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="F20">
         <v>107</v>
@@ -7078,13 +7352,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F21">
         <v>1314</v>
@@ -7098,10 +7372,10 @@
         <v>603609</v>
       </c>
       <c r="C22" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="D22" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="F22">
         <v>130</v>
@@ -7112,13 +7386,13 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="5" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C23" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="F23">
         <v>1692</v>
@@ -7132,10 +7406,10 @@
         <v>300761</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="F24">
         <v>102</v>
@@ -7146,13 +7420,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -7163,13 +7437,13 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="5" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="F26">
         <v>141</v>
@@ -7180,13 +7454,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="5" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="F27">
         <v>44</v>
@@ -7203,10 +7477,10 @@
         <v>600975</v>
       </c>
       <c r="C28" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="D28" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F28">
         <v>41</v>
@@ -7220,13 +7494,13 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="5" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="F29">
         <v>353</v>
@@ -7243,10 +7517,10 @@
         <v>300498</v>
       </c>
       <c r="C30" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D30" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="F30">
         <v>997</v>
@@ -7257,13 +7531,13 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="5" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="F31">
         <v>595</v>
@@ -7274,13 +7548,13 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="F32">
         <v>204</v>
@@ -7294,10 +7568,10 @@
         <v>603363</v>
       </c>
       <c r="C33" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F33">
         <v>172</v>
@@ -7308,13 +7582,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D37" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="F37">
         <v>152</v>
@@ -7325,13 +7599,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="C38" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="D38" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="F38">
         <v>266</v>
@@ -7342,13 +7616,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C39" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D39" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="F39">
         <v>10</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="军工" sheetId="14" r:id="rId12"/>
     <sheet name="汽车" sheetId="15" r:id="rId13"/>
     <sheet name="药品" sheetId="16" r:id="rId14"/>
+    <sheet name="房地产" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="575">
   <si>
     <t>上海环境</t>
   </si>
@@ -1428,7 +1429,7 @@
 </t>
   </si>
   <si>
-    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉、元宇宙、储能、nmn</t>
+    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉、元宇宙、储能、nmn、家用电器、家用轻工</t>
   </si>
   <si>
     <t>航发动力</t>
@@ -1612,6 +1613,147 @@
   </si>
   <si>
     <t>NMN</t>
+  </si>
+  <si>
+    <t>商品房开发</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>深深房A</t>
+  </si>
+  <si>
+    <t>商品房、物业管理、国企性质</t>
+  </si>
+  <si>
+    <t>000402</t>
+  </si>
+  <si>
+    <t>金融街</t>
+  </si>
+  <si>
+    <t>商品房、碳中和，北京国企</t>
+  </si>
+  <si>
+    <t>1701、股值178</t>
+  </si>
+  <si>
+    <t>凤凰股份</t>
+  </si>
+  <si>
+    <t>商品房、江苏国企</t>
+  </si>
+  <si>
+    <t>002208</t>
+  </si>
+  <si>
+    <t>合肥城建</t>
+  </si>
+  <si>
+    <t>商品房、租赁、合肥国企</t>
+  </si>
+  <si>
+    <t>珠江股份</t>
+  </si>
+  <si>
+    <t>商品房、物业、广州国企</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>深圳业A</t>
+  </si>
+  <si>
+    <t>商品房、深圳国企</t>
+  </si>
+  <si>
+    <t>迪马股份</t>
+  </si>
+  <si>
+    <t>商品房、消防机器人、运钞车</t>
+  </si>
+  <si>
+    <t>000656</t>
+  </si>
+  <si>
+    <t>金科股份</t>
+  </si>
+  <si>
+    <t>商品房、风电</t>
+  </si>
+  <si>
+    <t>000897</t>
+  </si>
+  <si>
+    <t>津滨发展</t>
+  </si>
+  <si>
+    <t>商品房、钢材、天津国企</t>
+  </si>
+  <si>
+    <t>华远地产</t>
+  </si>
+  <si>
+    <t>商品房、北京国企</t>
+  </si>
+  <si>
+    <t>000573</t>
+  </si>
+  <si>
+    <t>粤宏远A</t>
+  </si>
+  <si>
+    <t>商品房、再生铅</t>
+  </si>
+  <si>
+    <t>000668</t>
+  </si>
+  <si>
+    <t>荣丰控股</t>
+  </si>
+  <si>
+    <t>商品房、租赁、医疗器械</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t>华联控股</t>
+  </si>
+  <si>
+    <t>商品房</t>
+  </si>
+  <si>
+    <t>卧龙地产</t>
+  </si>
+  <si>
+    <t>商品房、网络游戏</t>
+  </si>
+  <si>
+    <t>华丽家族</t>
+  </si>
+  <si>
+    <t>商品房、石墨烯、工业机器人</t>
+  </si>
+  <si>
+    <t>002016</t>
+  </si>
+  <si>
+    <t>世荣兆业</t>
+  </si>
+  <si>
+    <t>万业企业</t>
+  </si>
+  <si>
+    <t>商品房主业</t>
+  </si>
+  <si>
+    <t>万通发展</t>
+  </si>
+  <si>
+    <t>主营高端物业开发、京津冀一体化</t>
   </si>
 </sst>
 </file>
@@ -1620,9 +1762,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1639,9 +1781,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,29 +1803,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,11 +1841,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1711,14 +1853,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1740,13 +1874,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1763,7 +1912,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,13 +1920,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,7 +1940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,7 +1952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,55 +1964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,19 +1988,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,31 +2036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,13 +2066,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,13 +2120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,21 +2131,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2055,6 +2182,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2072,20 +2214,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2100,7 +2242,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2109,19 +2251,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2130,112 +2272,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2652,7 +2794,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2681,7 +2823,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2917,7 +3059,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N21"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3439,7 +3581,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3568,9 +3710,9 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3994,7 +4136,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -4013,6 +4155,345 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="55.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:7">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F3">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F4" t="s">
+        <v>535</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>600716</v>
+      </c>
+      <c r="C5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F6">
+        <v>187</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>600684</v>
+      </c>
+      <c r="C7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F7">
+        <v>333</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8">
+        <v>198</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>600565</v>
+      </c>
+      <c r="C9" t="s">
+        <v>546</v>
+      </c>
+      <c r="D9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F9">
+        <v>928</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D10" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10">
+        <v>3944</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D11" t="s">
+        <v>553</v>
+      </c>
+      <c r="F11">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>600743</v>
+      </c>
+      <c r="C12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F12">
+        <v>634</v>
+      </c>
+      <c r="G12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C19" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D20" t="s">
+        <v>561</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" t="s">
+        <v>564</v>
+      </c>
+      <c r="F21">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>600173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" t="s">
+        <v>566</v>
+      </c>
+      <c r="F22">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>600503</v>
+      </c>
+      <c r="C23" t="s">
+        <v>567</v>
+      </c>
+      <c r="D23" t="s">
+        <v>568</v>
+      </c>
+      <c r="F23">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D24" t="s">
+        <v>564</v>
+      </c>
+      <c r="F24">
+        <v>74</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>600641</v>
+      </c>
+      <c r="C25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" t="s">
+        <v>572</v>
+      </c>
+      <c r="F25">
+        <v>78</v>
+      </c>
+      <c r="G25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
+        <v>600246</v>
+      </c>
+      <c r="C26" t="s">
+        <v>573</v>
+      </c>
+      <c r="D26" t="s">
+        <v>574</v>
+      </c>
+      <c r="F26">
+        <v>111</v>
+      </c>
+      <c r="G26">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4027,9 +4508,9 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="$A26:$XFD27"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -4299,7 +4780,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4611,7 +5092,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4764,7 +5245,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -4875,9 +5356,9 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -6368,10 +6849,10 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -6965,7 +7446,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -7133,7 +7614,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="697">
   <si>
     <t>上海环境</t>
   </si>
@@ -1425,7 +1425,7 @@
     <t>燃气、芯片、军工、证券、光伏</t>
   </si>
   <si>
-    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份，301108、300268、301198、康平科技、九强生物、科森科技、曼卡龙、朗特智能、鼎盛新材、雄韬股份、华宝股份、英博尔、德宏股份、澳柯玛、晶方科技、阳关照明
+    <t xml:space="preserve">江特电机，太钢不锈，银星能源，塔牌集团，盛弘股份，高澜股份，爱康科技，宇顺电子，东珠生态，中材科技，芯能科技，联泓新科，南钢股份，天阳科技，利欧股份，宁波精达，泉峰汽车，通达动力,国发股份，301108、300268、301198、康平科技、九强生物、科森科技、曼卡龙、朗特智能、鼎盛新材、雄韬股份、华宝股份、英博尔、德宏股份、澳柯玛、晶方科技、阳关照明、明月镜片、
 </t>
   </si>
   <si>
@@ -1609,10 +1609,376 @@
     <t>公交EDR、人脸识别、百度概念、充电桩、新能源汽车</t>
   </si>
   <si>
-    <t>行业</t>
-  </si>
-  <si>
     <t>NMN</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
+    <t>亚宝药业</t>
+  </si>
+  <si>
+    <t>中药西药、流感、胰岛素、儿童药</t>
+  </si>
+  <si>
+    <t>002198</t>
+  </si>
+  <si>
+    <t>嘉应制药</t>
+  </si>
+  <si>
+    <t>中药、抗癌</t>
+  </si>
+  <si>
+    <t>贵州三力</t>
+  </si>
+  <si>
+    <t>中药、医保目录、三胎概念、专精特新</t>
+  </si>
+  <si>
+    <t>珍宝岛</t>
+  </si>
+  <si>
+    <t>中医药、创新药、抗癌、流感</t>
+  </si>
+  <si>
+    <t>002644</t>
+  </si>
+  <si>
+    <t>佛慈制药</t>
+  </si>
+  <si>
+    <t>禽流感、中药、口罩、消毒剂、国企</t>
+  </si>
+  <si>
+    <t>利润下降</t>
+  </si>
+  <si>
+    <t>健民集团</t>
+  </si>
+  <si>
+    <t>流感、老字号、儿童药、医保目录、</t>
+  </si>
+  <si>
+    <t>高点</t>
+  </si>
+  <si>
+    <t>利润大涨</t>
+  </si>
+  <si>
+    <t>寿仙谷</t>
+  </si>
+  <si>
+    <t>老字号、保健品、维生素、工业大麻</t>
+  </si>
+  <si>
+    <t>利润上涨</t>
+  </si>
+  <si>
+    <t>葫芦娃</t>
+  </si>
+  <si>
+    <t>流感、儿童药、医保目录、三胎概念、湖南自贸区</t>
+  </si>
+  <si>
+    <t>上海凯宝</t>
+  </si>
+  <si>
+    <t>登革热、医疗器械、生物医药、医保目录、超级真菌</t>
+  </si>
+  <si>
+    <t>000790</t>
+  </si>
+  <si>
+    <t>华神科技</t>
+  </si>
+  <si>
+    <t>流感、医保目录、生物医药、抗癌、钢结构、兽药</t>
+  </si>
+  <si>
+    <t>未大涨</t>
+  </si>
+  <si>
+    <t>康恩贝</t>
+  </si>
+  <si>
+    <t>医保目录、抗癌、智能医疗、医药电商、互联网医疗</t>
+  </si>
+  <si>
+    <t>康惠制药</t>
+  </si>
+  <si>
+    <t>医保目录、nmn概念、牙科医疗</t>
+  </si>
+  <si>
+    <t>西藏药业</t>
+  </si>
+  <si>
+    <t>冬虫夏草、抗癌、小额贷款、人脑工程、医保目录</t>
+  </si>
+  <si>
+    <t>002907</t>
+  </si>
+  <si>
+    <t>华森制药</t>
+  </si>
+  <si>
+    <t>仿制药、创新药、医保目录</t>
+  </si>
+  <si>
+    <t>000989</t>
+  </si>
+  <si>
+    <t>九芝堂</t>
+  </si>
+  <si>
+    <t>老字号、医保目录、中医药、干细胞</t>
+  </si>
+  <si>
+    <t>粤万青年</t>
+  </si>
+  <si>
+    <t>口罩、次新</t>
+  </si>
+  <si>
+    <t>金花股份</t>
+  </si>
+  <si>
+    <t>生物医药（骨科领先）、多肽药、抗癌、医疗器械、创新药</t>
+  </si>
+  <si>
+    <t>002566</t>
+  </si>
+  <si>
+    <t>益盛药业</t>
+  </si>
+  <si>
+    <t>人参、保健品、新零售、化妆品</t>
+  </si>
+  <si>
+    <t>江中药业</t>
+  </si>
+  <si>
+    <t>冬虫夏草、抗艾滋、医保目录、高校、健康中国、国企</t>
+  </si>
+  <si>
+    <t>002412</t>
+  </si>
+  <si>
+    <t>汉森制药</t>
+  </si>
+  <si>
+    <t>传统中成药、仿制药</t>
+  </si>
+  <si>
+    <t>002737</t>
+  </si>
+  <si>
+    <t>葵花药业</t>
+  </si>
+  <si>
+    <t>儿童药、流感、医药目录、保健品、维生素</t>
+  </si>
+  <si>
+    <t>维康药业</t>
+  </si>
+  <si>
+    <t>中成药、医保目录（6）</t>
+  </si>
+  <si>
+    <t>片仔癀</t>
+  </si>
+  <si>
+    <t>龙头、有绝密配方、老字号、多肽药、冬虫夏草、抗癌、登革热</t>
+  </si>
+  <si>
+    <t>000590</t>
+  </si>
+  <si>
+    <t>启迪药业</t>
+  </si>
+  <si>
+    <t>医保目录、保健品、健康中国、高校</t>
+  </si>
+  <si>
+    <t>吉药控股</t>
+  </si>
+  <si>
+    <t>炭黑、生物医药、艾滋、抗癌、创新药</t>
+  </si>
+  <si>
+    <t>利润下涨</t>
+  </si>
+  <si>
+    <t>方盛制药</t>
+  </si>
+  <si>
+    <t>抗癌、创新药、医保目录、工业大麻</t>
+  </si>
+  <si>
+    <t>千金药业</t>
+  </si>
+  <si>
+    <t>医保目录、健康中国、仿制药、国企</t>
+  </si>
+  <si>
+    <t>康缘药业</t>
+  </si>
+  <si>
+    <t>禽流感、医保目录、登革热、医药电商</t>
+  </si>
+  <si>
+    <t>002287</t>
+  </si>
+  <si>
+    <t>奇正藏药</t>
+  </si>
+  <si>
+    <t>冬虫夏草、生物医药</t>
+  </si>
+  <si>
+    <t>益佰制药</t>
+  </si>
+  <si>
+    <t>抗癌、医保目录、医美、民营医院</t>
+  </si>
+  <si>
+    <t>太龙药业</t>
+  </si>
+  <si>
+    <t>流感、医保目录、禽流感、生物医药</t>
+  </si>
+  <si>
+    <t>002317</t>
+  </si>
+  <si>
+    <t>众生药业</t>
+  </si>
+  <si>
+    <t>眼科、生物医药、医保目录、创新药、肿瘤、nmn</t>
+  </si>
+  <si>
+    <t>002728</t>
+  </si>
+  <si>
+    <t>特一药业</t>
+  </si>
+  <si>
+    <t>仿制药、医美、nmn</t>
+  </si>
+  <si>
+    <t>大理药业</t>
+  </si>
+  <si>
+    <t>小容量注射剂</t>
+  </si>
+  <si>
+    <t>利润大降</t>
+  </si>
+  <si>
+    <t>002390</t>
+  </si>
+  <si>
+    <t>信邦制药</t>
+  </si>
+  <si>
+    <t>生物医药、民营医院、互联网医疗、抗癌、基因测序</t>
+  </si>
+  <si>
+    <t>新光药业</t>
+  </si>
+  <si>
+    <t>医保目录、保健品、小额贷款</t>
+  </si>
+  <si>
+    <t>佐力药业</t>
+  </si>
+  <si>
+    <t>冬虫夏草、生物医药、医保目录、基因测序、细胞免疫</t>
+  </si>
+  <si>
+    <t>太极集团</t>
+  </si>
+  <si>
+    <t>流感、医保目录、健康中国、成渝特区、国企</t>
+  </si>
+  <si>
+    <t>002864</t>
+  </si>
+  <si>
+    <t>盘龙药业</t>
+  </si>
+  <si>
+    <t>医保目录、消毒剂、医疗器械</t>
+  </si>
+  <si>
+    <t>002433</t>
+  </si>
+  <si>
+    <t>太安堂</t>
+  </si>
+  <si>
+    <t>医药电商、互联网医疗、医保目录、辅助生殖</t>
+  </si>
+  <si>
+    <t>002750</t>
+  </si>
+  <si>
+    <t>龙津药业</t>
+  </si>
+  <si>
+    <t>工业大麻、仿制药、</t>
+  </si>
+  <si>
+    <t>002873</t>
+  </si>
+  <si>
+    <t>新天药业</t>
+  </si>
+  <si>
+    <t>医保目录、HPV疫苗、创新药、仿制药</t>
+  </si>
+  <si>
+    <t>002424</t>
+  </si>
+  <si>
+    <t>贵州百灵</t>
+  </si>
+  <si>
+    <t>互联网医疗、健康中国、腾讯概念、抗癌、创新药</t>
+  </si>
+  <si>
+    <t>大涨</t>
+  </si>
+  <si>
+    <t>002349</t>
+  </si>
+  <si>
+    <t>精华制药</t>
+  </si>
+  <si>
+    <t>生物医药、医保目录、肿瘤、单抗、国企</t>
+  </si>
+  <si>
+    <t>广誉远</t>
+  </si>
+  <si>
+    <t>老字号、白酒、健康中国、互联网医疗、国企</t>
+  </si>
+  <si>
+    <t>002082</t>
+  </si>
+  <si>
+    <t>万邦德</t>
+  </si>
+  <si>
+    <t>医疗器械、化妆品、口罩、生物疫苗、阿尔海默</t>
+  </si>
+  <si>
+    <t>陇神戎发</t>
+  </si>
+  <si>
+    <t>中药、国企</t>
   </si>
   <si>
     <t>商品房开发</t>
@@ -1761,9 +2127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1782,6 +2148,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1795,15 +2175,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1814,30 +2204,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1853,6 +2219,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1874,7 +2248,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,14 +2257,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1905,7 +2271,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,7 +2306,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,25 +2342,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,37 +2390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,37 +2408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,37 +2432,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,13 +2480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,6 +2530,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2182,17 +2563,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2211,26 +2597,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2239,10 +2605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2251,34 +2617,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2287,97 +2653,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3059,7 +3425,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:V22"/>
+      <selection activeCell="A1" sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -4133,18 +4499,20 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:V22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="58.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>526</v>
-      </c>
+    <row r="1" spans="6:7">
       <c r="F1" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +4522,943 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>600351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>156</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15">
+        <v>603439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D15" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
+        <v>603567</v>
+      </c>
+      <c r="C16" t="s">
+        <v>535</v>
+      </c>
+      <c r="D16" t="s">
+        <v>536</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>102</v>
+      </c>
+      <c r="G16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" t="s">
+        <v>539</v>
+      </c>
+      <c r="F17">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>600976</v>
+      </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" t="s">
+        <v>542</v>
+      </c>
+      <c r="E18" t="s">
+        <v>543</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>603896</v>
+      </c>
+      <c r="C19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E19" t="s">
+        <v>543</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>605199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>548</v>
+      </c>
+      <c r="D20" t="s">
+        <v>549</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21">
+        <v>300039</v>
+      </c>
+      <c r="C21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D21" t="s">
+        <v>551</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>547</v>
+      </c>
+      <c r="I22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>600572</v>
+      </c>
+      <c r="C23" t="s">
+        <v>556</v>
+      </c>
+      <c r="D23" t="s">
+        <v>557</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+      <c r="G23">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>603139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>558</v>
+      </c>
+      <c r="D24" t="s">
+        <v>559</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>600211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" t="s">
+        <v>561</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D26" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" t="s">
+        <v>567</v>
+      </c>
+      <c r="F27">
+        <v>53</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>301111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>568</v>
+      </c>
+      <c r="D28" t="s">
+        <v>569</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>600080</v>
+      </c>
+      <c r="C29" t="s">
+        <v>570</v>
+      </c>
+      <c r="D29" t="s">
+        <v>571</v>
+      </c>
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D30" t="s">
+        <v>574</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31">
+        <v>600750</v>
+      </c>
+      <c r="C31" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" t="s">
+        <v>576</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C32" t="s">
+        <v>578</v>
+      </c>
+      <c r="D32" t="s">
+        <v>579</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C33" t="s">
+        <v>581</v>
+      </c>
+      <c r="D33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F33">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>300878</v>
+      </c>
+      <c r="C34" t="s">
+        <v>583</v>
+      </c>
+      <c r="D34" t="s">
+        <v>584</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35">
+        <v>600436</v>
+      </c>
+      <c r="C35" t="s">
+        <v>585</v>
+      </c>
+      <c r="D35" t="s">
+        <v>586</v>
+      </c>
+      <c r="F35">
+        <v>119</v>
+      </c>
+      <c r="G35">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" t="s">
+        <v>589</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <v>300108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>590</v>
+      </c>
+      <c r="D37" t="s">
+        <v>591</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>603998</v>
+      </c>
+      <c r="C38" t="s">
+        <v>593</v>
+      </c>
+      <c r="D38" t="s">
+        <v>594</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>600479</v>
+      </c>
+      <c r="C39" t="s">
+        <v>595</v>
+      </c>
+      <c r="D39" t="s">
+        <v>596</v>
+      </c>
+      <c r="E39" t="s">
+        <v>543</v>
+      </c>
+      <c r="F39">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>600557</v>
+      </c>
+      <c r="C40" t="s">
+        <v>597</v>
+      </c>
+      <c r="D40" t="s">
+        <v>598</v>
+      </c>
+      <c r="F40">
+        <v>57</v>
+      </c>
+      <c r="G40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D41" t="s">
+        <v>601</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42">
+        <v>600594</v>
+      </c>
+      <c r="C42" t="s">
+        <v>602</v>
+      </c>
+      <c r="D42" t="s">
+        <v>603</v>
+      </c>
+      <c r="F42">
+        <v>54</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43">
+        <v>600222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D43" t="s">
+        <v>605</v>
+      </c>
+      <c r="F43">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>140</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C44" t="s">
+        <v>607</v>
+      </c>
+      <c r="D44" t="s">
+        <v>608</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C45" t="s">
+        <v>610</v>
+      </c>
+      <c r="D45" t="s">
+        <v>611</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46">
+        <v>603963</v>
+      </c>
+      <c r="C46" t="s">
+        <v>612</v>
+      </c>
+      <c r="D46" t="s">
+        <v>613</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C47" t="s">
+        <v>616</v>
+      </c>
+      <c r="D47" t="s">
+        <v>617</v>
+      </c>
+      <c r="F47">
+        <v>96</v>
+      </c>
+      <c r="G47">
+        <v>55</v>
+      </c>
+      <c r="H47" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48">
+        <v>300519</v>
+      </c>
+      <c r="C48" t="s">
+        <v>618</v>
+      </c>
+      <c r="D48" t="s">
+        <v>619</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49">
+        <v>300181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>620</v>
+      </c>
+      <c r="D49" t="s">
+        <v>621</v>
+      </c>
+      <c r="F49">
+        <v>33</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50">
+        <v>600129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>622</v>
+      </c>
+      <c r="D50" t="s">
+        <v>623</v>
+      </c>
+      <c r="F50">
+        <v>134</v>
+      </c>
+      <c r="G50">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C51" t="s">
+        <v>625</v>
+      </c>
+      <c r="D51" t="s">
+        <v>626</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C52" t="s">
+        <v>628</v>
+      </c>
+      <c r="D52" t="s">
+        <v>629</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>81</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C53" t="s">
+        <v>631</v>
+      </c>
+      <c r="D53" t="s">
+        <v>632</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>205</v>
+      </c>
+      <c r="H53">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" t="s">
+        <v>634</v>
+      </c>
+      <c r="D54" t="s">
+        <v>635</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C55" t="s">
+        <v>637</v>
+      </c>
+      <c r="D55" t="s">
+        <v>638</v>
+      </c>
+      <c r="E55" t="s">
+        <v>639</v>
+      </c>
+      <c r="F55">
+        <v>65</v>
+      </c>
+      <c r="G55">
+        <v>92</v>
+      </c>
+      <c r="H55">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C56" t="s">
+        <v>641</v>
+      </c>
+      <c r="D56" t="s">
+        <v>642</v>
+      </c>
+      <c r="F56">
+        <v>31</v>
+      </c>
+      <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57">
+        <v>600771</v>
+      </c>
+      <c r="C57" t="s">
+        <v>643</v>
+      </c>
+      <c r="D57" t="s">
+        <v>644</v>
+      </c>
+      <c r="F57">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C58" t="s">
+        <v>646</v>
+      </c>
+      <c r="D58" t="s">
+        <v>647</v>
+      </c>
+      <c r="F58">
+        <v>41</v>
+      </c>
+      <c r="G58">
+        <v>27</v>
+      </c>
+      <c r="H58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59">
+        <v>300534</v>
+      </c>
+      <c r="C59" t="s">
+        <v>648</v>
+      </c>
+      <c r="D59" t="s">
+        <v>649</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>502</v>
+      </c>
+      <c r="H59">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4168,7 +5472,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4187,18 +5491,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>529</v>
+        <v>651</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>652</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>653</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -4209,16 +5513,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
-        <v>532</v>
+        <v>654</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>655</v>
       </c>
       <c r="D4" t="s">
-        <v>534</v>
+        <v>656</v>
       </c>
       <c r="F4" t="s">
-        <v>535</v>
+        <v>657</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -4229,10 +5533,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>658</v>
       </c>
       <c r="D5" t="s">
-        <v>537</v>
+        <v>659</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -4243,13 +5547,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>538</v>
+        <v>660</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>540</v>
+        <v>662</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -4263,10 +5567,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>663</v>
       </c>
       <c r="D7" t="s">
-        <v>542</v>
+        <v>664</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -4277,13 +5581,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>543</v>
+        <v>665</v>
       </c>
       <c r="C8" t="s">
-        <v>544</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>545</v>
+        <v>667</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -4297,10 +5601,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>668</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>669</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -4311,13 +5615,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>548</v>
+        <v>670</v>
       </c>
       <c r="C10" t="s">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>550</v>
+        <v>672</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -4328,13 +5632,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>551</v>
+        <v>673</v>
       </c>
       <c r="C11" t="s">
-        <v>552</v>
+        <v>674</v>
       </c>
       <c r="D11" t="s">
-        <v>553</v>
+        <v>675</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -4348,10 +5652,10 @@
         <v>600743</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>676</v>
       </c>
       <c r="D12" t="s">
-        <v>555</v>
+        <v>677</v>
       </c>
       <c r="F12">
         <v>634</v>
@@ -4362,13 +5666,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>556</v>
+        <v>678</v>
       </c>
       <c r="C19" t="s">
-        <v>557</v>
+        <v>679</v>
       </c>
       <c r="D19" t="s">
-        <v>558</v>
+        <v>680</v>
       </c>
       <c r="F19">
         <v>22</v>
@@ -4379,13 +5683,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>559</v>
+        <v>681</v>
       </c>
       <c r="C20" t="s">
-        <v>560</v>
+        <v>682</v>
       </c>
       <c r="D20" t="s">
-        <v>561</v>
+        <v>683</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -4396,13 +5700,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>562</v>
+        <v>684</v>
       </c>
       <c r="C21" t="s">
-        <v>563</v>
+        <v>685</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>686</v>
       </c>
       <c r="F21">
         <v>97</v>
@@ -4416,10 +5720,10 @@
         <v>600173</v>
       </c>
       <c r="C22" t="s">
-        <v>565</v>
+        <v>687</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>688</v>
       </c>
       <c r="F22">
         <v>73</v>
@@ -4433,10 +5737,10 @@
         <v>600503</v>
       </c>
       <c r="C23" t="s">
-        <v>567</v>
+        <v>689</v>
       </c>
       <c r="D23" t="s">
-        <v>568</v>
+        <v>690</v>
       </c>
       <c r="F23">
         <v>53</v>
@@ -4447,13 +5751,13 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
-        <v>569</v>
+        <v>691</v>
       </c>
       <c r="C24" t="s">
-        <v>570</v>
+        <v>692</v>
       </c>
       <c r="D24" t="s">
-        <v>564</v>
+        <v>686</v>
       </c>
       <c r="F24">
         <v>74</v>
@@ -4467,10 +5771,10 @@
         <v>600641</v>
       </c>
       <c r="C25" t="s">
-        <v>571</v>
+        <v>693</v>
       </c>
       <c r="D25" t="s">
-        <v>572</v>
+        <v>694</v>
       </c>
       <c r="F25">
         <v>78</v>
@@ -4484,10 +5788,10 @@
         <v>600246</v>
       </c>
       <c r="C26" t="s">
-        <v>573</v>
+        <v>695</v>
       </c>
       <c r="D26" t="s">
-        <v>574</v>
+        <v>696</v>
       </c>
       <c r="F26">
         <v>111</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="7" activeTab="13"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="汽车" sheetId="15" r:id="rId13"/>
     <sheet name="药品" sheetId="16" r:id="rId14"/>
     <sheet name="房地产" sheetId="17" r:id="rId15"/>
+    <sheet name="冬奥会" sheetId="18" r:id="rId16"/>
+    <sheet name="家居" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="801">
   <si>
     <t>上海环境</t>
   </si>
@@ -153,6 +155,18 @@
     <t>海思、智能穿戴、智能电视、5G、虚拟实现、车联网</t>
   </si>
   <si>
+    <t>虚拟实现</t>
+  </si>
+  <si>
+    <t>002878</t>
+  </si>
+  <si>
+    <t>元隆雅图</t>
+  </si>
+  <si>
+    <t>元宇宙、虚拟数字人、华为概念、无线耳机、冬奥会</t>
+  </si>
+  <si>
     <t>电解铝</t>
   </si>
   <si>
@@ -798,6 +812,15 @@
     <t>固废处理、节能环保、污水处理、加氢站运营</t>
   </si>
   <si>
+    <t>002418</t>
+  </si>
+  <si>
+    <t>康盛股份</t>
+  </si>
+  <si>
+    <t>氢燃料电池、氢燃料商用车、石墨烯、新能源汽车</t>
+  </si>
+  <si>
     <t>000581</t>
   </si>
   <si>
@@ -930,6 +953,42 @@
     <t>光伏制氢、光伏</t>
   </si>
   <si>
+    <t>甲醇</t>
+  </si>
+  <si>
+    <t>002808</t>
+  </si>
+  <si>
+    <t>恒久科技</t>
+  </si>
+  <si>
+    <t>甲醇燃料电池、区块链、网络安全、激光、军工</t>
+  </si>
+  <si>
+    <t>金牛化工</t>
+  </si>
+  <si>
+    <t>甲醇生产、京津冀一体化、国企</t>
+  </si>
+  <si>
+    <t>002109</t>
+  </si>
+  <si>
+    <t>兴化股份</t>
+  </si>
+  <si>
+    <t>煤化工、甲醇生产、国企</t>
+  </si>
+  <si>
+    <t>000912</t>
+  </si>
+  <si>
+    <t>泸天化</t>
+  </si>
+  <si>
+    <t>尿素、甲醇生产、化肥、国企</t>
+  </si>
+  <si>
     <t>券商</t>
   </si>
   <si>
@@ -1125,6 +1184,12 @@
     <t>数字货币（拥有两种数字货币钱包专利），创投、区块链</t>
   </si>
   <si>
+    <t>先进数通</t>
+  </si>
+  <si>
+    <t>数字货币（数字货币应用研发完成，正在推广），大数据、区块链、无人银行</t>
+  </si>
+  <si>
     <t>000997</t>
   </si>
   <si>
@@ -1194,6 +1259,12 @@
     <t>集成电路制造和技术服务商</t>
   </si>
   <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
     <t>休闲食品</t>
   </si>
   <si>
@@ -1417,6 +1488,81 @@
   </si>
   <si>
     <t>主业饲料（畜禽水产）、</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>伊力特</t>
+  </si>
+  <si>
+    <t>高端白酒、国企</t>
+  </si>
+  <si>
+    <t>002646</t>
+  </si>
+  <si>
+    <t>青青稞酒</t>
+  </si>
+  <si>
+    <t>白酒、老字号</t>
+  </si>
+  <si>
+    <t>000799</t>
+  </si>
+  <si>
+    <t>酒鬼酒</t>
+  </si>
+  <si>
+    <t>白酒、中粮系、央企</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>高端白酒、老字号、国企</t>
+  </si>
+  <si>
+    <t>水井坊</t>
+  </si>
+  <si>
+    <t>高端白酒、老字号、成渝特区、鸡尾酒、基因疗法</t>
+  </si>
+  <si>
+    <t>古越龙山</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>国投鲁中</t>
+  </si>
+  <si>
+    <t>果蔬汁、饮料、北京国务院</t>
+  </si>
+  <si>
+    <t>养元饮品</t>
+  </si>
+  <si>
+    <t>核桃饮品</t>
+  </si>
+  <si>
+    <t>均瑶健康</t>
+  </si>
+  <si>
+    <t>乳业、三胎</t>
+  </si>
+  <si>
+    <t>金枫酒业</t>
+  </si>
+  <si>
+    <t>黄酒、中低端、老字号、国企</t>
+  </si>
+  <si>
+    <t>莫高股份</t>
+  </si>
+  <si>
+    <t>红酒生产、种植葡萄</t>
   </si>
   <si>
     <t xml:space="preserve">九月份苹果发布新品后，vr电子产品类会上涨（miniLED），基建（中字开头，尤其是有矿的），新能源金属（钴、电解铝、钛白粉）        环保目前在低点                                                            </t>
@@ -1429,7 +1575,7 @@
 </t>
   </si>
   <si>
-    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉、元宇宙、储能、nmn、家用电器、家用轻工</t>
+    <t>特高压、光伏、风电、新能源汽车、汽车零部件、数字货币、黑匣子、氢能源、猪肉、元宇宙、储能、nmn、家用电器、家用轻工、冬奥会（数字货币、氢能源）、云计算</t>
   </si>
   <si>
     <t>航发动力</t>
@@ -2120,6 +2266,174 @@
   </si>
   <si>
     <t>主营高端物业开发、京津冀一体化</t>
+  </si>
+  <si>
+    <t>零售</t>
+  </si>
+  <si>
+    <t>万事利</t>
+  </si>
+  <si>
+    <t>丝绸产品的生产、销售</t>
+  </si>
+  <si>
+    <t>001216</t>
+  </si>
+  <si>
+    <t>华瓷股份</t>
+  </si>
+  <si>
+    <t>主营瓷器、柔性直流输电、特高压</t>
+  </si>
+  <si>
+    <t>探路者</t>
+  </si>
+  <si>
+    <t>体育用品、电子商务、在线旅游、智能穿戴</t>
+  </si>
+  <si>
+    <t>菜百股份</t>
+  </si>
+  <si>
+    <t>徽章纪念币、电子商务、北京国企</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>零点有数</t>
+  </si>
+  <si>
+    <t>数据分析与决策、大数据、一带一路</t>
+  </si>
+  <si>
+    <t>金现代</t>
+  </si>
+  <si>
+    <t>冬奥会电力系统建设、国产软件、轨道交通、工业互联网、特高压、大数据</t>
+  </si>
+  <si>
+    <t>002899</t>
+  </si>
+  <si>
+    <t>英派斯</t>
+  </si>
+  <si>
+    <t>体育产业、冰雪产业</t>
+  </si>
+  <si>
+    <t>绿岛风</t>
+  </si>
+  <si>
+    <t>空气净化、建筑节能</t>
+  </si>
+  <si>
+    <t>000558</t>
+  </si>
+  <si>
+    <t>莱茵体育</t>
+  </si>
+  <si>
+    <t>运营冬奥会赛事、体育产业、足球概念、电子竞技、冰雪产业</t>
+  </si>
+  <si>
+    <t>上涨</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>000521</t>
+  </si>
+  <si>
+    <t>长虹美菱</t>
+  </si>
+  <si>
+    <t>三大件、厨卫、小家电、冷链物流、智能家居、医疗器械、电子商务</t>
+  </si>
+  <si>
+    <t>春兰股份</t>
+  </si>
+  <si>
+    <t>主营空调</t>
+  </si>
+  <si>
+    <t>大涨过</t>
+  </si>
+  <si>
+    <t>惠而浦</t>
+  </si>
+  <si>
+    <t>洗衣机、厨余垃圾粉碎机、工业4.0、一带一路</t>
+  </si>
+  <si>
+    <t>宏昌科技</t>
+  </si>
+  <si>
+    <t>流体电磁阀、传感器、家电零部件</t>
+  </si>
+  <si>
+    <t>奇精机械</t>
+  </si>
+  <si>
+    <t>洗衣机零部件、汽车零部件</t>
+  </si>
+  <si>
+    <t>金海高科</t>
+  </si>
+  <si>
+    <t>PM2.5概念，主要生产空气过滤网、用于空调、汽车、防沙网（荒漠），口罩</t>
+  </si>
+  <si>
+    <t>002676</t>
+  </si>
+  <si>
+    <t>顺威股份</t>
+  </si>
+  <si>
+    <t>主营空调叶片、智能家居、口罩</t>
+  </si>
+  <si>
+    <t>朗迪集团</t>
+  </si>
+  <si>
+    <t>家用与商用空调风叶优质制造商</t>
+  </si>
+  <si>
+    <t>东贝集团</t>
+  </si>
+  <si>
+    <t>制冷压缩机、光伏电站、压缩机电机</t>
+  </si>
+  <si>
+    <t>000404</t>
+  </si>
+  <si>
+    <t>长虹华意</t>
+  </si>
+  <si>
+    <t>压缩机全球龙头、智能家居、工业4.0、机器人概念、镍氢电池</t>
+  </si>
+  <si>
+    <t>海立股份</t>
+  </si>
+  <si>
+    <t>国内封闭式制冷压缩机龙头、冷链物流、国企</t>
+  </si>
+  <si>
+    <t>002290</t>
+  </si>
+  <si>
+    <t>禾盛新材</t>
+  </si>
+  <si>
+    <t>电器外观复合材料</t>
+  </si>
+  <si>
+    <t>立霸股份</t>
+  </si>
+  <si>
+    <t>加点外观材料、第三代半导体、碳化硅、集成电路</t>
   </si>
 </sst>
 </file>
@@ -2127,10 +2441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2147,15 +2461,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2169,9 +2477,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2186,29 +2546,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2239,24 +2576,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2271,14 +2592,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2306,31 +2620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2342,37 +2650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,49 +2668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,7 +2710,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,31 +2770,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,21 +2825,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2563,22 +2862,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2597,6 +2891,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2605,10 +2919,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2617,133 +2931,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3196,7 +3510,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3406,7 +3720,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +3739,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N21"/>
+      <selection activeCell="P1" sqref="P1:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3437,7 +3751,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3453,7 +3767,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -3965,7 +4279,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -3979,7 +4293,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -3993,7 +4307,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -4007,7 +4321,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -4021,7 +4335,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -4035,10 +4349,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -4049,13 +4363,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -4076,9 +4390,9 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -4096,18 +4410,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -4124,7 +4438,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4138,10 +4452,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -4155,10 +4469,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -4172,10 +4486,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -4189,10 +4503,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -4206,10 +4520,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -4223,10 +4537,10 @@
         <v>300428</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="F10">
         <v>133</v>
@@ -4240,10 +4554,10 @@
         <v>603949</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -4254,18 +4568,18 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="C17" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="D17" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -4282,7 +4596,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -4296,10 +4610,10 @@
         <v>300742</v>
       </c>
       <c r="C22" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="D22" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -4310,18 +4624,18 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="C27" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="D27" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -4332,13 +4646,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="C28" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="F28">
         <v>92</v>
@@ -4352,13 +4666,13 @@
         <v>300458</v>
       </c>
       <c r="C29" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="D29" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="E29" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -4372,10 +4686,10 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="C30" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -4395,7 +4709,7 @@
         <v>300188</v>
       </c>
       <c r="C31" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
       <c r="F31">
         <v>42</v>
@@ -4412,10 +4726,10 @@
         <v>300735</v>
       </c>
       <c r="C32" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="D32" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
       <c r="F32">
         <v>58</v>
@@ -4435,10 +4749,10 @@
         <v>600081</v>
       </c>
       <c r="C33" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="D33" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="F33">
         <v>95</v>
@@ -4452,13 +4766,13 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="C34" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="D34" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="F34">
         <v>41</v>
@@ -4470,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -4478,10 +4792,10 @@
         <v>300807</v>
       </c>
       <c r="C35" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="D35" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4501,10 +4815,10 @@
   <sheetPr/>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -4522,12 +4836,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -4535,10 +4849,10 @@
         <v>600351</v>
       </c>
       <c r="C13" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="D13" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
       <c r="F13">
         <v>38</v>
@@ -4549,13 +4863,13 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="C14" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="D14" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -4572,10 +4886,10 @@
         <v>603439</v>
       </c>
       <c r="C15" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="D15" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -4592,10 +4906,10 @@
         <v>603567</v>
       </c>
       <c r="C16" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="D16" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -4609,13 +4923,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="5" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="C17" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="F17">
         <v>54</v>
@@ -4624,7 +4938,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -4632,13 +4946,13 @@
         <v>600976</v>
       </c>
       <c r="C18" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="F18">
         <v>26</v>
@@ -4647,7 +4961,7 @@
         <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -4655,13 +4969,13 @@
         <v>603896</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="D19" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="E19" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -4670,7 +4984,7 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -4678,10 +4992,10 @@
         <v>605199</v>
       </c>
       <c r="C20" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="F20">
         <v>14</v>
@@ -4695,10 +5009,10 @@
         <v>300039</v>
       </c>
       <c r="C21" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="D21" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="F21">
         <v>32</v>
@@ -4709,13 +5023,13 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="C22" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="D22" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -4724,10 +5038,10 @@
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="I22" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -4735,10 +5049,10 @@
         <v>600572</v>
       </c>
       <c r="C23" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="D23" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="F23">
         <v>88</v>
@@ -4747,7 +5061,7 @@
         <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -4755,10 +5069,10 @@
         <v>603139</v>
       </c>
       <c r="C24" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
       <c r="D24" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="F24">
         <v>17</v>
@@ -4767,7 +5081,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -4775,10 +5089,10 @@
         <v>600211</v>
       </c>
       <c r="C25" t="s">
-        <v>560</v>
+        <v>608</v>
       </c>
       <c r="D25" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -4790,18 +5104,18 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="C26" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="D26" t="s">
-        <v>564</v>
+        <v>612</v>
       </c>
       <c r="F26">
         <v>17</v>
@@ -4815,13 +5129,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
-        <v>565</v>
+        <v>613</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
+        <v>615</v>
       </c>
       <c r="F27">
         <v>53</v>
@@ -4835,10 +5149,10 @@
         <v>301111</v>
       </c>
       <c r="C28" t="s">
-        <v>568</v>
+        <v>616</v>
       </c>
       <c r="D28" t="s">
-        <v>569</v>
+        <v>617</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -4852,10 +5166,10 @@
         <v>600080</v>
       </c>
       <c r="C29" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="D29" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="F29">
         <v>19</v>
@@ -4864,18 +5178,18 @@
         <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="C30" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="D30" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="F30">
         <v>27</v>
@@ -4884,7 +5198,7 @@
         <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -4892,10 +5206,10 @@
         <v>600750</v>
       </c>
       <c r="C31" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="D31" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="F31">
         <v>55</v>
@@ -4906,13 +5220,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="D32" t="s">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -4921,18 +5235,18 @@
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="5" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="C33" t="s">
-        <v>581</v>
+        <v>629</v>
       </c>
       <c r="D33" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="F33">
         <v>53</v>
@@ -4941,7 +5255,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -4949,10 +5263,10 @@
         <v>300878</v>
       </c>
       <c r="C34" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="D34" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -4969,10 +5283,10 @@
         <v>600436</v>
       </c>
       <c r="C35" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="D35" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="F35">
         <v>119</v>
@@ -4981,18 +5295,18 @@
         <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="5" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C36" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="D36" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -5001,7 +5315,7 @@
         <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -5009,10 +5323,10 @@
         <v>300108</v>
       </c>
       <c r="C37" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="D37" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="F37">
         <v>25</v>
@@ -5021,7 +5335,7 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -5029,10 +5343,10 @@
         <v>603998</v>
       </c>
       <c r="C38" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
       <c r="D38" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="F38">
         <v>25</v>
@@ -5046,13 +5360,13 @@
         <v>600479</v>
       </c>
       <c r="C39" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="D39" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="E39" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="F39">
         <v>40</v>
@@ -5066,10 +5380,10 @@
         <v>600557</v>
       </c>
       <c r="C40" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="D40" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="F40">
         <v>57</v>
@@ -5080,13 +5394,13 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="5" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="C41" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="D41" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -5098,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -5106,10 +5420,10 @@
         <v>600594</v>
       </c>
       <c r="C42" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="D42" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="F42">
         <v>54</v>
@@ -5123,10 +5437,10 @@
         <v>600222</v>
       </c>
       <c r="C43" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="D43" t="s">
-        <v>605</v>
+        <v>653</v>
       </c>
       <c r="F43">
         <v>38</v>
@@ -5140,13 +5454,13 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="C44" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="D44" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -5160,13 +5474,13 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="5" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="C45" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="D45" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -5175,7 +5489,7 @@
         <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -5183,10 +5497,10 @@
         <v>603963</v>
       </c>
       <c r="C46" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="D46" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -5195,18 +5509,18 @@
         <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="5" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="C47" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="F47">
         <v>96</v>
@@ -5215,7 +5529,7 @@
         <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -5223,10 +5537,10 @@
         <v>300519</v>
       </c>
       <c r="C48" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="D48" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -5240,10 +5554,10 @@
         <v>300181</v>
       </c>
       <c r="C49" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="D49" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="F49">
         <v>33</v>
@@ -5252,7 +5566,7 @@
         <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -5260,10 +5574,10 @@
         <v>600129</v>
       </c>
       <c r="C50" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="D50" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="F50">
         <v>134</v>
@@ -5272,18 +5586,18 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="5" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="C51" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="D51" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -5294,13 +5608,13 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="5" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="C52" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="D52" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -5312,18 +5626,18 @@
         <v>9</v>
       </c>
       <c r="H52" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="5" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="C53" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="D53" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -5340,13 +5654,13 @@
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="5" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="C54" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="D54" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="F54">
         <v>15</v>
@@ -5360,16 +5674,16 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="5" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="C55" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="D55" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="E55" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="F55">
         <v>65</v>
@@ -5383,13 +5697,13 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="5" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="C56" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="D56" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="F56">
         <v>31</v>
@@ -5406,10 +5720,10 @@
         <v>600771</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="D57" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="F57">
         <v>33</v>
@@ -5423,13 +5737,13 @@
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="5" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="C58" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="D58" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="F58">
         <v>41</v>
@@ -5446,10 +5760,10 @@
         <v>300534</v>
       </c>
       <c r="C59" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="D59" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="F59">
         <v>8</v>
@@ -5472,8 +5786,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -5491,18 +5805,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="C3" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -5513,16 +5827,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="C4" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="F4" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5533,10 +5847,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
       <c r="D5" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -5547,13 +5861,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="C6" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="D6" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -5567,10 +5881,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="D7" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -5581,13 +5895,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="D8" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -5601,10 +5915,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
       <c r="D9" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -5615,13 +5929,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="C10" t="s">
-        <v>671</v>
+        <v>719</v>
       </c>
       <c r="D10" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -5632,13 +5946,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
       <c r="C11" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="D11" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -5652,10 +5966,10 @@
         <v>600743</v>
       </c>
       <c r="C12" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="F12">
         <v>634</v>
@@ -5666,13 +5980,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="C19" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="F19">
         <v>22</v>
@@ -5683,13 +5997,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="C20" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="D20" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -5700,13 +6014,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="C21" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="D21" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="F21">
         <v>97</v>
@@ -5720,10 +6034,10 @@
         <v>600173</v>
       </c>
       <c r="C22" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="D22" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="F22">
         <v>73</v>
@@ -5737,10 +6051,10 @@
         <v>600503</v>
       </c>
       <c r="C23" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="D23" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="F23">
         <v>53</v>
@@ -5751,13 +6065,13 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="C24" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="D24" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="F24">
         <v>74</v>
@@ -5771,10 +6085,10 @@
         <v>600641</v>
       </c>
       <c r="C25" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="D25" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="F25">
         <v>78</v>
@@ -5788,16 +6102,499 @@
         <v>600246</v>
       </c>
       <c r="C26" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="D26" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="F26">
         <v>111</v>
       </c>
       <c r="G26">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="56.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:7">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>301066</v>
+      </c>
+      <c r="C3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>300005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>605599</v>
+      </c>
+      <c r="C6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" t="s">
+        <v>754</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>300169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>756</v>
+      </c>
+      <c r="D13" t="s">
+        <v>757</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>300830</v>
+      </c>
+      <c r="C14" t="s">
+        <v>758</v>
+      </c>
+      <c r="D14" t="s">
+        <v>759</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C17" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" t="s">
+        <v>762</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>301043</v>
+      </c>
+      <c r="C20" t="s">
+        <v>763</v>
+      </c>
+      <c r="D20" t="s">
+        <v>764</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" t="s">
+        <v>766</v>
+      </c>
+      <c r="D22" t="s">
+        <v>767</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="55.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:8">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F3">
+        <v>156</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>600854</v>
+      </c>
+      <c r="C4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>600983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>776</v>
+      </c>
+      <c r="D5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F5">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>301008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>778</v>
+      </c>
+      <c r="D13" t="s">
+        <v>779</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>603677</v>
+      </c>
+      <c r="C14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D14" t="s">
+        <v>781</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>603311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>782</v>
+      </c>
+      <c r="D15" t="s">
+        <v>783</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C16" t="s">
+        <v>785</v>
+      </c>
+      <c r="D16" t="s">
+        <v>786</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>603726</v>
+      </c>
+      <c r="C17" t="s">
+        <v>787</v>
+      </c>
+      <c r="D17" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18">
+        <v>601956</v>
+      </c>
+      <c r="C18" t="s">
+        <v>789</v>
+      </c>
+      <c r="D18" t="s">
+        <v>790</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C19" t="s">
+        <v>792</v>
+      </c>
+      <c r="D19" t="s">
+        <v>793</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>600619</v>
+      </c>
+      <c r="C20" t="s">
+        <v>794</v>
+      </c>
+      <c r="D20" t="s">
+        <v>795</v>
+      </c>
+      <c r="F20">
+        <v>206</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="C21" t="s">
+        <v>797</v>
+      </c>
+      <c r="D21" t="s">
+        <v>798</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22">
+        <v>603519</v>
+      </c>
+      <c r="C22" t="s">
+        <v>799</v>
+      </c>
+      <c r="D22" t="s">
+        <v>800</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5809,12 +6606,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -6068,6 +6865,31 @@
       </c>
       <c r="G25">
         <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6916,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6105,16 +6927,16 @@
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -6125,16 +6947,16 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -6145,16 +6967,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -6165,21 +6987,21 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>106</v>
@@ -6190,16 +7012,16 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>101</v>
@@ -6213,13 +7035,13 @@
         <v>605020</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -6233,13 +7055,13 @@
         <v>600160</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>161</v>
@@ -6253,13 +7075,13 @@
         <v>603505</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -6270,16 +7092,16 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>17</v>
@@ -6293,13 +7115,13 @@
         <v>603379</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>56</v>
@@ -6313,13 +7135,13 @@
         <v>601678</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>156</v>
@@ -6330,7 +7152,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -6338,10 +7160,10 @@
         <v>600141</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>308</v>
@@ -6352,13 +7174,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <v>66</v>
@@ -6369,13 +7191,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
         <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
       </c>
       <c r="F20">
         <v>123</v>
@@ -6406,7 +7228,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6417,41 +7239,41 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>128</v>
@@ -6462,23 +7284,23 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>513</v>
@@ -6489,23 +7311,23 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -6519,22 +7341,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6559,7 +7381,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6573,13 +7395,13 @@
         <v>601186</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <v>13360</v>
@@ -6593,13 +7415,13 @@
         <v>688425</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F3">
         <v>234</v>
@@ -6613,13 +7435,13 @@
         <v>601800</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
         <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
       </c>
       <c r="F4">
         <v>14390</v>
@@ -6633,13 +7455,13 @@
         <v>601390</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5">
         <v>12970</v>
@@ -6657,12 +7479,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -6673,7 +7495,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6684,21 +7506,21 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>609</v>
@@ -6712,13 +7534,13 @@
         <v>600740</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>195</v>
@@ -6732,13 +7554,13 @@
         <v>601088</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
         <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
       </c>
       <c r="F5">
         <v>5993</v>
@@ -6749,16 +7571,16 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>367</v>
@@ -6769,7 +7591,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -6777,13 +7599,13 @@
         <v>603393</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>95</v>
@@ -6802,26 +7624,26 @@
         <v>600917</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F16">
         <v>660</v>
@@ -6832,7 +7654,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -6840,13 +7662,13 @@
         <v>600021</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22">
         <v>1364</v>
@@ -6857,7 +7679,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -6865,13 +7687,13 @@
         <v>600438</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>795</v>
@@ -6882,7 +7704,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -6890,13 +7712,13 @@
         <v>601865</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F28">
         <v>172</v>
@@ -6907,13 +7729,13 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
         <v>21</v>
@@ -6930,10 +7752,10 @@
         <v>300274</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F30">
         <v>376</v>
@@ -6947,10 +7769,10 @@
         <v>688599</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F31">
         <v>618</v>
@@ -6964,10 +7786,10 @@
         <v>601222</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F32">
         <v>205</v>
@@ -6981,10 +7803,10 @@
         <v>601778</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F33">
         <v>305</v>
@@ -6998,10 +7820,10 @@
         <v>300746</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -7012,13 +7834,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F35">
         <v>156</v>
@@ -7029,7 +7851,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -7037,13 +7859,13 @@
         <v>601016</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F38">
         <v>394</v>
@@ -7057,13 +7879,13 @@
         <v>600483</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F39">
         <v>398</v>
@@ -7074,16 +7896,16 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F40">
         <v>1116</v>
@@ -7097,13 +7919,13 @@
         <v>601615</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F41">
         <v>562</v>
@@ -7117,10 +7939,10 @@
         <v>300850</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F42">
         <v>56</v>
@@ -7134,10 +7956,10 @@
         <v>300443</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F43">
         <v>34</v>
@@ -7151,13 +7973,13 @@
         <v>600163</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F44">
         <v>101</v>
@@ -7171,13 +7993,13 @@
         <v>600905</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F45">
         <v>1851</v>
@@ -7191,13 +8013,13 @@
         <v>603063</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F46">
         <v>47</v>
@@ -7208,16 +8030,16 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F47">
         <v>65</v>
@@ -7231,10 +8053,10 @@
         <v>300772</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F48">
         <v>209</v>
@@ -7245,7 +8067,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -7253,10 +8075,10 @@
         <v>300438</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F51">
         <v>76</v>
@@ -7270,13 +8092,13 @@
         <v>300001</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F52">
         <v>187</v>
@@ -7290,10 +8112,10 @@
         <v>300682</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F53">
         <v>77</v>
@@ -7307,10 +8129,10 @@
         <v>300693</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F54">
         <v>14</v>
@@ -7324,10 +8146,10 @@
         <v>300491</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -7341,10 +8163,10 @@
         <v>300713</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -7358,10 +8180,10 @@
         <v>300499</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F61">
         <v>22</v>
@@ -7372,7 +8194,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -7380,13 +8202,13 @@
         <v>300693</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F63">
         <v>14</v>
@@ -7397,13 +8219,13 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F64">
         <v>94</v>
@@ -7414,18 +8236,18 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F69">
         <v>119</v>
@@ -7436,13 +8258,13 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F70">
         <v>167</v>
@@ -7456,10 +8278,10 @@
         <v>600406</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F71">
         <v>690</v>
@@ -7473,10 +8295,10 @@
         <v>600089</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F72">
         <v>1221</v>
@@ -7490,10 +8312,10 @@
         <v>300831</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -7504,18 +8326,18 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F76">
         <v>2933</v>
@@ -7526,13 +8348,13 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F77">
         <v>147</v>
@@ -7546,10 +8368,10 @@
         <v>688399</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F78">
         <v>33</v>
@@ -7560,13 +8382,13 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F79">
         <v>39</v>
@@ -7580,10 +8402,10 @@
         <v>600860</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F80">
         <v>15</v>
@@ -7597,10 +8419,10 @@
         <v>603637</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F81">
         <v>14</v>
@@ -7614,10 +8436,10 @@
         <v>300985</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F82">
         <v>14</v>
@@ -7628,13 +8450,13 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F83">
         <v>54</v>
@@ -7645,13 +8467,13 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F84">
         <v>278</v>
@@ -7665,10 +8487,10 @@
         <v>300435</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F85">
         <v>40</v>
@@ -7682,16 +8504,16 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D86" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F86">
         <v>375</v>
@@ -7702,13 +8524,13 @@
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F87">
         <v>56</v>
@@ -7725,10 +8547,10 @@
         <v>600989</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F88">
         <v>425</v>
@@ -7742,10 +8564,10 @@
         <v>600273</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D89" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F89">
         <v>110</v>
@@ -7759,10 +8581,10 @@
         <v>601868</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F90">
         <v>5097</v>
@@ -7776,10 +8598,10 @@
         <v>601012</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -7787,10 +8609,10 @@
         <v>600323</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F92">
         <v>288</v>
@@ -7799,15 +8621,35 @@
         <v>14</v>
       </c>
     </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" t="s">
+        <v>261</v>
+      </c>
+      <c r="D93" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93">
+        <v>27</v>
+      </c>
+      <c r="G93">
+        <v>65</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
     <row r="96" spans="2:7">
       <c r="B96" s="5" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D96" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F96">
         <v>280</v>
@@ -7821,10 +8663,10 @@
         <v>300228</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -7838,10 +8680,10 @@
         <v>300950</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D98" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F98">
         <v>7.5</v>
@@ -7858,10 +8700,10 @@
         <v>300471</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F99">
         <v>20</v>
@@ -7875,10 +8717,10 @@
         <v>300540</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -7892,10 +8734,10 @@
         <v>600378</v>
       </c>
       <c r="C104" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F104">
         <v>112</v>
@@ -7909,10 +8751,10 @@
         <v>300409</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F105">
         <v>71</v>
@@ -7926,13 +8768,13 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F106">
         <v>22</v>
@@ -7946,10 +8788,10 @@
         <v>300423</v>
       </c>
       <c r="C107" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="F107">
         <v>78</v>
@@ -7963,10 +8805,10 @@
         <v>601678</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F108">
         <v>166</v>
@@ -7977,13 +8819,13 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="5" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C109" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F109">
         <v>325</v>
@@ -7994,13 +8836,13 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F110">
         <v>186</v>
@@ -8014,10 +8856,10 @@
         <v>600803</v>
       </c>
       <c r="C111" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F111">
         <v>32</v>
@@ -8031,115 +8873,188 @@
         <v>688551</v>
       </c>
       <c r="C112" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" t="s">
+        <v>295</v>
+      </c>
+      <c r="D116" t="s">
+        <v>296</v>
+      </c>
+      <c r="F116">
+        <v>16</v>
+      </c>
+      <c r="G116">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117">
+        <v>600875</v>
+      </c>
+      <c r="C117" t="s">
+        <v>297</v>
+      </c>
+      <c r="D117" t="s">
+        <v>298</v>
+      </c>
+      <c r="F117">
+        <v>1028</v>
+      </c>
+      <c r="G117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118">
+        <v>600277</v>
+      </c>
+      <c r="C118" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+      <c r="F118">
+        <v>344</v>
+      </c>
+      <c r="G118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" t="s">
+        <v>302</v>
+      </c>
+      <c r="D119" t="s">
+        <v>303</v>
+      </c>
+      <c r="F119">
+        <v>133</v>
+      </c>
+      <c r="G119">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120">
+        <v>600459</v>
       </c>
       <c r="C120" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F120">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="G120">
-        <v>90</v>
+        <v>39</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:7">
       <c r="B121">
-        <v>600875</v>
+        <v>601012</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D121" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F121">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="G121">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122">
-        <v>600277</v>
-      </c>
-      <c r="C122" t="s">
-        <v>292</v>
-      </c>
-      <c r="D122" t="s">
-        <v>293</v>
-      </c>
-      <c r="F122">
-        <v>344</v>
-      </c>
-      <c r="G122">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C123" t="s">
-        <v>295</v>
-      </c>
-      <c r="D123" t="s">
-        <v>296</v>
-      </c>
-      <c r="F123">
-        <v>133</v>
-      </c>
-      <c r="G123">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124">
-        <v>600459</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="C124" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D124" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F124">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="G124">
-        <v>39</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="2:7">
       <c r="B125">
-        <v>601012</v>
+        <v>600722</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="D125" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F125">
-        <v>1037</v>
+        <v>13</v>
       </c>
       <c r="G125">
-        <v>48</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C126" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" t="s">
+        <v>315</v>
+      </c>
+      <c r="F126">
+        <v>46</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" t="s">
+        <v>318</v>
+      </c>
+      <c r="F127">
+        <v>95</v>
+      </c>
+      <c r="G127">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -8154,9 +9069,9 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -8174,7 +9089,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -8182,7 +9097,7 @@
         <v>600030</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="F3">
         <v>11690</v>
@@ -8196,10 +9111,10 @@
         <v>300059</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F4">
         <v>1601</v>
@@ -8210,10 +9125,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="F5">
         <v>5057</v>
@@ -8227,7 +9142,7 @@
         <v>601878</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F6">
         <v>1104</v>
@@ -8238,7 +9153,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -8246,13 +9161,13 @@
         <v>600926</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11">
         <v>12870</v>
@@ -8266,10 +9181,10 @@
         <v>601166</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F12">
         <v>81000</v>
@@ -8283,10 +9198,10 @@
         <v>601658</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F13">
         <v>120000</v>
@@ -8297,13 +9212,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F14">
         <v>47000</v>
@@ -8314,18 +9229,18 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="F19">
         <v>106</v>
@@ -8339,10 +9254,10 @@
         <v>300180</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="F20">
         <v>81</v>
@@ -8356,13 +9271,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="F21">
         <v>62</v>
@@ -8376,13 +9291,13 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="C22" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="F22">
         <v>47</v>
@@ -8396,13 +9311,13 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -8416,10 +9331,10 @@
         <v>300479</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -8430,13 +9345,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F25">
         <v>57</v>
@@ -8453,10 +9368,10 @@
         <v>300166</v>
       </c>
       <c r="C26" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="F26">
         <v>81</v>
@@ -8470,13 +9385,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="5" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F27">
         <v>105</v>
@@ -8493,10 +9408,10 @@
         <v>300079</v>
       </c>
       <c r="C28" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F28">
         <v>46</v>
@@ -8507,13 +9422,13 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="5" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D29" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="F29">
         <v>38</v>
@@ -8530,10 +9445,10 @@
         <v>300645</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D30" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -8547,10 +9462,10 @@
         <v>300773</v>
       </c>
       <c r="C31" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="D31" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F31">
         <v>115</v>
@@ -8564,10 +9479,10 @@
         <v>300468</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F32">
         <v>37</v>
@@ -8581,10 +9496,10 @@
         <v>300531</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D33" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F33">
         <v>21</v>
@@ -8598,10 +9513,10 @@
         <v>300042</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -8613,15 +9528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>300248</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="F35">
         <v>22</v>
@@ -8629,16 +9544,19 @@
       <c r="G35">
         <v>34</v>
       </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="5" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F36">
         <v>23</v>
@@ -8655,10 +9573,10 @@
         <v>603123</v>
       </c>
       <c r="C37" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F37">
         <v>70</v>
@@ -8667,21 +9585,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>300663</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F38">
         <v>24</v>
       </c>
       <c r="G38">
         <v>175</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -8689,10 +9610,10 @@
         <v>601107</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="D39" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="F39">
         <v>413</v>
@@ -8701,15 +9622,35 @@
         <v>9</v>
       </c>
     </row>
+    <row r="40" spans="2:8">
+      <c r="B40">
+        <v>300541</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>27</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="C44" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="F44">
         <v>103</v>
@@ -8723,10 +9664,10 @@
         <v>300941</v>
       </c>
       <c r="C45" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -8760,7 +9701,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -8774,13 +9715,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -8794,13 +9735,13 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -8811,21 +9752,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -8839,13 +9780,13 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11">
         <v>2311</v>
@@ -8856,21 +9797,21 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F21">
         <v>129</v>
@@ -8881,7 +9822,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -8889,10 +9830,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="D31" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -8913,103 +9854,111 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:V22"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="37.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>388</v>
-      </c>
+    <row r="1" spans="6:9">
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" t="s">
-        <v>390</v>
+      <c r="I1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="5" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="F11">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="5" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="F12">
         <v>66</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13" s="5" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="F13">
         <v>22</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>605296</v>
       </c>
       <c r="C14" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -9017,22 +9966,22 @@
       <c r="F14">
         <v>37</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>50</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9">
       <c r="B15" s="5" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C15" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -9040,380 +9989,649 @@
       <c r="F15">
         <v>36</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>17</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="B16" s="5" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="F16">
         <v>66</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>603477</v>
       </c>
       <c r="C17" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="F17">
         <v>56</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:9">
       <c r="B18" s="5" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="F18">
         <v>56</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>61</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:8">
       <c r="B19" s="5" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="C19" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D19" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="F19">
         <v>363</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:8">
       <c r="B20" s="5" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="D20" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="F20">
         <v>107</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="C21" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="F21">
         <v>1314</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>603609</v>
       </c>
       <c r="C22" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="F22">
         <v>130</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:8">
       <c r="B23" s="5" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="F23">
         <v>1692</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="B24">
         <v>300761</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="D24" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="F24">
         <v>102</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="B25" s="5" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D26" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="F26">
         <v>141</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="D27" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="F27">
         <v>44</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>11</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:9">
       <c r="B28">
         <v>600975</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D28" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="F28">
         <v>41</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>38</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="F29">
         <v>353</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>22</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>300498</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="D30" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="F30">
         <v>997</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:8">
       <c r="B31" s="5" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F31">
         <v>595</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:8">
       <c r="B32" s="5" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="F32">
         <v>204</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>603363</v>
       </c>
       <c r="C33" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="D33" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="F33">
         <v>172</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:8">
       <c r="B37" s="5" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="F37">
         <v>152</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:8">
       <c r="B38" s="5" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D38" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F38">
         <v>266</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:8">
       <c r="B39" s="5" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="C39" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="D39" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F39">
         <v>10</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45">
+        <v>600197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>487</v>
+      </c>
+      <c r="D45" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45">
+        <v>47</v>
+      </c>
+      <c r="G45">
+        <v>130</v>
+      </c>
+      <c r="H45">
+        <v>33</v>
+      </c>
+      <c r="I45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C46" t="s">
+        <v>490</v>
+      </c>
+      <c r="D46" t="s">
+        <v>491</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>80</v>
+      </c>
+      <c r="H46">
+        <v>300</v>
+      </c>
+      <c r="I46">
+        <v>232</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C47" t="s">
+        <v>493</v>
+      </c>
+      <c r="D47" t="s">
+        <v>494</v>
+      </c>
+      <c r="F47">
+        <v>48</v>
+      </c>
+      <c r="G47">
+        <v>700</v>
+      </c>
+      <c r="H47">
+        <v>84</v>
+      </c>
+      <c r="I47">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48">
+        <v>600809</v>
+      </c>
+      <c r="C48" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F48">
+        <v>263</v>
+      </c>
+      <c r="G48">
+        <v>3600</v>
+      </c>
+      <c r="H48">
+        <v>68</v>
+      </c>
+      <c r="I48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49">
+        <v>600779</v>
+      </c>
+      <c r="C49" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>625</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51">
+        <v>600059</v>
+      </c>
+      <c r="C51" t="s">
+        <v>499</v>
+      </c>
+      <c r="F51">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>110</v>
+      </c>
+      <c r="H51">
+        <v>57</v>
+      </c>
+      <c r="I51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55">
+        <v>600962</v>
+      </c>
+      <c r="C55" t="s">
+        <v>501</v>
+      </c>
+      <c r="D55" t="s">
+        <v>502</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55">
+        <v>45</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56">
+        <v>603156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" t="s">
+        <v>504</v>
+      </c>
+      <c r="F56">
+        <v>133</v>
+      </c>
+      <c r="G56">
+        <v>300</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57">
+        <v>605388</v>
+      </c>
+      <c r="C57" t="s">
+        <v>505</v>
+      </c>
+      <c r="D57" t="s">
+        <v>506</v>
+      </c>
+      <c r="F57">
+        <v>21</v>
+      </c>
+      <c r="G57">
+        <v>68</v>
+      </c>
+      <c r="H57">
+        <v>46</v>
+      </c>
+      <c r="I57">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58">
+        <v>600616</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
+      <c r="D58" t="s">
+        <v>508</v>
+      </c>
+      <c r="F58">
+        <v>22</v>
+      </c>
+      <c r="G58">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58">
+        <v>-2757</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59">
+        <v>600543</v>
+      </c>
+      <c r="C59" t="s">
+        <v>509</v>
+      </c>
+      <c r="D59" t="s">
+        <v>510</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59">
+        <v>-300</v>
       </c>
     </row>
   </sheetData>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="9" activeTab="16"/>
+    <workbookView windowWidth="18530" windowHeight="6530" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="838">
   <si>
     <t>上海环境</t>
   </si>
@@ -819,6 +819,15 @@
   </si>
   <si>
     <t>氢燃料电池、氢燃料商用车、石墨烯、新能源汽车</t>
+  </si>
+  <si>
+    <t>000811</t>
+  </si>
+  <si>
+    <t>冰轮环境</t>
+  </si>
+  <si>
+    <t>冷链物流、氢燃料电池压缩机</t>
   </si>
   <si>
     <t>000581</t>
@@ -2268,6 +2277,9 @@
     <t>主营高端物业开发、京津冀一体化</t>
   </si>
   <si>
+    <t>涨幅</t>
+  </si>
+  <si>
     <t>零售</t>
   </si>
   <si>
@@ -2313,6 +2325,12 @@
     <t>冬奥会电力系统建设、国产软件、轨道交通、工业互联网、特高压、大数据</t>
   </si>
   <si>
+    <t>中体产业</t>
+  </si>
+  <si>
+    <t>赛马、互联网彩票、足球、世界杯、体育用品</t>
+  </si>
+  <si>
     <t>002899</t>
   </si>
   <si>
@@ -2337,6 +2355,36 @@
     <t>运营冬奥会赛事、体育产业、足球概念、电子竞技、冰雪产业</t>
   </si>
   <si>
+    <t>冬奥会播放设备、虚拟实现、文化传媒、NFC</t>
+  </si>
+  <si>
+    <t>重点关注</t>
+  </si>
+  <si>
+    <t>舒华体育</t>
+  </si>
+  <si>
+    <t>健身器材、奥运会、冬奥会</t>
+  </si>
+  <si>
+    <t>002486</t>
+  </si>
+  <si>
+    <t>嘉麟杰</t>
+  </si>
+  <si>
+    <t>运动服装面料、医疗器械、口罩、体育产业</t>
+  </si>
+  <si>
+    <t>002780</t>
+  </si>
+  <si>
+    <t>三夫户外</t>
+  </si>
+  <si>
+    <t>冰雪产业、冰雪运动装备、电子商务、口罩</t>
+  </si>
+  <si>
     <t>上涨</t>
   </si>
   <si>
@@ -2434,6 +2482,69 @@
   </si>
   <si>
     <t>加点外观材料、第三代半导体、碳化硅、集成电路</t>
+  </si>
+  <si>
+    <t>天银机电</t>
+  </si>
+  <si>
+    <t>冰箱零部件、卫星导航、无人机、无人驾驶、军工</t>
+  </si>
+  <si>
+    <t>澳柯玛</t>
+  </si>
+  <si>
+    <t>冰柜、冷链物流、疫苗存储、主做制冷</t>
+  </si>
+  <si>
+    <t>汉宇集团</t>
+  </si>
+  <si>
+    <t>家用电器排水泵、智能家居、工业机器人、充电桩</t>
+  </si>
+  <si>
+    <t>002420</t>
+  </si>
+  <si>
+    <t>毅昌科技</t>
+  </si>
+  <si>
+    <t>电视结构件、新能源汽车内饰、3D打印</t>
+  </si>
+  <si>
+    <t>秀强股份</t>
+  </si>
+  <si>
+    <t>家电玻璃、光伏玻璃（充电桩、特斯拉）</t>
+  </si>
+  <si>
+    <t>三星新材</t>
+  </si>
+  <si>
+    <t>冷藏设备玻璃门</t>
+  </si>
+  <si>
+    <t>东方电热</t>
+  </si>
+  <si>
+    <t>电加热器，用于家电、工业、新能源汽车、龙头企业</t>
+  </si>
+  <si>
+    <t>002860</t>
+  </si>
+  <si>
+    <t>星帅尔</t>
+  </si>
+  <si>
+    <t>热保护器用于家电、新能源汽车电动机、5G、传感器</t>
+  </si>
+  <si>
+    <t>春光科技</t>
+  </si>
+  <si>
+    <t>清洁电器软管（吸尘器）、专精特新</t>
+  </si>
+  <si>
+    <t>流体电磁阀、传感器</t>
   </si>
 </sst>
 </file>
@@ -2442,9 +2553,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2461,14 +2572,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2477,7 +2580,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2491,14 +2601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2506,24 +2609,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2535,17 +2647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2576,8 +2679,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2585,14 +2704,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2620,25 +2731,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2656,31 +2785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,13 +2821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2716,19 +2839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,13 +2863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,25 +2881,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,19 +2911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2829,17 +2940,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2863,30 +3000,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2900,17 +3022,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2919,10 +3030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2931,133 +3042,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3510,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3720,7 +3831,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3767,7 +3878,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -4279,7 +4390,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -4293,7 +4404,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -4307,7 +4418,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -4321,7 +4432,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -4335,7 +4446,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -4349,10 +4460,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -4363,13 +4474,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -4410,18 +4521,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -4438,7 +4549,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4452,10 +4563,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -4469,10 +4580,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -4486,10 +4597,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -4503,10 +4614,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -4520,10 +4631,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D9" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -4537,10 +4648,10 @@
         <v>300428</v>
       </c>
       <c r="C10" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F10">
         <v>133</v>
@@ -4554,10 +4665,10 @@
         <v>603949</v>
       </c>
       <c r="C11" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -4568,18 +4679,18 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C17" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D17" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -4596,7 +4707,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -4610,10 +4721,10 @@
         <v>300742</v>
       </c>
       <c r="C22" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D22" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -4624,18 +4735,18 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C27" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D27" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -4646,13 +4757,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C28" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D28" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F28">
         <v>92</v>
@@ -4666,13 +4777,13 @@
         <v>300458</v>
       </c>
       <c r="C29" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D29" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E29" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -4686,10 +4797,10 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C30" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -4709,7 +4820,7 @@
         <v>300188</v>
       </c>
       <c r="C31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F31">
         <v>42</v>
@@ -4726,10 +4837,10 @@
         <v>300735</v>
       </c>
       <c r="C32" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D32" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F32">
         <v>58</v>
@@ -4749,10 +4860,10 @@
         <v>600081</v>
       </c>
       <c r="C33" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D33" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F33">
         <v>95</v>
@@ -4766,13 +4877,13 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C34" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D34" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F34">
         <v>41</v>
@@ -4784,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -4792,10 +4903,10 @@
         <v>300807</v>
       </c>
       <c r="C35" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D35" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -4836,12 +4947,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -4849,10 +4960,10 @@
         <v>600351</v>
       </c>
       <c r="C13" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F13">
         <v>38</v>
@@ -4863,13 +4974,13 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D14" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -4886,10 +4997,10 @@
         <v>603439</v>
       </c>
       <c r="C15" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D15" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -4906,10 +5017,10 @@
         <v>603567</v>
       </c>
       <c r="C16" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D16" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -4923,13 +5034,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C17" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D17" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F17">
         <v>54</v>
@@ -4938,7 +5049,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -4946,13 +5057,13 @@
         <v>600976</v>
       </c>
       <c r="C18" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D18" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E18" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F18">
         <v>26</v>
@@ -4961,7 +5072,7 @@
         <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -4969,13 +5080,13 @@
         <v>603896</v>
       </c>
       <c r="C19" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E19" t="s">
         <v>594</v>
-      </c>
-      <c r="E19" t="s">
-        <v>591</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -4984,7 +5095,7 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -4992,10 +5103,10 @@
         <v>605199</v>
       </c>
       <c r="C20" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D20" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F20">
         <v>14</v>
@@ -5009,10 +5120,10 @@
         <v>300039</v>
       </c>
       <c r="C21" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D21" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F21">
         <v>32</v>
@@ -5023,13 +5134,13 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D22" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -5038,10 +5149,10 @@
         <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I22" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -5049,10 +5160,10 @@
         <v>600572</v>
       </c>
       <c r="C23" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D23" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F23">
         <v>88</v>
@@ -5061,7 +5172,7 @@
         <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -5069,10 +5180,10 @@
         <v>603139</v>
       </c>
       <c r="C24" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D24" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F24">
         <v>17</v>
@@ -5081,7 +5192,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -5089,10 +5200,10 @@
         <v>600211</v>
       </c>
       <c r="C25" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D25" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -5104,18 +5215,18 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C26" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D26" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F26">
         <v>17</v>
@@ -5129,13 +5240,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C27" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D27" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F27">
         <v>53</v>
@@ -5149,10 +5260,10 @@
         <v>301111</v>
       </c>
       <c r="C28" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D28" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -5166,10 +5277,10 @@
         <v>600080</v>
       </c>
       <c r="C29" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D29" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F29">
         <v>19</v>
@@ -5178,18 +5289,18 @@
         <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C30" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D30" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F30">
         <v>27</v>
@@ -5198,7 +5309,7 @@
         <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -5206,10 +5317,10 @@
         <v>600750</v>
       </c>
       <c r="C31" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D31" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F31">
         <v>55</v>
@@ -5220,13 +5331,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C32" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D32" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -5235,18 +5346,18 @@
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="5" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D33" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F33">
         <v>53</v>
@@ -5255,7 +5366,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -5263,10 +5374,10 @@
         <v>300878</v>
       </c>
       <c r="C34" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D34" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -5283,10 +5394,10 @@
         <v>600436</v>
       </c>
       <c r="C35" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D35" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F35">
         <v>119</v>
@@ -5295,18 +5406,18 @@
         <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C36" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D36" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F36">
         <v>9</v>
@@ -5315,7 +5426,7 @@
         <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -5323,10 +5434,10 @@
         <v>300108</v>
       </c>
       <c r="C37" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D37" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="F37">
         <v>25</v>
@@ -5335,7 +5446,7 @@
         <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -5343,10 +5454,10 @@
         <v>603998</v>
       </c>
       <c r="C38" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D38" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F38">
         <v>25</v>
@@ -5360,13 +5471,13 @@
         <v>600479</v>
       </c>
       <c r="C39" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D39" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="E39" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F39">
         <v>40</v>
@@ -5380,10 +5491,10 @@
         <v>600557</v>
       </c>
       <c r="C40" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D40" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F40">
         <v>57</v>
@@ -5394,13 +5505,13 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C41" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D41" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -5412,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -5420,10 +5531,10 @@
         <v>600594</v>
       </c>
       <c r="C42" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D42" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F42">
         <v>54</v>
@@ -5437,10 +5548,10 @@
         <v>600222</v>
       </c>
       <c r="C43" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D43" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F43">
         <v>38</v>
@@ -5454,13 +5565,13 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C44" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D44" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -5474,13 +5585,13 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C45" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D45" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F45">
         <v>19</v>
@@ -5489,7 +5600,7 @@
         <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -5497,10 +5608,10 @@
         <v>603963</v>
       </c>
       <c r="C46" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D46" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -5509,18 +5620,18 @@
         <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C47" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D47" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F47">
         <v>96</v>
@@ -5529,7 +5640,7 @@
         <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="2:7">
@@ -5537,10 +5648,10 @@
         <v>300519</v>
       </c>
       <c r="C48" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D48" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -5554,10 +5665,10 @@
         <v>300181</v>
       </c>
       <c r="C49" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D49" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F49">
         <v>33</v>
@@ -5566,7 +5677,7 @@
         <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -5574,10 +5685,10 @@
         <v>600129</v>
       </c>
       <c r="C50" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D50" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F50">
         <v>134</v>
@@ -5586,18 +5697,18 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C51" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D51" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F51">
         <v>12</v>
@@ -5608,13 +5719,13 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C52" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="D52" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -5626,18 +5737,18 @@
         <v>9</v>
       </c>
       <c r="H52" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="5" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C53" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D53" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -5654,13 +5765,13 @@
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="5" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C54" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D54" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F54">
         <v>15</v>
@@ -5674,16 +5785,16 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="5" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C55" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D55" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E55" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="F55">
         <v>65</v>
@@ -5697,13 +5808,13 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="5" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C56" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D56" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F56">
         <v>31</v>
@@ -5720,10 +5831,10 @@
         <v>600771</v>
       </c>
       <c r="C57" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D57" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F57">
         <v>33</v>
@@ -5737,13 +5848,13 @@
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="5" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C58" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D58" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="F58">
         <v>41</v>
@@ -5760,10 +5871,10 @@
         <v>300534</v>
       </c>
       <c r="C59" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D59" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F59">
         <v>8</v>
@@ -5805,18 +5916,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -5827,16 +5938,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D4" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5847,10 +5958,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="D5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -5861,13 +5972,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C6" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D6" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -5881,10 +5992,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -5895,13 +6006,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C8" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -5915,10 +6026,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D9" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -5929,13 +6040,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C10" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D10" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -5946,13 +6057,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C11" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D11" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -5966,10 +6077,10 @@
         <v>600743</v>
       </c>
       <c r="C12" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="D12" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F12">
         <v>634</v>
@@ -5980,13 +6091,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C19" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="D19" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F19">
         <v>22</v>
@@ -5997,13 +6108,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C20" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D20" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -6014,13 +6125,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C21" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="D21" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F21">
         <v>97</v>
@@ -6034,10 +6145,10 @@
         <v>600173</v>
       </c>
       <c r="C22" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D22" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F22">
         <v>73</v>
@@ -6051,10 +6162,10 @@
         <v>600503</v>
       </c>
       <c r="C23" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D23" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F23">
         <v>53</v>
@@ -6065,13 +6176,13 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C24" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D24" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F24">
         <v>74</v>
@@ -6085,10 +6196,10 @@
         <v>600641</v>
       </c>
       <c r="C25" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D25" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F25">
         <v>78</v>
@@ -6102,10 +6213,10 @@
         <v>600246</v>
       </c>
       <c r="C26" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D26" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F26">
         <v>111</v>
@@ -6123,30 +6234,33 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="56.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
+    <row r="1" spans="6:8">
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -6154,10 +6268,10 @@
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -6168,13 +6282,13 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C4" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D4" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -6188,10 +6302,10 @@
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -6205,10 +6319,10 @@
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D6" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F6">
         <v>48</v>
@@ -6219,7 +6333,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -6227,10 +6341,10 @@
         <v>300169</v>
       </c>
       <c r="C13" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D13" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -6244,10 +6358,10 @@
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D14" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -6259,15 +6373,35 @@
         <v>80</v>
       </c>
     </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>600158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>764</v>
+      </c>
+      <c r="D15" t="s">
+        <v>765</v>
+      </c>
+      <c r="F15">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>1189</v>
+      </c>
+      <c r="H15">
+        <v>-339</v>
+      </c>
+    </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C17" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D17" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -6281,10 +6415,10 @@
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="D20" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -6293,15 +6427,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C22" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D22" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -6309,8 +6443,92 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="H22">
+      <c r="H22"/>
+      <c r="I22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>300079</v>
+      </c>
+      <c r="C24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" t="s">
+        <v>774</v>
+      </c>
+      <c r="E24" t="s">
+        <v>775</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>605299</v>
+      </c>
+      <c r="C27" t="s">
+        <v>776</v>
+      </c>
+      <c r="D27" t="s">
+        <v>777</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C28" t="s">
+        <v>779</v>
+      </c>
+      <c r="D28" t="s">
+        <v>780</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>782</v>
+      </c>
+      <c r="D29" t="s">
+        <v>783</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <v>-81</v>
       </c>
     </row>
   </sheetData>
@@ -6322,10 +6540,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6341,23 +6559,23 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="C3" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="D3" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -6371,13 +6589,13 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="D4" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="E4" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -6394,10 +6612,10 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="D5" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -6414,10 +6632,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="D13" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -6431,10 +6649,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D14" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -6448,10 +6666,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -6460,15 +6678,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C16" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D16" t="s">
-        <v>786</v>
+        <v>802</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -6478,6 +6699,9 @@
       </c>
       <c r="H16">
         <v>96</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -6485,10 +6709,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="D17" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -6508,10 +6732,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D18" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -6522,13 +6746,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="C19" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="D19" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -6545,10 +6769,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D20" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -6559,13 +6783,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="C21" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="D21" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -6585,16 +6809,204 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="D22" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="F22">
         <v>13</v>
       </c>
       <c r="G22">
         <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>300342</v>
+      </c>
+      <c r="C23" t="s">
+        <v>817</v>
+      </c>
+      <c r="D23" t="s">
+        <v>818</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>600336</v>
+      </c>
+      <c r="C24" t="s">
+        <v>819</v>
+      </c>
+      <c r="D24" t="s">
+        <v>820</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>77</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>300403</v>
+      </c>
+      <c r="C25" t="s">
+        <v>821</v>
+      </c>
+      <c r="D25" t="s">
+        <v>822</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C26" t="s">
+        <v>824</v>
+      </c>
+      <c r="D26" t="s">
+        <v>825</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>42</v>
+      </c>
+      <c r="H26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
+        <v>300160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>826</v>
+      </c>
+      <c r="D27" t="s">
+        <v>827</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28">
+        <v>603578</v>
+      </c>
+      <c r="C28" t="s">
+        <v>828</v>
+      </c>
+      <c r="D28" t="s">
+        <v>829</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>300217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>830</v>
+      </c>
+      <c r="D29" t="s">
+        <v>831</v>
+      </c>
+      <c r="F29">
+        <v>46</v>
+      </c>
+      <c r="G29">
+        <v>96</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C30" t="s">
+        <v>833</v>
+      </c>
+      <c r="D30" t="s">
+        <v>834</v>
+      </c>
+      <c r="E30" t="s">
+        <v>791</v>
+      </c>
+      <c r="F30">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>31</v>
+      </c>
+      <c r="H30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>603657</v>
+      </c>
+      <c r="C32" t="s">
+        <v>835</v>
+      </c>
+      <c r="D32" t="s">
+        <v>836</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>301008</v>
+      </c>
+      <c r="C33" t="s">
+        <v>794</v>
+      </c>
+      <c r="D33" t="s">
+        <v>837</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7484,7 +7896,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -8641,15 +9053,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94">
+        <v>88</v>
+      </c>
+      <c r="G94">
+        <v>41</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
     <row r="96" spans="2:7">
       <c r="B96" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F96">
         <v>280</v>
@@ -8663,10 +9095,10 @@
         <v>300228</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -8680,10 +9112,10 @@
         <v>300950</v>
       </c>
       <c r="C98" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F98">
         <v>7.5</v>
@@ -8700,10 +9132,10 @@
         <v>300471</v>
       </c>
       <c r="C99" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F99">
         <v>20</v>
@@ -8717,10 +9149,10 @@
         <v>300540</v>
       </c>
       <c r="C100" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -8734,10 +9166,10 @@
         <v>600378</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F104">
         <v>112</v>
@@ -8751,10 +9183,10 @@
         <v>300409</v>
       </c>
       <c r="C105" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F105">
         <v>71</v>
@@ -8768,13 +9200,13 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F106">
         <v>22</v>
@@ -8788,10 +9220,10 @@
         <v>300423</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F107">
         <v>78</v>
@@ -8808,7 +9240,7 @@
         <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F108">
         <v>166</v>
@@ -8819,13 +9251,13 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F109">
         <v>325</v>
@@ -8836,13 +9268,13 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D110" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F110">
         <v>186</v>
@@ -8856,10 +9288,10 @@
         <v>600803</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D111" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F111">
         <v>32</v>
@@ -8873,21 +9305,21 @@
         <v>688551</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D112" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C116" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D116" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F116">
         <v>16</v>
@@ -8901,10 +9333,10 @@
         <v>600875</v>
       </c>
       <c r="C117" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D117" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F117">
         <v>1028</v>
@@ -8918,10 +9350,10 @@
         <v>600277</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F118">
         <v>344</v>
@@ -8932,13 +9364,13 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C119" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F119">
         <v>133</v>
@@ -8952,10 +9384,10 @@
         <v>600459</v>
       </c>
       <c r="C120" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D120" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F120">
         <v>115</v>
@@ -8975,7 +9407,7 @@
         <v>256</v>
       </c>
       <c r="D121" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F121">
         <v>1037</v>
@@ -8986,18 +9418,18 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C124" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D124" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F124">
         <v>8</v>
@@ -9011,10 +9443,10 @@
         <v>600722</v>
       </c>
       <c r="C125" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D125" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F125">
         <v>13</v>
@@ -9025,13 +9457,13 @@
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D126" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F126">
         <v>46</v>
@@ -9042,13 +9474,13 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C127" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D127" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F127">
         <v>95</v>
@@ -9089,7 +9521,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -9097,7 +9529,7 @@
         <v>600030</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F3">
         <v>11690</v>
@@ -9111,10 +9543,10 @@
         <v>300059</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F4">
         <v>1601</v>
@@ -9125,10 +9557,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F5">
         <v>5057</v>
@@ -9142,7 +9574,7 @@
         <v>601878</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F6">
         <v>1104</v>
@@ -9153,7 +9585,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -9161,10 +9593,10 @@
         <v>600926</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
         <v>136</v>
@@ -9181,7 +9613,7 @@
         <v>601166</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
         <v>136</v>
@@ -9198,7 +9630,7 @@
         <v>601658</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E13" t="s">
         <v>136</v>
@@ -9212,10 +9644,10 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E14" t="s">
         <v>136</v>
@@ -9229,18 +9661,18 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F19">
         <v>106</v>
@@ -9254,10 +9686,10 @@
         <v>300180</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F20">
         <v>81</v>
@@ -9271,13 +9703,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F21">
         <v>62</v>
@@ -9291,13 +9723,13 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F22">
         <v>47</v>
@@ -9311,13 +9743,13 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -9331,10 +9763,10 @@
         <v>300479</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -9345,13 +9777,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F25">
         <v>57</v>
@@ -9368,10 +9800,10 @@
         <v>300166</v>
       </c>
       <c r="C26" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D26" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F26">
         <v>81</v>
@@ -9385,13 +9817,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F27">
         <v>105</v>
@@ -9408,10 +9840,10 @@
         <v>300079</v>
       </c>
       <c r="C28" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F28">
         <v>46</v>
@@ -9422,13 +9854,13 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F29">
         <v>38</v>
@@ -9445,10 +9877,10 @@
         <v>300645</v>
       </c>
       <c r="C30" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -9462,10 +9894,10 @@
         <v>300773</v>
       </c>
       <c r="C31" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F31">
         <v>115</v>
@@ -9479,10 +9911,10 @@
         <v>300468</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F32">
         <v>37</v>
@@ -9496,10 +9928,10 @@
         <v>300531</v>
       </c>
       <c r="C33" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F33">
         <v>21</v>
@@ -9513,10 +9945,10 @@
         <v>300042</v>
       </c>
       <c r="C34" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -9533,10 +9965,10 @@
         <v>300248</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D35" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F35">
         <v>22</v>
@@ -9550,13 +9982,13 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F36">
         <v>23</v>
@@ -9573,10 +10005,10 @@
         <v>603123</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D37" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F37">
         <v>70</v>
@@ -9590,10 +10022,10 @@
         <v>300663</v>
       </c>
       <c r="C38" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D38" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F38">
         <v>24</v>
@@ -9610,10 +10042,10 @@
         <v>601107</v>
       </c>
       <c r="C39" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D39" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F39">
         <v>413</v>
@@ -9627,10 +10059,10 @@
         <v>300541</v>
       </c>
       <c r="C40" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -9644,13 +10076,13 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D44" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F44">
         <v>103</v>
@@ -9664,10 +10096,10 @@
         <v>300941</v>
       </c>
       <c r="C45" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D45" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -9701,7 +10133,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -9715,10 +10147,10 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E2" t="s">
         <v>179</v>
@@ -9735,10 +10167,10 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E4" t="s">
         <v>136</v>
@@ -9752,18 +10184,18 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E10" t="s">
         <v>179</v>
@@ -9780,10 +10212,10 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
         <v>136</v>
@@ -9797,18 +10229,18 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E21" t="s">
         <v>136</v>
@@ -9822,7 +10254,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -9830,10 +10262,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -9872,42 +10304,42 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D11" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F11">
         <v>26</v>
@@ -9918,13 +10350,13 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F12">
         <v>66</v>
@@ -9935,13 +10367,13 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -9955,10 +10387,10 @@
         <v>605296</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -9975,13 +10407,13 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -9998,13 +10430,13 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F16">
         <v>66</v>
@@ -10018,10 +10450,10 @@
         <v>603477</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F17">
         <v>56</v>
@@ -10032,13 +10464,13 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F18">
         <v>56</v>
@@ -10052,13 +10484,13 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D19" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F19">
         <v>363</v>
@@ -10069,13 +10501,13 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F20">
         <v>107</v>
@@ -10086,13 +10518,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D21" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F21">
         <v>1314</v>
@@ -10106,10 +10538,10 @@
         <v>603609</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F22">
         <v>130</v>
@@ -10120,13 +10552,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C23" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D23" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F23">
         <v>1692</v>
@@ -10140,10 +10572,10 @@
         <v>300761</v>
       </c>
       <c r="C24" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D24" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F24">
         <v>102</v>
@@ -10154,13 +10586,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D25" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -10171,13 +10603,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F26">
         <v>141</v>
@@ -10188,13 +10620,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F27">
         <v>44</v>
@@ -10211,10 +10643,10 @@
         <v>600975</v>
       </c>
       <c r="C28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D28" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F28">
         <v>41</v>
@@ -10228,13 +10660,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D29" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F29">
         <v>353</v>
@@ -10251,10 +10683,10 @@
         <v>300498</v>
       </c>
       <c r="C30" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F30">
         <v>997</v>
@@ -10265,13 +10697,13 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C31" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D31" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F31">
         <v>595</v>
@@ -10282,13 +10714,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F32">
         <v>204</v>
@@ -10302,10 +10734,10 @@
         <v>603363</v>
       </c>
       <c r="C33" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F33">
         <v>172</v>
@@ -10316,13 +10748,13 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F37">
         <v>152</v>
@@ -10333,13 +10765,13 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D38" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F38">
         <v>266</v>
@@ -10350,13 +10782,13 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C39" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -10367,7 +10799,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -10375,10 +10807,10 @@
         <v>600197</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D45" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F45">
         <v>47</v>
@@ -10395,13 +10827,13 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D46" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -10421,13 +10853,13 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C47" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F47">
         <v>48</v>
@@ -10447,10 +10879,10 @@
         <v>600809</v>
       </c>
       <c r="C48" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D48" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F48">
         <v>263</v>
@@ -10470,10 +10902,10 @@
         <v>600779</v>
       </c>
       <c r="C49" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D49" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -10496,7 +10928,7 @@
         <v>600059</v>
       </c>
       <c r="C51" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F51">
         <v>58</v>
@@ -10513,7 +10945,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -10521,10 +10953,10 @@
         <v>600962</v>
       </c>
       <c r="C55" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D55" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -10547,10 +10979,10 @@
         <v>603156</v>
       </c>
       <c r="C56" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D56" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F56">
         <v>133</v>
@@ -10570,10 +11002,10 @@
         <v>605388</v>
       </c>
       <c r="C57" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D57" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F57">
         <v>21</v>
@@ -10593,10 +11025,10 @@
         <v>600616</v>
       </c>
       <c r="C58" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D58" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F58">
         <v>22</v>
@@ -10616,10 +11048,10 @@
         <v>600543</v>
       </c>
       <c r="C59" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D59" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F59">
         <v>12</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6530" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="842">
   <si>
     <t>上海环境</t>
   </si>
@@ -2136,6 +2136,9 @@
     <t>中药、国企</t>
   </si>
   <si>
+    <t>002864、000650、300181、603139、600252、002287、605199</t>
+  </si>
+  <si>
     <t>商品房开发</t>
   </si>
   <si>
@@ -2212,6 +2215,15 @@
   </si>
   <si>
     <t>商品房、钢材、天津国企</t>
+  </si>
+  <si>
+    <t>000965</t>
+  </si>
+  <si>
+    <t>天保基建</t>
+  </si>
+  <si>
+    <t>房地产销售、物业出租、天津自贸区、雄安新区、大飞机</t>
   </si>
   <si>
     <t>华远地产</t>
@@ -2552,10 +2564,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2573,6 +2585,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2580,28 +2599,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2615,6 +2620,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2623,17 +2636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2665,6 +2677,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2708,13 +2727,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2731,7 +2743,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2743,145 +2893,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,25 +2923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3030,10 +3042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3042,19 +3054,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3063,10 +3075,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3081,94 +3093,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4924,12 +4936,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46:I46"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5700,7 +5712,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:9">
       <c r="B51" s="5" t="s">
         <v>675</v>
       </c>
@@ -5715,6 +5727,9 @@
       </c>
       <c r="G51">
         <v>31</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -5884,6 +5899,11 @@
       </c>
       <c r="H59">
         <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -5895,13 +5915,15 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="55.7272727272727" customWidth="1"/>
   </cols>
@@ -5916,18 +5938,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -5936,21 +5958,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G4">
         <v>6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -5958,10 +5983,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -5972,13 +5997,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -5992,10 +6017,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -6006,13 +6031,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -6026,10 +6051,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -6040,13 +6065,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -6057,13 +6082,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D11" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -6073,155 +6098,175 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12">
+      <c r="B12" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" t="s">
+        <v>729</v>
+      </c>
+      <c r="D12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F12">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
         <v>600743</v>
       </c>
-      <c r="C12" t="s">
-        <v>727</v>
-      </c>
-      <c r="D12" t="s">
-        <v>728</v>
-      </c>
-      <c r="F12">
+      <c r="C13" t="s">
+        <v>731</v>
+      </c>
+      <c r="D13" t="s">
+        <v>732</v>
+      </c>
+      <c r="F13">
         <v>634</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="C19" t="s">
-        <v>730</v>
-      </c>
-      <c r="D19" t="s">
-        <v>731</v>
-      </c>
-      <c r="F19">
-        <v>22</v>
-      </c>
-      <c r="G19">
-        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C20" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D20" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F20">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D21" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D22" t="s">
+        <v>741</v>
+      </c>
+      <c r="F22">
         <v>97</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
-        <v>600173</v>
-      </c>
-      <c r="C22" t="s">
-        <v>738</v>
-      </c>
-      <c r="D22" t="s">
-        <v>739</v>
-      </c>
-      <c r="F22">
-        <v>73</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
+        <v>600173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>742</v>
+      </c>
+      <c r="D23" t="s">
+        <v>743</v>
+      </c>
+      <c r="F23">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
         <v>600503</v>
       </c>
-      <c r="C23" t="s">
-        <v>740</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>744</v>
+      </c>
+      <c r="D24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F24">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C25" t="s">
+        <v>747</v>
+      </c>
+      <c r="D25" t="s">
         <v>741</v>
       </c>
-      <c r="F23">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="C24" t="s">
-        <v>743</v>
-      </c>
-      <c r="D24" t="s">
-        <v>737</v>
-      </c>
-      <c r="F24">
+      <c r="F25">
         <v>74</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25">
-        <v>600641</v>
-      </c>
-      <c r="C25" t="s">
-        <v>744</v>
-      </c>
-      <c r="D25" t="s">
-        <v>745</v>
-      </c>
-      <c r="F25">
-        <v>78</v>
-      </c>
-      <c r="G25">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
+        <v>600641</v>
+      </c>
+      <c r="C26" t="s">
+        <v>748</v>
+      </c>
+      <c r="D26" t="s">
+        <v>749</v>
+      </c>
+      <c r="F26">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27">
         <v>600246</v>
       </c>
-      <c r="C26" t="s">
-        <v>746</v>
-      </c>
-      <c r="D26" t="s">
-        <v>747</v>
-      </c>
-      <c r="F26">
+      <c r="C27" t="s">
+        <v>750</v>
+      </c>
+      <c r="D27" t="s">
+        <v>751</v>
+      </c>
+      <c r="F27">
         <v>111</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>83</v>
       </c>
     </row>
@@ -6236,8 +6281,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
@@ -6255,12 +6300,12 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -6268,10 +6313,10 @@
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -6282,13 +6327,13 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C4" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="D4" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -6302,10 +6347,10 @@
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D5" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -6319,10 +6364,10 @@
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D6" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F6">
         <v>48</v>
@@ -6333,7 +6378,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -6341,10 +6386,10 @@
         <v>300169</v>
       </c>
       <c r="C13" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D13" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -6358,10 +6403,10 @@
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D14" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -6378,10 +6423,10 @@
         <v>600158</v>
       </c>
       <c r="C15" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="D15" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F15">
         <v>53</v>
@@ -6395,13 +6440,13 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C17" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D17" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -6415,10 +6460,10 @@
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D20" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -6429,13 +6474,13 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C22" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="D22" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -6443,7 +6488,6 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-      <c r="H22"/>
       <c r="I22">
         <v>1</v>
       </c>
@@ -6456,10 +6500,10 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E24" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F24">
         <v>46</v>
@@ -6476,10 +6520,10 @@
         <v>605299</v>
       </c>
       <c r="C27" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D27" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -6493,13 +6537,13 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="5" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C28" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D28" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -6513,13 +6557,13 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="5" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C29" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D29" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="F29">
         <v>11</v>
@@ -6559,23 +6603,23 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D3" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -6589,13 +6633,13 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D4" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E4" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -6612,10 +6656,10 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D5" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -6632,10 +6676,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D13" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -6649,10 +6693,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D14" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -6666,10 +6710,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D15" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -6680,13 +6724,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C16" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D16" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -6709,10 +6753,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D17" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -6732,10 +6776,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D18" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -6746,13 +6790,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C19" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D19" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -6769,10 +6813,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D20" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -6783,13 +6827,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C21" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D21" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -6809,10 +6853,10 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D22" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -6826,10 +6870,10 @@
         <v>300342</v>
       </c>
       <c r="C23" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D23" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -6843,10 +6887,10 @@
         <v>600336</v>
       </c>
       <c r="C24" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D24" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -6866,10 +6910,10 @@
         <v>300403</v>
       </c>
       <c r="C25" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D25" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F25">
         <v>22</v>
@@ -6880,13 +6924,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C26" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D26" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -6903,10 +6947,10 @@
         <v>300160</v>
       </c>
       <c r="C27" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D27" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -6920,10 +6964,10 @@
         <v>603578</v>
       </c>
       <c r="C28" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D28" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -6937,10 +6981,10 @@
         <v>300217</v>
       </c>
       <c r="C29" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D29" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F29">
         <v>46</v>
@@ -6954,16 +6998,16 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C30" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D30" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E30" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F30">
         <v>19</v>
@@ -6980,10 +7024,10 @@
         <v>603657</v>
       </c>
       <c r="C32" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D32" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -6997,10 +7041,10 @@
         <v>301008</v>
       </c>
       <c r="C33" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D33" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F33">
         <v>13</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
     <sheet name="冬奥会" sheetId="18" r:id="rId16"/>
     <sheet name="家居" sheetId="19" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">药品!$F$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1026">
   <si>
     <t>上海环境</t>
   </si>
@@ -41,6 +44,9 @@
     <t>整机代工</t>
   </si>
   <si>
+    <t>市值</t>
+  </si>
+  <si>
     <t>资产</t>
   </si>
   <si>
@@ -167,6 +173,15 @@
     <t>元宇宙、虚拟数字人、华为概念、无线耳机、冬奥会</t>
   </si>
   <si>
+    <t>传媒</t>
+  </si>
+  <si>
+    <t>城市传媒</t>
+  </si>
+  <si>
+    <t>文化传媒、网络直播、在线教育、虚拟实现、国企</t>
+  </si>
+  <si>
     <t>电解铝</t>
   </si>
   <si>
@@ -1266,9 +1281,6 @@
   </si>
   <si>
     <t>集成电路制造和技术服务商</t>
-  </si>
-  <si>
-    <t>市值</t>
   </si>
   <si>
     <t>利润</t>
@@ -1764,6 +1776,9 @@
     <t>公交EDR、人脸识别、百度概念、充电桩、新能源汽车</t>
   </si>
   <si>
+    <t>利润率</t>
+  </si>
+  <si>
     <t>NMN</t>
   </si>
   <si>
@@ -2139,6 +2154,549 @@
     <t>002864、000650、300181、603139、600252、002287、605199</t>
   </si>
   <si>
+    <t>化学制药</t>
+  </si>
+  <si>
+    <t>康芝药业</t>
+  </si>
+  <si>
+    <t>辅助生殖、三台概念、超级真菌、儿童房医疗、生物医药</t>
+  </si>
+  <si>
+    <t>仟源医药</t>
+  </si>
+  <si>
+    <t>NMN、生物医药、基因测序、中医药</t>
+  </si>
+  <si>
+    <t>亨迪药业</t>
+  </si>
+  <si>
+    <t>次新股、全球主要的布洛芬原料药制造商、给辉瑞供货</t>
+  </si>
+  <si>
+    <t>威尔药业</t>
+  </si>
+  <si>
+    <t>药用辅料、合成润滑材料</t>
+  </si>
+  <si>
+    <t>000756</t>
+  </si>
+  <si>
+    <t>新华制药</t>
+  </si>
+  <si>
+    <t>化学原料药、医药中间体、医药电商、医疗中间体、医保目录</t>
+  </si>
+  <si>
+    <t>拓新药业</t>
+  </si>
+  <si>
+    <t>医药中间体、原料药</t>
+  </si>
+  <si>
+    <t>天宇股份</t>
+  </si>
+  <si>
+    <t>高血压药物中间体</t>
+  </si>
+  <si>
+    <t>000915</t>
+  </si>
+  <si>
+    <t>华特达因</t>
+  </si>
+  <si>
+    <t>生物医药、三胎概念、医保目录、消毒剂、废气处理</t>
+  </si>
+  <si>
+    <t>000566</t>
+  </si>
+  <si>
+    <t>海南海药</t>
+  </si>
+  <si>
+    <t>生物疫苗、互联网医疗、细胞免疫治疗、抗癌</t>
+  </si>
+  <si>
+    <t>共同药业</t>
+  </si>
+  <si>
+    <t>生物医药（甾体药物）、辅助生殖</t>
+  </si>
+  <si>
+    <t>多瑞医药</t>
+  </si>
+  <si>
+    <t>醋酸钠林格（体液补充剂）</t>
+  </si>
+  <si>
+    <t>常山药业</t>
+  </si>
+  <si>
+    <t>医美概念、生物医药、国产伟哥、多肽药、医保目录</t>
+  </si>
+  <si>
+    <t>溢多利</t>
+  </si>
+  <si>
+    <t>工业大麻、生物医药、辅助生殖、燃料乙醇、饲料</t>
+  </si>
+  <si>
+    <t>金城医药</t>
+  </si>
+  <si>
+    <t>眼科医疗、仿制药、禽流感、创新药埃博拉概念</t>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>抗感染、高血压药物</t>
+  </si>
+  <si>
+    <t>002923</t>
+  </si>
+  <si>
+    <t>润都股份</t>
+  </si>
+  <si>
+    <t>仿制药、青蒿素、创新药、抗肿瘤、新型烟草</t>
+  </si>
+  <si>
+    <t>辰欣药业</t>
+  </si>
+  <si>
+    <t>生物医药、仿制药、抗肿瘤、肝素、医保目录</t>
+  </si>
+  <si>
+    <t>富祥药业</t>
+  </si>
+  <si>
+    <t>生物医药、创新药、抗艾滋病</t>
+  </si>
+  <si>
+    <t>002898</t>
+  </si>
+  <si>
+    <t>塞隆药业</t>
+  </si>
+  <si>
+    <t>制药原料、医药中间体</t>
+  </si>
+  <si>
+    <t>莱美药业</t>
+  </si>
+  <si>
+    <t>知识产权保护、细胞免疫、生物医药、抗癌、医保目录、国企</t>
+  </si>
+  <si>
+    <t>福安药业</t>
+  </si>
+  <si>
+    <t>工业大麻、抗癌、艾滋病、仿制药</t>
+  </si>
+  <si>
+    <t>广生堂</t>
+  </si>
+  <si>
+    <t>专注于肝领域、仿制药、生物药、乙肝治疗、创新药、抗癌、辅助生殖</t>
+  </si>
+  <si>
+    <t>大涨过</t>
+  </si>
+  <si>
+    <t>000788</t>
+  </si>
+  <si>
+    <t>北大医药</t>
+  </si>
+  <si>
+    <t>西部原料药龙头（出口），民营医院、医药电商、抗癌、成渝特区、医保目录、维生素</t>
+  </si>
+  <si>
+    <t>新诺维</t>
+  </si>
+  <si>
+    <t>保健品、维生素</t>
+  </si>
+  <si>
+    <t>塞托生物</t>
+  </si>
+  <si>
+    <t>甾体药物原料</t>
+  </si>
+  <si>
+    <t>鲁抗医药</t>
+  </si>
+  <si>
+    <t>主业抗生素、超级真菌、流感、禽流感、医保目录、登革热、埃博拉</t>
+  </si>
+  <si>
+    <t>莎普爱思</t>
+  </si>
+  <si>
+    <t>白内障滴眼液、生物医药、眼科医疗、中医药、民营医院、三胎概念</t>
+  </si>
+  <si>
+    <t>002900</t>
+  </si>
+  <si>
+    <t>哈三联</t>
+  </si>
+  <si>
+    <t>主业干粉注射剂、创新药、仿制药、消毒剂、医疗器械、化妆品</t>
+  </si>
+  <si>
+    <t>联环药业</t>
+  </si>
+  <si>
+    <t>泌尿系统、抗阻胺药、心血管药、禽流感、医保目录、埃博拉、国产伟哥、国企</t>
+  </si>
+  <si>
+    <t>002370</t>
+  </si>
+  <si>
+    <t>亚太药业</t>
+  </si>
+  <si>
+    <t>002365</t>
+  </si>
+  <si>
+    <t>永安药业</t>
+  </si>
+  <si>
+    <t>牛磺酸龙头、保健品、一带一路、基建工程、氢能源、石墨烯、节能环保</t>
+  </si>
+  <si>
+    <t>000813</t>
+  </si>
+  <si>
+    <t>德展健康</t>
+  </si>
+  <si>
+    <t>降血脂龙头、仿制药、工业大麻、生物疫苗、HPV疫苗</t>
+  </si>
+  <si>
+    <t>汉商集团</t>
+  </si>
+  <si>
+    <t>化药、医疗器械、中医药、医美概念辅助生殖、新零售</t>
+  </si>
+  <si>
+    <t>天药股份</t>
+  </si>
+  <si>
+    <t>亚洲最大的（甾体药物）生产销售（出口）、仿制药、生物医药、医保目录</t>
+  </si>
+  <si>
+    <t>000153</t>
+  </si>
+  <si>
+    <t>丰原药业</t>
+  </si>
+  <si>
+    <t>化药、医药销售、代糖概念、生物医药、眼科医疗、医保目录、抗癌</t>
+  </si>
+  <si>
+    <t>000952</t>
+  </si>
+  <si>
+    <t>广济药业</t>
+  </si>
+  <si>
+    <t>维生素、有出口、国企</t>
+  </si>
+  <si>
+    <t>东亚药业</t>
+  </si>
+  <si>
+    <t>医药中间体</t>
+  </si>
+  <si>
+    <t>尔康制药</t>
+  </si>
+  <si>
+    <t>药用辅药龙头、超级真菌、nmn概念、维生素、中医药</t>
+  </si>
+  <si>
+    <t>000908</t>
+  </si>
+  <si>
+    <t>景峰医药</t>
+  </si>
+  <si>
+    <t>民营医院、生物医药、医疗器械、医保目录、创新药、抗癌</t>
+  </si>
+  <si>
+    <t>002393</t>
+  </si>
+  <si>
+    <t>力生制药</t>
+  </si>
+  <si>
+    <t>仿制药、医保目录、国企、专精特新</t>
+  </si>
+  <si>
+    <t>维生素</t>
+  </si>
+  <si>
+    <t>全球知名维生素D3、胆固醇、羊毛脂制品、维生素、专精特新</t>
+  </si>
+  <si>
+    <t>平缓</t>
+  </si>
+  <si>
+    <t>美诺华</t>
+  </si>
+  <si>
+    <t>出口欧洲比重大、降血压、中枢神经、抗血栓原料药与成品药</t>
+  </si>
+  <si>
+    <t>002550</t>
+  </si>
+  <si>
+    <t>千红制药</t>
+  </si>
+  <si>
+    <t>多糖类、蛋白酶类药品、新冠检测（出口欧盟）、生物医药、仿制药、抗癌、肝素</t>
+  </si>
+  <si>
+    <t>华仁药业</t>
+  </si>
+  <si>
+    <t>医药原料、输液用品生产龙头、医疗器械、口罩、医保目录、化妆品、国企</t>
+  </si>
+  <si>
+    <t>000919</t>
+  </si>
+  <si>
+    <t>金陵药业</t>
+  </si>
+  <si>
+    <t>民营医院、医美概念、中医药、医保目录、养老老概念、国企</t>
+  </si>
+  <si>
+    <t>北陆药业</t>
+  </si>
+  <si>
+    <t>世和基因、芝友医疗股东、生物医药（对比剂、精神神经、内分泌）仿制药、基因测序、医保目录、抗肿瘤</t>
+  </si>
+  <si>
+    <t>002437</t>
+  </si>
+  <si>
+    <t>誉衡药业</t>
+  </si>
+  <si>
+    <t>生物医药、抗癌、多肽药、民营医院、互联网保险</t>
+  </si>
+  <si>
+    <t>002020</t>
+  </si>
+  <si>
+    <t>京新药业</t>
+  </si>
+  <si>
+    <t>氟喹诺酮药物龙头、仿制药、生物医药、医保目录、眼科医疗、医疗器械抗癌</t>
+  </si>
+  <si>
+    <t>神奇制药</t>
+  </si>
+  <si>
+    <t>老品牌有技术、生物医药、超级真菌、医保目录、抗癌、中医药</t>
+  </si>
+  <si>
+    <t>新冠检测</t>
+  </si>
+  <si>
+    <t>济南高新</t>
+  </si>
+  <si>
+    <t>主业矿产（澳矿）新冠检测、黄金、小金属、国企</t>
+  </si>
+  <si>
+    <t>002584</t>
+  </si>
+  <si>
+    <t>西陇科学</t>
+  </si>
+  <si>
+    <t>主业化工原料、新冠检测（子公司，病毒检测）、流感、消毒剂、塑化剂、电子商务、体外诊断</t>
+  </si>
+  <si>
+    <t>天瑞仪器</t>
+  </si>
+  <si>
+    <t>新冠检测（子公司病毒检测、出口），工业大麻、食品安全、垃圾分类、太赫兹、塑化剂</t>
+  </si>
+  <si>
+    <t>兰卫医学</t>
+  </si>
+  <si>
+    <t>主业诊断、新冠检测、基因测序、体外诊断、专精特新</t>
+  </si>
+  <si>
+    <t>海特生物</t>
+  </si>
+  <si>
+    <t>新冠检测（早期病毒检测试剂出口欧盟），生物医药、乙肝治疗、创新药、抗癌、CRO</t>
+  </si>
+  <si>
+    <t>塞利医疗</t>
+  </si>
+  <si>
+    <t>新冠检测（lgm、lgg两种检测试剂，可出口欧盟，目前主流为总抗体诊断）、区块链、工业大麻、互联网医疗、体外诊断</t>
+  </si>
+  <si>
+    <t>可孚医疗</t>
+  </si>
+  <si>
+    <t>新冠检测（海外少量销售），医疗器械、互联网医疗（线上销售产品占比70%），专精特新新</t>
+  </si>
+  <si>
+    <t>阳普医疗</t>
+  </si>
+  <si>
+    <t>新冠检测（PCR荧光探针法），细胞免疫治疗，医疗器械、口罩、空气净化</t>
+  </si>
+  <si>
+    <t>迪瑞医疗</t>
+  </si>
+  <si>
+    <t>子公司（至善生物可出口欧盟，正在扩大市场，正在ipo），医疗器械、体外诊断、国企</t>
+  </si>
+  <si>
+    <t>新产业</t>
+  </si>
+  <si>
+    <t>新冠检测（lgm、lgg检测试剂），医疗器械、流感、体外诊断</t>
+  </si>
+  <si>
+    <t>乐普医疗</t>
+  </si>
+  <si>
+    <t>新冠检测（海外业务为主）、仿制药、医药电商、生物医药、体外诊断、医疗器械</t>
+  </si>
+  <si>
+    <t>000710</t>
+  </si>
+  <si>
+    <t>贝瑞基因</t>
+  </si>
+  <si>
+    <t>新冠检测（只针对国内），基因测序、抗癌、体外诊断</t>
+  </si>
+  <si>
+    <t>华大基因</t>
+  </si>
+  <si>
+    <t>新冠检测（龙头，有海外业务）、基因测序、医疗器械、体外诊断、生物医药</t>
+  </si>
+  <si>
+    <t>002030</t>
+  </si>
+  <si>
+    <t>达安基因</t>
+  </si>
+  <si>
+    <t>新冠检测（正在开拓海外市场）、超级真菌、禽流感、医疗器械、体外诊断、食品安全</t>
+  </si>
+  <si>
+    <t>博晖创新</t>
+  </si>
+  <si>
+    <t>新冠检测（获得ce认证，正在申报准入海外国家）、生物疫苗（新冠疫苗），医疗器械、分子诊断、血液制品</t>
+  </si>
+  <si>
+    <t>透景生命</t>
+  </si>
+  <si>
+    <t>新冠检测（出口欧洲、中东、东南亚），基因测序、医疗器械、体外诊断、抗癌</t>
+  </si>
+  <si>
+    <t>润达医疗</t>
+  </si>
+  <si>
+    <t>新冠检测、医疗器械、生物医药、互联网医疗、体外诊断</t>
+  </si>
+  <si>
+    <t>万孚生物</t>
+  </si>
+  <si>
+    <t>新冠检测（家用检测产品已在100多个国家销售）、基因测序、芬太尼、医疗器械、体外诊断、生物医药</t>
+  </si>
+  <si>
+    <t>迈克生物</t>
+  </si>
+  <si>
+    <t>新冠检测（获得美国紧急使用授权、海外市场暂时未打开），基因测序、体外诊断</t>
+  </si>
+  <si>
+    <t>华测检测</t>
+  </si>
+  <si>
+    <t>新冠检测（市场为国内），基因测序、电子商务、食品安全、塑化剂、PM2.5</t>
+  </si>
+  <si>
+    <t>金域医学</t>
+  </si>
+  <si>
+    <t>新冠检测（国内）基因测序、医疗器械、体外诊断、冷链物流</t>
+  </si>
+  <si>
+    <t>002500</t>
+  </si>
+  <si>
+    <t>新冠检测（获得ce认证，在开拓国外市场）、</t>
+  </si>
+  <si>
+    <t>谱尼测试</t>
+  </si>
+  <si>
+    <t>新冠检测（北京）、口罩、新能源汽车、碳中和</t>
+  </si>
+  <si>
+    <t>凯普生物</t>
+  </si>
+  <si>
+    <t>新冠检测（国内，申请冬奥会检测）</t>
+  </si>
+  <si>
+    <t>三诺生物</t>
+  </si>
+  <si>
+    <t>新冠检测（抗体检测，具备美国、欧盟准入资格），医疗器械、民营医院、胰岛素</t>
+  </si>
+  <si>
+    <t>002398</t>
+  </si>
+  <si>
+    <t>垒知集团</t>
+  </si>
+  <si>
+    <t>新冠检测（抗体检测、欧盟ce）、装配式建筑、体外诊断</t>
+  </si>
+  <si>
+    <t>济民医疗</t>
+  </si>
+  <si>
+    <t>新冠检测（子公司，位于西班牙病毒检测）、民营医院、医疗器械、干细胞、医美</t>
+  </si>
+  <si>
+    <t>九强生物</t>
+  </si>
+  <si>
+    <t>新冠检测（抗原检测，获得欧盟准入）、医疗器械、生物医药、专精特新</t>
+  </si>
+  <si>
+    <t>海利生物</t>
+  </si>
+  <si>
+    <t>新冠检测（抗体检测，有欧盟准入）、生物疫苗（畜禽用）、基因测序、保健品</t>
+  </si>
+  <si>
     <t>商品房开发</t>
   </si>
   <si>
@@ -2416,9 +2974,6 @@
   </si>
   <si>
     <t>主营空调</t>
-  </si>
-  <si>
-    <t>大涨过</t>
   </si>
   <si>
     <t>惠而浦</t>
@@ -2564,10 +3119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2584,8 +3139,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2593,6 +3149,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2607,37 +3177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2659,6 +3198,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2677,13 +3231,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2721,8 +3268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2743,13 +3298,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2761,49 +3346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,37 +3376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,13 +3394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,13 +3418,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2911,13 +3466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,6 +3492,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2952,28 +3522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2996,8 +3549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3006,7 +3559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3028,9 +3581,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3042,10 +3597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3054,25 +3609,25 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3081,7 +3636,7 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3093,94 +3648,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3268,13 +3823,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -3294,7 +3849,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="6350"/>
+          <a:off x="9690100" y="6350"/>
           <a:ext cx="7556500" cy="6858000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3633,7 +4188,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3843,7 +4398,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3890,7 +4445,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -4391,10 +4946,10 @@
   <sheetData>
     <row r="1" spans="6:7">
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -4402,7 +4957,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -4416,7 +4971,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -4430,7 +4985,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -4444,7 +4999,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -4458,7 +5013,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -4472,10 +5027,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -4486,13 +5041,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -4525,26 +5080,26 @@
   <sheetData>
     <row r="1" spans="6:7">
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -4558,10 +5113,10 @@
         <v>300496</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -4575,10 +5130,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -4592,10 +5147,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D6" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -4609,10 +5164,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -4626,10 +5181,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -4643,10 +5198,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D9" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -4660,10 +5215,10 @@
         <v>300428</v>
       </c>
       <c r="C10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F10">
         <v>133</v>
@@ -4677,10 +5232,10 @@
         <v>603949</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D11" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -4691,18 +5246,18 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C17" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -4713,13 +5268,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -4733,10 +5288,10 @@
         <v>300742</v>
       </c>
       <c r="C22" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D22" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -4747,18 +5302,18 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C27" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D27" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -4769,19 +5324,19 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C28" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D28" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F28">
         <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -4789,13 +5344,13 @@
         <v>300458</v>
       </c>
       <c r="C29" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D29" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E29" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -4809,10 +5364,10 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C30" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -4832,7 +5387,7 @@
         <v>300188</v>
       </c>
       <c r="C31" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F31">
         <v>42</v>
@@ -4849,10 +5404,10 @@
         <v>300735</v>
       </c>
       <c r="C32" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D32" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F32">
         <v>58</v>
@@ -4872,10 +5427,10 @@
         <v>600081</v>
       </c>
       <c r="C33" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D33" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F33">
         <v>95</v>
@@ -4889,25 +5444,25 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C34" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D34" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F34">
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -4915,16 +5470,16 @@
         <v>300807</v>
       </c>
       <c r="C35" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D35" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F35">
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4935,13 +5490,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -4949,965 +5504,2767 @@
     <col min="4" max="4" width="58.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7">
+    <row r="1" spans="6:9">
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>600351</v>
       </c>
       <c r="C13" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D13" t="s">
-        <v>580</v>
-      </c>
-      <c r="F13">
-        <v>38</v>
+        <v>584</v>
       </c>
       <c r="G13">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="H13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="5" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D14" t="s">
-        <v>583</v>
-      </c>
-      <c r="F14">
+        <v>587</v>
+      </c>
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>156</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>603439</v>
       </c>
       <c r="C15" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D15" t="s">
-        <v>585</v>
-      </c>
-      <c r="F15">
+        <v>589</v>
+      </c>
+      <c r="G15">
         <v>13</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>38</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>603567</v>
       </c>
       <c r="C16" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D16" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>102</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:9">
       <c r="B17" s="5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C17" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D17" t="s">
-        <v>590</v>
-      </c>
-      <c r="F17">
+        <v>594</v>
+      </c>
+      <c r="G17">
         <v>54</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>23</v>
       </c>
-      <c r="H17" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>600976</v>
       </c>
       <c r="C18" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D18" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="E18" t="s">
-        <v>594</v>
-      </c>
-      <c r="F18">
+        <v>598</v>
+      </c>
+      <c r="G18">
         <v>26</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>603896</v>
       </c>
       <c r="C19" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D19" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
-      </c>
-      <c r="F19">
+        <v>598</v>
+      </c>
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>48</v>
       </c>
-      <c r="H19" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="I19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>605199</v>
       </c>
       <c r="C20" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D20" t="s">
-        <v>600</v>
-      </c>
-      <c r="F20">
+        <v>604</v>
+      </c>
+      <c r="G20">
         <v>14</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>300039</v>
       </c>
       <c r="C21" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D22" t="s">
+        <v>609</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
         <v>602</v>
       </c>
-      <c r="F21">
-        <v>32</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="C22" t="s">
-        <v>604</v>
-      </c>
-      <c r="D22" t="s">
-        <v>605</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s">
-        <v>598</v>
-      </c>
-      <c r="I22" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="J22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23">
         <v>600572</v>
       </c>
       <c r="C23" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D23" t="s">
-        <v>608</v>
-      </c>
-      <c r="F23">
+        <v>612</v>
+      </c>
+      <c r="G23">
         <v>88</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>92</v>
       </c>
-      <c r="H23" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="I23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>603139</v>
       </c>
       <c r="C24" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D24" t="s">
-        <v>610</v>
-      </c>
-      <c r="F24">
+        <v>614</v>
+      </c>
+      <c r="G24">
         <v>17</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>80</v>
       </c>
-      <c r="H24" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="I24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25">
         <v>600211</v>
       </c>
       <c r="C25" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D25" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>37</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>23</v>
       </c>
-      <c r="H25" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="I25" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C26" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D26" t="s">
-        <v>615</v>
-      </c>
-      <c r="F26">
+        <v>619</v>
+      </c>
+      <c r="G26">
         <v>17</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>47</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:8">
       <c r="B27" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C27" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D27" t="s">
-        <v>618</v>
-      </c>
-      <c r="F27">
+        <v>622</v>
+      </c>
+      <c r="G27">
         <v>53</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>301111</v>
       </c>
       <c r="C28" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D28" t="s">
-        <v>620</v>
-      </c>
-      <c r="F28">
+        <v>624</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="B29">
         <v>600080</v>
       </c>
       <c r="C29" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D29" t="s">
-        <v>622</v>
-      </c>
-      <c r="F29">
+        <v>626</v>
+      </c>
+      <c r="G29">
         <v>19</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>109</v>
       </c>
-      <c r="H29" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="5" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C30" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D30" t="s">
-        <v>625</v>
-      </c>
-      <c r="F30">
+        <v>629</v>
+      </c>
+      <c r="G30">
         <v>27</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="I30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>600750</v>
       </c>
       <c r="C31" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D31" t="s">
-        <v>627</v>
-      </c>
-      <c r="F31">
+        <v>631</v>
+      </c>
+      <c r="G31">
         <v>55</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:9">
       <c r="B32" s="5" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C32" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D32" t="s">
-        <v>630</v>
-      </c>
-      <c r="F32">
+        <v>634</v>
+      </c>
+      <c r="G32">
         <v>20</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>21</v>
       </c>
-      <c r="H32" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="I32" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="5" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C33" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D33" t="s">
-        <v>633</v>
-      </c>
-      <c r="F33">
+        <v>637</v>
+      </c>
+      <c r="G33">
         <v>53</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>13</v>
       </c>
-      <c r="H33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="I33" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>300878</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D34" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>16</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>600436</v>
       </c>
       <c r="C35" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D35" t="s">
-        <v>637</v>
-      </c>
-      <c r="F35">
+        <v>641</v>
+      </c>
+      <c r="G35">
         <v>119</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>122</v>
       </c>
-      <c r="H35" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="I35" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="5" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C36" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D36" t="s">
-        <v>640</v>
-      </c>
-      <c r="F36">
+        <v>644</v>
+      </c>
+      <c r="G36">
         <v>9</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>51</v>
       </c>
-      <c r="H36" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="I36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37">
         <v>300108</v>
       </c>
       <c r="C37" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D37" t="s">
-        <v>642</v>
-      </c>
-      <c r="F37">
+        <v>646</v>
+      </c>
+      <c r="G37">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
       <c r="H37" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38">
         <v>603998</v>
       </c>
       <c r="C38" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D38" t="s">
-        <v>645</v>
-      </c>
-      <c r="F38">
+        <v>649</v>
+      </c>
+      <c r="G38">
         <v>25</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:8">
       <c r="B39">
         <v>600479</v>
       </c>
       <c r="C39" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D39" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E39" t="s">
-        <v>594</v>
-      </c>
-      <c r="F39">
+        <v>598</v>
+      </c>
+      <c r="G39">
         <v>40</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:8">
       <c r="B40">
         <v>600557</v>
       </c>
       <c r="C40" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D40" t="s">
-        <v>649</v>
-      </c>
-      <c r="F40">
+        <v>653</v>
+      </c>
+      <c r="G40">
         <v>57</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:9">
       <c r="B41" s="5" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C41" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D41" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>50</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>20</v>
       </c>
-      <c r="H41" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="I41" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42">
         <v>600594</v>
       </c>
       <c r="C42" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D42" t="s">
-        <v>654</v>
-      </c>
-      <c r="F42">
+        <v>658</v>
+      </c>
+      <c r="G42">
         <v>54</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:9">
       <c r="B43">
         <v>600222</v>
       </c>
       <c r="C43" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D43" t="s">
-        <v>656</v>
-      </c>
-      <c r="F43">
+        <v>660</v>
+      </c>
+      <c r="G43">
         <v>38</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>140</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:8">
       <c r="B44" s="5" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C44" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>50</v>
       </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C45" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D45" t="s">
-        <v>662</v>
-      </c>
-      <c r="F45">
+        <v>666</v>
+      </c>
+      <c r="G45">
         <v>19</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>30</v>
       </c>
-      <c r="H45" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="I45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46">
         <v>603963</v>
       </c>
       <c r="C46" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D46" t="s">
-        <v>664</v>
-      </c>
-      <c r="F46">
+        <v>668</v>
+      </c>
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
       <c r="H46" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="5" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C47" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D47" t="s">
-        <v>668</v>
-      </c>
-      <c r="F47">
+        <v>672</v>
+      </c>
+      <c r="G47">
         <v>96</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>55</v>
       </c>
-      <c r="H47" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="I47" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48">
         <v>300519</v>
       </c>
       <c r="C48" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D48" t="s">
-        <v>670</v>
-      </c>
-      <c r="F48">
+        <v>674</v>
+      </c>
+      <c r="G48">
         <v>8</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:9">
       <c r="B49">
         <v>300181</v>
       </c>
       <c r="C49" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D49" t="s">
-        <v>672</v>
-      </c>
-      <c r="F49">
+        <v>676</v>
+      </c>
+      <c r="G49">
         <v>33</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>34</v>
       </c>
-      <c r="H49" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="I49" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50">
         <v>600129</v>
       </c>
       <c r="C50" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D50" t="s">
-        <v>674</v>
-      </c>
-      <c r="F50">
+        <v>678</v>
+      </c>
+      <c r="G50">
         <v>134</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>33</v>
       </c>
-      <c r="H50" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+      <c r="I50" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="5" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C51" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D51" t="s">
-        <v>677</v>
-      </c>
-      <c r="F51">
+        <v>681</v>
+      </c>
+      <c r="G51">
         <v>12</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>31</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:9">
       <c r="B52" s="5" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C52" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D52" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>81</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>9</v>
       </c>
-      <c r="H52" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I52" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" s="5" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C53" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D53" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>10</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>205</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:9">
       <c r="B54" s="5" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C54" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D54" t="s">
-        <v>686</v>
-      </c>
-      <c r="F54">
+        <v>690</v>
+      </c>
+      <c r="G54">
         <v>15</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>26</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:9">
       <c r="B55" s="5" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C55" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D55" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E55" t="s">
-        <v>690</v>
-      </c>
-      <c r="F55">
+        <v>694</v>
+      </c>
+      <c r="G55">
         <v>65</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>92</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>-25</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:9">
       <c r="B56" s="5" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C56" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D56" t="s">
-        <v>693</v>
-      </c>
-      <c r="F56">
+        <v>697</v>
+      </c>
+      <c r="G56">
         <v>31</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>40</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:9">
       <c r="B57">
         <v>600771</v>
       </c>
       <c r="C57" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D57" t="s">
-        <v>695</v>
-      </c>
-      <c r="F57">
+        <v>699</v>
+      </c>
+      <c r="G57">
         <v>33</v>
       </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57">
+      <c r="H57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I57">
         <v>-270</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:9">
       <c r="B58" s="5" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C58" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D58" t="s">
-        <v>698</v>
-      </c>
-      <c r="F58">
+        <v>702</v>
+      </c>
+      <c r="G58">
         <v>41</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>27</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:9">
       <c r="B59">
         <v>300534</v>
       </c>
       <c r="C59" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D59" t="s">
-        <v>700</v>
-      </c>
-      <c r="F59">
+        <v>704</v>
+      </c>
+      <c r="G59">
         <v>8</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>502</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>35</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>701</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65">
+        <v>300086</v>
+      </c>
+      <c r="C65" t="s">
+        <v>707</v>
+      </c>
+      <c r="D65" t="s">
+        <v>708</v>
+      </c>
+      <c r="E65" t="s">
+        <v>694</v>
+      </c>
+      <c r="F65">
+        <v>36</v>
+      </c>
+      <c r="G65">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65">
+        <v>-2050</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66">
+        <v>300254</v>
+      </c>
+      <c r="C66" t="s">
+        <v>709</v>
+      </c>
+      <c r="D66" t="s">
+        <v>710</v>
+      </c>
+      <c r="E66" t="s">
+        <v>694</v>
+      </c>
+      <c r="F66">
+        <v>16</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66">
+        <v>96</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67">
+        <v>301211</v>
+      </c>
+      <c r="C67" t="s">
+        <v>711</v>
+      </c>
+      <c r="D67" t="s">
+        <v>712</v>
+      </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68">
+        <v>603351</v>
+      </c>
+      <c r="C68" t="s">
+        <v>713</v>
+      </c>
+      <c r="D68" t="s">
+        <v>714</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68">
+        <v>18</v>
+      </c>
+      <c r="H68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C69" t="s">
+        <v>716</v>
+      </c>
+      <c r="D69" t="s">
+        <v>717</v>
+      </c>
+      <c r="G69">
+        <v>78</v>
+      </c>
+      <c r="H69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70">
+        <v>301089</v>
+      </c>
+      <c r="C70" t="s">
+        <v>718</v>
+      </c>
+      <c r="D70" t="s">
+        <v>719</v>
+      </c>
+      <c r="F70">
+        <v>80</v>
+      </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>107</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71">
+        <v>300702</v>
+      </c>
+      <c r="C71" t="s">
+        <v>720</v>
+      </c>
+      <c r="D71" t="s">
+        <v>721</v>
+      </c>
+      <c r="G71">
+        <v>55</v>
+      </c>
+      <c r="H71">
+        <v>57</v>
+      </c>
+      <c r="I71">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C72" t="s">
+        <v>723</v>
+      </c>
+      <c r="D72" t="s">
+        <v>724</v>
+      </c>
+      <c r="F72">
+        <v>69</v>
+      </c>
+      <c r="G72">
+        <v>39</v>
+      </c>
+      <c r="H72">
+        <v>18</v>
+      </c>
+      <c r="I72">
+        <v>40</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C73" t="s">
+        <v>726</v>
+      </c>
+      <c r="D73" t="s">
+        <v>727</v>
+      </c>
+      <c r="G73">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74">
+        <v>300966</v>
+      </c>
+      <c r="C74" t="s">
+        <v>728</v>
+      </c>
+      <c r="D74" t="s">
+        <v>729</v>
+      </c>
+      <c r="F74">
+        <v>44</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75">
+        <v>301075</v>
+      </c>
+      <c r="C75" t="s">
+        <v>730</v>
+      </c>
+      <c r="D75" t="s">
+        <v>731</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76">
+        <v>300255</v>
+      </c>
+      <c r="C76" t="s">
+        <v>732</v>
+      </c>
+      <c r="D76" t="s">
+        <v>733</v>
+      </c>
+      <c r="F76">
+        <v>72</v>
+      </c>
+      <c r="G76">
+        <v>51</v>
+      </c>
+      <c r="H76">
+        <v>30</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77">
+        <v>300381</v>
+      </c>
+      <c r="C77" t="s">
+        <v>734</v>
+      </c>
+      <c r="D77" t="s">
+        <v>735</v>
+      </c>
+      <c r="F77">
+        <v>55</v>
+      </c>
+      <c r="G77">
+        <v>46</v>
+      </c>
+      <c r="H77">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78">
+        <v>300233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>736</v>
+      </c>
+      <c r="D78" t="s">
+        <v>737</v>
+      </c>
+      <c r="F78">
+        <v>110</v>
+      </c>
+      <c r="G78">
+        <v>51</v>
+      </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79">
+        <v>300111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>738</v>
+      </c>
+      <c r="D79" t="s">
+        <v>739</v>
+      </c>
+      <c r="F79">
+        <v>33</v>
+      </c>
+      <c r="G79">
+        <v>7.8</v>
+      </c>
+      <c r="H79">
+        <v>104</v>
+      </c>
+      <c r="I79">
+        <v>-93</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C80" t="s">
+        <v>741</v>
+      </c>
+      <c r="D80" t="s">
+        <v>742</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>35</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81">
+        <v>603367</v>
+      </c>
+      <c r="C81" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" t="s">
+        <v>744</v>
+      </c>
+      <c r="F81">
+        <v>42</v>
+      </c>
+      <c r="G81">
+        <v>51</v>
+      </c>
+      <c r="H81">
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82">
+        <v>300497</v>
+      </c>
+      <c r="C82" t="s">
+        <v>745</v>
+      </c>
+      <c r="D82" t="s">
+        <v>746</v>
+      </c>
+      <c r="F82">
+        <v>88</v>
+      </c>
+      <c r="G82">
+        <v>44</v>
+      </c>
+      <c r="H82">
+        <v>48</v>
+      </c>
+      <c r="I82">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" t="s">
+        <v>748</v>
+      </c>
+      <c r="D83" t="s">
+        <v>749</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83">
+        <v>154</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84">
+        <v>300006</v>
+      </c>
+      <c r="C84" t="s">
+        <v>750</v>
+      </c>
+      <c r="D84" t="s">
+        <v>751</v>
+      </c>
+      <c r="F84">
+        <v>60</v>
+      </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84">
+        <v>3565</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85">
+        <v>300194</v>
+      </c>
+      <c r="C85" t="s">
+        <v>752</v>
+      </c>
+      <c r="D85" t="s">
+        <v>753</v>
+      </c>
+      <c r="F85">
+        <v>55</v>
+      </c>
+      <c r="G85">
+        <v>61</v>
+      </c>
+      <c r="H85">
+        <v>31</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86">
+        <v>300436</v>
+      </c>
+      <c r="C86" t="s">
+        <v>754</v>
+      </c>
+      <c r="D86" t="s">
+        <v>755</v>
+      </c>
+      <c r="E86" t="s">
+        <v>756</v>
+      </c>
+      <c r="F86">
+        <v>70</v>
+      </c>
+      <c r="G86">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C87" t="s">
+        <v>758</v>
+      </c>
+      <c r="D87" t="s">
+        <v>759</v>
+      </c>
+      <c r="F87">
+        <v>36</v>
+      </c>
+      <c r="G87">
+        <v>23</v>
+      </c>
+      <c r="H87">
+        <v>72</v>
+      </c>
+      <c r="I87">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88">
+        <v>300765</v>
+      </c>
+      <c r="C88" t="s">
+        <v>760</v>
+      </c>
+      <c r="D88" t="s">
+        <v>761</v>
+      </c>
+      <c r="F88">
+        <v>80</v>
+      </c>
+      <c r="G88">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89">
+        <v>300583</v>
+      </c>
+      <c r="C89" t="s">
+        <v>762</v>
+      </c>
+      <c r="D89" t="s">
+        <v>763</v>
+      </c>
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89">
+        <v>164</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90">
+        <v>600789</v>
+      </c>
+      <c r="C90" t="s">
+        <v>764</v>
+      </c>
+      <c r="D90" t="s">
+        <v>765</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>60</v>
+      </c>
+      <c r="G90">
+        <v>76</v>
+      </c>
+      <c r="H90">
+        <v>81</v>
+      </c>
+      <c r="I90">
+        <v>-63</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91">
+        <v>603168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>766</v>
+      </c>
+      <c r="D91" t="s">
+        <v>767</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>28</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91">
+        <v>228</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C92" t="s">
+        <v>769</v>
+      </c>
+      <c r="D92" t="s">
+        <v>770</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>30</v>
+      </c>
+      <c r="H92">
+        <v>12</v>
+      </c>
+      <c r="I92">
+        <v>2336</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93">
+        <v>600513</v>
+      </c>
+      <c r="C93" t="s">
+        <v>771</v>
+      </c>
+      <c r="D93" t="s">
+        <v>772</v>
+      </c>
+      <c r="F93">
+        <v>30</v>
+      </c>
+      <c r="G93">
+        <v>22</v>
+      </c>
+      <c r="H93">
+        <v>25</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C94" t="s">
+        <v>774</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <v>17</v>
+      </c>
+      <c r="H94">
+        <v>61</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C95" t="s">
+        <v>776</v>
+      </c>
+      <c r="D95" t="s">
+        <v>777</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95">
+        <v>22</v>
+      </c>
+      <c r="H95">
+        <v>42</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C96" t="s">
+        <v>779</v>
+      </c>
+      <c r="D96" t="s">
+        <v>780</v>
+      </c>
+      <c r="F96">
+        <v>88</v>
+      </c>
+      <c r="G96">
+        <v>60</v>
+      </c>
+      <c r="H96">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97">
+        <v>600774</v>
+      </c>
+      <c r="C97" t="s">
+        <v>781</v>
+      </c>
+      <c r="D97" t="s">
+        <v>782</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>48</v>
+      </c>
+      <c r="G97">
+        <v>38</v>
+      </c>
+      <c r="H97">
+        <v>28</v>
+      </c>
+      <c r="I97">
+        <v>182</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98">
+        <v>600488</v>
+      </c>
+      <c r="C98" t="s">
+        <v>783</v>
+      </c>
+      <c r="D98" t="s">
+        <v>784</v>
+      </c>
+      <c r="F98">
+        <v>50</v>
+      </c>
+      <c r="G98">
+        <v>63</v>
+      </c>
+      <c r="H98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I98">
+        <v>-45</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C99" t="s">
+        <v>786</v>
+      </c>
+      <c r="D99" t="s">
+        <v>787</v>
+      </c>
+      <c r="F99">
+        <v>36</v>
+      </c>
+      <c r="G99">
+        <v>37</v>
+      </c>
+      <c r="H99">
+        <v>30</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C100" t="s">
+        <v>789</v>
+      </c>
+      <c r="D100" t="s">
+        <v>790</v>
+      </c>
+      <c r="F100">
+        <v>27</v>
+      </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101">
+        <v>605177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>791</v>
+      </c>
+      <c r="D101" t="s">
+        <v>792</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101">
+        <v>22</v>
+      </c>
+      <c r="H101">
+        <v>52</v>
+      </c>
+      <c r="I101">
+        <v>-50</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102">
+        <v>300267</v>
+      </c>
+      <c r="C102" t="s">
+        <v>793</v>
+      </c>
+      <c r="D102" t="s">
+        <v>794</v>
+      </c>
+      <c r="F102">
+        <v>94</v>
+      </c>
+      <c r="G102">
+        <v>64</v>
+      </c>
+      <c r="H102">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C103" t="s">
+        <v>796</v>
+      </c>
+      <c r="D103" t="s">
+        <v>797</v>
+      </c>
+      <c r="F103">
+        <v>35</v>
+      </c>
+      <c r="G103">
+        <v>24</v>
+      </c>
+      <c r="H103" t="s">
+        <v>39</v>
+      </c>
+      <c r="I103">
+        <v>-80</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C104" t="s">
+        <v>799</v>
+      </c>
+      <c r="D104" t="s">
+        <v>800</v>
+      </c>
+      <c r="F104">
+        <v>40</v>
+      </c>
+      <c r="G104">
+        <v>50</v>
+      </c>
+      <c r="H104">
+        <v>145</v>
+      </c>
+      <c r="I104">
+        <v>23</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105">
+        <v>300401</v>
+      </c>
+      <c r="C105" t="s">
+        <v>801</v>
+      </c>
+      <c r="D105" t="s">
+        <v>802</v>
+      </c>
+      <c r="F105">
+        <v>78</v>
+      </c>
+      <c r="G105">
+        <v>36</v>
+      </c>
+      <c r="H105">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106">
+        <v>603538</v>
+      </c>
+      <c r="C106" t="s">
+        <v>804</v>
+      </c>
+      <c r="D106" t="s">
+        <v>805</v>
+      </c>
+      <c r="F106">
+        <v>51</v>
+      </c>
+      <c r="G106">
+        <v>37</v>
+      </c>
+      <c r="H106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C107" t="s">
+        <v>807</v>
+      </c>
+      <c r="D107" t="s">
+        <v>808</v>
+      </c>
+      <c r="F107">
+        <v>61</v>
+      </c>
+      <c r="G107">
+        <v>23</v>
+      </c>
+      <c r="H107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108">
+        <v>300110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>809</v>
+      </c>
+      <c r="D108" t="s">
+        <v>810</v>
+      </c>
+      <c r="F108">
+        <v>56</v>
+      </c>
+      <c r="G108">
+        <v>57</v>
+      </c>
+      <c r="H108">
+        <v>36</v>
+      </c>
+      <c r="I108">
+        <v>116</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
+      <c r="B109" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C109" t="s">
+        <v>812</v>
+      </c>
+      <c r="D109" t="s">
+        <v>813</v>
+      </c>
+      <c r="F109">
+        <v>38</v>
+      </c>
+      <c r="G109">
+        <v>44</v>
+      </c>
+      <c r="H109">
+        <v>45</v>
+      </c>
+      <c r="I109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110">
+        <v>300016</v>
+      </c>
+      <c r="C110" t="s">
+        <v>814</v>
+      </c>
+      <c r="D110" t="s">
+        <v>815</v>
+      </c>
+      <c r="F110">
+        <v>45</v>
+      </c>
+      <c r="G110">
+        <v>29</v>
+      </c>
+      <c r="H110">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="C111" t="s">
+        <v>817</v>
+      </c>
+      <c r="D111" t="s">
+        <v>818</v>
+      </c>
+      <c r="F111">
+        <v>60</v>
+      </c>
+      <c r="G111">
+        <v>50</v>
+      </c>
+      <c r="H111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C112" t="s">
+        <v>820</v>
+      </c>
+      <c r="D112" t="s">
+        <v>821</v>
+      </c>
+      <c r="F112">
+        <v>85</v>
+      </c>
+      <c r="G112">
+        <v>61</v>
+      </c>
+      <c r="H112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113">
+        <v>600613</v>
+      </c>
+      <c r="C113" t="s">
+        <v>822</v>
+      </c>
+      <c r="D113" t="s">
+        <v>823</v>
+      </c>
+      <c r="F113">
+        <v>34</v>
+      </c>
+      <c r="G113">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s">
+        <v>39</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118">
+        <v>600807</v>
+      </c>
+      <c r="C118" t="s">
+        <v>825</v>
+      </c>
+      <c r="D118" t="s">
+        <v>826</v>
+      </c>
+      <c r="F118">
+        <v>36</v>
+      </c>
+      <c r="G118">
+        <v>48</v>
+      </c>
+      <c r="H118" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C119" t="s">
+        <v>828</v>
+      </c>
+      <c r="D119" t="s">
+        <v>829</v>
+      </c>
+      <c r="F119">
+        <v>61</v>
+      </c>
+      <c r="G119">
+        <v>45</v>
+      </c>
+      <c r="H119">
+        <v>36</v>
+      </c>
+      <c r="I119">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120">
+        <v>300165</v>
+      </c>
+      <c r="C120" t="s">
+        <v>830</v>
+      </c>
+      <c r="D120" t="s">
+        <v>831</v>
+      </c>
+      <c r="F120">
+        <v>40</v>
+      </c>
+      <c r="G120">
+        <v>32</v>
+      </c>
+      <c r="H120">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121">
+        <v>301060</v>
+      </c>
+      <c r="C121" t="s">
+        <v>832</v>
+      </c>
+      <c r="D121" t="s">
+        <v>833</v>
+      </c>
+      <c r="F121">
+        <v>136</v>
+      </c>
+      <c r="G121">
+        <v>20</v>
+      </c>
+      <c r="H121">
+        <v>71</v>
+      </c>
+      <c r="I121">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122">
+        <v>300683</v>
+      </c>
+      <c r="C122" t="s">
+        <v>834</v>
+      </c>
+      <c r="D122" t="s">
+        <v>835</v>
+      </c>
+      <c r="F122">
+        <v>72</v>
+      </c>
+      <c r="G122">
+        <v>26</v>
+      </c>
+      <c r="H122">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123">
+        <v>603716</v>
+      </c>
+      <c r="C123" t="s">
+        <v>836</v>
+      </c>
+      <c r="D123" t="s">
+        <v>837</v>
+      </c>
+      <c r="F123">
+        <v>28</v>
+      </c>
+      <c r="G123">
+        <v>41</v>
+      </c>
+      <c r="H123">
+        <v>99</v>
+      </c>
+      <c r="I123">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124">
+        <v>301087</v>
+      </c>
+      <c r="C124" t="s">
+        <v>838</v>
+      </c>
+      <c r="D124" t="s">
+        <v>839</v>
+      </c>
+      <c r="F124">
+        <v>130</v>
+      </c>
+      <c r="G124">
+        <v>19</v>
+      </c>
+      <c r="H124">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125">
+        <v>300030</v>
+      </c>
+      <c r="C125" t="s">
+        <v>840</v>
+      </c>
+      <c r="D125" t="s">
+        <v>841</v>
+      </c>
+      <c r="F125">
+        <v>32</v>
+      </c>
+      <c r="G125">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s">
+        <v>39</v>
+      </c>
+      <c r="I125">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126">
+        <v>300396</v>
+      </c>
+      <c r="C126" t="s">
+        <v>842</v>
+      </c>
+      <c r="D126" t="s">
+        <v>843</v>
+      </c>
+      <c r="F126">
+        <v>48</v>
+      </c>
+      <c r="G126">
+        <v>21</v>
+      </c>
+      <c r="H126">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127">
+        <v>300832</v>
+      </c>
+      <c r="C127" t="s">
+        <v>844</v>
+      </c>
+      <c r="D127" t="s">
+        <v>845</v>
+      </c>
+      <c r="F127">
+        <v>32</v>
+      </c>
+      <c r="G127">
+        <v>58</v>
+      </c>
+      <c r="H127">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128">
+        <v>300003</v>
+      </c>
+      <c r="C128" t="s">
+        <v>846</v>
+      </c>
+      <c r="D128" t="s">
+        <v>847</v>
+      </c>
+      <c r="F128">
+        <v>300</v>
+      </c>
+      <c r="G128">
+        <v>207</v>
+      </c>
+      <c r="H128">
+        <v>26</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C129" t="s">
+        <v>849</v>
+      </c>
+      <c r="D129" t="s">
+        <v>850</v>
+      </c>
+      <c r="F129">
+        <v>65</v>
+      </c>
+      <c r="G129">
+        <v>33</v>
+      </c>
+      <c r="H129">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130">
+        <v>300676</v>
+      </c>
+      <c r="C130" t="s">
+        <v>851</v>
+      </c>
+      <c r="D130" t="s">
+        <v>852</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>350</v>
+      </c>
+      <c r="G130">
+        <v>142</v>
+      </c>
+      <c r="H130">
+        <v>45</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C131" t="s">
+        <v>854</v>
+      </c>
+      <c r="D131" t="s">
+        <v>855</v>
+      </c>
+      <c r="F131">
+        <v>280</v>
+      </c>
+      <c r="G131">
+        <v>91</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+      <c r="I131">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132">
+        <v>300318</v>
+      </c>
+      <c r="C132" t="s">
+        <v>856</v>
+      </c>
+      <c r="D132" t="s">
+        <v>857</v>
+      </c>
+      <c r="F132">
+        <v>80</v>
+      </c>
+      <c r="G132">
+        <v>39</v>
+      </c>
+      <c r="H132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133">
+        <v>300642</v>
+      </c>
+      <c r="C133" t="s">
+        <v>858</v>
+      </c>
+      <c r="D133" t="s">
+        <v>859</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133">
+        <v>50</v>
+      </c>
+      <c r="G133">
+        <v>14</v>
+      </c>
+      <c r="H133">
+        <v>27</v>
+      </c>
+      <c r="I133">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134">
+        <v>603108</v>
+      </c>
+      <c r="C134" t="s">
+        <v>860</v>
+      </c>
+      <c r="D134" t="s">
+        <v>861</v>
+      </c>
+      <c r="F134">
+        <v>75</v>
+      </c>
+      <c r="G134">
+        <v>121</v>
+      </c>
+      <c r="H134">
+        <v>18</v>
+      </c>
+      <c r="I134">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135">
+        <v>300482</v>
+      </c>
+      <c r="C135" t="s">
+        <v>862</v>
+      </c>
+      <c r="D135" t="s">
+        <v>863</v>
+      </c>
+      <c r="F135">
+        <v>176</v>
+      </c>
+      <c r="G135">
+        <v>46</v>
+      </c>
+      <c r="H135">
+        <v>25</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136">
+        <v>300463</v>
+      </c>
+      <c r="C136" t="s">
+        <v>864</v>
+      </c>
+      <c r="D136" t="s">
+        <v>865</v>
+      </c>
+      <c r="F136">
+        <v>160</v>
+      </c>
+      <c r="G136">
+        <v>66</v>
+      </c>
+      <c r="H136">
+        <v>15</v>
+      </c>
+      <c r="I136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137">
+        <v>300012</v>
+      </c>
+      <c r="C137" t="s">
+        <v>866</v>
+      </c>
+      <c r="D137" t="s">
+        <v>867</v>
+      </c>
+      <c r="F137">
+        <v>447</v>
+      </c>
+      <c r="G137">
+        <v>60</v>
+      </c>
+      <c r="H137">
+        <v>61</v>
+      </c>
+      <c r="I137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138">
+        <v>603882</v>
+      </c>
+      <c r="C138" t="s">
+        <v>868</v>
+      </c>
+      <c r="D138" t="s">
+        <v>869</v>
+      </c>
+      <c r="F138">
+        <v>515</v>
+      </c>
+      <c r="G138">
+        <v>95</v>
+      </c>
+      <c r="H138">
+        <v>24</v>
+      </c>
+      <c r="I138">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C139" t="s">
+        <v>807</v>
+      </c>
+      <c r="D139" t="s">
+        <v>871</v>
+      </c>
+      <c r="F139">
+        <v>60</v>
+      </c>
+      <c r="G139">
+        <v>23</v>
+      </c>
+      <c r="H139" t="s">
+        <v>39</v>
+      </c>
+      <c r="I139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140">
+        <v>300887</v>
+      </c>
+      <c r="C140" t="s">
+        <v>872</v>
+      </c>
+      <c r="D140" t="s">
+        <v>873</v>
+      </c>
+      <c r="F140">
+        <v>90</v>
+      </c>
+      <c r="G140">
+        <v>25</v>
+      </c>
+      <c r="H140">
+        <v>45</v>
+      </c>
+      <c r="I140">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141">
+        <v>300639</v>
+      </c>
+      <c r="C141" t="s">
+        <v>874</v>
+      </c>
+      <c r="D141" t="s">
+        <v>875</v>
+      </c>
+      <c r="F141">
+        <v>87</v>
+      </c>
+      <c r="G141">
+        <v>39</v>
+      </c>
+      <c r="H141">
+        <v>17</v>
+      </c>
+      <c r="I141">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142">
+        <v>300298</v>
+      </c>
+      <c r="C142" t="s">
+        <v>876</v>
+      </c>
+      <c r="D142" t="s">
+        <v>877</v>
+      </c>
+      <c r="F142">
+        <v>170</v>
+      </c>
+      <c r="G142">
+        <v>41</v>
+      </c>
+      <c r="H142">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="C143" t="s">
+        <v>879</v>
+      </c>
+      <c r="D143" t="s">
+        <v>880</v>
+      </c>
+      <c r="F143">
+        <v>50</v>
+      </c>
+      <c r="G143">
+        <v>63</v>
+      </c>
+      <c r="H143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144">
+        <v>603222</v>
+      </c>
+      <c r="C144" t="s">
+        <v>881</v>
+      </c>
+      <c r="D144" t="s">
+        <v>882</v>
+      </c>
+      <c r="F144">
+        <v>60</v>
+      </c>
+      <c r="G144">
+        <v>24</v>
+      </c>
+      <c r="H144">
+        <v>54</v>
+      </c>
+      <c r="I144">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145">
+        <v>300046</v>
+      </c>
+      <c r="C145" t="s">
+        <v>883</v>
+      </c>
+      <c r="D145" t="s">
+        <v>884</v>
+      </c>
+      <c r="F145">
+        <v>120</v>
+      </c>
+      <c r="G145">
+        <v>47</v>
+      </c>
+      <c r="H145">
+        <v>20</v>
+      </c>
+      <c r="I145">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146">
+        <v>603718</v>
+      </c>
+      <c r="C146" t="s">
+        <v>885</v>
+      </c>
+      <c r="D146" t="s">
+        <v>886</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+      <c r="G146">
+        <v>18</v>
+      </c>
+      <c r="H146">
+        <v>254</v>
+      </c>
+      <c r="I146">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:I1">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="equal" val="利润下降&#13;"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5930,26 +8287,26 @@
   <sheetData>
     <row r="1" spans="6:7">
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>703</v>
+        <v>888</v>
       </c>
       <c r="C3" t="s">
-        <v>704</v>
+        <v>889</v>
       </c>
       <c r="D3" t="s">
-        <v>705</v>
+        <v>890</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -5960,16 +8317,16 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>706</v>
+        <v>891</v>
       </c>
       <c r="C4" t="s">
-        <v>707</v>
+        <v>892</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>893</v>
       </c>
       <c r="F4" t="s">
-        <v>709</v>
+        <v>894</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5983,10 +8340,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>710</v>
+        <v>895</v>
       </c>
       <c r="D5" t="s">
-        <v>711</v>
+        <v>896</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -5997,13 +8354,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>712</v>
+        <v>897</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>898</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>899</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -6017,27 +8374,27 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="D7" t="s">
-        <v>716</v>
+        <v>901</v>
       </c>
       <c r="F7">
         <v>333</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>717</v>
+        <v>902</v>
       </c>
       <c r="C8" t="s">
-        <v>718</v>
+        <v>903</v>
       </c>
       <c r="D8" t="s">
-        <v>719</v>
+        <v>904</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -6051,10 +8408,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>720</v>
+        <v>905</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>906</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -6065,13 +8422,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>722</v>
+        <v>907</v>
       </c>
       <c r="C10" t="s">
-        <v>723</v>
+        <v>908</v>
       </c>
       <c r="D10" t="s">
-        <v>724</v>
+        <v>909</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -6082,13 +8439,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>725</v>
+        <v>910</v>
       </c>
       <c r="C11" t="s">
-        <v>726</v>
+        <v>911</v>
       </c>
       <c r="D11" t="s">
-        <v>727</v>
+        <v>912</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -6099,19 +8456,19 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>728</v>
+        <v>913</v>
       </c>
       <c r="C12" t="s">
-        <v>729</v>
+        <v>914</v>
       </c>
       <c r="D12" t="s">
-        <v>730</v>
+        <v>915</v>
       </c>
       <c r="F12">
         <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -6119,10 +8476,10 @@
         <v>600743</v>
       </c>
       <c r="C13" t="s">
-        <v>731</v>
+        <v>916</v>
       </c>
       <c r="D13" t="s">
-        <v>732</v>
+        <v>917</v>
       </c>
       <c r="F13">
         <v>634</v>
@@ -6133,13 +8490,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>733</v>
+        <v>918</v>
       </c>
       <c r="C20" t="s">
-        <v>734</v>
+        <v>919</v>
       </c>
       <c r="D20" t="s">
-        <v>735</v>
+        <v>920</v>
       </c>
       <c r="F20">
         <v>22</v>
@@ -6150,30 +8507,30 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>736</v>
+        <v>921</v>
       </c>
       <c r="C21" t="s">
-        <v>737</v>
+        <v>922</v>
       </c>
       <c r="D21" t="s">
-        <v>738</v>
+        <v>923</v>
       </c>
       <c r="F21">
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
-        <v>739</v>
+        <v>924</v>
       </c>
       <c r="C22" t="s">
-        <v>740</v>
+        <v>925</v>
       </c>
       <c r="D22" t="s">
-        <v>741</v>
+        <v>926</v>
       </c>
       <c r="F22">
         <v>97</v>
@@ -6187,10 +8544,10 @@
         <v>600173</v>
       </c>
       <c r="C23" t="s">
-        <v>742</v>
+        <v>927</v>
       </c>
       <c r="D23" t="s">
-        <v>743</v>
+        <v>928</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -6204,10 +8561,10 @@
         <v>600503</v>
       </c>
       <c r="C24" t="s">
-        <v>744</v>
+        <v>929</v>
       </c>
       <c r="D24" t="s">
-        <v>745</v>
+        <v>930</v>
       </c>
       <c r="F24">
         <v>53</v>
@@ -6221,13 +8578,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
-        <v>746</v>
+        <v>931</v>
       </c>
       <c r="C25" t="s">
-        <v>747</v>
+        <v>932</v>
       </c>
       <c r="D25" t="s">
-        <v>741</v>
+        <v>926</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -6241,10 +8598,10 @@
         <v>600641</v>
       </c>
       <c r="C26" t="s">
-        <v>748</v>
+        <v>933</v>
       </c>
       <c r="D26" t="s">
-        <v>749</v>
+        <v>934</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -6258,10 +8615,10 @@
         <v>600246</v>
       </c>
       <c r="C27" t="s">
-        <v>750</v>
+        <v>935</v>
       </c>
       <c r="D27" t="s">
-        <v>751</v>
+        <v>936</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -6279,12 +8636,12 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6292,286 +8649,292 @@
     <col min="4" max="4" width="56.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:8">
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="7:9">
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>752</v>
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>754</v>
+        <v>939</v>
       </c>
       <c r="D3" t="s">
-        <v>755</v>
-      </c>
-      <c r="F3">
+        <v>940</v>
+      </c>
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>756</v>
+        <v>941</v>
       </c>
       <c r="C4" t="s">
-        <v>757</v>
+        <v>942</v>
       </c>
       <c r="D4" t="s">
-        <v>758</v>
-      </c>
-      <c r="F4">
+        <v>943</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>759</v>
+        <v>944</v>
       </c>
       <c r="D5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F5">
+        <v>945</v>
+      </c>
+      <c r="G5">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>761</v>
+        <v>946</v>
       </c>
       <c r="D6" t="s">
-        <v>762</v>
-      </c>
-      <c r="F6">
+        <v>947</v>
+      </c>
+      <c r="G6">
         <v>48</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>300169</v>
       </c>
       <c r="C13" t="s">
-        <v>764</v>
+        <v>949</v>
       </c>
       <c r="D13" t="s">
-        <v>765</v>
-      </c>
-      <c r="F13">
+        <v>950</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>766</v>
+        <v>951</v>
       </c>
       <c r="D14" t="s">
-        <v>767</v>
+        <v>952</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9">
       <c r="B15">
         <v>600158</v>
       </c>
       <c r="C15" t="s">
-        <v>768</v>
+        <v>953</v>
       </c>
       <c r="D15" t="s">
-        <v>769</v>
-      </c>
-      <c r="F15">
+        <v>954</v>
+      </c>
+      <c r="G15">
         <v>53</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1189</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-339</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:8">
       <c r="B17" s="5" t="s">
-        <v>770</v>
+        <v>955</v>
       </c>
       <c r="C17" t="s">
-        <v>771</v>
+        <v>956</v>
       </c>
       <c r="D17" t="s">
-        <v>772</v>
-      </c>
-      <c r="F17">
+        <v>957</v>
+      </c>
+      <c r="G17">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>773</v>
+        <v>958</v>
       </c>
       <c r="D20" t="s">
-        <v>774</v>
-      </c>
-      <c r="F20">
+        <v>959</v>
+      </c>
+      <c r="G20">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>775</v>
+        <v>960</v>
       </c>
       <c r="C22" t="s">
-        <v>776</v>
+        <v>961</v>
       </c>
       <c r="D22" t="s">
-        <v>777</v>
+        <v>962</v>
       </c>
       <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22">
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>300079</v>
       </c>
       <c r="C24" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>778</v>
+        <v>963</v>
       </c>
       <c r="E24" t="s">
-        <v>779</v>
+        <v>964</v>
       </c>
       <c r="F24">
+        <v>126</v>
+      </c>
+      <c r="G24">
         <v>46</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>105</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:8">
       <c r="B27">
         <v>605299</v>
       </c>
       <c r="C27" t="s">
-        <v>780</v>
+        <v>965</v>
       </c>
       <c r="D27" t="s">
-        <v>781</v>
+        <v>966</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>17</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:9">
       <c r="B28" s="5" t="s">
-        <v>782</v>
+        <v>967</v>
       </c>
       <c r="C28" t="s">
-        <v>783</v>
+        <v>968</v>
       </c>
       <c r="D28" t="s">
-        <v>784</v>
-      </c>
-      <c r="F28">
+        <v>969</v>
+      </c>
+      <c r="G28">
         <v>12</v>
       </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28">
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28">
         <v>-96</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>785</v>
+        <v>970</v>
       </c>
       <c r="C29" t="s">
-        <v>786</v>
+        <v>971</v>
       </c>
       <c r="D29" t="s">
-        <v>787</v>
-      </c>
-      <c r="F29">
+        <v>972</v>
+      </c>
+      <c r="G29">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29">
         <v>-81</v>
       </c>
     </row>
@@ -6597,29 +8960,29 @@
   <sheetData>
     <row r="1" spans="6:8">
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>788</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>789</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>790</v>
+        <v>975</v>
       </c>
       <c r="C3" t="s">
-        <v>791</v>
+        <v>976</v>
       </c>
       <c r="D3" t="s">
-        <v>792</v>
+        <v>977</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -6633,13 +8996,13 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>793</v>
+        <v>978</v>
       </c>
       <c r="D4" t="s">
-        <v>794</v>
+        <v>979</v>
       </c>
       <c r="E4" t="s">
-        <v>795</v>
+        <v>756</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -6656,16 +9019,16 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>796</v>
+        <v>980</v>
       </c>
       <c r="D5" t="s">
-        <v>797</v>
+        <v>981</v>
       </c>
       <c r="F5">
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>-99</v>
@@ -6676,10 +9039,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>798</v>
+        <v>982</v>
       </c>
       <c r="D13" t="s">
-        <v>799</v>
+        <v>983</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -6693,10 +9056,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>800</v>
+        <v>984</v>
       </c>
       <c r="D14" t="s">
-        <v>801</v>
+        <v>985</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -6710,10 +9073,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>802</v>
+        <v>986</v>
       </c>
       <c r="D15" t="s">
-        <v>803</v>
+        <v>987</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -6724,13 +9087,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
-        <v>804</v>
+        <v>988</v>
       </c>
       <c r="C16" t="s">
-        <v>805</v>
+        <v>989</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>990</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -6753,10 +9116,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>807</v>
+        <v>991</v>
       </c>
       <c r="D17" t="s">
-        <v>808</v>
+        <v>992</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -6776,10 +9139,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>809</v>
+        <v>993</v>
       </c>
       <c r="D18" t="s">
-        <v>810</v>
+        <v>994</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -6790,13 +9153,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5" t="s">
-        <v>811</v>
+        <v>995</v>
       </c>
       <c r="C19" t="s">
-        <v>812</v>
+        <v>996</v>
       </c>
       <c r="D19" t="s">
-        <v>813</v>
+        <v>997</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -6813,10 +9176,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>814</v>
+        <v>998</v>
       </c>
       <c r="D20" t="s">
-        <v>815</v>
+        <v>999</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -6827,13 +9190,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>816</v>
+        <v>1000</v>
       </c>
       <c r="C21" t="s">
-        <v>817</v>
+        <v>1001</v>
       </c>
       <c r="D21" t="s">
-        <v>818</v>
+        <v>1002</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -6853,10 +9216,10 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>819</v>
+        <v>1003</v>
       </c>
       <c r="D22" t="s">
-        <v>820</v>
+        <v>1004</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -6870,10 +9233,10 @@
         <v>300342</v>
       </c>
       <c r="C23" t="s">
-        <v>821</v>
+        <v>1005</v>
       </c>
       <c r="D23" t="s">
-        <v>822</v>
+        <v>1006</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -6887,10 +9250,10 @@
         <v>600336</v>
       </c>
       <c r="C24" t="s">
-        <v>823</v>
+        <v>1007</v>
       </c>
       <c r="D24" t="s">
-        <v>824</v>
+        <v>1008</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -6910,10 +9273,10 @@
         <v>300403</v>
       </c>
       <c r="C25" t="s">
-        <v>825</v>
+        <v>1009</v>
       </c>
       <c r="D25" t="s">
-        <v>826</v>
+        <v>1010</v>
       </c>
       <c r="F25">
         <v>22</v>
@@ -6924,13 +9287,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>827</v>
+        <v>1011</v>
       </c>
       <c r="C26" t="s">
-        <v>828</v>
+        <v>1012</v>
       </c>
       <c r="D26" t="s">
-        <v>829</v>
+        <v>1013</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -6947,10 +9310,10 @@
         <v>300160</v>
       </c>
       <c r="C27" t="s">
-        <v>830</v>
+        <v>1014</v>
       </c>
       <c r="D27" t="s">
-        <v>831</v>
+        <v>1015</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -6964,10 +9327,10 @@
         <v>603578</v>
       </c>
       <c r="C28" t="s">
-        <v>832</v>
+        <v>1016</v>
       </c>
       <c r="D28" t="s">
-        <v>833</v>
+        <v>1017</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -6981,10 +9344,10 @@
         <v>300217</v>
       </c>
       <c r="C29" t="s">
-        <v>834</v>
+        <v>1018</v>
       </c>
       <c r="D29" t="s">
-        <v>835</v>
+        <v>1019</v>
       </c>
       <c r="F29">
         <v>46</v>
@@ -6998,16 +9361,16 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
-        <v>836</v>
+        <v>1020</v>
       </c>
       <c r="C30" t="s">
-        <v>837</v>
+        <v>1021</v>
       </c>
       <c r="D30" t="s">
-        <v>838</v>
+        <v>1022</v>
       </c>
       <c r="E30" t="s">
-        <v>795</v>
+        <v>756</v>
       </c>
       <c r="F30">
         <v>19</v>
@@ -7024,10 +9387,10 @@
         <v>603657</v>
       </c>
       <c r="C32" t="s">
-        <v>839</v>
+        <v>1023</v>
       </c>
       <c r="D32" t="s">
-        <v>840</v>
+        <v>1024</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -7041,10 +9404,10 @@
         <v>301008</v>
       </c>
       <c r="C33" t="s">
-        <v>798</v>
+        <v>982</v>
       </c>
       <c r="D33" t="s">
-        <v>841</v>
+        <v>1025</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -7062,21 +9425,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="56.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="14.1818181818182" customWidth="1"/>
+    <col min="5" max="6" width="14.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7086,111 +9449,114 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
         <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>688127</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>603501</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
+        <v>22</v>
+      </c>
+      <c r="G8">
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>688195</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>10</v>
       </c>
     </row>
@@ -7204,45 +9570,45 @@
         <v>300976</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
         <v>782</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>603466</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
         <v>44</v>
       </c>
     </row>
@@ -7258,94 +9624,123 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>603893</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
         <v>28</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>117</v>
       </c>
-      <c r="H19" t="s">
-        <v>33</v>
+      <c r="I19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24">
+        <v>38</v>
+      </c>
+      <c r="G24">
         <v>52</v>
       </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>300496</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25">
+        <v>41</v>
+      </c>
+      <c r="G25">
         <v>52</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43">
+        <v>600229</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43">
+        <v>52</v>
+      </c>
+      <c r="G43">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7372,27 +9767,27 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -7403,16 +9798,16 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -7423,16 +9818,16 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -7443,21 +9838,21 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>106</v>
@@ -7468,16 +9863,16 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>101</v>
@@ -7491,13 +9886,13 @@
         <v>605020</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -7511,13 +9906,13 @@
         <v>600160</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>161</v>
@@ -7531,13 +9926,13 @@
         <v>603505</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -7548,16 +9943,16 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>17</v>
@@ -7571,13 +9966,13 @@
         <v>603379</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>56</v>
@@ -7591,13 +9986,13 @@
         <v>601678</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>156</v>
@@ -7608,7 +10003,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -7616,10 +10011,10 @@
         <v>600141</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <v>308</v>
@@ -7630,13 +10025,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>66</v>
@@ -7647,13 +10042,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
       </c>
       <c r="F20">
         <v>123</v>
@@ -7684,52 +10079,52 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>128</v>
@@ -7740,23 +10135,23 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>513</v>
@@ -7767,26 +10162,26 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>123</v>
@@ -7797,22 +10192,22 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7837,13 +10232,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -7851,13 +10246,13 @@
         <v>601186</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>13360</v>
@@ -7871,13 +10266,13 @@
         <v>688425</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>234</v>
@@ -7891,13 +10286,13 @@
         <v>601800</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
         <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
       </c>
       <c r="F4">
         <v>14390</v>
@@ -7911,13 +10306,13 @@
         <v>601390</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>12970</v>
@@ -7951,32 +10346,32 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F3">
         <v>609</v>
@@ -7990,13 +10385,13 @@
         <v>600740</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <v>195</v>
@@ -8010,13 +10405,13 @@
         <v>601088</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
         <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
       </c>
       <c r="F5">
         <v>5993</v>
@@ -8027,16 +10422,16 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>367</v>
@@ -8047,7 +10442,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -8055,13 +10450,13 @@
         <v>603393</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>95</v>
@@ -8080,26 +10475,26 @@
         <v>600917</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <v>660</v>
@@ -8110,7 +10505,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -8118,13 +10513,13 @@
         <v>600021</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F22">
         <v>1364</v>
@@ -8135,7 +10530,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -8143,13 +10538,13 @@
         <v>600438</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>795</v>
@@ -8160,7 +10555,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -8168,13 +10563,13 @@
         <v>601865</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>172</v>
@@ -8185,16 +10580,16 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>466</v>
@@ -8208,10 +10603,10 @@
         <v>300274</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F30">
         <v>376</v>
@@ -8225,10 +10620,10 @@
         <v>688599</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F31">
         <v>618</v>
@@ -8242,10 +10637,10 @@
         <v>601222</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F32">
         <v>205</v>
@@ -8259,10 +10654,10 @@
         <v>601778</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F33">
         <v>305</v>
@@ -8276,10 +10671,10 @@
         <v>300746</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -8290,13 +10685,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F35">
         <v>156</v>
@@ -8307,7 +10702,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -8315,13 +10710,13 @@
         <v>601016</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F38">
         <v>394</v>
@@ -8335,13 +10730,13 @@
         <v>600483</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F39">
         <v>398</v>
@@ -8352,16 +10747,16 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F40">
         <v>1116</v>
@@ -8375,13 +10770,13 @@
         <v>601615</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F41">
         <v>562</v>
@@ -8395,10 +10790,10 @@
         <v>300850</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F42">
         <v>56</v>
@@ -8412,10 +10807,10 @@
         <v>300443</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F43">
         <v>34</v>
@@ -8429,13 +10824,13 @@
         <v>600163</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F44">
         <v>101</v>
@@ -8449,13 +10844,13 @@
         <v>600905</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F45">
         <v>1851</v>
@@ -8469,13 +10864,13 @@
         <v>603063</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F46">
         <v>47</v>
@@ -8486,16 +10881,16 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F47">
         <v>65</v>
@@ -8509,10 +10904,10 @@
         <v>300772</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F48">
         <v>209</v>
@@ -8523,7 +10918,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -8531,10 +10926,10 @@
         <v>300438</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F51">
         <v>76</v>
@@ -8548,13 +10943,13 @@
         <v>300001</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F52">
         <v>187</v>
@@ -8568,10 +10963,10 @@
         <v>300682</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F53">
         <v>77</v>
@@ -8585,10 +10980,10 @@
         <v>300693</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F54">
         <v>14</v>
@@ -8602,10 +10997,10 @@
         <v>300491</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -8619,10 +11014,10 @@
         <v>300713</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -8636,10 +11031,10 @@
         <v>300499</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F61">
         <v>22</v>
@@ -8650,7 +11045,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -8658,13 +11053,13 @@
         <v>300693</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F63">
         <v>14</v>
@@ -8675,13 +11070,13 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F64">
         <v>94</v>
@@ -8692,18 +11087,18 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F69">
         <v>119</v>
@@ -8714,13 +11109,13 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F70">
         <v>167</v>
@@ -8734,10 +11129,10 @@
         <v>600406</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F71">
         <v>690</v>
@@ -8751,10 +11146,10 @@
         <v>600089</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F72">
         <v>1221</v>
@@ -8768,10 +11163,10 @@
         <v>300831</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F73">
         <v>8</v>
@@ -8782,18 +11177,18 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F76">
         <v>2933</v>
@@ -8804,13 +11199,13 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F77">
         <v>147</v>
@@ -8824,27 +11219,27 @@
         <v>688399</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F78">
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F79">
         <v>39</v>
@@ -8858,10 +11253,10 @@
         <v>600860</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F80">
         <v>15</v>
@@ -8875,10 +11270,10 @@
         <v>603637</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F81">
         <v>14</v>
@@ -8892,10 +11287,10 @@
         <v>300985</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F82">
         <v>14</v>
@@ -8906,30 +11301,30 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F83">
         <v>54</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F84">
         <v>278</v>
@@ -8943,10 +11338,10 @@
         <v>300435</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F85">
         <v>40</v>
@@ -8960,16 +11355,16 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F86">
         <v>375</v>
@@ -8980,13 +11375,13 @@
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F87">
         <v>56</v>
@@ -9003,10 +11398,10 @@
         <v>600989</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F88">
         <v>425</v>
@@ -9020,10 +11415,10 @@
         <v>600273</v>
       </c>
       <c r="C89" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F89">
         <v>110</v>
@@ -9037,10 +11432,10 @@
         <v>601868</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D90" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F90">
         <v>5097</v>
@@ -9054,10 +11449,10 @@
         <v>601012</v>
       </c>
       <c r="C91" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -9065,10 +11460,10 @@
         <v>600323</v>
       </c>
       <c r="C92" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F92">
         <v>288</v>
@@ -9079,13 +11474,13 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F93">
         <v>27</v>
@@ -9099,13 +11494,13 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F94">
         <v>88</v>
@@ -9119,13 +11514,13 @@
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F96">
         <v>280</v>
@@ -9139,10 +11534,10 @@
         <v>300228</v>
       </c>
       <c r="C97" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D97" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -9156,10 +11551,10 @@
         <v>300950</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F98">
         <v>7.5</v>
@@ -9176,16 +11571,16 @@
         <v>300471</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F99">
         <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -9193,10 +11588,10 @@
         <v>300540</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F100">
         <v>12</v>
@@ -9210,10 +11605,10 @@
         <v>600378</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F104">
         <v>112</v>
@@ -9227,10 +11622,10 @@
         <v>300409</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F105">
         <v>71</v>
@@ -9244,13 +11639,13 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C106" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F106">
         <v>22</v>
@@ -9264,10 +11659,10 @@
         <v>300423</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F107">
         <v>78</v>
@@ -9281,10 +11676,10 @@
         <v>601678</v>
       </c>
       <c r="C108" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F108">
         <v>166</v>
@@ -9295,13 +11690,13 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D109" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F109">
         <v>325</v>
@@ -9312,13 +11707,13 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C110" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F110">
         <v>186</v>
@@ -9332,10 +11727,10 @@
         <v>600803</v>
       </c>
       <c r="C111" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F111">
         <v>32</v>
@@ -9349,21 +11744,21 @@
         <v>688551</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C116" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F116">
         <v>16</v>
@@ -9377,10 +11772,10 @@
         <v>600875</v>
       </c>
       <c r="C117" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D117" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F117">
         <v>1028</v>
@@ -9394,10 +11789,10 @@
         <v>600277</v>
       </c>
       <c r="C118" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D118" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F118">
         <v>344</v>
@@ -9408,13 +11803,13 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D119" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F119">
         <v>133</v>
@@ -9428,10 +11823,10 @@
         <v>600459</v>
       </c>
       <c r="C120" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D120" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F120">
         <v>115</v>
@@ -9448,10 +11843,10 @@
         <v>601012</v>
       </c>
       <c r="C121" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F121">
         <v>1037</v>
@@ -9462,18 +11857,18 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C124" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D124" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F124">
         <v>8</v>
@@ -9487,10 +11882,10 @@
         <v>600722</v>
       </c>
       <c r="C125" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D125" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F125">
         <v>13</v>
@@ -9501,13 +11896,13 @@
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C126" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D126" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F126">
         <v>46</v>
@@ -9518,13 +11913,13 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D127" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F127">
         <v>95</v>
@@ -9557,15 +11952,15 @@
   <sheetData>
     <row r="1" spans="6:7">
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -9573,7 +11968,7 @@
         <v>600030</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F3">
         <v>11690</v>
@@ -9587,10 +11982,10 @@
         <v>300059</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F4">
         <v>1601</v>
@@ -9601,10 +11996,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F5">
         <v>5057</v>
@@ -9618,7 +12013,7 @@
         <v>601878</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F6">
         <v>1104</v>
@@ -9629,7 +12024,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -9637,13 +12032,13 @@
         <v>600926</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>12870</v>
@@ -9657,10 +12052,10 @@
         <v>601166</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>81000</v>
@@ -9674,10 +12069,10 @@
         <v>601658</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F13">
         <v>120000</v>
@@ -9688,13 +12083,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F14">
         <v>47000</v>
@@ -9705,18 +12100,18 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F19">
         <v>106</v>
@@ -9730,16 +12125,16 @@
         <v>300180</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D20" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F20">
         <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -9747,13 +12142,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F21">
         <v>62</v>
@@ -9767,13 +12162,13 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F22">
         <v>47</v>
@@ -9787,13 +12182,13 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -9807,27 +12202,27 @@
         <v>300479</v>
       </c>
       <c r="C24" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F25">
         <v>57</v>
@@ -9844,10 +12239,10 @@
         <v>300166</v>
       </c>
       <c r="C26" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F26">
         <v>81</v>
@@ -9861,13 +12256,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F27">
         <v>105</v>
@@ -9884,10 +12279,10 @@
         <v>300079</v>
       </c>
       <c r="C28" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F28">
         <v>46</v>
@@ -9898,19 +12293,19 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F29">
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -9921,10 +12316,10 @@
         <v>300645</v>
       </c>
       <c r="C30" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -9938,10 +12333,10 @@
         <v>300773</v>
       </c>
       <c r="C31" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F31">
         <v>115</v>
@@ -9955,10 +12350,10 @@
         <v>300468</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F32">
         <v>37</v>
@@ -9972,10 +12367,10 @@
         <v>300531</v>
       </c>
       <c r="C33" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D33" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F33">
         <v>21</v>
@@ -9989,10 +12384,10 @@
         <v>300042</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D34" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -10009,10 +12404,10 @@
         <v>300248</v>
       </c>
       <c r="C35" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D35" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F35">
         <v>22</v>
@@ -10026,19 +12421,19 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="5" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D36" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F36">
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -10049,10 +12444,10 @@
         <v>603123</v>
       </c>
       <c r="C37" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F37">
         <v>70</v>
@@ -10066,10 +12461,10 @@
         <v>300663</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F38">
         <v>24</v>
@@ -10086,10 +12481,10 @@
         <v>601107</v>
       </c>
       <c r="C39" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F39">
         <v>413</v>
@@ -10103,10 +12498,10 @@
         <v>300541</v>
       </c>
       <c r="C40" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D40" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -10120,13 +12515,13 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D44" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F44">
         <v>103</v>
@@ -10140,10 +12535,10 @@
         <v>300941</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D45" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -10177,13 +12572,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -10191,13 +12586,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -10211,13 +12606,13 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -10228,21 +12623,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -10256,13 +12651,13 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F11">
         <v>2311</v>
@@ -10273,21 +12668,21 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C21" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F21">
         <v>129</v>
@@ -10298,7 +12693,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -10306,10 +12701,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -10345,62 +12740,62 @@
   <sheetData>
     <row r="1" spans="6:9">
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>412</v>
-      </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F11">
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F12">
         <v>66</v>
@@ -10411,13 +12806,13 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -10431,10 +12826,10 @@
         <v>605296</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -10451,13 +12846,13 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -10474,19 +12869,19 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F16">
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -10494,10 +12889,10 @@
         <v>603477</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F17">
         <v>56</v>
@@ -10508,13 +12903,13 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F18">
         <v>56</v>
@@ -10528,13 +12923,13 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D19" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F19">
         <v>363</v>
@@ -10545,36 +12940,36 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C20" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F20">
         <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F21">
         <v>1314</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -10582,10 +12977,10 @@
         <v>603609</v>
       </c>
       <c r="C22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F22">
         <v>130</v>
@@ -10596,13 +12991,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F23">
         <v>1692</v>
@@ -10616,27 +13011,27 @@
         <v>300761</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D24" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F24">
         <v>102</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -10647,13 +13042,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F26">
         <v>141</v>
@@ -10664,13 +13059,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F27">
         <v>44</v>
@@ -10687,16 +13082,16 @@
         <v>600975</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F28">
         <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -10704,13 +13099,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C29" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D29" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F29">
         <v>353</v>
@@ -10727,50 +13122,50 @@
         <v>300498</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D30" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F30">
         <v>997</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C31" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D31" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F31">
         <v>595</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C32" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F32">
         <v>204</v>
       </c>
       <c r="H32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -10778,44 +13173,44 @@
         <v>603363</v>
       </c>
       <c r="C33" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F33">
         <v>172</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D37" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F37">
         <v>152</v>
       </c>
       <c r="H37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C38" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D38" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F38">
         <v>266</v>
@@ -10826,24 +13221,24 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F39">
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -10851,10 +13246,10 @@
         <v>600197</v>
       </c>
       <c r="C45" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D45" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F45">
         <v>47</v>
@@ -10871,13 +13266,13 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D46" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -10897,13 +13292,13 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C47" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F47">
         <v>48</v>
@@ -10923,10 +13318,10 @@
         <v>600809</v>
       </c>
       <c r="C48" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D48" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F48">
         <v>263</v>
@@ -10946,10 +13341,10 @@
         <v>600779</v>
       </c>
       <c r="C49" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D49" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -10972,7 +13367,7 @@
         <v>600059</v>
       </c>
       <c r="C51" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F51">
         <v>58</v>
@@ -10989,7 +13384,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -10997,10 +13392,10 @@
         <v>600962</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D55" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -11009,7 +13404,7 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I55">
         <v>45</v>
@@ -11023,10 +13418,10 @@
         <v>603156</v>
       </c>
       <c r="C56" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D56" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F56">
         <v>133</v>
@@ -11046,10 +13441,10 @@
         <v>605388</v>
       </c>
       <c r="C57" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D57" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F57">
         <v>21</v>
@@ -11069,10 +13464,10 @@
         <v>600616</v>
       </c>
       <c r="C58" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D58" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F58">
         <v>22</v>
@@ -11081,7 +13476,7 @@
         <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I58">
         <v>-2757</v>
@@ -11092,10 +13487,10 @@
         <v>600543</v>
       </c>
       <c r="C59" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D59" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F59">
         <v>12</v>
@@ -11104,7 +13499,7 @@
         <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I59">
         <v>-300</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1035">
   <si>
     <t>上海环境</t>
   </si>
@@ -2506,6 +2506,33 @@
   </si>
   <si>
     <t>老品牌有技术、生物医药、超级真菌、医保目录、抗癌、中医药</t>
+  </si>
+  <si>
+    <t>002294</t>
+  </si>
+  <si>
+    <t>信立泰</t>
+  </si>
+  <si>
+    <t>000950</t>
+  </si>
+  <si>
+    <t>重药控股</t>
+  </si>
+  <si>
+    <t>002038</t>
+  </si>
+  <si>
+    <t>双鹭药业</t>
+  </si>
+  <si>
+    <t>000518</t>
+  </si>
+  <si>
+    <t>四环生物</t>
+  </si>
+  <si>
+    <t>赛生药业</t>
   </si>
   <si>
     <t>新冠检测</t>
@@ -3120,9 +3147,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3141,7 +3168,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3155,7 +3203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3168,15 +3216,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3195,28 +3252,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3254,7 +3289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3262,22 +3297,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3298,7 +3325,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,7 +3409,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,7 +3475,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3334,151 +3505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3489,21 +3516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3522,11 +3534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3549,8 +3567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3559,6 +3577,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3581,11 +3610,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3597,10 +3624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3609,133 +3636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5491,12 +5518,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -5705,7 +5732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:11">
       <c r="B22" s="5" t="s">
         <v>607</v>
       </c>
@@ -5726,6 +5753,9 @@
       </c>
       <c r="J22" t="s">
         <v>610</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -6670,7 +6700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:10">
       <c r="B74">
         <v>300966</v>
       </c>
@@ -6688,6 +6718,9 @@
       </c>
       <c r="H74">
         <v>62</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -7602,655 +7635,708 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="114" spans="2:3">
+      <c r="B114" s="5" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="118" spans="2:9">
+      <c r="C114" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C115" t="s">
+        <v>827</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C116" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C117" t="s">
+        <v>831</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
       <c r="B118">
-        <v>600807</v>
+        <v>300497</v>
       </c>
       <c r="C118" t="s">
-        <v>825</v>
-      </c>
-      <c r="D118" t="s">
-        <v>826</v>
-      </c>
-      <c r="F118">
-        <v>36</v>
-      </c>
-      <c r="G118">
-        <v>48</v>
-      </c>
-      <c r="H118" t="s">
-        <v>39</v>
-      </c>
-      <c r="I118">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="5" t="s">
-        <v>827</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119">
+        <v>300485</v>
       </c>
       <c r="C119" t="s">
-        <v>828</v>
-      </c>
-      <c r="D119" t="s">
-        <v>829</v>
-      </c>
-      <c r="F119">
-        <v>61</v>
-      </c>
-      <c r="G119">
-        <v>45</v>
-      </c>
-      <c r="H119">
-        <v>36</v>
-      </c>
-      <c r="I119">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8">
-      <c r="B120">
-        <v>300165</v>
-      </c>
-      <c r="C120" t="s">
-        <v>830</v>
-      </c>
-      <c r="D120" t="s">
-        <v>831</v>
-      </c>
-      <c r="F120">
-        <v>40</v>
-      </c>
-      <c r="G120">
-        <v>32</v>
-      </c>
-      <c r="H120">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121">
-        <v>301060</v>
-      </c>
-      <c r="C121" t="s">
         <v>832</v>
       </c>
-      <c r="D121" t="s">
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
         <v>833</v>
-      </c>
-      <c r="F121">
-        <v>136</v>
-      </c>
-      <c r="G121">
-        <v>20</v>
-      </c>
-      <c r="H121">
-        <v>71</v>
-      </c>
-      <c r="I121">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122">
-        <v>300683</v>
-      </c>
-      <c r="C122" t="s">
-        <v>834</v>
-      </c>
-      <c r="D122" t="s">
-        <v>835</v>
-      </c>
-      <c r="F122">
-        <v>72</v>
-      </c>
-      <c r="G122">
-        <v>26</v>
-      </c>
-      <c r="H122">
-        <v>1758</v>
       </c>
     </row>
     <row r="123" spans="2:9">
       <c r="B123">
-        <v>603716</v>
+        <v>600807</v>
       </c>
       <c r="C123" t="s">
+        <v>834</v>
+      </c>
+      <c r="D123" t="s">
+        <v>835</v>
+      </c>
+      <c r="F123">
+        <v>36</v>
+      </c>
+      <c r="G123">
+        <v>48</v>
+      </c>
+      <c r="H123" t="s">
+        <v>39</v>
+      </c>
+      <c r="I123">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="D123" t="s">
+      <c r="C124" t="s">
         <v>837</v>
       </c>
-      <c r="F123">
-        <v>28</v>
-      </c>
-      <c r="G123">
-        <v>41</v>
-      </c>
-      <c r="H123">
-        <v>99</v>
-      </c>
-      <c r="I123">
-        <v>-97</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8">
-      <c r="B124">
-        <v>301087</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>838</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124">
+        <v>61</v>
+      </c>
+      <c r="G124">
+        <v>45</v>
+      </c>
+      <c r="H124">
+        <v>36</v>
+      </c>
+      <c r="I124">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125">
+        <v>300165</v>
+      </c>
+      <c r="C125" t="s">
         <v>839</v>
       </c>
-      <c r="F124">
-        <v>130</v>
-      </c>
-      <c r="G124">
-        <v>19</v>
-      </c>
-      <c r="H124">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125">
-        <v>300030</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>840</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125">
+        <v>40</v>
+      </c>
+      <c r="G125">
+        <v>32</v>
+      </c>
+      <c r="H125">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126">
+        <v>301060</v>
+      </c>
+      <c r="C126" t="s">
         <v>841</v>
       </c>
-      <c r="F125">
-        <v>32</v>
-      </c>
-      <c r="G125">
-        <v>17</v>
-      </c>
-      <c r="H125" t="s">
-        <v>39</v>
-      </c>
-      <c r="I125">
-        <v>-83</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8">
-      <c r="B126">
-        <v>300396</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>842</v>
       </c>
-      <c r="D126" t="s">
-        <v>843</v>
-      </c>
       <c r="F126">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="G126">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H126">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="2:8">
       <c r="B127">
-        <v>300832</v>
+        <v>300683</v>
       </c>
       <c r="C127" t="s">
+        <v>843</v>
+      </c>
+      <c r="D127" t="s">
         <v>844</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127">
+        <v>72</v>
+      </c>
+      <c r="G127">
+        <v>26</v>
+      </c>
+      <c r="H127">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128">
+        <v>603716</v>
+      </c>
+      <c r="C128" t="s">
         <v>845</v>
       </c>
-      <c r="F127">
+      <c r="D128" t="s">
+        <v>846</v>
+      </c>
+      <c r="F128">
+        <v>28</v>
+      </c>
+      <c r="G128">
+        <v>41</v>
+      </c>
+      <c r="H128">
+        <v>99</v>
+      </c>
+      <c r="I128">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129">
+        <v>301087</v>
+      </c>
+      <c r="C129" t="s">
+        <v>847</v>
+      </c>
+      <c r="D129" t="s">
+        <v>848</v>
+      </c>
+      <c r="F129">
+        <v>130</v>
+      </c>
+      <c r="G129">
+        <v>19</v>
+      </c>
+      <c r="H129">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130">
+        <v>300030</v>
+      </c>
+      <c r="C130" t="s">
+        <v>849</v>
+      </c>
+      <c r="D130" t="s">
+        <v>850</v>
+      </c>
+      <c r="F130">
         <v>32</v>
       </c>
-      <c r="G127">
-        <v>58</v>
-      </c>
-      <c r="H127">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128">
-        <v>300003</v>
-      </c>
-      <c r="C128" t="s">
-        <v>846</v>
-      </c>
-      <c r="D128" t="s">
-        <v>847</v>
-      </c>
-      <c r="F128">
-        <v>300</v>
-      </c>
-      <c r="G128">
-        <v>207</v>
-      </c>
-      <c r="H128">
+      <c r="G130">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s">
+        <v>39</v>
+      </c>
+      <c r="I130">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131">
+        <v>300396</v>
+      </c>
+      <c r="C131" t="s">
+        <v>851</v>
+      </c>
+      <c r="D131" t="s">
+        <v>852</v>
+      </c>
+      <c r="F131">
+        <v>48</v>
+      </c>
+      <c r="G131">
+        <v>21</v>
+      </c>
+      <c r="H131">
         <v>26</v>
-      </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="C129" t="s">
-        <v>849</v>
-      </c>
-      <c r="D129" t="s">
-        <v>850</v>
-      </c>
-      <c r="F129">
-        <v>65</v>
-      </c>
-      <c r="G129">
-        <v>33</v>
-      </c>
-      <c r="H129">
-        <v>78</v>
-      </c>
-      <c r="I129">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10">
-      <c r="B130">
-        <v>300676</v>
-      </c>
-      <c r="C130" t="s">
-        <v>851</v>
-      </c>
-      <c r="D130" t="s">
-        <v>852</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>350</v>
-      </c>
-      <c r="G130">
-        <v>142</v>
-      </c>
-      <c r="H130">
-        <v>45</v>
-      </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="C131" t="s">
-        <v>854</v>
-      </c>
-      <c r="D131" t="s">
-        <v>855</v>
-      </c>
-      <c r="F131">
-        <v>280</v>
-      </c>
-      <c r="G131">
-        <v>91</v>
-      </c>
-      <c r="H131">
-        <v>8</v>
-      </c>
-      <c r="I131">
-        <v>64</v>
       </c>
     </row>
     <row r="132" spans="2:8">
       <c r="B132">
-        <v>300318</v>
+        <v>300832</v>
       </c>
       <c r="C132" t="s">
+        <v>853</v>
+      </c>
+      <c r="D132" t="s">
+        <v>854</v>
+      </c>
+      <c r="F132">
+        <v>32</v>
+      </c>
+      <c r="G132">
+        <v>58</v>
+      </c>
+      <c r="H132">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133">
+        <v>300003</v>
+      </c>
+      <c r="C133" t="s">
+        <v>855</v>
+      </c>
+      <c r="D133" t="s">
         <v>856</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F133">
+        <v>300</v>
+      </c>
+      <c r="G133">
+        <v>207</v>
+      </c>
+      <c r="H133">
+        <v>26</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="F132">
-        <v>80</v>
-      </c>
-      <c r="G132">
-        <v>39</v>
-      </c>
-      <c r="H132" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9">
-      <c r="B133">
-        <v>300642</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>858</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>859</v>
       </c>
-      <c r="E133"/>
-      <c r="F133">
-        <v>50</v>
-      </c>
-      <c r="G133">
-        <v>14</v>
-      </c>
-      <c r="H133">
-        <v>27</v>
-      </c>
-      <c r="I133">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134">
-        <v>603108</v>
-      </c>
-      <c r="C134" t="s">
-        <v>860</v>
-      </c>
-      <c r="D134" t="s">
-        <v>861</v>
-      </c>
       <c r="F134">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G134">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I134">
-        <v>38</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135">
-        <v>300482</v>
+        <v>300676</v>
       </c>
       <c r="C135" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D135" t="s">
-        <v>863</v>
+        <v>861</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="G135">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="H135">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="2:9">
-      <c r="B136">
-        <v>300463</v>
+      <c r="B136" s="5" t="s">
+        <v>862</v>
       </c>
       <c r="C136" t="s">
+        <v>863</v>
+      </c>
+      <c r="D136" t="s">
         <v>864</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136">
+        <v>280</v>
+      </c>
+      <c r="G136">
+        <v>91</v>
+      </c>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="I136">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137">
+        <v>300318</v>
+      </c>
+      <c r="C137" t="s">
         <v>865</v>
       </c>
-      <c r="F136">
-        <v>160</v>
-      </c>
-      <c r="G136">
-        <v>66</v>
-      </c>
-      <c r="H136">
-        <v>15</v>
-      </c>
-      <c r="I136">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9">
-      <c r="B137">
-        <v>300012</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>866</v>
       </c>
-      <c r="D137" t="s">
-        <v>867</v>
-      </c>
       <c r="F137">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="G137">
-        <v>60</v>
-      </c>
-      <c r="H137">
-        <v>61</v>
-      </c>
-      <c r="I137">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="H137" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="2:9">
       <c r="B138">
-        <v>603882</v>
+        <v>300642</v>
       </c>
       <c r="C138" t="s">
+        <v>867</v>
+      </c>
+      <c r="D138" t="s">
         <v>868</v>
       </c>
-      <c r="D138" t="s">
+      <c r="F138">
+        <v>50</v>
+      </c>
+      <c r="G138">
+        <v>14</v>
+      </c>
+      <c r="H138">
+        <v>27</v>
+      </c>
+      <c r="I138">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139">
+        <v>603108</v>
+      </c>
+      <c r="C139" t="s">
         <v>869</v>
       </c>
-      <c r="F138">
-        <v>515</v>
-      </c>
-      <c r="G138">
-        <v>95</v>
-      </c>
-      <c r="H138">
-        <v>24</v>
-      </c>
-      <c r="I138">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="5" t="s">
+      <c r="D139" t="s">
         <v>870</v>
       </c>
-      <c r="C139" t="s">
-        <v>807</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="F139">
+        <v>75</v>
+      </c>
+      <c r="G139">
+        <v>121</v>
+      </c>
+      <c r="H139">
+        <v>18</v>
+      </c>
+      <c r="I139">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140">
+        <v>300482</v>
+      </c>
+      <c r="C140" t="s">
         <v>871</v>
       </c>
-      <c r="F139">
-        <v>60</v>
-      </c>
-      <c r="G139">
-        <v>23</v>
-      </c>
-      <c r="H139" t="s">
-        <v>39</v>
-      </c>
-      <c r="I139">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9">
-      <c r="B140">
-        <v>300887</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>872</v>
       </c>
-      <c r="D140" t="s">
-        <v>873</v>
-      </c>
       <c r="F140">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="G140">
+        <v>46</v>
+      </c>
+      <c r="H140">
         <v>25</v>
       </c>
-      <c r="H140">
-        <v>45</v>
-      </c>
-      <c r="I140">
-        <v>78</v>
+      <c r="J140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:9">
       <c r="B141">
-        <v>300639</v>
+        <v>300463</v>
       </c>
       <c r="C141" t="s">
+        <v>873</v>
+      </c>
+      <c r="D141" t="s">
         <v>874</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141">
+        <v>160</v>
+      </c>
+      <c r="G141">
+        <v>66</v>
+      </c>
+      <c r="H141">
+        <v>15</v>
+      </c>
+      <c r="I141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142">
+        <v>300012</v>
+      </c>
+      <c r="C142" t="s">
         <v>875</v>
       </c>
-      <c r="F141">
-        <v>87</v>
-      </c>
-      <c r="G141">
-        <v>39</v>
-      </c>
-      <c r="H141">
-        <v>17</v>
-      </c>
-      <c r="I141">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8">
-      <c r="B142">
-        <v>300298</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>876</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142">
+        <v>447</v>
+      </c>
+      <c r="G142">
+        <v>60</v>
+      </c>
+      <c r="H142">
+        <v>61</v>
+      </c>
+      <c r="I142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143">
+        <v>603882</v>
+      </c>
+      <c r="C143" t="s">
         <v>877</v>
       </c>
-      <c r="F142">
-        <v>170</v>
-      </c>
-      <c r="G142">
-        <v>41</v>
-      </c>
-      <c r="H142">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8">
-      <c r="B143" s="5" t="s">
+      <c r="D143" t="s">
         <v>878</v>
       </c>
-      <c r="C143" t="s">
+      <c r="F143">
+        <v>515</v>
+      </c>
+      <c r="G143">
+        <v>95</v>
+      </c>
+      <c r="H143">
+        <v>24</v>
+      </c>
+      <c r="I143">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="D143" t="s">
+      <c r="C144" t="s">
+        <v>807</v>
+      </c>
+      <c r="D144" t="s">
         <v>880</v>
-      </c>
-      <c r="F143">
-        <v>50</v>
-      </c>
-      <c r="G143">
-        <v>63</v>
-      </c>
-      <c r="H143">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9">
-      <c r="B144">
-        <v>603222</v>
-      </c>
-      <c r="C144" t="s">
-        <v>881</v>
-      </c>
-      <c r="D144" t="s">
-        <v>882</v>
       </c>
       <c r="F144">
         <v>60</v>
       </c>
       <c r="G144">
-        <v>24</v>
-      </c>
-      <c r="H144">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="H144" t="s">
+        <v>39</v>
       </c>
       <c r="I144">
-        <v>316</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145">
-        <v>300046</v>
+        <v>300887</v>
       </c>
       <c r="C145" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D145" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F145">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G145">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I145">
-        <v>254</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="2:9">
       <c r="B146">
+        <v>300639</v>
+      </c>
+      <c r="C146" t="s">
+        <v>883</v>
+      </c>
+      <c r="D146" t="s">
+        <v>884</v>
+      </c>
+      <c r="F146">
+        <v>87</v>
+      </c>
+      <c r="G146">
+        <v>39</v>
+      </c>
+      <c r="H146">
+        <v>17</v>
+      </c>
+      <c r="I146">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147">
+        <v>300298</v>
+      </c>
+      <c r="C147" t="s">
+        <v>885</v>
+      </c>
+      <c r="D147" t="s">
+        <v>886</v>
+      </c>
+      <c r="F147">
+        <v>170</v>
+      </c>
+      <c r="G147">
+        <v>41</v>
+      </c>
+      <c r="H147">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C148" t="s">
+        <v>888</v>
+      </c>
+      <c r="D148" t="s">
+        <v>889</v>
+      </c>
+      <c r="F148">
+        <v>50</v>
+      </c>
+      <c r="G148">
+        <v>63</v>
+      </c>
+      <c r="H148">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149">
+        <v>603222</v>
+      </c>
+      <c r="C149" t="s">
+        <v>890</v>
+      </c>
+      <c r="D149" t="s">
+        <v>891</v>
+      </c>
+      <c r="F149">
+        <v>60</v>
+      </c>
+      <c r="G149">
+        <v>24</v>
+      </c>
+      <c r="H149">
+        <v>54</v>
+      </c>
+      <c r="I149">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150">
+        <v>300046</v>
+      </c>
+      <c r="C150" t="s">
+        <v>892</v>
+      </c>
+      <c r="D150" t="s">
+        <v>893</v>
+      </c>
+      <c r="F150">
+        <v>120</v>
+      </c>
+      <c r="G150">
+        <v>47</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151">
         <v>603718</v>
       </c>
-      <c r="C146" t="s">
-        <v>885</v>
-      </c>
-      <c r="D146" t="s">
-        <v>886</v>
-      </c>
-      <c r="F146">
+      <c r="C151" t="s">
+        <v>894</v>
+      </c>
+      <c r="D151" t="s">
+        <v>895</v>
+      </c>
+      <c r="F151">
         <v>100</v>
       </c>
-      <c r="G146">
+      <c r="G151">
         <v>18</v>
       </c>
-      <c r="H146">
+      <c r="H151">
         <v>254</v>
       </c>
-      <c r="I146">
+      <c r="I151">
         <v>438</v>
       </c>
     </row>
@@ -8295,18 +8381,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="C3" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="D3" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -8317,16 +8403,16 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="C4" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="D4" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="F4" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -8340,10 +8426,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="D5" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -8354,13 +8440,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="C6" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="D6" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -8374,10 +8460,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="D7" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -8388,13 +8474,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="C8" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="D8" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -8408,10 +8494,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="D9" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -8422,13 +8508,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="C10" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="D10" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -8439,13 +8525,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C11" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="D11" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -8456,13 +8542,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="C12" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="D12" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -8476,10 +8562,10 @@
         <v>600743</v>
       </c>
       <c r="C13" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="D13" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="F13">
         <v>634</v>
@@ -8490,13 +8576,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="C20" t="s">
-        <v>919</v>
+        <v>928</v>
       </c>
       <c r="D20" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="F20">
         <v>22</v>
@@ -8507,13 +8593,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="C21" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="D21" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -8524,13 +8610,13 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="C22" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="D22" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="F22">
         <v>97</v>
@@ -8544,10 +8630,10 @@
         <v>600173</v>
       </c>
       <c r="C23" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="D23" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -8561,10 +8647,10 @@
         <v>600503</v>
       </c>
       <c r="C24" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="D24" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="F24">
         <v>53</v>
@@ -8578,13 +8664,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="C25" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="D25" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -8598,10 +8684,10 @@
         <v>600641</v>
       </c>
       <c r="C26" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="D26" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -8615,10 +8701,10 @@
         <v>600246</v>
       </c>
       <c r="C27" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="D27" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -8638,8 +8724,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
@@ -8657,12 +8743,12 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8670,10 +8756,10 @@
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="D3" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -8684,13 +8770,13 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="C4" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="D4" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -8704,10 +8790,10 @@
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="D5" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -8721,10 +8807,10 @@
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="D6" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -8735,7 +8821,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -8743,10 +8829,10 @@
         <v>300169</v>
       </c>
       <c r="C13" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="D13" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -8760,10 +8846,10 @@
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="D14" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -8780,10 +8866,10 @@
         <v>600158</v>
       </c>
       <c r="C15" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="D15" t="s">
-        <v>954</v>
+        <v>963</v>
       </c>
       <c r="G15">
         <v>53</v>
@@ -8797,13 +8883,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="5" t="s">
-        <v>955</v>
+        <v>964</v>
       </c>
       <c r="C17" t="s">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="D17" t="s">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -8817,10 +8903,10 @@
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="D20" t="s">
-        <v>959</v>
+        <v>968</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -8831,13 +8917,13 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="C22" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="D22" t="s">
-        <v>962</v>
+        <v>971</v>
       </c>
       <c r="F22">
         <v>48</v>
@@ -8860,10 +8946,10 @@
         <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="E24" t="s">
-        <v>964</v>
+        <v>973</v>
       </c>
       <c r="F24">
         <v>126</v>
@@ -8883,10 +8969,10 @@
         <v>605299</v>
       </c>
       <c r="C27" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="D27" t="s">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -8900,13 +8986,13 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="5" t="s">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="C28" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="D28" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -8920,13 +9006,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>970</v>
+        <v>979</v>
       </c>
       <c r="C29" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
       <c r="D29" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -8966,23 +9052,23 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>974</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="C3" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="D3" t="s">
-        <v>977</v>
+        <v>986</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -8996,10 +9082,10 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="D4" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="E4" t="s">
         <v>756</v>
@@ -9019,10 +9105,10 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="D5" t="s">
-        <v>981</v>
+        <v>990</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -9039,10 +9125,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="D13" t="s">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -9056,10 +9142,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="D14" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -9073,10 +9159,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="D15" t="s">
-        <v>987</v>
+        <v>996</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -9087,13 +9173,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
-        <v>988</v>
+        <v>997</v>
       </c>
       <c r="C16" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="D16" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -9116,10 +9202,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="D17" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -9139,10 +9225,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="D18" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -9153,13 +9239,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="C19" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="D19" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -9176,10 +9262,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="D20" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -9190,13 +9276,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="C21" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="D21" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -9216,10 +9302,10 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="D22" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -9233,10 +9319,10 @@
         <v>300342</v>
       </c>
       <c r="C23" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="D23" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -9250,10 +9336,10 @@
         <v>600336</v>
       </c>
       <c r="C24" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="D24" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -9273,10 +9359,10 @@
         <v>300403</v>
       </c>
       <c r="C25" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="D25" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="F25">
         <v>22</v>
@@ -9287,13 +9373,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="C26" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="D26" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -9310,10 +9396,10 @@
         <v>300160</v>
       </c>
       <c r="C27" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="D27" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -9327,10 +9413,10 @@
         <v>603578</v>
       </c>
       <c r="C28" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="D28" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -9344,10 +9430,10 @@
         <v>300217</v>
       </c>
       <c r="C29" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="D29" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="F29">
         <v>46</v>
@@ -9361,13 +9447,13 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="C30" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="D30" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="E30" t="s">
         <v>756</v>
@@ -9387,10 +9473,10 @@
         <v>603657</v>
       </c>
       <c r="C32" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="D32" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -9404,10 +9490,10 @@
         <v>301008</v>
       </c>
       <c r="C33" t="s">
-        <v>982</v>
+        <v>991</v>
       </c>
       <c r="D33" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -9729,7 +9815,6 @@
       <c r="D43" t="s">
         <v>48</v>
       </c>
-      <c r="E43"/>
       <c r="F43">
         <v>52</v>
       </c>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="8" activeTab="13"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,18 @@
     <sheet name="房地产" sheetId="17" r:id="rId15"/>
     <sheet name="冬奥会" sheetId="18" r:id="rId16"/>
     <sheet name="家居" sheetId="19" r:id="rId17"/>
+    <sheet name="三胎概念" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">药品!$F$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">三胎概念!$G$1:$K$46</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1129">
   <si>
     <t>上海环境</t>
   </si>
@@ -2724,6 +2726,12 @@
     <t>新冠检测（抗体检测，有欧盟准入）、生物疫苗（畜禽用）、基因测序、保健品</t>
   </si>
   <si>
+    <t>美康生物</t>
+  </si>
+  <si>
+    <t>新冠检测（核酸检测欧盟ce）、基因测序、幽门螺杆菌、生物医药、智能医疗、体外诊断</t>
+  </si>
+  <si>
     <t>商品房开发</t>
   </si>
   <si>
@@ -3139,6 +3147,282 @@
   </si>
   <si>
     <t>流体电磁阀、传感器</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>流通市值</t>
+  </si>
+  <si>
+    <t>辅助生殖</t>
+  </si>
+  <si>
+    <t>002172</t>
+  </si>
+  <si>
+    <t>澳洋健康</t>
+  </si>
+  <si>
+    <t>三胎概念（高级产院、高端月子会）、辅助生殖、医美、养老、工业大麻、民营医院、基因疗法</t>
+  </si>
+  <si>
+    <t>甾体药物物料最大供应商、孕激素等药物</t>
+  </si>
+  <si>
+    <t>002162</t>
+  </si>
+  <si>
+    <t>悦心健康</t>
+  </si>
+  <si>
+    <t>主营瓷砖、辅助生殖（美国试管婴儿、国内设备引进）、医美、民营医院、上海自贸区</t>
+  </si>
+  <si>
+    <t>002435</t>
+  </si>
+  <si>
+    <t>长江健康</t>
+  </si>
+  <si>
+    <t>针粉剂、导轨、辅助生殖（旗下医院）、医美、流感、柔性屏</t>
+  </si>
+  <si>
+    <t>麦迪科技</t>
+  </si>
+  <si>
+    <t>主营软件开发（医疗医院方向）、辅助生殖（玛丽医院）、华为概念、互联网医疗、国产软件</t>
+  </si>
+  <si>
+    <t>主业肝脏领域药物、乙肝治疗、新冠检测、新冠治疗、生物医药、辅助生殖（子公司技术研发）、创新药、抗癌</t>
+  </si>
+  <si>
+    <t>戴维医疗</t>
+  </si>
+  <si>
+    <t>三胎概念（主业婴儿保育设备）、医疗器械概念、基因测序、干细胞、人脑工程</t>
+  </si>
+  <si>
+    <t>000705</t>
+  </si>
+  <si>
+    <t>浙江震元</t>
+  </si>
+  <si>
+    <t>主业批发零售、医药中间体、三胎概念（月子会领头羊）、幽门螺杆菌、医保目录、老字号、国企</t>
+  </si>
+  <si>
+    <t>益民集团</t>
+  </si>
+  <si>
+    <t>主业商业零售、新零售、三胎概念（月子中心）、国企</t>
+  </si>
+  <si>
+    <t>大东方</t>
+  </si>
+  <si>
+    <t>主业汽车销售、百货零售、新零售、三胎概念（儿童疾病治疗）</t>
+  </si>
+  <si>
+    <t>乳业</t>
+  </si>
+  <si>
+    <t>光明乳业</t>
+  </si>
+  <si>
+    <t>乳业、三胎概念（婴儿奶粉）、老字号、新零售、国企</t>
+  </si>
+  <si>
+    <t>002570</t>
+  </si>
+  <si>
+    <t>贝因美</t>
+  </si>
+  <si>
+    <t>儿童食品、乳业（婴儿奶粉）、新零售、电子商务、网红经济</t>
+  </si>
+  <si>
+    <t>三元股份</t>
+  </si>
+  <si>
+    <t>乳业、三胎概念（婴儿奶粉）、老字号</t>
+  </si>
+  <si>
+    <t>西部牧业</t>
+  </si>
+  <si>
+    <t>乳业、三胎概念（旗下两家公司有乳粉生产资质）、牛羊肉、新疆振兴、国企</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>002762</t>
+  </si>
+  <si>
+    <t>金发拉比</t>
+  </si>
+  <si>
+    <t>三胎概念（母婴用品生产销售）、乳业（婴儿奶粉）、家用电器（母婴）、医美、网红、消毒剂</t>
+  </si>
+  <si>
+    <t>爱婴室</t>
+  </si>
+  <si>
+    <t>三胎概念（母婴产品连锁）、新零售、电子商务、幼儿教育</t>
+  </si>
+  <si>
+    <t>茶花股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主营可降解塑料、三胎概念（吸管、保温杯、靠背椅）、电子商务 </t>
+  </si>
+  <si>
+    <t>豪悦护理</t>
+  </si>
+  <si>
+    <t>三胎概念（婴儿卫生用品）、口罩</t>
+  </si>
+  <si>
+    <t>安正时尚</t>
+  </si>
+  <si>
+    <t>三胎概念（主体业务母婴产品代运营）、电子商务</t>
+  </si>
+  <si>
+    <t>可靠股份</t>
+  </si>
+  <si>
+    <t>三胎概念（主业婴儿卫生用品）、口罩、宠物经济、新零售</t>
+  </si>
+  <si>
+    <t>嘉亨家化</t>
+  </si>
+  <si>
+    <t>主业化妆品、塑料包装、三胎概念（为强生婴儿、郁美净等生产产品）</t>
+  </si>
+  <si>
+    <t>奇德新材</t>
+  </si>
+  <si>
+    <t>主业塑料复合材料、三胎概念（婴儿推车、座椅高端）、新材料概念</t>
+  </si>
+  <si>
+    <t>孩子王</t>
+  </si>
+  <si>
+    <t>三胎概念（母婴用品连锁）、新零售、电子商务</t>
+  </si>
+  <si>
+    <t>上海家化</t>
+  </si>
+  <si>
+    <t>主业护肤、个人护理、母婴、三胎概念（旗下英国品牌汤美星）、电子商务、老字号</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>一品红</t>
+  </si>
+  <si>
+    <t>三胎概念（儿童药）、儿童医疗、流感、医保目录、生物疫苗、板蓝根</t>
+  </si>
+  <si>
+    <t>三胎概念（感冒药）、儿童医疗、中医药 、医保目录、保健品</t>
+  </si>
+  <si>
+    <t>三胎概念（儿童药）、辅助生殖、儿童医疗、生物药、幽门螺杆菌、生物医药</t>
+  </si>
+  <si>
+    <t>三胎概念（儿童药品、保健营养食品）、环保设备、生物医药、医保目录</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>002621</t>
+  </si>
+  <si>
+    <t>美吉姆</t>
+  </si>
+  <si>
+    <t>三胎概念（早教）、幼儿教育、大连自贸区</t>
+  </si>
+  <si>
+    <t>002308</t>
+  </si>
+  <si>
+    <t>威创股份</t>
+  </si>
+  <si>
+    <t>幼儿教育（幼儿园龙头）、数字拼接墙、在线教育、大数据、全息手机</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>002875</t>
+  </si>
+  <si>
+    <t>安奈儿</t>
+  </si>
+  <si>
+    <t>童装、网络直播</t>
+  </si>
+  <si>
+    <t>中胤时尚</t>
+  </si>
+  <si>
+    <t>主业做鞋、三胎概念（童鞋占比10-15）</t>
+  </si>
+  <si>
+    <t>罗莱生活</t>
+  </si>
+  <si>
+    <t>家纺、三胎概念（儿童面料）、电子商务、智能家居、大消费、网红经济</t>
+  </si>
+  <si>
+    <t>玩具</t>
+  </si>
+  <si>
+    <t>002348</t>
+  </si>
+  <si>
+    <t>高乐股份</t>
+  </si>
+  <si>
+    <t>三胎概念（儿童玩具全方面）、在线教育（给学校提供设备）、人工智能、3D打印、迪士尼</t>
+  </si>
+  <si>
+    <t>沐邦高科</t>
+  </si>
+  <si>
+    <t>三胎概念（益智积木玩具主要业务）、幼儿教育课程、新零售、医疗器械</t>
+  </si>
+  <si>
+    <t>002292</t>
+  </si>
+  <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
+    <t>三胎概念（主营玩具与婴童用品销售）、幼儿教育、网络游戏、手机游戏、动漫、文化传媒</t>
+  </si>
+  <si>
+    <t>002862</t>
+  </si>
+  <si>
+    <t>实丰文化</t>
+  </si>
+  <si>
+    <t>主业玩具、三胎概念（婴幼玩具）、宠物经济、手机游戏</t>
+  </si>
+  <si>
+    <t>久祺股份</t>
+  </si>
+  <si>
+    <t>主业自行车、三胎概念（儿童车）、体育产业</t>
   </si>
 </sst>
 </file>
@@ -3146,10 +3430,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3166,59 +3450,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3233,9 +3466,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3255,8 +3549,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3279,32 +3587,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3325,13 +3609,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3349,55 +3663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3415,19 +3693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3445,7 +3717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3457,13 +3729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3475,13 +3765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3493,19 +3777,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3516,6 +3800,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3534,16 +3844,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3567,6 +3877,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3581,41 +3900,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3624,10 +3908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3636,37 +3920,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3675,94 +3953,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5518,12 +5802,12 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6567,6 +6851,9 @@
       <c r="D67" t="s">
         <v>712</v>
       </c>
+      <c r="F67">
+        <v>84</v>
+      </c>
       <c r="G67">
         <v>9</v>
       </c>
@@ -8338,6 +8625,29 @@
       </c>
       <c r="I151">
         <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152">
+        <v>300439</v>
+      </c>
+      <c r="C152" t="s">
+        <v>896</v>
+      </c>
+      <c r="D152" t="s">
+        <v>897</v>
+      </c>
+      <c r="F152">
+        <v>106</v>
+      </c>
+      <c r="G152">
+        <v>36</v>
+      </c>
+      <c r="H152">
+        <v>62</v>
+      </c>
+      <c r="I152">
+        <v>-42</v>
       </c>
     </row>
   </sheetData>
@@ -8381,18 +8691,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -8403,16 +8713,16 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -8426,10 +8736,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -8440,13 +8750,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C6" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D6" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -8460,10 +8770,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D7" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -8474,13 +8784,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C8" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D8" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -8494,10 +8804,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D9" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -8508,13 +8818,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C10" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D10" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -8525,13 +8835,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C11" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D11" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -8542,13 +8852,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="5" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C12" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D12" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -8562,10 +8872,10 @@
         <v>600743</v>
       </c>
       <c r="C13" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D13" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F13">
         <v>634</v>
@@ -8576,13 +8886,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C20" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D20" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F20">
         <v>22</v>
@@ -8593,13 +8903,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C21" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D21" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -8610,13 +8920,13 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C22" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D22" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F22">
         <v>97</v>
@@ -8630,10 +8940,10 @@
         <v>600173</v>
       </c>
       <c r="C23" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D23" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -8647,10 +8957,10 @@
         <v>600503</v>
       </c>
       <c r="C24" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D24" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F24">
         <v>53</v>
@@ -8664,13 +8974,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C25" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D25" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -8684,10 +8994,10 @@
         <v>600641</v>
       </c>
       <c r="C26" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D26" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -8701,10 +9011,10 @@
         <v>600246</v>
       </c>
       <c r="C27" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D27" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -8743,12 +9053,12 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8756,10 +9066,10 @@
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D3" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -8770,13 +9080,13 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="5" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -8790,10 +9100,10 @@
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -8807,10 +9117,10 @@
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D6" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -8821,7 +9131,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -8829,10 +9139,10 @@
         <v>300169</v>
       </c>
       <c r="C13" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D13" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -8846,10 +9156,10 @@
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D14" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -8866,10 +9176,10 @@
         <v>600158</v>
       </c>
       <c r="C15" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D15" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G15">
         <v>53</v>
@@ -8883,13 +9193,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="5" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C17" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D17" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -8903,10 +9213,10 @@
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D20" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -8917,13 +9227,13 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="5" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C22" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D22" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F22">
         <v>48</v>
@@ -8946,10 +9256,10 @@
         <v>365</v>
       </c>
       <c r="D24" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E24" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F24">
         <v>126</v>
@@ -8969,10 +9279,10 @@
         <v>605299</v>
       </c>
       <c r="C27" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D27" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -8986,13 +9296,13 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="5" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C28" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D28" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -9006,13 +9316,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C29" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D29" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -9035,8 +9345,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="D20:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -9052,23 +9362,23 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C3" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D3" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -9082,10 +9392,10 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D4" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E4" t="s">
         <v>756</v>
@@ -9105,10 +9415,10 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D5" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -9125,10 +9435,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D13" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -9142,10 +9452,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D14" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -9159,10 +9469,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D15" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -9173,13 +9483,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C16" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D16" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -9202,10 +9512,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D17" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -9225,10 +9535,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D18" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -9239,13 +9549,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C19" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D19" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -9262,10 +9572,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D20" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -9276,13 +9586,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C21" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D21" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -9302,10 +9612,10 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D22" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -9319,10 +9629,10 @@
         <v>300342</v>
       </c>
       <c r="C23" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="D23" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -9336,10 +9646,10 @@
         <v>600336</v>
       </c>
       <c r="C24" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D24" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -9359,10 +9669,10 @@
         <v>300403</v>
       </c>
       <c r="C25" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D25" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F25">
         <v>22</v>
@@ -9373,13 +9683,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C26" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D26" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -9396,10 +9706,10 @@
         <v>300160</v>
       </c>
       <c r="C27" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D27" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -9413,10 +9723,10 @@
         <v>603578</v>
       </c>
       <c r="C28" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D28" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -9430,10 +9740,10 @@
         <v>300217</v>
       </c>
       <c r="C29" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D29" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="F29">
         <v>46</v>
@@ -9447,13 +9757,13 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C30" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D30" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E30" t="s">
         <v>756</v>
@@ -9473,10 +9783,10 @@
         <v>603657</v>
       </c>
       <c r="C32" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D32" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -9490,10 +9800,10 @@
         <v>301008</v>
       </c>
       <c r="C33" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D33" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -9503,6 +9813,1011 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="57.7272727272727" customWidth="1"/>
+    <col min="5" max="6" width="10.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10">
+      <c r="C1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>-345</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4">
+        <v>300966</v>
+      </c>
+      <c r="C4" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G5">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G6">
+        <v>66</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>603990</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8">
+        <v>300436</v>
+      </c>
+      <c r="C8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G8">
+        <v>71</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>300314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>53</v>
+      </c>
+      <c r="J9">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>600824</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>600327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14">
+        <v>600597</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G14">
+        <v>182</v>
+      </c>
+      <c r="H14">
+        <v>203</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G15">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>600429</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>126</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>556</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>300106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>121</v>
+      </c>
+      <c r="J17">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>243</v>
+      </c>
+      <c r="J19">
+        <v>-71</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>603214</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>-47</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>603615</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>605009</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G22">
+        <v>91</v>
+      </c>
+      <c r="H22">
+        <v>37</v>
+      </c>
+      <c r="I22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>603839</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G23">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>41</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>301009</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <v>-58</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>300955</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G25">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>300995</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>56</v>
+      </c>
+      <c r="J26">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>301078</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>204</v>
+      </c>
+      <c r="H27">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28">
+        <v>600315</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>238</v>
+      </c>
+      <c r="H28">
+        <v>123</v>
+      </c>
+      <c r="I28">
+        <v>47</v>
+      </c>
+      <c r="J28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>300723</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G30">
+        <v>94</v>
+      </c>
+      <c r="H30">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G31">
+        <v>96</v>
+      </c>
+      <c r="H31">
+        <v>54</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <v>300086</v>
+      </c>
+      <c r="C32" t="s">
+        <v>707</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G32">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32">
+        <v>-2050</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C33" t="s">
+        <v>723</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G33">
+        <v>74</v>
+      </c>
+      <c r="H33">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37">
+        <v>-62</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G38">
+        <v>41</v>
+      </c>
+      <c r="H38">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G42">
+        <v>23</v>
+      </c>
+      <c r="H42">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <v>129</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <v>300901</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G43">
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44">
+        <v>603398</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G44">
+        <v>122</v>
+      </c>
+      <c r="H44">
+        <v>63</v>
+      </c>
+      <c r="I44">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G46">
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47">
+        <v>603398</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G47">
+        <v>74</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G48">
+        <v>96</v>
+      </c>
+      <c r="H48">
+        <v>54</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G49">
+        <v>17</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50">
+        <v>300994</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F50">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+      <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>39</v>
+      </c>
+      <c r="J50">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G1:K46">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="11" activeTab="18"/>
+    <workbookView windowWidth="18530" windowHeight="6530" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1418">
   <si>
     <t>上海环境</t>
   </si>
@@ -828,6 +828,24 @@
   </si>
   <si>
     <t>光伏建筑一体化、亚运会、装配式建筑、一带一路</t>
+  </si>
+  <si>
+    <t>恒为科技</t>
+  </si>
+  <si>
+    <t>机器人概念，光伏扫地机器人、数据安全、网络安全、信创、国产操作系统</t>
+  </si>
+  <si>
+    <t>江南奕帆</t>
+  </si>
+  <si>
+    <t>机器人概念，光伏扫地机器人、特高压</t>
+  </si>
+  <si>
+    <t>宝胜股份</t>
+  </si>
+  <si>
+    <t>光伏、核电、智能电网、打飞机、铁路基建、超导</t>
   </si>
   <si>
     <t>风能</t>
@@ -4282,8 +4300,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4300,19 +4318,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4331,21 +4340,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4361,62 +4394,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4443,6 +4424,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -4459,7 +4477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4471,7 +4489,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4483,79 +4597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4567,37 +4621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4609,25 +4639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4639,7 +4657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4650,6 +4668,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4670,10 +4703,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4689,34 +4720,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4736,17 +4749,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4758,10 +4776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4770,133 +4788,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5041,13 +5059,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5065,7 +5083,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8347710" y="12731750"/>
+          <a:off x="8347710" y="13620750"/>
           <a:ext cx="3577590" cy="2825750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5404,7 +5422,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5614,7 +5632,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -5645,7 +5663,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5661,7 +5679,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="P1" s="2" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -6173,7 +6191,7 @@
         <v>600893</v>
       </c>
       <c r="C3" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F3">
         <v>906</v>
@@ -6187,7 +6205,7 @@
         <v>600760</v>
       </c>
       <c r="C4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="F4">
         <v>627</v>
@@ -6201,7 +6219,7 @@
         <v>600768</v>
       </c>
       <c r="C5" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="F5">
         <v>676</v>
@@ -6215,7 +6233,7 @@
         <v>600038</v>
       </c>
       <c r="C6" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="F6">
         <v>264</v>
@@ -6229,7 +6247,7 @@
         <v>600316</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F7">
         <v>147</v>
@@ -6243,10 +6261,10 @@
         <v>600765</v>
       </c>
       <c r="C10" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D10" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="F10">
         <v>195</v>
@@ -6257,13 +6275,13 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="8" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C14" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="D14" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="F14">
         <v>107</v>
@@ -6304,18 +6322,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C3" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D3" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -6332,7 +6350,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="F4">
         <v>64</v>
@@ -6346,10 +6364,10 @@
         <v>600699</v>
       </c>
       <c r="C5" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D5" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="F5">
         <v>526</v>
@@ -6363,10 +6381,10 @@
         <v>603730</v>
       </c>
       <c r="C6" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D6" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -6380,10 +6398,10 @@
         <v>603197</v>
       </c>
       <c r="C7" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="D7" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="F7">
         <v>52</v>
@@ -6397,10 +6415,10 @@
         <v>601799</v>
       </c>
       <c r="C8" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D8" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="F8">
         <v>113</v>
@@ -6414,10 +6432,10 @@
         <v>603997</v>
       </c>
       <c r="C9" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="D9" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="F9">
         <v>167</v>
@@ -6431,10 +6449,10 @@
         <v>300428</v>
       </c>
       <c r="C10" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="F10">
         <v>133</v>
@@ -6448,10 +6466,10 @@
         <v>603949</v>
       </c>
       <c r="C11" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D11" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -6462,18 +6480,18 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="8" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C17" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D17" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="F17">
         <v>84</v>
@@ -6490,7 +6508,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="F20">
         <v>124</v>
@@ -6504,10 +6522,10 @@
         <v>300742</v>
       </c>
       <c r="C22" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D22" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -6518,18 +6536,18 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="8" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C27" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="D27" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="F27">
         <v>21</v>
@@ -6540,13 +6558,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="8" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C28" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="D28" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="F28">
         <v>92</v>
@@ -6560,13 +6578,13 @@
         <v>300458</v>
       </c>
       <c r="C29" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D29" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="E29" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F29">
         <v>32</v>
@@ -6580,10 +6598,10 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="8" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C30" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="F30">
         <v>24</v>
@@ -6603,7 +6621,7 @@
         <v>300188</v>
       </c>
       <c r="C31" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F31">
         <v>42</v>
@@ -6620,10 +6638,10 @@
         <v>300735</v>
       </c>
       <c r="C32" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D32" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="F32">
         <v>58</v>
@@ -6643,10 +6661,10 @@
         <v>600081</v>
       </c>
       <c r="C33" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D33" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="F33">
         <v>95</v>
@@ -6660,13 +6678,13 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="8" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C34" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D34" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F34">
         <v>41</v>
@@ -6678,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -6686,10 +6704,10 @@
         <v>300807</v>
       </c>
       <c r="C35" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D35" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -6734,17 +6752,17 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -6752,10 +6770,10 @@
         <v>600351</v>
       </c>
       <c r="C13" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D13" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="H13">
         <v>38</v>
@@ -6766,13 +6784,13 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="8" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C14" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D14" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -6789,10 +6807,10 @@
         <v>603439</v>
       </c>
       <c r="C15" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D15" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -6809,10 +6827,10 @@
         <v>603567</v>
       </c>
       <c r="C16" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D16" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -6826,13 +6844,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="8" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C17" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="D17" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="H17">
         <v>54</v>
@@ -6841,7 +6859,7 @@
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -6849,13 +6867,13 @@
         <v>600976</v>
       </c>
       <c r="C18" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D18" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="E18" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="H18">
         <v>26</v>
@@ -6864,7 +6882,7 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -6872,13 +6890,13 @@
         <v>603896</v>
       </c>
       <c r="C19" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D19" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E19" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -6887,7 +6905,7 @@
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -6895,10 +6913,10 @@
         <v>605199</v>
       </c>
       <c r="C20" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D20" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -6912,10 +6930,10 @@
         <v>300039</v>
       </c>
       <c r="C21" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D21" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="H21">
         <v>32</v>
@@ -6926,13 +6944,13 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="8" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C22" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="D22" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="H22">
         <v>12</v>
@@ -6941,10 +6959,10 @@
         <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="K22" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -6955,10 +6973,10 @@
         <v>600572</v>
       </c>
       <c r="C23" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D23" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="H23">
         <v>88</v>
@@ -6967,7 +6985,7 @@
         <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -6975,10 +6993,10 @@
         <v>603139</v>
       </c>
       <c r="C24" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="D24" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="H24">
         <v>17</v>
@@ -6987,7 +7005,7 @@
         <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -6995,10 +7013,10 @@
         <v>600211</v>
       </c>
       <c r="C25" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="D25" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -7010,18 +7028,18 @@
         <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="8" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C26" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D26" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="H26">
         <v>17</v>
@@ -7035,13 +7053,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C27" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="D27" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="H27">
         <v>53</v>
@@ -7055,10 +7073,10 @@
         <v>301111</v>
       </c>
       <c r="C28" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D28" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -7072,10 +7090,10 @@
         <v>600080</v>
       </c>
       <c r="C29" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="D29" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="H29">
         <v>19</v>
@@ -7084,18 +7102,18 @@
         <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="8" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C30" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="D30" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -7104,7 +7122,7 @@
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -7112,10 +7130,10 @@
         <v>600750</v>
       </c>
       <c r="C31" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D31" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="H31">
         <v>55</v>
@@ -7126,13 +7144,13 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="8" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C32" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D32" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="H32">
         <v>20</v>
@@ -7141,18 +7159,18 @@
         <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="8" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C33" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D33" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H33">
         <v>53</v>
@@ -7161,7 +7179,7 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -7169,10 +7187,10 @@
         <v>300878</v>
       </c>
       <c r="C34" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D34" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -7189,10 +7207,10 @@
         <v>600436</v>
       </c>
       <c r="C35" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D35" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="H35">
         <v>119</v>
@@ -7201,18 +7219,18 @@
         <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="8" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="C36" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="H36">
         <v>9</v>
@@ -7221,7 +7239,7 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -7229,10 +7247,10 @@
         <v>300108</v>
       </c>
       <c r="C37" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D37" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="H37">
         <v>25</v>
@@ -7241,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -7249,10 +7267,10 @@
         <v>603998</v>
       </c>
       <c r="C38" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="D38" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="H38">
         <v>25</v>
@@ -7266,13 +7284,13 @@
         <v>600479</v>
       </c>
       <c r="C39" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="D39" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="E39" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="H39">
         <v>40</v>
@@ -7286,10 +7304,10 @@
         <v>600557</v>
       </c>
       <c r="C40" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="D40" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="H40">
         <v>57</v>
@@ -7300,13 +7318,13 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="8" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C41" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D41" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -7318,7 +7336,7 @@
         <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -7326,10 +7344,10 @@
         <v>600594</v>
       </c>
       <c r="C42" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="D42" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="H42">
         <v>54</v>
@@ -7343,10 +7361,10 @@
         <v>600222</v>
       </c>
       <c r="C43" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D43" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="H43">
         <v>38</v>
@@ -7360,13 +7378,13 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="8" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C44" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="D44" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -7380,13 +7398,13 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="8" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C45" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D45" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="H45">
         <v>19</v>
@@ -7395,7 +7413,7 @@
         <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="46" spans="2:10">
@@ -7403,10 +7421,10 @@
         <v>603963</v>
       </c>
       <c r="C46" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="D46" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -7415,18 +7433,18 @@
         <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="8" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C47" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="D47" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="H47">
         <v>96</v>
@@ -7435,7 +7453,7 @@
         <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -7443,10 +7461,10 @@
         <v>300519</v>
       </c>
       <c r="C48" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="D48" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="H48">
         <v>8</v>
@@ -7460,10 +7478,10 @@
         <v>300181</v>
       </c>
       <c r="C49" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="D49" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="H49">
         <v>33</v>
@@ -7472,7 +7490,7 @@
         <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -7480,10 +7498,10 @@
         <v>600129</v>
       </c>
       <c r="C50" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="D50" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H50">
         <v>134</v>
@@ -7492,18 +7510,18 @@
         <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="8" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C51" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="D51" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="H51">
         <v>12</v>
@@ -7517,13 +7535,13 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="8" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="C52" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="D52" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -7535,18 +7553,18 @@
         <v>9</v>
       </c>
       <c r="J52" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="8" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C53" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="D53" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -7563,13 +7581,13 @@
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="8" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C54" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="D54" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="H54">
         <v>15</v>
@@ -7583,16 +7601,16 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="8" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="C55" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="D55" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="E55" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="H55">
         <v>65</v>
@@ -7606,13 +7624,13 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="8" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C56" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D56" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="H56">
         <v>31</v>
@@ -7629,10 +7647,10 @@
         <v>600771</v>
       </c>
       <c r="C57" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D57" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="H57">
         <v>33</v>
@@ -7646,13 +7664,13 @@
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="8" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="C58" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="D58" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H58">
         <v>41</v>
@@ -7669,10 +7687,10 @@
         <v>300534</v>
       </c>
       <c r="C59" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="D59" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="H59">
         <v>8</v>
@@ -7686,12 +7704,12 @@
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -7699,13 +7717,13 @@
         <v>300086</v>
       </c>
       <c r="C65" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="D65" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="E65" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="G65">
         <v>36</v>
@@ -7725,13 +7743,13 @@
         <v>300254</v>
       </c>
       <c r="C66" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="D66" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E66" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="G66">
         <v>16</v>
@@ -7754,10 +7772,10 @@
         <v>301211</v>
       </c>
       <c r="C67" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="D67" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="G67">
         <v>84</v>
@@ -7777,10 +7795,10 @@
         <v>603351</v>
       </c>
       <c r="C68" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="D68" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="E68" t="s">
         <v>222</v>
@@ -7794,13 +7812,13 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="8" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="C69" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="D69" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="H69">
         <v>78</v>
@@ -7814,10 +7832,10 @@
         <v>301089</v>
       </c>
       <c r="C70" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D70" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="G70">
         <v>80</v>
@@ -7837,10 +7855,10 @@
         <v>300702</v>
       </c>
       <c r="C71" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D71" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="H71">
         <v>55</v>
@@ -7854,13 +7872,13 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="8" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C72" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="D72" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="G72">
         <v>69</v>
@@ -7880,13 +7898,13 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="8" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C73" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="D73" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="H73">
         <v>91</v>
@@ -7900,10 +7918,10 @@
         <v>300966</v>
       </c>
       <c r="C74" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="D74" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="G74">
         <v>44</v>
@@ -7923,10 +7941,10 @@
         <v>301075</v>
       </c>
       <c r="C75" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D75" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -7943,10 +7961,10 @@
         <v>300255</v>
       </c>
       <c r="C76" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="D76" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="G76">
         <v>72</v>
@@ -7966,10 +7984,10 @@
         <v>300381</v>
       </c>
       <c r="C77" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="D77" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="G77">
         <v>55</v>
@@ -7986,10 +8004,10 @@
         <v>300233</v>
       </c>
       <c r="C78" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="D78" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="G78">
         <v>110</v>
@@ -8006,10 +8024,10 @@
         <v>300111</v>
       </c>
       <c r="C79" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="D79" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="G79">
         <v>33</v>
@@ -8029,13 +8047,13 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="8" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C80" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="D80" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -8055,10 +8073,10 @@
         <v>603367</v>
       </c>
       <c r="C81" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="D81" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="G81">
         <v>42</v>
@@ -8078,10 +8096,10 @@
         <v>300497</v>
       </c>
       <c r="C82" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="D82" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="G82">
         <v>88</v>
@@ -8098,13 +8116,13 @@
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="8" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C83" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="D83" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="G83">
         <v>17</v>
@@ -8127,10 +8145,10 @@
         <v>300006</v>
       </c>
       <c r="C84" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D84" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="G84">
         <v>60</v>
@@ -8153,10 +8171,10 @@
         <v>300194</v>
       </c>
       <c r="C85" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="D85" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="G85">
         <v>55</v>
@@ -8176,13 +8194,13 @@
         <v>300436</v>
       </c>
       <c r="C86" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D86" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="E86" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="G86">
         <v>70</v>
@@ -8199,13 +8217,13 @@
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="8" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C87" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D87" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="G87">
         <v>36</v>
@@ -8225,10 +8243,10 @@
         <v>300765</v>
       </c>
       <c r="C88" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D88" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="G88">
         <v>80</v>
@@ -8245,10 +8263,10 @@
         <v>300583</v>
       </c>
       <c r="C89" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D89" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="G89">
         <v>24</v>
@@ -8271,10 +8289,10 @@
         <v>600789</v>
       </c>
       <c r="C90" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="D90" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="E90" t="s">
         <v>1</v>
@@ -8300,10 +8318,10 @@
         <v>603168</v>
       </c>
       <c r="C91" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D91" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="E91" t="s">
         <v>1</v>
@@ -8326,13 +8344,13 @@
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="8" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="C92" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="D92" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E92" t="s">
         <v>1</v>
@@ -8358,10 +8376,10 @@
         <v>600513</v>
       </c>
       <c r="C93" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="D93" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -8378,10 +8396,10 @@
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="8" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C94" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="G94">
         <v>20</v>
@@ -8398,13 +8416,13 @@
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="8" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C95" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="D95" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="G95">
         <v>30</v>
@@ -8421,13 +8439,13 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="8" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C96" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D96" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="G96">
         <v>88</v>
@@ -8444,10 +8462,10 @@
         <v>600774</v>
       </c>
       <c r="C97" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="D97" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
@@ -8473,10 +8491,10 @@
         <v>600488</v>
       </c>
       <c r="C98" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D98" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="G98">
         <v>50</v>
@@ -8496,13 +8514,13 @@
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="8" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C99" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D99" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="G99">
         <v>36</v>
@@ -8519,13 +8537,13 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C100" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D100" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G100">
         <v>27</v>
@@ -8542,10 +8560,10 @@
         <v>605177</v>
       </c>
       <c r="C101" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="D101" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="G101">
         <v>30</v>
@@ -8568,10 +8586,10 @@
         <v>300267</v>
       </c>
       <c r="C102" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="D102" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="G102">
         <v>94</v>
@@ -8585,13 +8603,13 @@
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="8" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C103" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D103" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="G103">
         <v>35</v>
@@ -8611,13 +8629,13 @@
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="8" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="C104" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="D104" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="G104">
         <v>40</v>
@@ -8640,10 +8658,10 @@
         <v>300401</v>
       </c>
       <c r="C105" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="D105" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="G105">
         <v>78</v>
@@ -8655,7 +8673,7 @@
         <v>25</v>
       </c>
       <c r="K105" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -8663,10 +8681,10 @@
         <v>603538</v>
       </c>
       <c r="C106" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="D106" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="G106">
         <v>51</v>
@@ -8680,13 +8698,13 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="8" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C107" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D107" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="G107">
         <v>61</v>
@@ -8703,10 +8721,10 @@
         <v>300110</v>
       </c>
       <c r="C108" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="D108" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="G108">
         <v>56</v>
@@ -8726,13 +8744,13 @@
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="8" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="C109" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="D109" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="G109">
         <v>38</v>
@@ -8752,10 +8770,10 @@
         <v>300016</v>
       </c>
       <c r="C110" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="D110" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="G110">
         <v>45</v>
@@ -8769,13 +8787,13 @@
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="8" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="C111" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="D111" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="G111">
         <v>60</v>
@@ -8789,13 +8807,13 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="8" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="C112" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="D112" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="G112">
         <v>85</v>
@@ -8812,10 +8830,10 @@
         <v>600613</v>
       </c>
       <c r="C113" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="D113" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="G113">
         <v>34</v>
@@ -8832,18 +8850,18 @@
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="8" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="C114" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="8" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="C115" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -8851,18 +8869,18 @@
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="8" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C116" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="8" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="C117" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -8873,7 +8891,7 @@
         <v>300497</v>
       </c>
       <c r="C118" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="119" spans="2:3">
@@ -8881,12 +8899,12 @@
         <v>300485</v>
       </c>
       <c r="C119" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="123" spans="2:10">
@@ -8894,10 +8912,10 @@
         <v>600807</v>
       </c>
       <c r="C123" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="D123" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="G123">
         <v>36</v>
@@ -8914,13 +8932,13 @@
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="8" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C124" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="D124" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="G124">
         <v>61</v>
@@ -8940,10 +8958,10 @@
         <v>300165</v>
       </c>
       <c r="C125" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="D125" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="G125">
         <v>40</v>
@@ -8960,10 +8978,10 @@
         <v>301060</v>
       </c>
       <c r="C126" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="D126" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="G126">
         <v>136</v>
@@ -8983,10 +9001,10 @@
         <v>300683</v>
       </c>
       <c r="C127" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D127" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="G127">
         <v>72</v>
@@ -9003,10 +9021,10 @@
         <v>603716</v>
       </c>
       <c r="C128" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="D128" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="G128">
         <v>28</v>
@@ -9026,10 +9044,10 @@
         <v>301087</v>
       </c>
       <c r="C129" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="D129" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="G129">
         <v>130</v>
@@ -9046,10 +9064,10 @@
         <v>300030</v>
       </c>
       <c r="C130" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="D130" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="G130">
         <v>32</v>
@@ -9069,10 +9087,10 @@
         <v>300396</v>
       </c>
       <c r="C131" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="D131" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="G131">
         <v>48</v>
@@ -9089,10 +9107,10 @@
         <v>300832</v>
       </c>
       <c r="C132" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="D132" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="G132">
         <v>32</v>
@@ -9109,10 +9127,10 @@
         <v>300003</v>
       </c>
       <c r="C133" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="D133" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="G133">
         <v>300</v>
@@ -9129,13 +9147,13 @@
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="8" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="C134" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="D134" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="G134">
         <v>65</v>
@@ -9155,10 +9173,10 @@
         <v>300676</v>
       </c>
       <c r="C135" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="D135" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
@@ -9178,13 +9196,13 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="8" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="C136" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="D136" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="G136">
         <v>280</v>
@@ -9204,10 +9222,10 @@
         <v>300318</v>
       </c>
       <c r="C137" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="D137" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="G137">
         <v>80</v>
@@ -9224,10 +9242,10 @@
         <v>300642</v>
       </c>
       <c r="C138" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="D138" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="G138">
         <v>50</v>
@@ -9247,10 +9265,10 @@
         <v>603108</v>
       </c>
       <c r="C139" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="D139" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="G139">
         <v>75</v>
@@ -9270,10 +9288,10 @@
         <v>300482</v>
       </c>
       <c r="C140" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D140" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="G140">
         <v>176</v>
@@ -9293,10 +9311,10 @@
         <v>300463</v>
       </c>
       <c r="C141" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="D141" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="G141">
         <v>160</v>
@@ -9316,10 +9334,10 @@
         <v>300012</v>
       </c>
       <c r="C142" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="D142" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="G142">
         <v>447</v>
@@ -9339,10 +9357,10 @@
         <v>603882</v>
       </c>
       <c r="C143" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="D143" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="G143">
         <v>515</v>
@@ -9359,13 +9377,13 @@
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="8" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C144" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D144" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="G144">
         <v>60</v>
@@ -9385,10 +9403,10 @@
         <v>300887</v>
       </c>
       <c r="C145" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="D145" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="G145">
         <v>90</v>
@@ -9408,10 +9426,10 @@
         <v>300639</v>
       </c>
       <c r="C146" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="D146" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="G146">
         <v>87</v>
@@ -9431,10 +9449,10 @@
         <v>300298</v>
       </c>
       <c r="C147" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="D147" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="G147">
         <v>170</v>
@@ -9448,13 +9466,13 @@
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="8" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="C148" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="D148" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="G148">
         <v>50</v>
@@ -9471,10 +9489,10 @@
         <v>603222</v>
       </c>
       <c r="C149" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D149" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="G149">
         <v>60</v>
@@ -9494,10 +9512,10 @@
         <v>300046</v>
       </c>
       <c r="C150" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="D150" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="G150">
         <v>120</v>
@@ -9517,10 +9535,10 @@
         <v>603718</v>
       </c>
       <c r="C151" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="D151" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="G151">
         <v>100</v>
@@ -9540,10 +9558,10 @@
         <v>300439</v>
       </c>
       <c r="C152" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="D152" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="G152">
         <v>106</v>
@@ -9560,7 +9578,7 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="156" spans="2:9">
@@ -9568,10 +9586,10 @@
         <v>600688</v>
       </c>
       <c r="C156" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="D156" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="G156">
         <v>70</v>
@@ -9585,13 +9603,13 @@
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="8" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C157" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="D157" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="F157">
         <v>46</v>
@@ -9614,10 +9632,10 @@
         <v>300261</v>
       </c>
       <c r="C158" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="D158" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="F158">
         <v>259</v>
@@ -9640,10 +9658,10 @@
         <v>300497</v>
       </c>
       <c r="C159" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="D159" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="F159">
         <v>101</v>
@@ -9663,18 +9681,18 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="162" spans="2:10">
       <c r="B162" s="8" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C162" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D162" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="F162">
         <v>173</v>
@@ -9697,10 +9715,10 @@
         <v>300683</v>
       </c>
       <c r="C163" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D163" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="I163">
         <v>2012</v>
@@ -9708,7 +9726,7 @@
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="167" spans="2:9">
@@ -9716,10 +9734,10 @@
         <v>301089</v>
       </c>
       <c r="C167" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D167" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="F167">
         <v>38</v>
@@ -9739,10 +9757,10 @@
         <v>600267</v>
       </c>
       <c r="C168" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="D168" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="F168">
         <v>154</v>
@@ -9765,10 +9783,10 @@
         <v>300436</v>
       </c>
       <c r="C169" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D169" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="F169">
         <v>58</v>
@@ -9788,7 +9806,7 @@
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -9832,18 +9850,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="C3" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D3" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -9854,16 +9872,16 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C4" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="D4" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="F4" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -9877,10 +9895,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="D5" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -9891,13 +9909,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C6" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="D6" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -9911,10 +9929,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="D7" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -9925,13 +9943,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="C8" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="D8" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -9945,10 +9963,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="D9" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -9959,13 +9977,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="C10" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="D10" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -9976,13 +9994,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="8" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="C11" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="D11" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -9993,13 +10011,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="8" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="C12" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="D12" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -10013,10 +10031,10 @@
         <v>600743</v>
       </c>
       <c r="C13" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="D13" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="F13">
         <v>634</v>
@@ -10027,13 +10045,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="C20" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="D20" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="F20">
         <v>22</v>
@@ -10044,13 +10062,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="C21" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="D21" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -10061,13 +10079,13 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="8" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="C22" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="D22" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="F22">
         <v>97</v>
@@ -10081,10 +10099,10 @@
         <v>600173</v>
       </c>
       <c r="C23" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="D23" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -10098,10 +10116,10 @@
         <v>600503</v>
       </c>
       <c r="C24" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="D24" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="F24">
         <v>53</v>
@@ -10115,13 +10133,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="8" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="C25" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D25" t="s">
         <v>1211</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1205</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -10135,10 +10153,10 @@
         <v>600641</v>
       </c>
       <c r="C26" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="D26" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -10152,10 +10170,10 @@
         <v>600246</v>
       </c>
       <c r="C27" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="D27" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -10199,7 +10217,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -10207,10 +10225,10 @@
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="D3" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -10221,13 +10239,13 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="C4" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="D4" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -10241,10 +10259,10 @@
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="D5" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -10258,10 +10276,10 @@
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="D6" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -10272,7 +10290,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -10280,10 +10298,10 @@
         <v>300169</v>
       </c>
       <c r="C13" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D13" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -10297,10 +10315,10 @@
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="D14" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -10317,10 +10335,10 @@
         <v>600158</v>
       </c>
       <c r="C15" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="D15" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="G15">
         <v>53</v>
@@ -10334,13 +10352,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="8" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="C17" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="D17" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -10354,10 +10372,10 @@
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="D20" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -10368,13 +10386,13 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="8" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="C22" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="D22" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="F22">
         <v>48</v>
@@ -10394,13 +10412,13 @@
         <v>300079</v>
       </c>
       <c r="C24" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D24" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="E24" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="F24">
         <v>126</v>
@@ -10420,10 +10438,10 @@
         <v>605299</v>
       </c>
       <c r="C27" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="D27" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -10437,13 +10455,13 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="C28" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="D28" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -10457,13 +10475,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="C29" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="D29" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -10503,23 +10521,23 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C3" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="D3" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -10533,13 +10551,13 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D4" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="E4" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -10556,10 +10574,10 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="D5" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -10576,10 +10594,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D13" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -10593,10 +10611,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="D14" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -10610,10 +10628,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="D15" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -10624,13 +10642,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="C16" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="D16" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -10653,10 +10671,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D17" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -10676,10 +10694,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="D18" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -10690,13 +10708,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="8" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C19" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="D19" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -10713,10 +10731,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="D20" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -10727,13 +10745,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="8" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="C21" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="D21" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -10753,10 +10771,10 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="D22" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -10770,10 +10788,10 @@
         <v>300342</v>
       </c>
       <c r="C23" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="D23" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -10787,10 +10805,10 @@
         <v>600336</v>
       </c>
       <c r="C24" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="D24" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -10810,10 +10828,10 @@
         <v>300403</v>
       </c>
       <c r="C25" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="D25" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="F25">
         <v>22</v>
@@ -10824,13 +10842,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="C26" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="D26" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -10847,10 +10865,10 @@
         <v>300160</v>
       </c>
       <c r="C27" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="D27" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -10864,10 +10882,10 @@
         <v>603578</v>
       </c>
       <c r="C28" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="D28" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -10881,10 +10899,10 @@
         <v>300217</v>
       </c>
       <c r="C29" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="D29" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="F29">
         <v>46</v>
@@ -10898,16 +10916,16 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="8" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="C30" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="D30" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="E30" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F30">
         <v>19</v>
@@ -10924,10 +10942,10 @@
         <v>603657</v>
       </c>
       <c r="C32" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="D32" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -10941,10 +10959,10 @@
         <v>301008</v>
       </c>
       <c r="C33" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D33" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -10978,7 +10996,7 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="C1" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="F1" t="s">
         <v>217</v>
@@ -10993,12 +11011,12 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11006,13 +11024,13 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="C3" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="D3" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="G3">
         <v>37</v>
@@ -11035,10 +11053,10 @@
         <v>300966</v>
       </c>
       <c r="C4" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="D4" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -11055,13 +11073,13 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="C5" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="D5" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="G5">
         <v>43</v>
@@ -11075,13 +11093,13 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="8" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="C6" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="D6" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="G6">
         <v>66</v>
@@ -11101,10 +11119,10 @@
         <v>603990</v>
       </c>
       <c r="C7" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="D7" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="G7">
         <v>37</v>
@@ -11124,10 +11142,10 @@
         <v>300436</v>
       </c>
       <c r="C8" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D8" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="G8">
         <v>71</v>
@@ -11147,10 +11165,10 @@
         <v>300314</v>
       </c>
       <c r="C9" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="D9" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -11170,13 +11188,13 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="8" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C10" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D10" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -11196,10 +11214,10 @@
         <v>600824</v>
       </c>
       <c r="C11" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="D11" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="G11">
         <v>40</v>
@@ -11219,10 +11237,10 @@
         <v>600327</v>
       </c>
       <c r="C12" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="D12" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="G12">
         <v>53</v>
@@ -11242,10 +11260,10 @@
         <v>603168</v>
       </c>
       <c r="C13" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D13" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="G13">
         <v>36</v>
@@ -11262,7 +11280,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -11276,10 +11294,10 @@
         <v>600597</v>
       </c>
       <c r="C15" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="D15" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="G15">
         <v>182</v>
@@ -11293,13 +11311,13 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="8" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="C16" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="D16" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="G16">
         <v>57</v>
@@ -11319,10 +11337,10 @@
         <v>600429</v>
       </c>
       <c r="C17" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="D17" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="G17">
         <v>90</v>
@@ -11345,10 +11363,10 @@
         <v>300106</v>
       </c>
       <c r="C18" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="D18" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -11365,7 +11383,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -11373,13 +11391,13 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="8" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="C20" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="D20" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -11405,10 +11423,10 @@
         <v>603214</v>
       </c>
       <c r="C21" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="D21" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="G21">
         <v>32</v>
@@ -11434,7 +11452,7 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -11451,10 +11469,10 @@
         <v>605009</v>
       </c>
       <c r="C23" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="D23" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="G23">
         <v>91</v>
@@ -11474,10 +11492,10 @@
         <v>603839</v>
       </c>
       <c r="C24" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="D24" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="G24">
         <v>35</v>
@@ -11494,10 +11512,10 @@
         <v>301009</v>
       </c>
       <c r="C25" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="D25" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -11523,10 +11541,10 @@
         <v>300955</v>
       </c>
       <c r="C26" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="D26" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="G26">
         <v>37</v>
@@ -11543,10 +11561,10 @@
         <v>300995</v>
       </c>
       <c r="C27" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="D27" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -11569,10 +11587,10 @@
         <v>301078</v>
       </c>
       <c r="C28" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="D28" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -11592,10 +11610,10 @@
         <v>600315</v>
       </c>
       <c r="C29" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="D29" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -11615,7 +11633,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -11626,10 +11644,10 @@
         <v>300723</v>
       </c>
       <c r="C31" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="D31" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="G31">
         <v>94</v>
@@ -11646,13 +11664,13 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="8" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C32" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D32" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="G32">
         <v>96</v>
@@ -11672,10 +11690,10 @@
         <v>300086</v>
       </c>
       <c r="C33" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="D33" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="G33">
         <v>36</v>
@@ -11692,13 +11710,13 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="8" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C34" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="D34" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="G34">
         <v>74</v>
@@ -11725,7 +11743,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -11733,13 +11751,13 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="8" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="C38" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="D38" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -11759,13 +11777,13 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="8" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="C39" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="D39" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="G39">
         <v>41</v>
@@ -11792,7 +11810,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -11800,13 +11818,13 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="8" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="C43" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="D43" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -11829,10 +11847,10 @@
         <v>300901</v>
       </c>
       <c r="C44" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="D44" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="G44">
         <v>31</v>
@@ -11852,10 +11870,10 @@
         <v>603398</v>
       </c>
       <c r="C45" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="D45" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="G45">
         <v>122</v>
@@ -11872,7 +11890,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -11880,13 +11898,13 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="8" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="C47" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="D47" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="G47">
         <v>22</v>
@@ -11903,10 +11921,10 @@
         <v>603398</v>
       </c>
       <c r="C48" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="D48" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="G48">
         <v>74</v>
@@ -11920,13 +11938,13 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="8" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="C49" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="D49" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="G49">
         <v>96</v>
@@ -11943,13 +11961,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="8" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="C50" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="D50" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="G50">
         <v>17</v>
@@ -11969,10 +11987,10 @@
         <v>300994</v>
       </c>
       <c r="C51" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="D51" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="F51">
         <v>19</v>
@@ -12004,7 +12022,7 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
@@ -12017,7 +12035,7 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="C1" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="F1" t="s">
         <v>217</v>
@@ -12032,12 +12050,12 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -12045,10 +12063,10 @@
         <v>300189</v>
       </c>
       <c r="C3" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="D3" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -12071,10 +12089,10 @@
         <v>600354</v>
       </c>
       <c r="C4" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="D4" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -12097,10 +12115,10 @@
         <v>300087</v>
       </c>
       <c r="C5" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="D5" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -12123,10 +12141,10 @@
         <v>600371</v>
       </c>
       <c r="C6" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="D6" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="F6">
         <v>35</v>
@@ -12146,13 +12164,13 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="8" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="C7" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="D7" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="F7">
         <v>191</v>
@@ -12172,13 +12190,13 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="C8" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="D8" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="F8">
         <v>205</v>
@@ -12195,13 +12213,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="8" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="C9" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="D9" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="F9">
         <v>54</v>
@@ -14246,12 +14264,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -14623,1412 +14641,1472 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <v>603496</v>
+      </c>
+      <c r="C37" t="s">
         <v>264</v>
+      </c>
+      <c r="D37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38">
-        <v>601016</v>
+        <v>301023</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>266</v>
-      </c>
-      <c r="F38" t="s">
-        <v>222</v>
+        <v>267</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39">
-        <v>600483</v>
+        <v>600973</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" t="s">
-        <v>222</v>
+        <v>269</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
       </c>
       <c r="G39">
-        <v>398</v>
-      </c>
-      <c r="H39">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>270</v>
-      </c>
-      <c r="F40" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40">
-        <v>1116</v>
-      </c>
-      <c r="H40">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41">
-        <v>601615</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41">
-        <v>562</v>
-      </c>
-      <c r="H41">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42">
-        <v>300850</v>
-      </c>
-      <c r="C42" t="s">
-        <v>273</v>
-      </c>
-      <c r="D42" t="s">
-        <v>274</v>
-      </c>
-      <c r="G42">
-        <v>56</v>
-      </c>
-      <c r="H42">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43">
-        <v>300443</v>
+        <v>601016</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="F43" t="s">
+        <v>222</v>
       </c>
       <c r="G43">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44">
-        <v>600163</v>
+        <v>600483</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
         <v>222</v>
       </c>
       <c r="G44">
-        <v>101</v>
+        <v>398</v>
       </c>
       <c r="H44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45">
+        <v>1116</v>
+      </c>
+      <c r="H45">
         <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45">
-        <v>600905</v>
-      </c>
-      <c r="C45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D45" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" t="s">
-        <v>281</v>
-      </c>
-      <c r="G45">
-        <v>1851</v>
-      </c>
-      <c r="H45">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46">
-        <v>603063</v>
-      </c>
-      <c r="C46" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E46" s="4"/>
+        <v>601615</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" t="s">
+        <v>278</v>
+      </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="G46">
-        <v>47</v>
+        <v>562</v>
       </c>
       <c r="H46">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>285</v>
+      <c r="B47">
+        <v>300850</v>
+      </c>
+      <c r="C47" t="s">
+        <v>279</v>
       </c>
       <c r="D47" t="s">
-        <v>286</v>
-      </c>
-      <c r="F47" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="G47">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48">
-        <v>300772</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>300443</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48">
+        <v>34</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49">
+        <v>600163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49">
+        <v>101</v>
+      </c>
+      <c r="H49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50">
+        <v>600905</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
+        <v>286</v>
+      </c>
+      <c r="F50" t="s">
         <v>287</v>
       </c>
-      <c r="D48" t="s">
-        <v>288</v>
-      </c>
-      <c r="G48">
-        <v>209</v>
-      </c>
-      <c r="H48">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>289</v>
+      <c r="G50">
+        <v>1851</v>
+      </c>
+      <c r="H50">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51">
-        <v>300438</v>
+        <v>603063</v>
       </c>
       <c r="C51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F51" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51">
-        <v>76</v>
-      </c>
-      <c r="H51">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52">
-        <v>300001</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>292</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="G52">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="H52">
-        <v>224</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53">
-        <v>300682</v>
-      </c>
-      <c r="C53" t="s">
+        <v>300772</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>293</v>
       </c>
       <c r="D53" t="s">
         <v>294</v>
       </c>
       <c r="G53">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="H53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
-      <c r="B54">
-        <v>300693</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>295</v>
-      </c>
-      <c r="D54" t="s">
-        <v>296</v>
-      </c>
-      <c r="G54">
-        <v>14</v>
-      </c>
-      <c r="H54">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55">
-        <v>300491</v>
-      </c>
-      <c r="C55" t="s">
-        <v>297</v>
-      </c>
-      <c r="D55" t="s">
-        <v>296</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56">
-        <v>300713</v>
+        <v>300438</v>
       </c>
       <c r="C56" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56">
+        <v>76</v>
+      </c>
+      <c r="H56">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57">
+        <v>300001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" t="s">
         <v>298</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F57" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57">
+        <v>187</v>
+      </c>
+      <c r="H57">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58">
+        <v>300682</v>
+      </c>
+      <c r="C58" t="s">
         <v>299</v>
       </c>
-      <c r="G56">
+      <c r="D58" t="s">
+        <v>300</v>
+      </c>
+      <c r="G58">
+        <v>77</v>
+      </c>
+      <c r="H58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59">
+        <v>300693</v>
+      </c>
+      <c r="C59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" t="s">
+        <v>302</v>
+      </c>
+      <c r="G59">
+        <v>14</v>
+      </c>
+      <c r="H59">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60">
+        <v>300491</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" t="s">
+        <v>302</v>
+      </c>
+      <c r="G60">
         <v>10</v>
       </c>
-      <c r="H56">
-        <v>84</v>
+      <c r="H60">
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61">
+        <v>300713</v>
+      </c>
+      <c r="C61" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66">
         <v>300499</v>
       </c>
-      <c r="C61" t="s">
-        <v>300</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" t="s">
+        <v>307</v>
+      </c>
+      <c r="G66">
+        <v>22</v>
+      </c>
+      <c r="H66">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68">
+        <v>300693</v>
+      </c>
+      <c r="C68" t="s">
         <v>301</v>
       </c>
-      <c r="G61">
-        <v>22</v>
-      </c>
-      <c r="H61">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63">
-        <v>300693</v>
-      </c>
-      <c r="C63" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" t="s">
-        <v>303</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="D68" t="s">
+        <v>309</v>
+      </c>
+      <c r="F68" t="s">
         <v>222</v>
       </c>
-      <c r="G63">
+      <c r="G68">
         <v>14</v>
       </c>
-      <c r="H63">
+      <c r="H68">
         <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C64" t="s">
-        <v>305</v>
-      </c>
-      <c r="F64" t="s">
-        <v>222</v>
-      </c>
-      <c r="G64">
-        <v>94</v>
-      </c>
-      <c r="H64">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>308</v>
-      </c>
-      <c r="D69" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="F69" t="s">
+        <v>222</v>
       </c>
       <c r="G69">
+        <v>94</v>
+      </c>
+      <c r="H69">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" t="s">
+        <v>314</v>
+      </c>
+      <c r="D74" t="s">
+        <v>315</v>
+      </c>
+      <c r="G74">
         <v>119</v>
       </c>
-      <c r="H69">
+      <c r="H74">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C70" t="s">
-        <v>311</v>
-      </c>
-      <c r="D70" t="s">
-        <v>312</v>
-      </c>
-      <c r="G70">
+    <row r="75" spans="2:8">
+      <c r="B75" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" t="s">
+        <v>318</v>
+      </c>
+      <c r="G75">
         <v>167</v>
       </c>
-      <c r="H70">
+      <c r="H75">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
-      <c r="B71">
+    <row r="76" spans="2:8">
+      <c r="B76">
         <v>600406</v>
       </c>
-      <c r="C71" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" t="s">
-        <v>314</v>
-      </c>
-      <c r="G71">
+      <c r="C76" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76">
         <v>690</v>
       </c>
-      <c r="H71">
+      <c r="H76">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
-      <c r="B72">
+    <row r="77" spans="2:8">
+      <c r="B77">
         <v>600089</v>
       </c>
-      <c r="C72" t="s">
-        <v>315</v>
-      </c>
-      <c r="D72" t="s">
-        <v>316</v>
-      </c>
-      <c r="G72">
+      <c r="C77" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" t="s">
+        <v>322</v>
+      </c>
+      <c r="G77">
         <v>1221</v>
       </c>
-      <c r="H72">
+      <c r="H77">
         <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73">
-        <v>300831</v>
-      </c>
-      <c r="C73" t="s">
-        <v>317</v>
-      </c>
-      <c r="D73" t="s">
-        <v>318</v>
-      </c>
-      <c r="E73">
-        <v>28</v>
-      </c>
-      <c r="F73">
-        <v>48</v>
-      </c>
-      <c r="G73">
-        <v>8</v>
-      </c>
-      <c r="H73">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74">
-        <v>601179</v>
-      </c>
-      <c r="C74" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" t="s">
-        <v>320</v>
-      </c>
-      <c r="E74">
-        <v>258</v>
-      </c>
-      <c r="F74">
-        <v>258</v>
-      </c>
-      <c r="G74">
-        <v>399</v>
-      </c>
-      <c r="H74">
-        <v>70</v>
-      </c>
-      <c r="I74">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75">
-        <v>600312</v>
-      </c>
-      <c r="C75" t="s">
-        <v>321</v>
-      </c>
-      <c r="D75" t="s">
-        <v>322</v>
-      </c>
-      <c r="E75">
-        <v>113</v>
-      </c>
-      <c r="F75">
-        <v>113</v>
-      </c>
-      <c r="G75">
-        <v>205</v>
-      </c>
-      <c r="H75">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76">
-        <v>600550</v>
-      </c>
-      <c r="C76" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76" t="s">
-        <v>324</v>
-      </c>
-      <c r="E76">
-        <v>94</v>
-      </c>
-      <c r="F76">
-        <v>94</v>
-      </c>
-      <c r="G76">
-        <v>55</v>
-      </c>
-      <c r="H76">
-        <v>638</v>
-      </c>
-      <c r="I76">
-        <v>-31</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78">
+        <v>300831</v>
+      </c>
+      <c r="C78" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" t="s">
+        <v>324</v>
+      </c>
+      <c r="E78">
+        <v>28</v>
+      </c>
+      <c r="F78">
+        <v>48</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79">
+        <v>601179</v>
+      </c>
+      <c r="C79" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79">
+        <v>258</v>
+      </c>
+      <c r="F79">
+        <v>258</v>
+      </c>
+      <c r="G79">
+        <v>399</v>
+      </c>
+      <c r="H79">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80">
+        <v>600312</v>
+      </c>
+      <c r="C80" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80">
+        <v>113</v>
+      </c>
+      <c r="F80">
+        <v>113</v>
+      </c>
+      <c r="G80">
+        <v>205</v>
+      </c>
+      <c r="H80">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81">
+        <v>600550</v>
+      </c>
+      <c r="C81" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81">
+        <v>94</v>
+      </c>
+      <c r="F81">
+        <v>94</v>
+      </c>
+      <c r="G81">
+        <v>55</v>
+      </c>
+      <c r="H81">
+        <v>638</v>
+      </c>
+      <c r="I81">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83">
         <v>300365</v>
       </c>
-      <c r="C78" t="s">
-        <v>325</v>
-      </c>
-      <c r="D78" t="s">
-        <v>326</v>
-      </c>
-      <c r="E78">
+      <c r="C83" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83">
         <v>32</v>
       </c>
-      <c r="F78">
+      <c r="F83">
         <v>56</v>
       </c>
-      <c r="G78">
+      <c r="G83">
         <v>27</v>
       </c>
-      <c r="H78">
+      <c r="H83">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
-      <c r="B79" t="s">
-        <v>327</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
-        <v>329</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" t="s">
-        <v>331</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" t="s">
+    <row r="84" spans="2:11">
+      <c r="B84" t="s">
         <v>333</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="8" t="s">
+      <c r="C86" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
         <v>339</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C87" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G90">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" t="s">
+        <v>346</v>
+      </c>
+      <c r="G95">
         <v>2933</v>
       </c>
-      <c r="H90">
+      <c r="H95">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C91" t="s">
-        <v>342</v>
-      </c>
-      <c r="D91" t="s">
-        <v>343</v>
-      </c>
-      <c r="G91">
+    <row r="96" spans="2:8">
+      <c r="B96" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96">
         <v>147</v>
       </c>
-      <c r="H91">
+      <c r="H96">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
-      <c r="B92">
+    <row r="97" spans="2:8">
+      <c r="B97">
         <v>688399</v>
       </c>
-      <c r="C92" t="s">
-        <v>344</v>
-      </c>
-      <c r="D92" t="s">
-        <v>345</v>
-      </c>
-      <c r="G92">
+      <c r="C97" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" t="s">
+        <v>351</v>
+      </c>
+      <c r="G97">
         <v>33</v>
-      </c>
-      <c r="H92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C93" t="s">
-        <v>347</v>
-      </c>
-      <c r="D93" t="s">
-        <v>348</v>
-      </c>
-      <c r="G93">
-        <v>39</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94">
-        <v>600860</v>
-      </c>
-      <c r="C94" t="s">
-        <v>349</v>
-      </c>
-      <c r="D94" t="s">
-        <v>350</v>
-      </c>
-      <c r="G94">
-        <v>15</v>
-      </c>
-      <c r="H94">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95">
-        <v>603637</v>
-      </c>
-      <c r="C95" t="s">
-        <v>351</v>
-      </c>
-      <c r="D95" t="s">
-        <v>352</v>
-      </c>
-      <c r="G95">
-        <v>14</v>
-      </c>
-      <c r="H95">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96">
-        <v>300985</v>
-      </c>
-      <c r="C96" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" t="s">
-        <v>354</v>
-      </c>
-      <c r="G96">
-        <v>14</v>
-      </c>
-      <c r="H96">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C97" t="s">
-        <v>356</v>
-      </c>
-      <c r="D97" t="s">
-        <v>357</v>
-      </c>
-      <c r="G97">
-        <v>54</v>
       </c>
       <c r="H97" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:9">
       <c r="B98" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" t="s">
+        <v>354</v>
+      </c>
+      <c r="G98">
+        <v>39</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99">
+        <v>600860</v>
+      </c>
+      <c r="C99" t="s">
+        <v>355</v>
+      </c>
+      <c r="D99" t="s">
+        <v>356</v>
+      </c>
+      <c r="G99">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100">
+        <v>603637</v>
+      </c>
+      <c r="C100" t="s">
+        <v>357</v>
+      </c>
+      <c r="D100" t="s">
         <v>358</v>
       </c>
-      <c r="C98" t="s">
+      <c r="G100">
+        <v>14</v>
+      </c>
+      <c r="H100">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101">
+        <v>300985</v>
+      </c>
+      <c r="C101" t="s">
         <v>359</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D101" t="s">
         <v>360</v>
       </c>
-      <c r="G98">
+      <c r="G101">
+        <v>14</v>
+      </c>
+      <c r="H101">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" t="s">
+        <v>362</v>
+      </c>
+      <c r="D102" t="s">
+        <v>363</v>
+      </c>
+      <c r="G102">
+        <v>54</v>
+      </c>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" t="s">
+        <v>365</v>
+      </c>
+      <c r="D103" t="s">
+        <v>366</v>
+      </c>
+      <c r="G103">
         <v>278</v>
       </c>
-      <c r="H98">
+      <c r="H103">
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99">
+    <row r="104" spans="2:9">
+      <c r="B104">
         <v>300435</v>
       </c>
-      <c r="C99" t="s">
-        <v>361</v>
-      </c>
-      <c r="D99" t="s">
-        <v>362</v>
-      </c>
-      <c r="G99">
+      <c r="C104" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104">
         <v>40</v>
       </c>
-      <c r="H99">
+      <c r="H104">
         <v>42</v>
       </c>
-      <c r="I99">
+      <c r="I104">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C100" t="s">
-        <v>364</v>
-      </c>
-      <c r="D100" t="s">
-        <v>365</v>
-      </c>
-      <c r="F100" t="s">
-        <v>366</v>
-      </c>
-      <c r="G100">
+    <row r="105" spans="2:8">
+      <c r="B105" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C105" t="s">
+        <v>370</v>
+      </c>
+      <c r="D105" t="s">
+        <v>371</v>
+      </c>
+      <c r="F105" t="s">
+        <v>372</v>
+      </c>
+      <c r="G105">
         <v>375</v>
       </c>
-      <c r="H100">
+      <c r="H105">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C101" t="s">
-        <v>368</v>
-      </c>
-      <c r="D101" t="s">
-        <v>369</v>
-      </c>
-      <c r="G101">
+    <row r="106" spans="2:9">
+      <c r="B106" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C106" t="s">
+        <v>374</v>
+      </c>
+      <c r="D106" t="s">
+        <v>375</v>
+      </c>
+      <c r="G106">
         <v>56</v>
       </c>
-      <c r="H101">
+      <c r="H106">
         <v>535</v>
       </c>
-      <c r="I101">
+      <c r="I106">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
-      <c r="B102">
+    <row r="107" spans="2:8">
+      <c r="B107">
         <v>600989</v>
       </c>
-      <c r="C102" t="s">
-        <v>370</v>
-      </c>
-      <c r="D102" t="s">
-        <v>371</v>
-      </c>
-      <c r="G102">
+      <c r="C107" t="s">
+        <v>376</v>
+      </c>
+      <c r="D107" t="s">
+        <v>377</v>
+      </c>
+      <c r="G107">
         <v>425</v>
       </c>
-      <c r="H102">
+      <c r="H107">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
-      <c r="B103">
+    <row r="108" spans="2:8">
+      <c r="B108">
         <v>600273</v>
       </c>
-      <c r="C103" t="s">
-        <v>372</v>
-      </c>
-      <c r="D103" t="s">
-        <v>373</v>
-      </c>
-      <c r="G103">
+      <c r="C108" t="s">
+        <v>378</v>
+      </c>
+      <c r="D108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G108">
         <v>110</v>
       </c>
-      <c r="H103">
+      <c r="H108">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:8">
-      <c r="B104">
+    <row r="109" spans="2:8">
+      <c r="B109">
         <v>601868</v>
       </c>
-      <c r="C104" t="s">
-        <v>374</v>
-      </c>
-      <c r="D104" t="s">
-        <v>375</v>
-      </c>
-      <c r="G104">
+      <c r="C109" t="s">
+        <v>380</v>
+      </c>
+      <c r="D109" t="s">
+        <v>381</v>
+      </c>
+      <c r="G109">
         <v>5097</v>
       </c>
-      <c r="H104">
+      <c r="H109">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
-      <c r="B105">
+    <row r="110" spans="2:4">
+      <c r="B110">
         <v>601012</v>
       </c>
-      <c r="C105" t="s">
-        <v>376</v>
-      </c>
-      <c r="D105" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106">
-        <v>600323</v>
-      </c>
-      <c r="C106" t="s">
-        <v>378</v>
-      </c>
-      <c r="D106" t="s">
-        <v>379</v>
-      </c>
-      <c r="G106">
-        <v>288</v>
-      </c>
-      <c r="H106">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C107" t="s">
-        <v>381</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C110" t="s">
         <v>382</v>
       </c>
-      <c r="G107">
-        <v>27</v>
-      </c>
-      <c r="H107">
-        <v>65</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="8" t="s">
+      <c r="D110" t="s">
         <v>383</v>
-      </c>
-      <c r="C108" t="s">
-        <v>384</v>
-      </c>
-      <c r="D108" t="s">
-        <v>385</v>
-      </c>
-      <c r="G108">
-        <v>88</v>
-      </c>
-      <c r="H108">
-        <v>41</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C110" t="s">
-        <v>387</v>
-      </c>
-      <c r="D110" t="s">
-        <v>388</v>
-      </c>
-      <c r="G110">
-        <v>280</v>
-      </c>
-      <c r="H110">
-        <v>8</v>
       </c>
     </row>
     <row r="111" spans="2:8">
       <c r="B111">
-        <v>300228</v>
+        <v>600323</v>
       </c>
       <c r="C111" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D111" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G111">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="H111">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="2:9">
-      <c r="B112">
-        <v>300950</v>
+      <c r="B112" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="C112" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D112" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G112">
-        <v>7.5</v>
+        <v>27</v>
       </c>
       <c r="H112">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
-      <c r="B113">
-        <v>300471</v>
+    <row r="113" spans="2:9">
+      <c r="B113" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="C113" t="s">
+        <v>390</v>
+      </c>
+      <c r="D113" t="s">
+        <v>391</v>
+      </c>
+      <c r="G113">
+        <v>88</v>
+      </c>
+      <c r="H113">
+        <v>41</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C115" t="s">
         <v>393</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>394</v>
       </c>
-      <c r="G113">
-        <v>20</v>
-      </c>
-      <c r="H113" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
-      <c r="B114">
-        <v>300540</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="G115">
+        <v>280</v>
+      </c>
+      <c r="H115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116">
+        <v>300228</v>
+      </c>
+      <c r="C116" t="s">
         <v>395</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D116" t="s">
         <v>396</v>
       </c>
-      <c r="G114">
-        <v>12</v>
-      </c>
-      <c r="H114">
-        <v>427</v>
+      <c r="G116">
+        <v>36</v>
+      </c>
+      <c r="H116">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117">
+        <v>300950</v>
+      </c>
+      <c r="C117" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" t="s">
+        <v>398</v>
+      </c>
+      <c r="G117">
+        <v>7.5</v>
+      </c>
+      <c r="H117">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="2:8">
       <c r="B118">
+        <v>300471</v>
+      </c>
+      <c r="C118" t="s">
+        <v>399</v>
+      </c>
+      <c r="D118" t="s">
+        <v>400</v>
+      </c>
+      <c r="G118">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119">
+        <v>300540</v>
+      </c>
+      <c r="C119" t="s">
+        <v>401</v>
+      </c>
+      <c r="D119" t="s">
+        <v>402</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="H119">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123">
         <v>600378</v>
       </c>
-      <c r="C118" t="s">
-        <v>397</v>
-      </c>
-      <c r="D118" t="s">
-        <v>398</v>
-      </c>
-      <c r="G118">
+      <c r="C123" t="s">
+        <v>403</v>
+      </c>
+      <c r="D123" t="s">
+        <v>404</v>
+      </c>
+      <c r="G123">
         <v>112</v>
       </c>
-      <c r="H118">
+      <c r="H123">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
-      <c r="B119">
+    <row r="124" spans="2:9">
+      <c r="B124">
         <v>300409</v>
       </c>
-      <c r="C119" t="s">
-        <v>399</v>
-      </c>
-      <c r="D119" t="s">
-        <v>400</v>
-      </c>
-      <c r="G119">
+      <c r="C124" t="s">
+        <v>405</v>
+      </c>
+      <c r="D124" t="s">
+        <v>406</v>
+      </c>
+      <c r="G124">
         <v>71</v>
       </c>
-      <c r="H119">
+      <c r="H124">
         <v>38</v>
       </c>
-      <c r="I119">
+      <c r="I124">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
-      <c r="B120" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C120" t="s">
-        <v>402</v>
-      </c>
-      <c r="D120" t="s">
-        <v>403</v>
-      </c>
-      <c r="G120">
+    <row r="125" spans="2:8">
+      <c r="B125" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" t="s">
+        <v>409</v>
+      </c>
+      <c r="G125">
         <v>22</v>
       </c>
-      <c r="H120">
+      <c r="H125">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
-      <c r="B121">
+    <row r="126" spans="2:8">
+      <c r="B126">
         <v>300423</v>
       </c>
-      <c r="C121" t="s">
-        <v>404</v>
-      </c>
-      <c r="D121" t="s">
-        <v>405</v>
-      </c>
-      <c r="G121">
+      <c r="C126" t="s">
+        <v>410</v>
+      </c>
+      <c r="D126" t="s">
+        <v>411</v>
+      </c>
+      <c r="G126">
         <v>78</v>
       </c>
-      <c r="H121">
+      <c r="H126">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
-      <c r="B122">
+    <row r="127" spans="2:8">
+      <c r="B127">
         <v>601678</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C127" t="s">
         <v>80</v>
       </c>
-      <c r="D122" t="s">
-        <v>406</v>
-      </c>
-      <c r="G122">
+      <c r="D127" t="s">
+        <v>412</v>
+      </c>
+      <c r="G127">
         <v>166</v>
       </c>
-      <c r="H122">
+      <c r="H127">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
-      <c r="B123" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C123" t="s">
-        <v>408</v>
-      </c>
-      <c r="D123" t="s">
-        <v>409</v>
-      </c>
-      <c r="G123">
+    <row r="128" spans="2:8">
+      <c r="B128" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C128" t="s">
+        <v>414</v>
+      </c>
+      <c r="D128" t="s">
+        <v>415</v>
+      </c>
+      <c r="G128">
         <v>325</v>
       </c>
-      <c r="H123">
+      <c r="H128">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
-      <c r="B124" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C124" t="s">
-        <v>411</v>
-      </c>
-      <c r="D124" t="s">
-        <v>412</v>
-      </c>
-      <c r="G124">
+    <row r="129" spans="2:8">
+      <c r="B129" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C129" t="s">
+        <v>417</v>
+      </c>
+      <c r="D129" t="s">
+        <v>418</v>
+      </c>
+      <c r="G129">
         <v>186</v>
       </c>
-      <c r="H124">
+      <c r="H129">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="2:8">
-      <c r="B125">
+    <row r="130" spans="2:8">
+      <c r="B130">
         <v>600803</v>
       </c>
-      <c r="C125" t="s">
-        <v>413</v>
-      </c>
-      <c r="D125" t="s">
-        <v>414</v>
-      </c>
-      <c r="G125">
+      <c r="C130" t="s">
+        <v>419</v>
+      </c>
+      <c r="D130" t="s">
+        <v>420</v>
+      </c>
+      <c r="G130">
         <v>32</v>
       </c>
-      <c r="H125">
+      <c r="H130">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
-      <c r="B126">
+    <row r="131" spans="2:4">
+      <c r="B131">
         <v>688551</v>
       </c>
-      <c r="C126" t="s">
-        <v>415</v>
-      </c>
-      <c r="D126" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C130" t="s">
-        <v>418</v>
-      </c>
-      <c r="D130" t="s">
-        <v>419</v>
-      </c>
-      <c r="G130">
+      <c r="C131" t="s">
+        <v>421</v>
+      </c>
+      <c r="D131" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C135" t="s">
+        <v>424</v>
+      </c>
+      <c r="D135" t="s">
+        <v>425</v>
+      </c>
+      <c r="G135">
         <v>16</v>
       </c>
-      <c r="H130">
+      <c r="H135">
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="2:8">
-      <c r="B131">
+    <row r="136" spans="2:8">
+      <c r="B136">
         <v>600875</v>
       </c>
-      <c r="C131" t="s">
-        <v>420</v>
-      </c>
-      <c r="D131" t="s">
-        <v>421</v>
-      </c>
-      <c r="G131">
+      <c r="C136" t="s">
+        <v>426</v>
+      </c>
+      <c r="D136" t="s">
+        <v>427</v>
+      </c>
+      <c r="G136">
         <v>1028</v>
       </c>
-      <c r="H131">
+      <c r="H136">
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="2:8">
-      <c r="B132">
+    <row r="137" spans="2:8">
+      <c r="B137">
         <v>600277</v>
       </c>
-      <c r="C132" t="s">
-        <v>422</v>
-      </c>
-      <c r="D132" t="s">
-        <v>423</v>
-      </c>
-      <c r="G132">
+      <c r="C137" t="s">
+        <v>428</v>
+      </c>
+      <c r="D137" t="s">
+        <v>429</v>
+      </c>
+      <c r="G137">
         <v>344</v>
       </c>
-      <c r="H132">
+      <c r="H137">
         <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8">
-      <c r="B133" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C133" t="s">
-        <v>425</v>
-      </c>
-      <c r="D133" t="s">
-        <v>426</v>
-      </c>
-      <c r="G133">
-        <v>133</v>
-      </c>
-      <c r="H133">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134">
-        <v>600459</v>
-      </c>
-      <c r="C134" t="s">
-        <v>427</v>
-      </c>
-      <c r="D134" t="s">
-        <v>428</v>
-      </c>
-      <c r="G134">
-        <v>115</v>
-      </c>
-      <c r="H134">
-        <v>39</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8">
-      <c r="B135">
-        <v>601012</v>
-      </c>
-      <c r="C135" t="s">
-        <v>376</v>
-      </c>
-      <c r="D135" t="s">
-        <v>429</v>
-      </c>
-      <c r="G135">
-        <v>1037</v>
-      </c>
-      <c r="H135">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="138" spans="2:8">
       <c r="B138" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C138" t="s">
         <v>431</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>432</v>
       </c>
-      <c r="D138" t="s">
+      <c r="G138">
+        <v>133</v>
+      </c>
+      <c r="H138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139">
+        <v>600459</v>
+      </c>
+      <c r="C139" t="s">
         <v>433</v>
       </c>
-      <c r="G138">
+      <c r="D139" t="s">
+        <v>434</v>
+      </c>
+      <c r="G139">
+        <v>115</v>
+      </c>
+      <c r="H139">
+        <v>39</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140">
+        <v>601012</v>
+      </c>
+      <c r="C140" t="s">
+        <v>382</v>
+      </c>
+      <c r="D140" t="s">
+        <v>435</v>
+      </c>
+      <c r="G140">
+        <v>1037</v>
+      </c>
+      <c r="H140">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" t="s">
+        <v>438</v>
+      </c>
+      <c r="D143" t="s">
+        <v>439</v>
+      </c>
+      <c r="G143">
         <v>8</v>
       </c>
-      <c r="H138">
+      <c r="H143">
         <v>117</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
-      <c r="B139">
+    <row r="144" spans="2:8">
+      <c r="B144">
         <v>600722</v>
       </c>
-      <c r="C139" t="s">
-        <v>434</v>
-      </c>
-      <c r="D139" t="s">
-        <v>435</v>
-      </c>
-      <c r="G139">
+      <c r="C144" t="s">
+        <v>440</v>
+      </c>
+      <c r="D144" t="s">
+        <v>441</v>
+      </c>
+      <c r="G144">
         <v>13</v>
       </c>
-      <c r="H139">
+      <c r="H144">
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="2:8">
-      <c r="B140" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C140" t="s">
-        <v>437</v>
-      </c>
-      <c r="D140" t="s">
-        <v>438</v>
-      </c>
-      <c r="G140">
+    <row r="145" spans="2:8">
+      <c r="B145" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C145" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" t="s">
+        <v>444</v>
+      </c>
+      <c r="G145">
         <v>46</v>
       </c>
-      <c r="H140">
+      <c r="H145">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
-      <c r="B141" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C141" t="s">
-        <v>440</v>
-      </c>
-      <c r="D141" t="s">
-        <v>441</v>
-      </c>
-      <c r="G141">
+    <row r="146" spans="2:8">
+      <c r="B146" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" t="s">
+        <v>446</v>
+      </c>
+      <c r="D146" t="s">
+        <v>447</v>
+      </c>
+      <c r="G146">
         <v>95</v>
       </c>
-      <c r="H141">
+      <c r="H146">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="I79:K83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="I84:K88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -16071,7 +16149,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -16079,7 +16157,7 @@
         <v>600030</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>11690</v>
@@ -16093,10 +16171,10 @@
         <v>300059</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G4">
         <v>1601</v>
@@ -16107,10 +16185,10 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G5">
         <v>5057</v>
@@ -16124,7 +16202,7 @@
         <v>601878</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G6">
         <v>1104</v>
@@ -16135,7 +16213,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -16143,10 +16221,10 @@
         <v>600926</v>
       </c>
       <c r="C11" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G11">
         <v>12870</v>
@@ -16160,7 +16238,7 @@
         <v>601166</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G12">
         <v>81000</v>
@@ -16174,7 +16252,7 @@
         <v>601658</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G13">
         <v>120000</v>
@@ -16185,10 +16263,10 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G14">
         <v>47000</v>
@@ -16199,18 +16277,18 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G19">
         <v>106</v>
@@ -16224,10 +16302,10 @@
         <v>300180</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D20" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G20">
         <v>81</v>
@@ -16238,13 +16316,13 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="8" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D21" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G21">
         <v>62</v>
@@ -16258,13 +16336,13 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D22" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G22">
         <v>47</v>
@@ -16275,13 +16353,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C23" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G23">
         <v>22</v>
@@ -16295,10 +16373,10 @@
         <v>300479</v>
       </c>
       <c r="C24" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D24" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E24">
         <v>52</v>
@@ -16315,13 +16393,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G25">
         <v>57</v>
@@ -16335,10 +16413,10 @@
         <v>300166</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E26">
         <v>120</v>
@@ -16355,13 +16433,13 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="8" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C27" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D27" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G27">
         <v>105</v>
@@ -16375,10 +16453,10 @@
         <v>300079</v>
       </c>
       <c r="C28" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D28" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G28">
         <v>46</v>
@@ -16389,13 +16467,13 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="8" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C29" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G29">
         <v>38</v>
@@ -16409,10 +16487,10 @@
         <v>300645</v>
       </c>
       <c r="C30" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D30" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E30">
         <v>31</v>
@@ -16435,10 +16513,10 @@
         <v>300773</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D31" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G31">
         <v>115</v>
@@ -16452,10 +16530,10 @@
         <v>300468</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="E32">
         <v>60</v>
@@ -16475,10 +16553,10 @@
         <v>300531</v>
       </c>
       <c r="C33" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E33">
         <v>75</v>
@@ -16498,10 +16576,10 @@
         <v>300042</v>
       </c>
       <c r="C34" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -16518,10 +16596,10 @@
         <v>300248</v>
       </c>
       <c r="C35" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D35" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E35">
         <v>82</v>
@@ -16541,13 +16619,13 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="8" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C36" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D36" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -16564,10 +16642,10 @@
         <v>603123</v>
       </c>
       <c r="C37" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D37" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G37">
         <v>70</v>
@@ -16581,10 +16659,10 @@
         <v>300663</v>
       </c>
       <c r="C38" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D38" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -16601,10 +16679,10 @@
         <v>601107</v>
       </c>
       <c r="C39" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D39" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G39">
         <v>413</v>
@@ -16618,10 +16696,10 @@
         <v>300541</v>
       </c>
       <c r="C40" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D40" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -16638,10 +16716,10 @@
         <v>300872</v>
       </c>
       <c r="C41" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="E41">
         <v>56</v>
@@ -16664,10 +16742,10 @@
         <v>300352</v>
       </c>
       <c r="C42" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D42" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E42">
         <v>83</v>
@@ -16687,10 +16765,10 @@
         <v>300377</v>
       </c>
       <c r="C43" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D43" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E43">
         <v>77</v>
@@ -16713,10 +16791,10 @@
         <v>300386</v>
       </c>
       <c r="C44" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D44" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E44">
         <v>44</v>
@@ -16736,13 +16814,13 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="8" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C49" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D49" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G49">
         <v>103</v>
@@ -16756,10 +16834,10 @@
         <v>300941</v>
       </c>
       <c r="C50" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D50" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E50">
         <v>17</v>
@@ -16779,67 +16857,67 @@
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -16847,10 +16925,10 @@
         <v>600756</v>
       </c>
       <c r="C67" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D67" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E67">
         <v>50</v>
@@ -16873,10 +16951,10 @@
         <v>301169</v>
       </c>
       <c r="C68" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D68" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E68">
         <v>9</v>
@@ -16899,10 +16977,10 @@
         <v>603825</v>
       </c>
       <c r="C69" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D69" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="E69">
         <v>46</v>
@@ -16922,10 +17000,10 @@
         <v>600633</v>
       </c>
       <c r="C70" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D70" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E70">
         <v>110</v>
@@ -16945,10 +17023,10 @@
         <v>688023</v>
       </c>
       <c r="C71" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D71" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E71">
         <v>106</v>
@@ -16968,13 +17046,13 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C72" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D72" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E72">
         <v>164</v>
@@ -16994,10 +17072,10 @@
         <v>300921</v>
       </c>
       <c r="C74" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D74" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E74">
         <v>20</v>
@@ -17017,10 +17095,10 @@
         <v>300738</v>
       </c>
       <c r="C75" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D75" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E75">
         <v>81</v>
@@ -17040,10 +17118,10 @@
         <v>603881</v>
       </c>
       <c r="C76" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D76" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E76">
         <v>112</v>
@@ -17063,10 +17141,10 @@
         <v>603138</v>
       </c>
       <c r="C77" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D77" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E77">
         <v>63</v>
@@ -17086,13 +17164,13 @@
     </row>
     <row r="78" spans="2:9">
       <c r="B78" s="8" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C78" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D78" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="E78">
         <v>47</v>
@@ -17115,10 +17193,10 @@
         <v>301085</v>
       </c>
       <c r="C79" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D79" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E79">
         <v>7</v>
@@ -17138,10 +17216,10 @@
         <v>300167</v>
       </c>
       <c r="C80" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D80" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="E80">
         <v>14</v>
@@ -17164,10 +17242,10 @@
         <v>300603</v>
       </c>
       <c r="C81" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D81" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="E81">
         <v>24</v>
@@ -17193,10 +17271,10 @@
         <v>300245</v>
       </c>
       <c r="C82" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D82" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E82">
         <v>27</v>
@@ -17216,10 +17294,10 @@
         <v>300846</v>
       </c>
       <c r="C83" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D83" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E83">
         <v>33</v>
@@ -17242,10 +17320,10 @@
         <v>300565</v>
       </c>
       <c r="C84" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D84" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="E84">
         <v>17</v>
@@ -17268,10 +17346,10 @@
         <v>300231</v>
       </c>
       <c r="C85" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D85" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E85">
         <v>32</v>
@@ -17288,13 +17366,13 @@
     </row>
     <row r="86" spans="2:9">
       <c r="B86" s="8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C86" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D86" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E86">
         <v>20</v>
@@ -17317,10 +17395,10 @@
         <v>300521</v>
       </c>
       <c r="C87" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D87" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="E87">
         <v>18</v>
@@ -17343,10 +17421,10 @@
         <v>603559</v>
       </c>
       <c r="C88" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D88" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="E88">
         <v>15</v>
@@ -17369,10 +17447,10 @@
         <v>600804</v>
       </c>
       <c r="C89" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D89" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E89">
         <v>84</v>
@@ -17392,10 +17470,10 @@
         <v>600602</v>
       </c>
       <c r="C90" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D90" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="E90">
         <v>68</v>
@@ -17415,10 +17493,10 @@
         <v>300608</v>
       </c>
       <c r="C91" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D91" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E91">
         <v>20</v>
@@ -17435,13 +17513,13 @@
     </row>
     <row r="92" spans="2:9">
       <c r="B92" s="8" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C92" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D92" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E92">
         <v>50</v>
@@ -17464,10 +17542,10 @@
         <v>300287</v>
       </c>
       <c r="C93" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D93" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="E93">
         <v>62</v>
@@ -17487,13 +17565,13 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="8" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C94" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D94" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E94">
         <v>34</v>
@@ -17510,13 +17588,13 @@
     </row>
     <row r="95" spans="2:9">
       <c r="B95" s="8" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C95" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D95" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -17539,10 +17617,10 @@
         <v>300895</v>
       </c>
       <c r="C96" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D96" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E96">
         <v>21</v>
@@ -17559,13 +17637,13 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="8" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C97" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D97" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E97">
         <v>38</v>
@@ -17585,13 +17663,13 @@
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="8" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D98" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="E98">
         <v>122</v>
@@ -17608,16 +17686,16 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B102">
         <v>300730</v>
       </c>
       <c r="C102" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D102" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E102">
         <v>19</v>
@@ -17634,16 +17712,16 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B103">
         <v>300605</v>
       </c>
       <c r="C103" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D103" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E103">
         <v>18</v>
@@ -17663,10 +17741,10 @@
         <v>300300</v>
       </c>
       <c r="C104" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D104" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="E104">
         <v>34</v>
@@ -17686,13 +17764,13 @@
     </row>
     <row r="105" spans="2:9">
       <c r="B105" s="8" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C105" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D105" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="E105">
         <v>33</v>
@@ -17715,10 +17793,10 @@
         <v>600797</v>
       </c>
       <c r="C106" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D106" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E106">
         <v>59</v>
@@ -17741,10 +17819,10 @@
         <v>300020</v>
       </c>
       <c r="C107" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D107" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="E107">
         <v>54</v>
@@ -17761,16 +17839,16 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B109">
         <v>300353</v>
       </c>
       <c r="C109" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D109" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="E109">
         <v>39</v>
@@ -17790,16 +17868,16 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B112">
         <v>300311</v>
       </c>
       <c r="C112" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D112" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E112">
         <v>43</v>
@@ -17819,13 +17897,13 @@
     </row>
     <row r="113" spans="2:8">
       <c r="B113" s="8" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C113" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D113" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E113">
         <v>96</v>
@@ -17842,16 +17920,16 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C115" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D115" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E115">
         <v>69</v>
@@ -17868,16 +17946,16 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B117">
         <v>300017</v>
       </c>
       <c r="C117" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D117" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="E117">
         <v>132</v>
@@ -17897,16 +17975,16 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B119">
         <v>300383</v>
       </c>
       <c r="C119" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D119" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E119">
         <v>203</v>
@@ -17923,13 +18001,13 @@
     </row>
     <row r="120" spans="2:8">
       <c r="B120" s="8" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C120" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D120" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E120">
         <v>33</v>
@@ -17949,10 +18027,10 @@
         <v>603042</v>
       </c>
       <c r="C126" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D126" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E126">
         <v>20</v>
@@ -17975,10 +18053,10 @@
         <v>300252</v>
       </c>
       <c r="C127" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D127" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E127">
         <v>35</v>
@@ -18001,10 +18079,10 @@
         <v>300249</v>
       </c>
       <c r="C128" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D128" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="E128">
         <v>21</v>
@@ -18027,10 +18105,10 @@
         <v>301018</v>
       </c>
       <c r="C129" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D129" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="E129">
         <v>12</v>
@@ -18053,10 +18131,10 @@
         <v>300698</v>
       </c>
       <c r="C130" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D130" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E130">
         <v>22</v>
@@ -18076,13 +18154,13 @@
     </row>
     <row r="131" spans="2:9">
       <c r="B131" s="8" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C131" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D131" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E131">
         <v>39</v>
@@ -18102,13 +18180,13 @@
     </row>
     <row r="132" spans="2:9">
       <c r="B132" s="8" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C132" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D132" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E132">
         <v>128</v>
@@ -18148,7 +18226,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -18162,13 +18240,13 @@
         <v>603327</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D2" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -18182,10 +18260,10 @@
         <v>603256</v>
       </c>
       <c r="C4" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E4" t="s">
         <v>238</v>
@@ -18199,21 +18277,21 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C10" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F10">
         <v>356</v>
@@ -18227,10 +18305,10 @@
         <v>601138</v>
       </c>
       <c r="C11" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D11" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="E11" t="s">
         <v>238</v>
@@ -18244,18 +18322,18 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C21" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D21" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="E21" t="s">
         <v>238</v>
@@ -18269,7 +18347,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -18277,10 +18355,10 @@
         <v>600584</v>
       </c>
       <c r="C31" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D31" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -18325,36 +18403,36 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="8" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="8" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C11" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D11" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F11">
         <v>26</v>
@@ -18365,13 +18443,13 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="8" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C12" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F12">
         <v>66</v>
@@ -18382,13 +18460,13 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="8" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C13" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D13" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F13">
         <v>22</v>
@@ -18402,10 +18480,10 @@
         <v>605296</v>
       </c>
       <c r="C14" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D14" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -18422,13 +18500,13 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C15" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D15" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
@@ -18445,13 +18523,13 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="8" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C16" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F16">
         <v>66</v>
@@ -18465,10 +18543,10 @@
         <v>603477</v>
       </c>
       <c r="C17" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="D17" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="F17">
         <v>56</v>
@@ -18479,13 +18557,13 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C18" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D18" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="F18">
         <v>56</v>
@@ -18499,13 +18577,13 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="8" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C19" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D19" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="F19">
         <v>363</v>
@@ -18516,13 +18594,13 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="8" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C20" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D20" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F20">
         <v>107</v>
@@ -18533,13 +18611,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C21" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="D21" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="F21">
         <v>1314</v>
@@ -18553,10 +18631,10 @@
         <v>603609</v>
       </c>
       <c r="C22" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D22" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="F22">
         <v>130</v>
@@ -18567,13 +18645,13 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C23" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D23" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F23">
         <v>1692</v>
@@ -18587,10 +18665,10 @@
         <v>300761</v>
       </c>
       <c r="C24" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D24" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F24">
         <v>102</v>
@@ -18601,13 +18679,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="8" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C25" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D25" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -18618,13 +18696,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C26" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D26" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F26">
         <v>141</v>
@@ -18635,13 +18713,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C27" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D27" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="F27">
         <v>44</v>
@@ -18658,10 +18736,10 @@
         <v>600975</v>
       </c>
       <c r="C28" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D28" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="F28">
         <v>41</v>
@@ -18675,13 +18753,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C29" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D29" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F29">
         <v>353</v>
@@ -18698,10 +18776,10 @@
         <v>300498</v>
       </c>
       <c r="C30" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D30" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F30">
         <v>997</v>
@@ -18712,13 +18790,13 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="8" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C31" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D31" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="F31">
         <v>595</v>
@@ -18729,13 +18807,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="8" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D32" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F32">
         <v>204</v>
@@ -18749,10 +18827,10 @@
         <v>603363</v>
       </c>
       <c r="C33" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D33" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="F33">
         <v>172</v>
@@ -18763,13 +18841,13 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="8" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C37" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="D37" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="F37">
         <v>152</v>
@@ -18780,13 +18858,13 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="8" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C38" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D38" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F38">
         <v>266</v>
@@ -18797,13 +18875,13 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="8" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C39" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D39" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -18814,7 +18892,7 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -18822,10 +18900,10 @@
         <v>600197</v>
       </c>
       <c r="C45" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D45" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F45">
         <v>47</v>
@@ -18842,13 +18920,13 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="8" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C46" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D46" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="F46">
         <v>30</v>
@@ -18868,13 +18946,13 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="8" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C47" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="D47" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="F47">
         <v>48</v>
@@ -18894,10 +18972,10 @@
         <v>600809</v>
       </c>
       <c r="C48" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="D48" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="F48">
         <v>263</v>
@@ -18917,10 +18995,10 @@
         <v>600779</v>
       </c>
       <c r="C49" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D49" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
@@ -18943,7 +19021,7 @@
         <v>600059</v>
       </c>
       <c r="C51" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F51">
         <v>58</v>
@@ -18960,7 +19038,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -18968,10 +19046,10 @@
         <v>600962</v>
       </c>
       <c r="C55" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="D55" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F55">
         <v>20</v>
@@ -18994,10 +19072,10 @@
         <v>603156</v>
       </c>
       <c r="C56" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D56" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F56">
         <v>133</v>
@@ -19017,10 +19095,10 @@
         <v>605388</v>
       </c>
       <c r="C57" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="D57" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="F57">
         <v>21</v>
@@ -19040,10 +19118,10 @@
         <v>600616</v>
       </c>
       <c r="C58" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="D58" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="F58">
         <v>22</v>
@@ -19066,7 +19144,7 @@
         <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F59">
         <v>12</v>

--- a/A股.xlsx
+++ b/A股.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6530" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="18530" windowHeight="7130" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1420">
   <si>
     <t>上海环境</t>
   </si>
@@ -2401,6 +2401,12 @@
   </si>
   <si>
     <t>电子元件龙头</t>
+  </si>
+  <si>
+    <t>整车</t>
+  </si>
+  <si>
+    <t>江淮汽车</t>
   </si>
   <si>
     <t>汽车零部件</t>
@@ -6299,12 +6305,12 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -6325,394 +6331,404 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>789</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>790</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="F3">
+      <c r="C8" t="s">
+        <v>792</v>
+      </c>
+      <c r="D8" t="s">
+        <v>793</v>
+      </c>
+      <c r="F8">
         <v>56</v>
       </c>
-      <c r="G3">
+      <c r="G8">
         <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>300496</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F4">
-        <v>64</v>
-      </c>
-      <c r="G4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
-        <v>600699</v>
-      </c>
-      <c r="C5" t="s">
-        <v>793</v>
-      </c>
-      <c r="D5" t="s">
-        <v>794</v>
-      </c>
-      <c r="F5">
-        <v>526</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
-        <v>603730</v>
-      </c>
-      <c r="C6" t="s">
-        <v>795</v>
-      </c>
-      <c r="D6" t="s">
-        <v>796</v>
-      </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7">
-        <v>603197</v>
-      </c>
-      <c r="C7" t="s">
-        <v>797</v>
-      </c>
-      <c r="D7" t="s">
-        <v>798</v>
-      </c>
-      <c r="F7">
-        <v>52</v>
-      </c>
-      <c r="G7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8">
-        <v>601799</v>
-      </c>
-      <c r="C8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D8" t="s">
-        <v>800</v>
-      </c>
-      <c r="F8">
-        <v>113</v>
-      </c>
-      <c r="G8">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>603997</v>
+        <v>300496</v>
       </c>
       <c r="C9" t="s">
-        <v>801</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="F9">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>300428</v>
+        <v>600699</v>
       </c>
       <c r="C10" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D10" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F10">
-        <v>133</v>
+        <v>526</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
+        <v>603730</v>
+      </c>
+      <c r="C11" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F11">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>603197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>799</v>
+      </c>
+      <c r="D12" t="s">
+        <v>800</v>
+      </c>
+      <c r="F12">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>601799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>801</v>
+      </c>
+      <c r="D13" t="s">
+        <v>802</v>
+      </c>
+      <c r="F13">
+        <v>113</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>603997</v>
+      </c>
+      <c r="C14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D14" t="s">
+        <v>804</v>
+      </c>
+      <c r="F14">
+        <v>167</v>
+      </c>
+      <c r="G14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>300428</v>
+      </c>
+      <c r="C15" t="s">
+        <v>805</v>
+      </c>
+      <c r="D15" t="s">
+        <v>806</v>
+      </c>
+      <c r="F15">
+        <v>133</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16">
         <v>603949</v>
       </c>
-      <c r="C11" t="s">
-        <v>805</v>
-      </c>
-      <c r="D11" t="s">
-        <v>806</v>
-      </c>
-      <c r="F11">
+      <c r="C16" t="s">
+        <v>807</v>
+      </c>
+      <c r="D16" t="s">
+        <v>808</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G16">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>809</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="F17">
+      <c r="C22" t="s">
+        <v>811</v>
+      </c>
+      <c r="D22" t="s">
+        <v>812</v>
+      </c>
+      <c r="F22">
         <v>84</v>
       </c>
-      <c r="G17">
+      <c r="G22">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8" t="s">
+    <row r="25" spans="2:7">
+      <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>811</v>
-      </c>
-      <c r="F20">
+      <c r="D25" t="s">
+        <v>813</v>
+      </c>
+      <c r="F25">
         <v>124</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
+    <row r="27" spans="2:7">
+      <c r="B27">
         <v>300742</v>
       </c>
-      <c r="C22" t="s">
-        <v>812</v>
-      </c>
-      <c r="D22" t="s">
-        <v>813</v>
-      </c>
-      <c r="F22">
+      <c r="C27" t="s">
+        <v>814</v>
+      </c>
+      <c r="D27" t="s">
+        <v>815</v>
+      </c>
+      <c r="F27">
         <v>16</v>
       </c>
-      <c r="G22">
+      <c r="G27">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>816</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="F27">
+      <c r="C32" t="s">
+        <v>818</v>
+      </c>
+      <c r="D32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F32">
         <v>21</v>
       </c>
-      <c r="G27">
+      <c r="G32">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="C28" t="s">
-        <v>819</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="F28">
+      <c r="C33" t="s">
+        <v>821</v>
+      </c>
+      <c r="D33" t="s">
+        <v>822</v>
+      </c>
+      <c r="F33">
         <v>92</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29">
+    <row r="34" spans="2:8">
+      <c r="B34">
         <v>300458</v>
       </c>
-      <c r="C29" t="s">
-        <v>821</v>
-      </c>
-      <c r="D29" t="s">
-        <v>822</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C34" t="s">
         <v>823</v>
       </c>
-      <c r="F29">
+      <c r="D34" t="s">
+        <v>824</v>
+      </c>
+      <c r="E34" t="s">
+        <v>825</v>
+      </c>
+      <c r="F34">
         <v>32</v>
       </c>
-      <c r="G29">
+      <c r="G34">
         <v>60</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="C30" t="s">
-        <v>825</v>
-      </c>
-      <c r="F30">
-        <v>24</v>
-      </c>
-      <c r="G30">
-        <v>50</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
-        <v>300188</v>
-      </c>
-      <c r="C31" t="s">
-        <v>826</v>
-      </c>
-      <c r="F31">
-        <v>42</v>
-      </c>
-      <c r="G31">
-        <v>42</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32">
-        <v>300735</v>
-      </c>
-      <c r="C32" t="s">
-        <v>827</v>
-      </c>
-      <c r="D32" t="s">
-        <v>828</v>
-      </c>
-      <c r="F32">
-        <v>58</v>
-      </c>
-      <c r="G32">
-        <v>47</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
-        <v>600081</v>
-      </c>
-      <c r="C33" t="s">
-        <v>829</v>
-      </c>
-      <c r="D33" t="s">
-        <v>830</v>
-      </c>
-      <c r="F33">
-        <v>95</v>
-      </c>
-      <c r="G33">
-        <v>64</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="C34" t="s">
-        <v>832</v>
-      </c>
-      <c r="D34" t="s">
-        <v>833</v>
-      </c>
-      <c r="F34">
-        <v>41</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C35" t="s">
+        <v>827</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36">
+        <v>300188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>828</v>
+      </c>
+      <c r="F36">
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37">
+        <v>300735</v>
+      </c>
+      <c r="C37" t="s">
+        <v>829</v>
+      </c>
+      <c r="D37" t="s">
+        <v>830</v>
+      </c>
+      <c r="F37">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>47</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>600081</v>
+      </c>
+      <c r="C38" t="s">
+        <v>831</v>
+      </c>
+      <c r="D38" t="s">
+        <v>832</v>
+      </c>
+      <c r="F38">
+        <v>95</v>
+      </c>
+      <c r="G38">
+        <v>64</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C39" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35">
+      <c r="D39" t="s">
+        <v>835</v>
+      </c>
+      <c r="F39">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
         <v>300807</v>
       </c>
-      <c r="C35" t="s">
-        <v>835</v>
-      </c>
-      <c r="D35" t="s">
-        <v>836</v>
-      </c>
-      <c r="F35">
+      <c r="C40" t="s">
+        <v>837</v>
+      </c>
+      <c r="D40" t="s">
+        <v>838</v>
+      </c>
+      <c r="F40">
         <v>7</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G40" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6752,17 +6768,17 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -6770,10 +6786,10 @@
         <v>600351</v>
       </c>
       <c r="C13" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D13" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H13">
         <v>38</v>
@@ -6784,13 +6800,13 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C14" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D14" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -6807,10 +6823,10 @@
         <v>603439</v>
       </c>
       <c r="C15" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D15" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -6827,10 +6843,10 @@
         <v>603567</v>
       </c>
       <c r="C16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D16" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -6844,13 +6860,13 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C17" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D17" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H17">
         <v>54</v>
@@ -6859,7 +6875,7 @@
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -6867,13 +6883,13 @@
         <v>600976</v>
       </c>
       <c r="C18" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D18" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E18" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H18">
         <v>26</v>
@@ -6882,7 +6898,7 @@
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -6890,13 +6906,13 @@
         <v>603896</v>
       </c>
       <c r="C19" t="s">
+        <v>859</v>
+      </c>
+      <c r="D19" t="s">
+        <v>860</v>
+      </c>
+      <c r="E19" t="s">
         <v>857</v>
-      </c>
-      <c r="D19" t="s">
-        <v>858</v>
-      </c>
-      <c r="E19" t="s">
-        <v>855</v>
       </c>
       <c r="H19">
         <v>18</v>
@@ -6905,7 +6921,7 @@
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -6913,10 +6929,10 @@
         <v>605199</v>
       </c>
       <c r="C20" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D20" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -6930,10 +6946,10 @@
         <v>300039</v>
       </c>
       <c r="C21" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D21" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H21">
         <v>32</v>
@@ -6944,13 +6960,13 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C22" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D22" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="H22">
         <v>12</v>
@@ -6959,10 +6975,10 @@
         <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K22" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -6973,10 +6989,10 @@
         <v>600572</v>
       </c>
       <c r="C23" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D23" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H23">
         <v>88</v>
@@ -6985,7 +7001,7 @@
         <v>92</v>
       </c>
       <c r="J23" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -6993,10 +7009,10 @@
         <v>603139</v>
       </c>
       <c r="C24" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D24" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H24">
         <v>17</v>
@@ -7005,7 +7021,7 @@
         <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -7013,10 +7029,10 @@
         <v>600211</v>
       </c>
       <c r="C25" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -7028,18 +7044,18 @@
         <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="8" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C26" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D26" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H26">
         <v>17</v>
@@ -7053,13 +7069,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="8" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C27" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D27" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H27">
         <v>53</v>
@@ -7073,10 +7089,10 @@
         <v>301111</v>
       </c>
       <c r="C28" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D28" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -7090,10 +7106,10 @@
         <v>600080</v>
       </c>
       <c r="C29" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D29" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H29">
         <v>19</v>
@@ -7102,18 +7118,18 @@
         <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C30" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D30" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H30">
         <v>27</v>
@@ -7122,7 +7138,7 @@
         <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -7130,10 +7146,10 @@
         <v>600750</v>
       </c>
       <c r="C31" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D31" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H31">
         <v>55</v>
@@ -7144,13 +7160,13 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="8" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C32" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D32" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H32">
         <v>20</v>
@@ -7159,18 +7175,18 @@
         <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="8" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C33" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D33" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H33">
         <v>53</v>
@@ -7179,7 +7195,7 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -7187,10 +7203,10 @@
         <v>300878</v>
       </c>
       <c r="C34" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D34" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E34" t="s">
         <v>1</v>
@@ -7207,10 +7223,10 @@
         <v>600436</v>
       </c>
       <c r="C35" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D35" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H35">
         <v>119</v>
@@ -7219,18 +7235,18 @@
         <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C36" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D36" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H36">
         <v>9</v>
@@ -7239,7 +7255,7 @@
         <v>51</v>
       </c>
       <c r="J36" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -7247,10 +7263,10 @@
         <v>300108</v>
       </c>
       <c r="C37" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="D37" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H37">
         <v>25</v>
@@ -7259,7 +7275,7 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -7267,10 +7283,10 @@
         <v>603998</v>
       </c>
       <c r="C38" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D38" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="H38">
         <v>25</v>
@@ -7284,13 +7300,13 @@
         <v>600479</v>
       </c>
       <c r="C39" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D39" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E39" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H39">
         <v>40</v>
@@ -7304,10 +7320,10 @@
         <v>600557</v>
       </c>
       <c r="C40" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D40" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H40">
         <v>57</v>
@@ -7318,13 +7334,13 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="8" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C41" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D41" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E41" t="s">
         <v>1</v>
@@ -7336,7 +7352,7 @@
         <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -7344,10 +7360,10 @@
         <v>600594</v>
       </c>
       <c r="C42" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D42" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="H42">
         <v>54</v>
@@ -7361,10 +7377,10 @@
         <v>600222</v>
       </c>
       <c r="C43" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D43" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H43">
         <v>38</v>
@@ -7378,13 +7394,13 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="8" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -7398,13 +7414,13 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C45" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D45" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H45">
         <v>19</v>
@@ -7413,7 +7429,7 @@
         <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="46" spans="2:10">
@@ -7421,10 +7437,10 @@
         <v>603963</v>
       </c>
       <c r="C46" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D46" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H46">
         <v>5</v>
@@ -7433,18 +7449,18 @@
         <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="8" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C47" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D47" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H47">
         <v>96</v>
@@ -7453,7 +7469,7 @@
         <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -7461,10 +7477,10 @@
         <v>300519</v>
       </c>
       <c r="C48" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D48" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="H48">
         <v>8</v>
@@ -7478,10 +7494,10 @@
         <v>300181</v>
       </c>
       <c r="C49" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D49" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="H49">
         <v>33</v>
@@ -7490,7 +7506,7 @@
         <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -7498,10 +7514,10 @@
         <v>600129</v>
       </c>
       <c r="C50" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D50" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H50">
         <v>134</v>
@@ -7510,18 +7526,18 @@
         <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="8" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C51" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D51" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H51">
         <v>12</v>
@@ -7535,13 +7551,13 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="8" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C52" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D52" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
@@ -7553,18 +7569,18 @@
         <v>9</v>
       </c>
       <c r="J52" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="8" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C53" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D53" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
@@ -7581,13 +7597,13 @@
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="8" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C54" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D54" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H54">
         <v>15</v>
@@ -7601,16 +7617,16 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="8" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C55" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D55" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E55" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H55">
         <v>65</v>
@@ -7624,13 +7640,13 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="8" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C56" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D56" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H56">
         <v>31</v>
@@ -7647,10 +7663,10 @@
         <v>600771</v>
       </c>
       <c r="C57" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D57" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H57">
         <v>33</v>
@@ -7664,13 +7680,13 @@
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="8" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C58" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D58" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H58">
         <v>41</v>
@@ -7687,10 +7703,10 @@
         <v>300534</v>
       </c>
       <c r="C59" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D59" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="H59">
         <v>8</v>
@@ -7704,12 +7720,12 @@
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -7717,13 +7733,13 @@
         <v>300086</v>
       </c>
       <c r="C65" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D65" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E65" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G65">
         <v>36</v>
@@ -7743,13 +7759,13 @@
         <v>300254</v>
       </c>
       <c r="C66" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D66" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E66" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G66">
         <v>16</v>
@@ -7772,10 +7788,10 @@
         <v>301211</v>
       </c>
       <c r="C67" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D67" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G67">
         <v>84</v>
@@ -7795,10 +7811,10 @@
         <v>603351</v>
       </c>
       <c r="C68" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="D68" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="E68" t="s">
         <v>222</v>
@@ -7812,13 +7828,13 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="8" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C69" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D69" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="H69">
         <v>78</v>
@@ -7832,10 +7848,10 @@
         <v>301089</v>
       </c>
       <c r="C70" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D70" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G70">
         <v>80</v>
@@ -7855,10 +7871,10 @@
         <v>300702</v>
       </c>
       <c r="C71" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D71" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H71">
         <v>55</v>
@@ -7872,13 +7888,13 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="8" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C72" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D72" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G72">
         <v>69</v>
@@ -7898,13 +7914,13 @@
     </row>
     <row r="73" spans="2:9">
       <c r="B73" s="8" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C73" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D73" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H73">
         <v>91</v>
@@ -7918,10 +7934,10 @@
         <v>300966</v>
       </c>
       <c r="C74" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D74" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G74">
         <v>44</v>
@@ -7941,10 +7957,10 @@
         <v>301075</v>
       </c>
       <c r="C75" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D75" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -7961,10 +7977,10 @@
         <v>300255</v>
       </c>
       <c r="C76" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D76" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G76">
         <v>72</v>
@@ -7984,10 +8000,10 @@
         <v>300381</v>
       </c>
       <c r="C77" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D77" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="G77">
         <v>55</v>
@@ -8004,10 +8020,10 @@
         <v>300233</v>
       </c>
       <c r="C78" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D78" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G78">
         <v>110</v>
@@ -8024,10 +8040,10 @@
         <v>300111</v>
       </c>
       <c r="C79" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D79" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="G79">
         <v>33</v>
@@ -8047,13 +8063,13 @@
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="8" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C80" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="D80" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E80" t="s">
         <v>1</v>
@@ -8073,10 +8089,10 @@
         <v>603367</v>
       </c>
       <c r="C81" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="D81" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G81">
         <v>42</v>
@@ -8096,10 +8112,10 @@
         <v>300497</v>
       </c>
       <c r="C82" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D82" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="G82">
         <v>88</v>
@@ -8116,13 +8132,13 @@
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="8" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C83" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D83" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G83">
         <v>17</v>
@@ -8145,10 +8161,10 @@
         <v>300006</v>
       </c>
       <c r="C84" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D84" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="G84">
         <v>60</v>
@@ -8171,10 +8187,10 @@
         <v>300194</v>
       </c>
       <c r="C85" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D85" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="G85">
         <v>55</v>
@@ -8194,13 +8210,13 @@
         <v>300436</v>
       </c>
       <c r="C86" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D86" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E86" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="G86">
         <v>70</v>
@@ -8217,13 +8233,13 @@
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="8" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C87" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D87" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="G87">
         <v>36</v>
@@ -8243,10 +8259,10 @@
         <v>300765</v>
       </c>
       <c r="C88" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D88" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="G88">
         <v>80</v>
@@ -8263,10 +8279,10 @@
         <v>300583</v>
       </c>
       <c r="C89" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D89" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G89">
         <v>24</v>
@@ -8289,10 +8305,10 @@
         <v>600789</v>
       </c>
       <c r="C90" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D90" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E90" t="s">
         <v>1</v>
@@ -8318,10 +8334,10 @@
         <v>603168</v>
       </c>
       <c r="C91" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D91" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E91" t="s">
         <v>1</v>
@@ -8344,13 +8360,13 @@
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="8" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C92" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D92" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="E92" t="s">
         <v>1</v>
@@ -8376,10 +8392,10 @@
         <v>600513</v>
       </c>
       <c r="C93" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D93" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -8396,10 +8412,10 @@
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="8" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C94" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="G94">
         <v>20</v>
@@ -8416,13 +8432,13 @@
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="8" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C95" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D95" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="G95">
         <v>30</v>
@@ -8439,13 +8455,13 @@
     </row>
     <row r="96" spans="2:9">
       <c r="B96" s="8" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C96" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="D96" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="G96">
         <v>88</v>
@@ -8462,10 +8478,10 @@
         <v>600774</v>
       </c>
       <c r="C97" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="D97" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
@@ -8491,10 +8507,10 @@
         <v>600488</v>
       </c>
       <c r="C98" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D98" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="G98">
         <v>50</v>
@@ -8514,13 +8530,13 @@
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="8" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C99" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D99" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="G99">
         <v>36</v>
@@ -8537,13 +8553,13 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="8" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C100" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D100" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="G100">
         <v>27</v>
@@ -8560,10 +8576,10 @@
         <v>605177</v>
       </c>
       <c r="C101" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D101" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="G101">
         <v>30</v>
@@ -8586,10 +8602,10 @@
         <v>300267</v>
       </c>
       <c r="C102" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D102" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="G102">
         <v>94</v>
@@ -8603,13 +8619,13 @@
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="8" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C103" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D103" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G103">
         <v>35</v>
@@ -8629,13 +8645,13 @@
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="8" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C104" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D104" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="G104">
         <v>40</v>
@@ -8658,10 +8674,10 @@
         <v>300401</v>
       </c>
       <c r="C105" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D105" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="G105">
         <v>78</v>
@@ -8673,7 +8689,7 @@
         <v>25</v>
       </c>
       <c r="K105" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="106" spans="2:9">
@@ -8681,10 +8697,10 @@
         <v>603538</v>
       </c>
       <c r="C106" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D106" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G106">
         <v>51</v>
@@ -8698,13 +8714,13 @@
     </row>
     <row r="107" spans="2:9">
       <c r="B107" s="8" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C107" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D107" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="G107">
         <v>61</v>
@@ -8721,10 +8737,10 @@
         <v>300110</v>
       </c>
       <c r="C108" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D108" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G108">
         <v>56</v>
@@ -8744,13 +8760,13 @@
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="8" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C109" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D109" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G109">
         <v>38</v>
@@ -8770,10 +8786,10 @@
         <v>300016</v>
       </c>
       <c r="C110" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D110" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="G110">
         <v>45</v>
@@ -8787,13 +8803,13 @@
     </row>
     <row r="111" spans="2:9">
       <c r="B111" s="8" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C111" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D111" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G111">
         <v>60</v>
@@ -8807,13 +8823,13 @@
     </row>
     <row r="112" spans="2:9">
       <c r="B112" s="8" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C112" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D112" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="G112">
         <v>85</v>
@@ -8830,10 +8846,10 @@
         <v>600613</v>
       </c>
       <c r="C113" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D113" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G113">
         <v>34</v>
@@ -8850,18 +8866,18 @@
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="8" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C114" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="8" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C115" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -8869,18 +8885,18 @@
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="8" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C116" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="8" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C117" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -8891,7 +8907,7 @@
         <v>300497</v>
       </c>
       <c r="C118" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="119" spans="2:3">
@@ -8899,12 +8915,12 @@
         <v>300485</v>
       </c>
       <c r="C119" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="123" spans="2:10">
@@ -8912,10 +8928,10 @@
         <v>600807</v>
       </c>
       <c r="C123" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D123" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="G123">
         <v>36</v>
@@ -8932,13 +8948,13 @@
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="8" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C124" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D124" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G124">
         <v>61</v>
@@ -8958,10 +8974,10 @@
         <v>300165</v>
       </c>
       <c r="C125" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D125" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="G125">
         <v>40</v>
@@ -8978,10 +8994,10 @@
         <v>301060</v>
       </c>
       <c r="C126" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D126" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="G126">
         <v>136</v>
@@ -9001,10 +9017,10 @@
         <v>300683</v>
       </c>
       <c r="C127" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D127" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="G127">
         <v>72</v>
@@ -9021,10 +9037,10 @@
         <v>603716</v>
       </c>
       <c r="C128" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D128" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="G128">
         <v>28</v>
@@ -9044,10 +9060,10 @@
         <v>301087</v>
       </c>
       <c r="C129" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D129" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="G129">
         <v>130</v>
@@ -9064,10 +9080,10 @@
         <v>300030</v>
       </c>
       <c r="C130" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D130" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="G130">
         <v>32</v>
@@ -9087,10 +9103,10 @@
         <v>300396</v>
       </c>
       <c r="C131" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D131" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="G131">
         <v>48</v>
@@ -9107,10 +9123,10 @@
         <v>300832</v>
       </c>
       <c r="C132" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D132" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="G132">
         <v>32</v>
@@ -9127,10 +9143,10 @@
         <v>300003</v>
       </c>
       <c r="C133" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D133" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G133">
         <v>300</v>
@@ -9147,13 +9163,13 @@
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="8" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C134" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D134" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="G134">
         <v>65</v>
@@ -9173,10 +9189,10 @@
         <v>300676</v>
       </c>
       <c r="C135" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D135" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E135" t="s">
         <v>1</v>
@@ -9196,13 +9212,13 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="8" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C136" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D136" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G136">
         <v>280</v>
@@ -9222,10 +9238,10 @@
         <v>300318</v>
       </c>
       <c r="C137" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D137" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G137">
         <v>80</v>
@@ -9242,10 +9258,10 @@
         <v>300642</v>
       </c>
       <c r="C138" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D138" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G138">
         <v>50</v>
@@ -9265,10 +9281,10 @@
         <v>603108</v>
       </c>
       <c r="C139" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D139" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="G139">
         <v>75</v>
@@ -9288,10 +9304,10 @@
         <v>300482</v>
       </c>
       <c r="C140" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D140" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G140">
         <v>176</v>
@@ -9311,10 +9327,10 @@
         <v>300463</v>
       </c>
       <c r="C141" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D141" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="G141">
         <v>160</v>
@@ -9334,10 +9350,10 @@
         <v>300012</v>
       </c>
       <c r="C142" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D142" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G142">
         <v>447</v>
@@ -9357,10 +9373,10 @@
         <v>603882</v>
       </c>
       <c r="C143" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D143" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="G143">
         <v>515</v>
@@ -9377,13 +9393,13 @@
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="8" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C144" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D144" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G144">
         <v>60</v>
@@ -9403,10 +9419,10 @@
         <v>300887</v>
       </c>
       <c r="C145" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D145" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G145">
         <v>90</v>
@@ -9426,10 +9442,10 @@
         <v>300639</v>
       </c>
       <c r="C146" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D146" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="G146">
         <v>87</v>
@@ -9449,10 +9465,10 @@
         <v>300298</v>
       </c>
       <c r="C147" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D147" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="G147">
         <v>170</v>
@@ -9466,13 +9482,13 @@
     </row>
     <row r="148" spans="2:9">
       <c r="B148" s="8" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C148" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D148" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="G148">
         <v>50</v>
@@ -9489,10 +9505,10 @@
         <v>603222</v>
       </c>
       <c r="C149" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D149" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G149">
         <v>60</v>
@@ -9512,10 +9528,10 @@
         <v>300046</v>
       </c>
       <c r="C150" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D150" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G150">
         <v>120</v>
@@ -9535,10 +9551,10 @@
         <v>603718</v>
       </c>
       <c r="C151" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D151" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="G151">
         <v>100</v>
@@ -9558,10 +9574,10 @@
         <v>300439</v>
       </c>
       <c r="C152" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D152" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G152">
         <v>106</v>
@@ -9578,7 +9594,7 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="156" spans="2:9">
@@ -9586,10 +9602,10 @@
         <v>600688</v>
       </c>
       <c r="C156" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D156" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="G156">
         <v>70</v>
@@ -9603,13 +9619,13 @@
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="8" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C157" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D157" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="F157">
         <v>46</v>
@@ -9632,10 +9648,10 @@
         <v>300261</v>
       </c>
       <c r="C158" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D158" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F158">
         <v>259</v>
@@ -9658,10 +9674,10 @@
         <v>300497</v>
       </c>
       <c r="C159" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D159" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="F159">
         <v>101</v>
@@ -9681,18 +9697,18 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="162" spans="2:10">
       <c r="B162" s="8" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C162" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D162" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="F162">
         <v>173</v>
@@ -9715,10 +9731,10 @@
         <v>300683</v>
       </c>
       <c r="C163" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D163" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="I163">
         <v>2012</v>
@@ -9726,7 +9742,7 @@
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="167" spans="2:9">
@@ -9734,10 +9750,10 @@
         <v>301089</v>
       </c>
       <c r="C167" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D167" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F167">
         <v>38</v>
@@ -9757,10 +9773,10 @@
         <v>600267</v>
       </c>
       <c r="C168" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D168" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F168">
         <v>154</v>
@@ -9783,10 +9799,10 @@
         <v>300436</v>
       </c>
       <c r="C169" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D169" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F169">
         <v>58</v>
@@ -9806,7 +9822,7 @@
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -9850,18 +9866,18 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C3" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F3">
         <v>61</v>
@@ -9872,16 +9888,16 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C4" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D4" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="F4" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -9895,10 +9911,10 @@
         <v>600716</v>
       </c>
       <c r="C5" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F5">
         <v>77</v>
@@ -9909,13 +9925,13 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="8" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C6" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D6" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="F6">
         <v>187</v>
@@ -9929,10 +9945,10 @@
         <v>600684</v>
       </c>
       <c r="C7" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D7" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="F7">
         <v>333</v>
@@ -9943,13 +9959,13 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C8" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D8" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F8">
         <v>198</v>
@@ -9963,10 +9979,10 @@
         <v>600565</v>
       </c>
       <c r="C9" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D9" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F9">
         <v>928</v>
@@ -9977,13 +9993,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C10" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D10" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="F10">
         <v>3944</v>
@@ -9994,13 +10010,13 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="8" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C11" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D11" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -10011,13 +10027,13 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="C12" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="D12" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="F12">
         <v>130</v>
@@ -10031,10 +10047,10 @@
         <v>600743</v>
       </c>
       <c r="C13" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D13" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F13">
         <v>634</v>
@@ -10045,13 +10061,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C20" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D20" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F20">
         <v>22</v>
@@ -10062,13 +10078,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="C21" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D21" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -10079,13 +10095,13 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="8" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C22" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D22" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F22">
         <v>97</v>
@@ -10099,10 +10115,10 @@
         <v>600173</v>
       </c>
       <c r="C23" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D23" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -10116,10 +10132,10 @@
         <v>600503</v>
       </c>
       <c r="C24" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D24" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F24">
         <v>53</v>
@@ -10133,13 +10149,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="8" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C25" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D25" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F25">
         <v>74</v>
@@ -10153,10 +10169,10 @@
         <v>600641</v>
       </c>
       <c r="C26" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D26" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="F26">
         <v>78</v>
@@ -10170,10 +10186,10 @@
         <v>600246</v>
       </c>
       <c r="C27" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D27" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -10217,7 +10233,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -10225,10 +10241,10 @@
         <v>301066</v>
       </c>
       <c r="C3" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -10239,13 +10255,13 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C4" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D4" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -10259,10 +10275,10 @@
         <v>300005</v>
       </c>
       <c r="C5" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D5" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -10276,10 +10292,10 @@
         <v>605599</v>
       </c>
       <c r="C6" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D6" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -10290,7 +10306,7 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -10301,7 +10317,7 @@
         <v>543</v>
       </c>
       <c r="D13" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -10315,10 +10331,10 @@
         <v>300830</v>
       </c>
       <c r="C14" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D14" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -10335,10 +10351,10 @@
         <v>600158</v>
       </c>
       <c r="C15" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D15" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="G15">
         <v>53</v>
@@ -10352,13 +10368,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="8" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C17" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D17" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -10372,10 +10388,10 @@
         <v>301043</v>
       </c>
       <c r="C20" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D20" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -10386,13 +10402,13 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="8" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C22" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D22" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="F22">
         <v>48</v>
@@ -10415,10 +10431,10 @@
         <v>487</v>
       </c>
       <c r="D24" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E24" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F24">
         <v>126</v>
@@ -10438,10 +10454,10 @@
         <v>605299</v>
       </c>
       <c r="C27" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D27" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -10455,13 +10471,13 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="8" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C28" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="D28" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G28">
         <v>12</v>
@@ -10475,13 +10491,13 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="8" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C29" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D29" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -10521,23 +10537,23 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="D3" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="F3">
         <v>156</v>
@@ -10551,13 +10567,13 @@
         <v>600854</v>
       </c>
       <c r="C4" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D4" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -10574,10 +10590,10 @@
         <v>600983</v>
       </c>
       <c r="C5" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D5" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F5">
         <v>63</v>
@@ -10594,10 +10610,10 @@
         <v>301008</v>
       </c>
       <c r="C13" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D13" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="F13">
         <v>13</v>
@@ -10611,10 +10627,10 @@
         <v>603677</v>
       </c>
       <c r="C14" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="D14" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -10628,10 +10644,10 @@
         <v>603311</v>
       </c>
       <c r="C15" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D15" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -10642,13 +10658,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C16" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D16" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -10671,10 +10687,10 @@
         <v>603726</v>
       </c>
       <c r="C17" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D17" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -10694,10 +10710,10 @@
         <v>601956</v>
       </c>
       <c r="C18" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D18" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F18">
         <v>70</v>
@@ -10708,13 +10724,13 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="8" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C19" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="D19" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -10731,10 +10747,10 @@
         <v>600619</v>
       </c>
       <c r="C20" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="D20" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="F20">
         <v>206</v>
@@ -10745,13 +10761,13 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C21" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="D21" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F21">
         <v>16</v>
@@ -10771,10 +10787,10 @@
         <v>603519</v>
       </c>
       <c r="C22" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D22" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -10788,10 +10804,10 @@
         <v>300342</v>
       </c>
       <c r="C23" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D23" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -10805,10 +10821,10 @@
         <v>600336</v>
       </c>
       <c r="C24" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D24" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="E24" t="s">
         <v>1</v>
@@ -10828,10 +10844,10 @@
         <v>300403</v>
       </c>
       <c r="C25" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D25" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F25">
         <v>22</v>
@@ -10842,13 +10858,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="8" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C26" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D26" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -10865,10 +10881,10 @@
         <v>300160</v>
       </c>
       <c r="C27" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="D27" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="F27">
         <v>18</v>
@@ -10882,10 +10898,10 @@
         <v>603578</v>
       </c>
       <c r="C28" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D28" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F28">
         <v>12</v>
@@ -10899,10 +10915,10 @@
         <v>300217</v>
       </c>
       <c r="C29" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="D29" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F29">
         <v>46</v>
@@ -10916,16 +10932,16 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="8" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C30" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="D30" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E30" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="F30">
         <v>19</v>
@@ -10942,10 +10958,10 @@
         <v>603657</v>
       </c>
       <c r="C32" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D32" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -10959,10 +10975,10 @@
         <v>301008</v>
       </c>
       <c r="C33" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D33" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -10996,7 +11012,7 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="C1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F1" t="s">
         <v>217</v>
@@ -11011,12 +11027,12 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -11024,13 +11040,13 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C3" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D3" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="G3">
         <v>37</v>
@@ -11053,10 +11069,10 @@
         <v>300966</v>
       </c>
       <c r="C4" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D4" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G4">
         <v>40</v>
@@ -11073,13 +11089,13 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="8" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C5" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D5" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="G5">
         <v>43</v>
@@ -11093,13 +11109,13 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C6" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="D6" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="G6">
         <v>66</v>
@@ -11119,10 +11135,10 @@
         <v>603990</v>
       </c>
       <c r="C7" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D7" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G7">
         <v>37</v>
@@ -11142,10 +11158,10 @@
         <v>300436</v>
       </c>
       <c r="C8" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="G8">
         <v>71</v>
@@ -11165,10 +11181,10 @@
         <v>300314</v>
       </c>
       <c r="C9" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D9" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -11188,13 +11204,13 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="8" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C10" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D10" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -11214,10 +11230,10 @@
         <v>600824</v>
       </c>
       <c r="C11" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D11" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G11">
         <v>40</v>
@@ -11237,10 +11253,10 @@
         <v>600327</v>
       </c>
       <c r="C12" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D12" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G12">
         <v>53</v>
@@ -11260,10 +11276,10 @@
         <v>603168</v>
       </c>
       <c r="C13" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D13" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G13">
         <v>36</v>
@@ -11280,7 +11296,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -11294,10 +11310,10 @@
         <v>600597</v>
       </c>
       <c r="C15" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="D15" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G15">
         <v>182</v>
@@ -11311,13 +11327,13 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="8" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C16" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D16" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G16">
         <v>57</v>
@@ -11337,10 +11353,10 @@
         <v>600429</v>
       </c>
       <c r="C17" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D17" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G17">
         <v>90</v>
@@ -11363,10 +11379,10 @@
         <v>300106</v>
       </c>
       <c r="C18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D18" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -11383,7 +11399,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -11391,13 +11407,13 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="8" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C20" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D20" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -11423,10 +11439,10 @@
         <v>603214</v>
       </c>
       <c r="C21" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="D21" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G21">
         <v>32</v>
@@ -11452,7 +11468,7 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G22">
         <v>21</v>
@@ -11469,10 +11485,10 @@
         <v>605009</v>
       </c>
       <c r="C23" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="D23" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G23">
         <v>91</v>
@@ -11492,10 +11508,10 @@
         <v>603839</v>
       </c>
       <c r="C24" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D24" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G24">
         <v>35</v>
@@ -11512,10 +11528,10 @@
         <v>301009</v>
       </c>
       <c r="C25" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="D25" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -11541,10 +11557,10 @@
         <v>300955</v>
       </c>
       <c r="C26" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D26" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G26">
         <v>37</v>
@@ -11561,10 +11577,10 @@
         <v>300995</v>
       </c>
       <c r="C27" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="D27" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -11587,10 +11603,10 @@
         <v>301078</v>
       </c>
       <c r="C28" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="D28" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F28">
         <v>14</v>
@@ -11610,10 +11626,10 @@
         <v>600315</v>
       </c>
       <c r="C29" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D29" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -11633,7 +11649,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -11644,10 +11660,10 @@
         <v>300723</v>
       </c>
       <c r="C31" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="D31" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G31">
         <v>94</v>
@@ -11664,13 +11680,13 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="8" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C32" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D32" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G32">
         <v>96</v>
@@ -11690,10 +11706,10 @@
         <v>300086</v>
       </c>
       <c r="C33" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D33" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="G33">
         <v>36</v>
@@ -11710,13 +11726,13 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="8" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C34" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D34" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="G34">
         <v>74</v>
@@ -11743,7 +11759,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -11751,13 +11767,13 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="8" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C38" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D38" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -11777,13 +11793,13 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="8" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C39" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="D39" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="G39">
         <v>41</v>
@@ -11810,7 +11826,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -11818,13 +11834,13 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="8" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C43" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D43" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -11847,10 +11863,10 @@
         <v>300901</v>
       </c>
       <c r="C44" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D44" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G44">
         <v>31</v>
@@ -11870,10 +11886,10 @@
         <v>603398</v>
       </c>
       <c r="C45" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D45" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G45">
         <v>122</v>
@@ -11890,7 +11906,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -11898,13 +11914,13 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="8" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C47" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="D47" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="G47">
         <v>22</v>
@@ -11921,10 +11937,10 @@
         <v>603398</v>
       </c>
       <c r="C48" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D48" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G48">
         <v>74</v>
@@ -11938,13 +11954,13 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="8" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C49" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D49" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G49">
         <v>96</v>
@@ -11961,13 +11977,13 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="8" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C50" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="D50" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G50">
         <v>17</v>
@@ -11987,10 +12003,10 @@
         <v>300994</v>
       </c>
       <c r="C51" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="D51" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F51">
         <v>19</v>
@@ -12035,7 +12051,7 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="C1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F1" t="s">
         <v>217</v>
@@ -12050,12 +12066,12 @@
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -12063,10 +12079,10 @@
         <v>300189</v>
       </c>
       <c r="C3" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="D3" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -12089,10 +12105,10 @@
         <v>600354</v>
       </c>
       <c r="C4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D4" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -12115,10 +12131,10 @@
         <v>300087</v>
       </c>
       <c r="C5" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="D5" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -12141,10 +12157,10 @@
         <v>600371</v>
       </c>
       <c r="C6" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="D6" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F6">
         <v>35</v>
@@ -12164,13 +12180,13 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="8" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C7" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D7" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F7">
         <v>191</v>
@@ -12190,13 +12206,13 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="8" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C8" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D8" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F8">
         <v>205</v>
@@ -12213,13 +12229,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="8" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C9" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D9" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F9">
         <v>54</v>
@@ -14266,7 +14282,7 @@
   <sheetPr/>
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
